--- a/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A856538A-BA16-0043-9B06-A4BB2FE5FFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DA1CF3-E8EE-2846-97AB-0B5AEA96266A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="5120" windowWidth="29900" windowHeight="12800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12180" yWindow="1520" windowWidth="29900" windowHeight="20220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Animals" sheetId="1" r:id="rId1"/>
     <sheet name="Samples" sheetId="2" r:id="rId2"/>
     <sheet name="Treatments" sheetId="3" r:id="rId3"/>
     <sheet name="Tissues" sheetId="4" r:id="rId4"/>
-    <sheet name="Infusions" sheetId="5" r:id="rId5"/>
+    <sheet name="Peak Annotation Files" sheetId="6" r:id="rId5"/>
+    <sheet name="Infusions" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -36,6 +37,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Unique identifier for the animal (mouse) the sample was collected from. MUST match the Animal ID in the Animal Table.
 </t>
@@ -45,6 +47,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">	-Lance Parsons</t>
         </r>
@@ -57,6 +60,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Genotype (optional)
@@ -71,6 +75,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Animal Body Weight (g) (optional)
@@ -85,6 +90,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>The infusion given to this animal.
@@ -98,31 +104,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Concentration(s) of infusate in this infusion solution (in mM).
-Multiple tracers in a single infusion should have concentrations specified as comma separated lists.
-	-Lance Parsons
-Correction based on issue #400:
-Multiple tracers in a single infusion should have concentrations specified as a semi-colon delimited list in the same order and cardinality as the list of semi-colon delimited tracer encodings in the Infusate column.
-	-Robert Leach</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Volume of infusate solution infused in microliters (ul) per minute, per gram of mouse body weight
@@ -136,13 +125,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Animal feeding status: have the mice been fasted or fed?
@@ -152,27 +142,37 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <scheme val="minor"/>
+            <family val="2"/>
           </rPr>
-          <t>Short, unique identifier for an animal treatment protocol. Details should be provided in the Treatments table.
-	-Lance Parsons</t>
+          <t xml:space="preserve">Short, unique identifier for an animal treatment protocol. Details should be provided in the Treatments table.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">	-Lance Parsons</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">An identifier for the "experiment", which is typically a collection of mice similar infusion parameters. this is loosely defined based on the person who did the infusions. Here, there is a consistant format: two initials for the lab member who did the infusion and then a number (date?)
 </t>
@@ -182,27 +182,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">	-Lance Parsons</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">A long form description for the study which may include the experimental design process, citations, and other relevant details
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">	-Lance Parsons</t>
         </r>
@@ -225,10 +205,19 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <scheme val="minor"/>
+            <family val="2"/>
           </rPr>
-          <t>Name of the sample, must match the sample name in AccuCor file
-	-Lance Parsons</t>
+          <t xml:space="preserve">Name of the sample, must match the sample name in AccuCor file
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">	-Lance Parsons</t>
         </r>
       </text>
     </comment>
@@ -239,6 +228,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Date the sample was collected (YYYY-MM-DD)
@@ -253,6 +243,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Name of researcher who collected the sample
@@ -267,6 +258,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Tissue type
@@ -283,6 +275,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Minutes after infusion that the sample was collected
@@ -297,6 +290,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Unique identifier for the animal (mouse) the sample was collected from. MUST match the Animal ID in the Animal Table.
@@ -321,6 +315,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Short, unique identifier for an animal treatment protocol. Must match the values provided in the Animals table.
 </t>
@@ -330,6 +325,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">	-Lance Parsons</t>
         </r>
@@ -342,6 +338,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">A thorough description of an animal treatment protocol. This will be useful for searching and filtering, so use standard terms and be as complete as possible.
 </t>
@@ -351,6 +348,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">	-Lance Parsons</t>
         </r>
@@ -363,6 +361,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>this is an example treatment.  If this applies to your animal, please use this treatment.  If this does not apply to your animal, please add a new treatment.  Be as descriptive as possible.
@@ -387,6 +386,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>@mneinast@princeton.edu @matthewmcbride@princeton.edu - I believe I have seen datasets with both "BAT" and "iBAT", which I likely have erroneously merged. Should we add "bat_inquinal" or similar?
@@ -416,6 +416,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Modified to match the description in issue #400 (apart from changing "Tracer column" (which doesn't exist) to "Infusate column"
@@ -428,21 +429,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="118">
-  <si>
-    <t>Animal ID</t>
-  </si>
-  <si>
-    <t>Animal Genotype</t>
-  </si>
-  <si>
-    <t>Animal Body Weight</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="122">
   <si>
     <t>Infusate</t>
-  </si>
-  <si>
-    <t>Tracer Concentrations</t>
   </si>
   <si>
     <t>Infusion Rate</t>
@@ -452,15 +441,6 @@
   </si>
   <si>
     <t>Animal Treatment</t>
-  </si>
-  <si>
-    <t>Study Name</t>
-  </si>
-  <si>
-    <t>Study Description</t>
-  </si>
-  <si>
-    <t>Sample Name</t>
   </si>
   <si>
     <t>Date Collected</t>
@@ -637,9 +617,6 @@
     <t>testicle</t>
   </si>
   <si>
-    <t>testical</t>
-  </si>
-  <si>
     <t>ovary</t>
   </si>
   <si>
@@ -647,9 +624,6 @@
   </si>
   <si>
     <t>tumor_nonspecific</t>
-  </si>
-  <si>
-    <t>nonspecified tumor - only use this if other information is unknown</t>
   </si>
   <si>
     <t>tumor_hct116</t>
@@ -663,6 +637,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Individual tracer compounds will be formatted: </t>
     </r>
@@ -703,6 +678,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Mixtures of compounds will be formatted: </t>
     </r>
@@ -720,6 +696,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>. tracer_mix_name is optional</t>
     </r>
@@ -746,9 +723,6 @@
     <t>WT</t>
   </si>
   <si>
-    <t>lysine-[13C6]</t>
-  </si>
-  <si>
     <t>obob_fasted</t>
   </si>
   <si>
@@ -756,9 +730,6 @@
   </si>
   <si>
     <t>Small OBOB</t>
-  </si>
-  <si>
-    <t>Infusion was actually 6 labeled tracers:  Histidine, Lysine, Methionine, Phenylalanine, Threonine, Tryptophan</t>
   </si>
   <si>
     <t>BAT-xz971</t>
@@ -823,6 +794,51 @@
   <si>
     <t>No manipulation besides what is already described in other fields.</t>
   </si>
+  <si>
+    <t>Animal Name</t>
+  </si>
+  <si>
+    <t>Genotype</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>lysine-[13C6][23.2]</t>
+  </si>
+  <si>
+    <t>unspecified tumor - only use this if other information is unknown</t>
+  </si>
+  <si>
+    <t>Peak Annotation File</t>
+  </si>
+  <si>
+    <t>File Format</t>
+  </si>
+  <si>
+    <t>Default Sequence Name</t>
+  </si>
+  <si>
+    <t>DataRepo/data/tests/small_obob/small_obob_maven_6eaas_inf_req_prefix.xlsx</t>
+  </si>
+  <si>
+    <t>accucor</t>
+  </si>
+  <si>
+    <t>Anonymous, polar-HILIC-25-min, unknown, 1972-11-24</t>
+  </si>
 </sst>
 </file>
 
@@ -831,7 +847,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -843,40 +859,47 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF9900"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF34A853"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -884,12 +907,14 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -908,11 +933,27 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -947,10 +988,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -975,9 +1017,12 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{F34B0BC4-0474-5D47-93C7-FE64BAA63C00}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1193,11 +1238,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J1000"/>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1205,3072 +1250,982 @@
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="17.1640625" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2">
         <v>971</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C2">
         <v>26.3</v>
       </c>
-      <c r="D2" t="s">
-        <v>92</v>
+      <c r="D2" s="20" t="s">
+        <v>114</v>
       </c>
       <c r="E2">
-        <v>23.2</v>
-      </c>
-      <c r="F2">
         <v>0.11</v>
       </c>
+      <c r="F2" t="s">
+        <v>84</v>
+      </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
-      <c r="I2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1">
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1">
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1">
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1">
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E44" s="4"/>
-    </row>
-    <row r="45" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E45" s="4"/>
-    </row>
-    <row r="46" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E47" s="4"/>
-    </row>
-    <row r="48" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E57" s="4"/>
-    </row>
-    <row r="58" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E58" s="4"/>
-    </row>
-    <row r="59" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E59" s="4"/>
-    </row>
-    <row r="60" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E60" s="4"/>
-    </row>
-    <row r="61" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E61" s="4"/>
-    </row>
-    <row r="62" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E62" s="4"/>
-    </row>
-    <row r="63" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E63" s="4"/>
-    </row>
-    <row r="64" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E64" s="4"/>
-    </row>
-    <row r="65" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E65" s="4"/>
-    </row>
-    <row r="66" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E66" s="4"/>
-    </row>
-    <row r="67" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E67" s="4"/>
-    </row>
-    <row r="68" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E68" s="4"/>
-    </row>
-    <row r="69" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E69" s="4"/>
-    </row>
-    <row r="70" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E70" s="4"/>
-    </row>
-    <row r="71" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E71" s="4"/>
-    </row>
-    <row r="72" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E72" s="4"/>
-    </row>
-    <row r="73" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E73" s="4"/>
-    </row>
-    <row r="74" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E74" s="4"/>
-    </row>
-    <row r="75" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E75" s="4"/>
-    </row>
-    <row r="76" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E76" s="4"/>
-    </row>
-    <row r="77" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E77" s="4"/>
-    </row>
-    <row r="78" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E78" s="4"/>
-    </row>
-    <row r="79" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E79" s="4"/>
-    </row>
-    <row r="80" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E80" s="4"/>
-    </row>
-    <row r="81" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E81" s="4"/>
-    </row>
-    <row r="82" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E82" s="4"/>
-    </row>
-    <row r="83" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E83" s="4"/>
-    </row>
-    <row r="84" spans="5:5" ht="13">
-      <c r="E84" s="4"/>
-    </row>
-    <row r="85" spans="5:5" ht="13">
-      <c r="E85" s="4"/>
-    </row>
-    <row r="86" spans="5:5" ht="13">
-      <c r="E86" s="4"/>
-    </row>
-    <row r="87" spans="5:5" ht="13">
-      <c r="E87" s="4"/>
-    </row>
-    <row r="88" spans="5:5" ht="13">
-      <c r="E88" s="4"/>
-    </row>
-    <row r="89" spans="5:5" ht="13">
-      <c r="E89" s="4"/>
-    </row>
-    <row r="90" spans="5:5" ht="13">
-      <c r="E90" s="4"/>
-    </row>
-    <row r="91" spans="5:5" ht="13">
-      <c r="E91" s="4"/>
-    </row>
-    <row r="92" spans="5:5" ht="13">
-      <c r="E92" s="4"/>
-    </row>
-    <row r="93" spans="5:5" ht="13">
-      <c r="E93" s="4"/>
-    </row>
-    <row r="94" spans="5:5" ht="13">
-      <c r="E94" s="4"/>
-    </row>
-    <row r="95" spans="5:5" ht="13">
-      <c r="E95" s="4"/>
-    </row>
-    <row r="96" spans="5:5" ht="13">
-      <c r="E96" s="4"/>
-    </row>
-    <row r="97" spans="5:5" ht="13">
-      <c r="E97" s="4"/>
-    </row>
-    <row r="98" spans="5:5" ht="13">
-      <c r="E98" s="4"/>
-    </row>
-    <row r="99" spans="5:5" ht="13">
-      <c r="E99" s="4"/>
-    </row>
-    <row r="100" spans="5:5" ht="13">
-      <c r="E100" s="4"/>
-    </row>
-    <row r="101" spans="5:5" ht="13">
-      <c r="E101" s="4"/>
-    </row>
-    <row r="102" spans="5:5" ht="13">
-      <c r="E102" s="4"/>
-    </row>
-    <row r="103" spans="5:5" ht="13">
-      <c r="E103" s="4"/>
-    </row>
-    <row r="104" spans="5:5" ht="13">
-      <c r="E104" s="4"/>
-    </row>
-    <row r="105" spans="5:5" ht="13">
-      <c r="E105" s="4"/>
-    </row>
-    <row r="106" spans="5:5" ht="13">
-      <c r="E106" s="4"/>
-    </row>
-    <row r="107" spans="5:5" ht="13">
-      <c r="E107" s="4"/>
-    </row>
-    <row r="108" spans="5:5" ht="13">
-      <c r="E108" s="4"/>
-    </row>
-    <row r="109" spans="5:5" ht="13">
-      <c r="E109" s="4"/>
-    </row>
-    <row r="110" spans="5:5" ht="13">
-      <c r="E110" s="4"/>
-    </row>
-    <row r="111" spans="5:5" ht="13">
-      <c r="E111" s="4"/>
-    </row>
-    <row r="112" spans="5:5" ht="13">
-      <c r="E112" s="4"/>
-    </row>
-    <row r="113" spans="5:5" ht="13">
-      <c r="E113" s="4"/>
-    </row>
-    <row r="114" spans="5:5" ht="13">
-      <c r="E114" s="4"/>
-    </row>
-    <row r="115" spans="5:5" ht="13">
-      <c r="E115" s="4"/>
-    </row>
-    <row r="116" spans="5:5" ht="13">
-      <c r="E116" s="4"/>
-    </row>
-    <row r="117" spans="5:5" ht="13">
-      <c r="E117" s="4"/>
-    </row>
-    <row r="118" spans="5:5" ht="13">
-      <c r="E118" s="4"/>
-    </row>
-    <row r="119" spans="5:5" ht="13">
-      <c r="E119" s="4"/>
-    </row>
-    <row r="120" spans="5:5" ht="13">
-      <c r="E120" s="4"/>
-    </row>
-    <row r="121" spans="5:5" ht="13">
-      <c r="E121" s="4"/>
-    </row>
-    <row r="122" spans="5:5" ht="13">
-      <c r="E122" s="4"/>
-    </row>
-    <row r="123" spans="5:5" ht="13">
-      <c r="E123" s="4"/>
-    </row>
-    <row r="124" spans="5:5" ht="13">
-      <c r="E124" s="4"/>
-    </row>
-    <row r="125" spans="5:5" ht="13">
-      <c r="E125" s="4"/>
-    </row>
-    <row r="126" spans="5:5" ht="13">
-      <c r="E126" s="4"/>
-    </row>
-    <row r="127" spans="5:5" ht="13">
-      <c r="E127" s="4"/>
-    </row>
-    <row r="128" spans="5:5" ht="13">
-      <c r="E128" s="4"/>
-    </row>
-    <row r="129" spans="5:5" ht="13">
-      <c r="E129" s="4"/>
-    </row>
-    <row r="130" spans="5:5" ht="13">
-      <c r="E130" s="4"/>
-    </row>
-    <row r="131" spans="5:5" ht="13">
-      <c r="E131" s="4"/>
-    </row>
-    <row r="132" spans="5:5" ht="13">
-      <c r="E132" s="4"/>
-    </row>
-    <row r="133" spans="5:5" ht="13">
-      <c r="E133" s="4"/>
-    </row>
-    <row r="134" spans="5:5" ht="13">
-      <c r="E134" s="4"/>
-    </row>
-    <row r="135" spans="5:5" ht="13">
-      <c r="E135" s="4"/>
-    </row>
-    <row r="136" spans="5:5" ht="13">
-      <c r="E136" s="4"/>
-    </row>
-    <row r="137" spans="5:5" ht="13">
-      <c r="E137" s="4"/>
-    </row>
-    <row r="138" spans="5:5" ht="13">
-      <c r="E138" s="4"/>
-    </row>
-    <row r="139" spans="5:5" ht="13">
-      <c r="E139" s="4"/>
-    </row>
-    <row r="140" spans="5:5" ht="13">
-      <c r="E140" s="4"/>
-    </row>
-    <row r="141" spans="5:5" ht="13">
-      <c r="E141" s="4"/>
-    </row>
-    <row r="142" spans="5:5" ht="13">
-      <c r="E142" s="4"/>
-    </row>
-    <row r="143" spans="5:5" ht="13">
-      <c r="E143" s="4"/>
-    </row>
-    <row r="144" spans="5:5" ht="13">
-      <c r="E144" s="4"/>
-    </row>
-    <row r="145" spans="5:5" ht="13">
-      <c r="E145" s="4"/>
-    </row>
-    <row r="146" spans="5:5" ht="13">
-      <c r="E146" s="4"/>
-    </row>
-    <row r="147" spans="5:5" ht="13">
-      <c r="E147" s="4"/>
-    </row>
-    <row r="148" spans="5:5" ht="13">
-      <c r="E148" s="4"/>
-    </row>
-    <row r="149" spans="5:5" ht="13">
-      <c r="E149" s="4"/>
-    </row>
-    <row r="150" spans="5:5" ht="13">
-      <c r="E150" s="4"/>
-    </row>
-    <row r="151" spans="5:5" ht="13">
-      <c r="E151" s="4"/>
-    </row>
-    <row r="152" spans="5:5" ht="13">
-      <c r="E152" s="4"/>
-    </row>
-    <row r="153" spans="5:5" ht="13">
-      <c r="E153" s="4"/>
-    </row>
-    <row r="154" spans="5:5" ht="13">
-      <c r="E154" s="4"/>
-    </row>
-    <row r="155" spans="5:5" ht="13">
-      <c r="E155" s="4"/>
-    </row>
-    <row r="156" spans="5:5" ht="13">
-      <c r="E156" s="4"/>
-    </row>
-    <row r="157" spans="5:5" ht="13">
-      <c r="E157" s="4"/>
-    </row>
-    <row r="158" spans="5:5" ht="13">
-      <c r="E158" s="4"/>
-    </row>
-    <row r="159" spans="5:5" ht="13">
-      <c r="E159" s="4"/>
-    </row>
-    <row r="160" spans="5:5" ht="13">
-      <c r="E160" s="4"/>
-    </row>
-    <row r="161" spans="5:5" ht="13">
-      <c r="E161" s="4"/>
-    </row>
-    <row r="162" spans="5:5" ht="13">
-      <c r="E162" s="4"/>
-    </row>
-    <row r="163" spans="5:5" ht="13">
-      <c r="E163" s="4"/>
-    </row>
-    <row r="164" spans="5:5" ht="13">
-      <c r="E164" s="4"/>
-    </row>
-    <row r="165" spans="5:5" ht="13">
-      <c r="E165" s="4"/>
-    </row>
-    <row r="166" spans="5:5" ht="13">
-      <c r="E166" s="4"/>
-    </row>
-    <row r="167" spans="5:5" ht="13">
-      <c r="E167" s="4"/>
-    </row>
-    <row r="168" spans="5:5" ht="13">
-      <c r="E168" s="4"/>
-    </row>
-    <row r="169" spans="5:5" ht="13">
-      <c r="E169" s="4"/>
-    </row>
-    <row r="170" spans="5:5" ht="13">
-      <c r="E170" s="4"/>
-    </row>
-    <row r="171" spans="5:5" ht="13">
-      <c r="E171" s="4"/>
-    </row>
-    <row r="172" spans="5:5" ht="13">
-      <c r="E172" s="4"/>
-    </row>
-    <row r="173" spans="5:5" ht="13">
-      <c r="E173" s="4"/>
-    </row>
-    <row r="174" spans="5:5" ht="13">
-      <c r="E174" s="4"/>
-    </row>
-    <row r="175" spans="5:5" ht="13">
-      <c r="E175" s="4"/>
-    </row>
-    <row r="176" spans="5:5" ht="13">
-      <c r="E176" s="4"/>
-    </row>
-    <row r="177" spans="5:5" ht="13">
-      <c r="E177" s="4"/>
-    </row>
-    <row r="178" spans="5:5" ht="13">
-      <c r="E178" s="4"/>
-    </row>
-    <row r="179" spans="5:5" ht="13">
-      <c r="E179" s="4"/>
-    </row>
-    <row r="180" spans="5:5" ht="13">
-      <c r="E180" s="4"/>
-    </row>
-    <row r="181" spans="5:5" ht="13">
-      <c r="E181" s="4"/>
-    </row>
-    <row r="182" spans="5:5" ht="13">
-      <c r="E182" s="4"/>
-    </row>
-    <row r="183" spans="5:5" ht="13">
-      <c r="E183" s="4"/>
-    </row>
-    <row r="184" spans="5:5" ht="13">
-      <c r="E184" s="4"/>
-    </row>
-    <row r="185" spans="5:5" ht="13">
-      <c r="E185" s="4"/>
-    </row>
-    <row r="186" spans="5:5" ht="13">
-      <c r="E186" s="4"/>
-    </row>
-    <row r="187" spans="5:5" ht="13">
-      <c r="E187" s="4"/>
-    </row>
-    <row r="188" spans="5:5" ht="13">
-      <c r="E188" s="4"/>
-    </row>
-    <row r="189" spans="5:5" ht="13">
-      <c r="E189" s="4"/>
-    </row>
-    <row r="190" spans="5:5" ht="13">
-      <c r="E190" s="4"/>
-    </row>
-    <row r="191" spans="5:5" ht="13">
-      <c r="E191" s="4"/>
-    </row>
-    <row r="192" spans="5:5" ht="13">
-      <c r="E192" s="4"/>
-    </row>
-    <row r="193" spans="5:5" ht="13">
-      <c r="E193" s="4"/>
-    </row>
-    <row r="194" spans="5:5" ht="13">
-      <c r="E194" s="4"/>
-    </row>
-    <row r="195" spans="5:5" ht="13">
-      <c r="E195" s="4"/>
-    </row>
-    <row r="196" spans="5:5" ht="13">
-      <c r="E196" s="4"/>
-    </row>
-    <row r="197" spans="5:5" ht="13">
-      <c r="E197" s="4"/>
-    </row>
-    <row r="198" spans="5:5" ht="13">
-      <c r="E198" s="4"/>
-    </row>
-    <row r="199" spans="5:5" ht="13">
-      <c r="E199" s="4"/>
-    </row>
-    <row r="200" spans="5:5" ht="13">
-      <c r="E200" s="4"/>
-    </row>
-    <row r="201" spans="5:5" ht="13">
-      <c r="E201" s="4"/>
-    </row>
-    <row r="202" spans="5:5" ht="13">
-      <c r="E202" s="4"/>
-    </row>
-    <row r="203" spans="5:5" ht="13">
-      <c r="E203" s="4"/>
-    </row>
-    <row r="204" spans="5:5" ht="13">
-      <c r="E204" s="4"/>
-    </row>
-    <row r="205" spans="5:5" ht="13">
-      <c r="E205" s="4"/>
-    </row>
-    <row r="206" spans="5:5" ht="13">
-      <c r="E206" s="4"/>
-    </row>
-    <row r="207" spans="5:5" ht="13">
-      <c r="E207" s="4"/>
-    </row>
-    <row r="208" spans="5:5" ht="13">
-      <c r="E208" s="4"/>
-    </row>
-    <row r="209" spans="5:5" ht="13">
-      <c r="E209" s="4"/>
-    </row>
-    <row r="210" spans="5:5" ht="13">
-      <c r="E210" s="4"/>
-    </row>
-    <row r="211" spans="5:5" ht="13">
-      <c r="E211" s="4"/>
-    </row>
-    <row r="212" spans="5:5" ht="13">
-      <c r="E212" s="4"/>
-    </row>
-    <row r="213" spans="5:5" ht="13">
-      <c r="E213" s="4"/>
-    </row>
-    <row r="214" spans="5:5" ht="13">
-      <c r="E214" s="4"/>
-    </row>
-    <row r="215" spans="5:5" ht="13">
-      <c r="E215" s="4"/>
-    </row>
-    <row r="216" spans="5:5" ht="13">
-      <c r="E216" s="4"/>
-    </row>
-    <row r="217" spans="5:5" ht="13">
-      <c r="E217" s="4"/>
-    </row>
-    <row r="218" spans="5:5" ht="13">
-      <c r="E218" s="4"/>
-    </row>
-    <row r="219" spans="5:5" ht="13">
-      <c r="E219" s="4"/>
-    </row>
-    <row r="220" spans="5:5" ht="13">
-      <c r="E220" s="4"/>
-    </row>
-    <row r="221" spans="5:5" ht="13">
-      <c r="E221" s="4"/>
-    </row>
-    <row r="222" spans="5:5" ht="13">
-      <c r="E222" s="4"/>
-    </row>
-    <row r="223" spans="5:5" ht="13">
-      <c r="E223" s="4"/>
-    </row>
-    <row r="224" spans="5:5" ht="13">
-      <c r="E224" s="4"/>
-    </row>
-    <row r="225" spans="5:5" ht="13">
-      <c r="E225" s="4"/>
-    </row>
-    <row r="226" spans="5:5" ht="13">
-      <c r="E226" s="4"/>
-    </row>
-    <row r="227" spans="5:5" ht="13">
-      <c r="E227" s="4"/>
-    </row>
-    <row r="228" spans="5:5" ht="13">
-      <c r="E228" s="4"/>
-    </row>
-    <row r="229" spans="5:5" ht="13">
-      <c r="E229" s="4"/>
-    </row>
-    <row r="230" spans="5:5" ht="13">
-      <c r="E230" s="4"/>
-    </row>
-    <row r="231" spans="5:5" ht="13">
-      <c r="E231" s="4"/>
-    </row>
-    <row r="232" spans="5:5" ht="13">
-      <c r="E232" s="4"/>
-    </row>
-    <row r="233" spans="5:5" ht="13">
-      <c r="E233" s="4"/>
-    </row>
-    <row r="234" spans="5:5" ht="13">
-      <c r="E234" s="4"/>
-    </row>
-    <row r="235" spans="5:5" ht="13">
-      <c r="E235" s="4"/>
-    </row>
-    <row r="236" spans="5:5" ht="13">
-      <c r="E236" s="4"/>
-    </row>
-    <row r="237" spans="5:5" ht="13">
-      <c r="E237" s="4"/>
-    </row>
-    <row r="238" spans="5:5" ht="13">
-      <c r="E238" s="4"/>
-    </row>
-    <row r="239" spans="5:5" ht="13">
-      <c r="E239" s="4"/>
-    </row>
-    <row r="240" spans="5:5" ht="13">
-      <c r="E240" s="4"/>
-    </row>
-    <row r="241" spans="5:5" ht="13">
-      <c r="E241" s="4"/>
-    </row>
-    <row r="242" spans="5:5" ht="13">
-      <c r="E242" s="4"/>
-    </row>
-    <row r="243" spans="5:5" ht="13">
-      <c r="E243" s="4"/>
-    </row>
-    <row r="244" spans="5:5" ht="13">
-      <c r="E244" s="4"/>
-    </row>
-    <row r="245" spans="5:5" ht="13">
-      <c r="E245" s="4"/>
-    </row>
-    <row r="246" spans="5:5" ht="13">
-      <c r="E246" s="4"/>
-    </row>
-    <row r="247" spans="5:5" ht="13">
-      <c r="E247" s="4"/>
-    </row>
-    <row r="248" spans="5:5" ht="13">
-      <c r="E248" s="4"/>
-    </row>
-    <row r="249" spans="5:5" ht="13">
-      <c r="E249" s="4"/>
-    </row>
-    <row r="250" spans="5:5" ht="13">
-      <c r="E250" s="4"/>
-    </row>
-    <row r="251" spans="5:5" ht="13">
-      <c r="E251" s="4"/>
-    </row>
-    <row r="252" spans="5:5" ht="13">
-      <c r="E252" s="4"/>
-    </row>
-    <row r="253" spans="5:5" ht="13">
-      <c r="E253" s="4"/>
-    </row>
-    <row r="254" spans="5:5" ht="13">
-      <c r="E254" s="4"/>
-    </row>
-    <row r="255" spans="5:5" ht="13">
-      <c r="E255" s="4"/>
-    </row>
-    <row r="256" spans="5:5" ht="13">
-      <c r="E256" s="4"/>
-    </row>
-    <row r="257" spans="5:5" ht="13">
-      <c r="E257" s="4"/>
-    </row>
-    <row r="258" spans="5:5" ht="13">
-      <c r="E258" s="4"/>
-    </row>
-    <row r="259" spans="5:5" ht="13">
-      <c r="E259" s="4"/>
-    </row>
-    <row r="260" spans="5:5" ht="13">
-      <c r="E260" s="4"/>
-    </row>
-    <row r="261" spans="5:5" ht="13">
-      <c r="E261" s="4"/>
-    </row>
-    <row r="262" spans="5:5" ht="13">
-      <c r="E262" s="4"/>
-    </row>
-    <row r="263" spans="5:5" ht="13">
-      <c r="E263" s="4"/>
-    </row>
-    <row r="264" spans="5:5" ht="13">
-      <c r="E264" s="4"/>
-    </row>
-    <row r="265" spans="5:5" ht="13">
-      <c r="E265" s="4"/>
-    </row>
-    <row r="266" spans="5:5" ht="13">
-      <c r="E266" s="4"/>
-    </row>
-    <row r="267" spans="5:5" ht="13">
-      <c r="E267" s="4"/>
-    </row>
-    <row r="268" spans="5:5" ht="13">
-      <c r="E268" s="4"/>
-    </row>
-    <row r="269" spans="5:5" ht="13">
-      <c r="E269" s="4"/>
-    </row>
-    <row r="270" spans="5:5" ht="13">
-      <c r="E270" s="4"/>
-    </row>
-    <row r="271" spans="5:5" ht="13">
-      <c r="E271" s="4"/>
-    </row>
-    <row r="272" spans="5:5" ht="13">
-      <c r="E272" s="4"/>
-    </row>
-    <row r="273" spans="5:5" ht="13">
-      <c r="E273" s="4"/>
-    </row>
-    <row r="274" spans="5:5" ht="13">
-      <c r="E274" s="4"/>
-    </row>
-    <row r="275" spans="5:5" ht="13">
-      <c r="E275" s="4"/>
-    </row>
-    <row r="276" spans="5:5" ht="13">
-      <c r="E276" s="4"/>
-    </row>
-    <row r="277" spans="5:5" ht="13">
-      <c r="E277" s="4"/>
-    </row>
-    <row r="278" spans="5:5" ht="13">
-      <c r="E278" s="4"/>
-    </row>
-    <row r="279" spans="5:5" ht="13">
-      <c r="E279" s="4"/>
-    </row>
-    <row r="280" spans="5:5" ht="13">
-      <c r="E280" s="4"/>
-    </row>
-    <row r="281" spans="5:5" ht="13">
-      <c r="E281" s="4"/>
-    </row>
-    <row r="282" spans="5:5" ht="13">
-      <c r="E282" s="4"/>
-    </row>
-    <row r="283" spans="5:5" ht="13">
-      <c r="E283" s="4"/>
-    </row>
-    <row r="284" spans="5:5" ht="13">
-      <c r="E284" s="4"/>
-    </row>
-    <row r="285" spans="5:5" ht="13">
-      <c r="E285" s="4"/>
-    </row>
-    <row r="286" spans="5:5" ht="13">
-      <c r="E286" s="4"/>
-    </row>
-    <row r="287" spans="5:5" ht="13">
-      <c r="E287" s="4"/>
-    </row>
-    <row r="288" spans="5:5" ht="13">
-      <c r="E288" s="4"/>
-    </row>
-    <row r="289" spans="5:5" ht="13">
-      <c r="E289" s="4"/>
-    </row>
-    <row r="290" spans="5:5" ht="13">
-      <c r="E290" s="4"/>
-    </row>
-    <row r="291" spans="5:5" ht="13">
-      <c r="E291" s="4"/>
-    </row>
-    <row r="292" spans="5:5" ht="13">
-      <c r="E292" s="4"/>
-    </row>
-    <row r="293" spans="5:5" ht="13">
-      <c r="E293" s="4"/>
-    </row>
-    <row r="294" spans="5:5" ht="13">
-      <c r="E294" s="4"/>
-    </row>
-    <row r="295" spans="5:5" ht="13">
-      <c r="E295" s="4"/>
-    </row>
-    <row r="296" spans="5:5" ht="13">
-      <c r="E296" s="4"/>
-    </row>
-    <row r="297" spans="5:5" ht="13">
-      <c r="E297" s="4"/>
-    </row>
-    <row r="298" spans="5:5" ht="13">
-      <c r="E298" s="4"/>
-    </row>
-    <row r="299" spans="5:5" ht="13">
-      <c r="E299" s="4"/>
-    </row>
-    <row r="300" spans="5:5" ht="13">
-      <c r="E300" s="4"/>
-    </row>
-    <row r="301" spans="5:5" ht="13">
-      <c r="E301" s="4"/>
-    </row>
-    <row r="302" spans="5:5" ht="13">
-      <c r="E302" s="4"/>
-    </row>
-    <row r="303" spans="5:5" ht="13">
-      <c r="E303" s="4"/>
-    </row>
-    <row r="304" spans="5:5" ht="13">
-      <c r="E304" s="4"/>
-    </row>
-    <row r="305" spans="5:5" ht="13">
-      <c r="E305" s="4"/>
-    </row>
-    <row r="306" spans="5:5" ht="13">
-      <c r="E306" s="4"/>
-    </row>
-    <row r="307" spans="5:5" ht="13">
-      <c r="E307" s="4"/>
-    </row>
-    <row r="308" spans="5:5" ht="13">
-      <c r="E308" s="4"/>
-    </row>
-    <row r="309" spans="5:5" ht="13">
-      <c r="E309" s="4"/>
-    </row>
-    <row r="310" spans="5:5" ht="13">
-      <c r="E310" s="4"/>
-    </row>
-    <row r="311" spans="5:5" ht="13">
-      <c r="E311" s="4"/>
-    </row>
-    <row r="312" spans="5:5" ht="13">
-      <c r="E312" s="4"/>
-    </row>
-    <row r="313" spans="5:5" ht="13">
-      <c r="E313" s="4"/>
-    </row>
-    <row r="314" spans="5:5" ht="13">
-      <c r="E314" s="4"/>
-    </row>
-    <row r="315" spans="5:5" ht="13">
-      <c r="E315" s="4"/>
-    </row>
-    <row r="316" spans="5:5" ht="13">
-      <c r="E316" s="4"/>
-    </row>
-    <row r="317" spans="5:5" ht="13">
-      <c r="E317" s="4"/>
-    </row>
-    <row r="318" spans="5:5" ht="13">
-      <c r="E318" s="4"/>
-    </row>
-    <row r="319" spans="5:5" ht="13">
-      <c r="E319" s="4"/>
-    </row>
-    <row r="320" spans="5:5" ht="13">
-      <c r="E320" s="4"/>
-    </row>
-    <row r="321" spans="5:5" ht="13">
-      <c r="E321" s="4"/>
-    </row>
-    <row r="322" spans="5:5" ht="13">
-      <c r="E322" s="4"/>
-    </row>
-    <row r="323" spans="5:5" ht="13">
-      <c r="E323" s="4"/>
-    </row>
-    <row r="324" spans="5:5" ht="13">
-      <c r="E324" s="4"/>
-    </row>
-    <row r="325" spans="5:5" ht="13">
-      <c r="E325" s="4"/>
-    </row>
-    <row r="326" spans="5:5" ht="13">
-      <c r="E326" s="4"/>
-    </row>
-    <row r="327" spans="5:5" ht="13">
-      <c r="E327" s="4"/>
-    </row>
-    <row r="328" spans="5:5" ht="13">
-      <c r="E328" s="4"/>
-    </row>
-    <row r="329" spans="5:5" ht="13">
-      <c r="E329" s="4"/>
-    </row>
-    <row r="330" spans="5:5" ht="13">
-      <c r="E330" s="4"/>
-    </row>
-    <row r="331" spans="5:5" ht="13">
-      <c r="E331" s="4"/>
-    </row>
-    <row r="332" spans="5:5" ht="13">
-      <c r="E332" s="4"/>
-    </row>
-    <row r="333" spans="5:5" ht="13">
-      <c r="E333" s="4"/>
-    </row>
-    <row r="334" spans="5:5" ht="13">
-      <c r="E334" s="4"/>
-    </row>
-    <row r="335" spans="5:5" ht="13">
-      <c r="E335" s="4"/>
-    </row>
-    <row r="336" spans="5:5" ht="13">
-      <c r="E336" s="4"/>
-    </row>
-    <row r="337" spans="5:5" ht="13">
-      <c r="E337" s="4"/>
-    </row>
-    <row r="338" spans="5:5" ht="13">
-      <c r="E338" s="4"/>
-    </row>
-    <row r="339" spans="5:5" ht="13">
-      <c r="E339" s="4"/>
-    </row>
-    <row r="340" spans="5:5" ht="13">
-      <c r="E340" s="4"/>
-    </row>
-    <row r="341" spans="5:5" ht="13">
-      <c r="E341" s="4"/>
-    </row>
-    <row r="342" spans="5:5" ht="13">
-      <c r="E342" s="4"/>
-    </row>
-    <row r="343" spans="5:5" ht="13">
-      <c r="E343" s="4"/>
-    </row>
-    <row r="344" spans="5:5" ht="13">
-      <c r="E344" s="4"/>
-    </row>
-    <row r="345" spans="5:5" ht="13">
-      <c r="E345" s="4"/>
-    </row>
-    <row r="346" spans="5:5" ht="13">
-      <c r="E346" s="4"/>
-    </row>
-    <row r="347" spans="5:5" ht="13">
-      <c r="E347" s="4"/>
-    </row>
-    <row r="348" spans="5:5" ht="13">
-      <c r="E348" s="4"/>
-    </row>
-    <row r="349" spans="5:5" ht="13">
-      <c r="E349" s="4"/>
-    </row>
-    <row r="350" spans="5:5" ht="13">
-      <c r="E350" s="4"/>
-    </row>
-    <row r="351" spans="5:5" ht="13">
-      <c r="E351" s="4"/>
-    </row>
-    <row r="352" spans="5:5" ht="13">
-      <c r="E352" s="4"/>
-    </row>
-    <row r="353" spans="5:5" ht="13">
-      <c r="E353" s="4"/>
-    </row>
-    <row r="354" spans="5:5" ht="13">
-      <c r="E354" s="4"/>
-    </row>
-    <row r="355" spans="5:5" ht="13">
-      <c r="E355" s="4"/>
-    </row>
-    <row r="356" spans="5:5" ht="13">
-      <c r="E356" s="4"/>
-    </row>
-    <row r="357" spans="5:5" ht="13">
-      <c r="E357" s="4"/>
-    </row>
-    <row r="358" spans="5:5" ht="13">
-      <c r="E358" s="4"/>
-    </row>
-    <row r="359" spans="5:5" ht="13">
-      <c r="E359" s="4"/>
-    </row>
-    <row r="360" spans="5:5" ht="13">
-      <c r="E360" s="4"/>
-    </row>
-    <row r="361" spans="5:5" ht="13">
-      <c r="E361" s="4"/>
-    </row>
-    <row r="362" spans="5:5" ht="13">
-      <c r="E362" s="4"/>
-    </row>
-    <row r="363" spans="5:5" ht="13">
-      <c r="E363" s="4"/>
-    </row>
-    <row r="364" spans="5:5" ht="13">
-      <c r="E364" s="4"/>
-    </row>
-    <row r="365" spans="5:5" ht="13">
-      <c r="E365" s="4"/>
-    </row>
-    <row r="366" spans="5:5" ht="13">
-      <c r="E366" s="4"/>
-    </row>
-    <row r="367" spans="5:5" ht="13">
-      <c r="E367" s="4"/>
-    </row>
-    <row r="368" spans="5:5" ht="13">
-      <c r="E368" s="4"/>
-    </row>
-    <row r="369" spans="5:5" ht="13">
-      <c r="E369" s="4"/>
-    </row>
-    <row r="370" spans="5:5" ht="13">
-      <c r="E370" s="4"/>
-    </row>
-    <row r="371" spans="5:5" ht="13">
-      <c r="E371" s="4"/>
-    </row>
-    <row r="372" spans="5:5" ht="13">
-      <c r="E372" s="4"/>
-    </row>
-    <row r="373" spans="5:5" ht="13">
-      <c r="E373" s="4"/>
-    </row>
-    <row r="374" spans="5:5" ht="13">
-      <c r="E374" s="4"/>
-    </row>
-    <row r="375" spans="5:5" ht="13">
-      <c r="E375" s="4"/>
-    </row>
-    <row r="376" spans="5:5" ht="13">
-      <c r="E376" s="4"/>
-    </row>
-    <row r="377" spans="5:5" ht="13">
-      <c r="E377" s="4"/>
-    </row>
-    <row r="378" spans="5:5" ht="13">
-      <c r="E378" s="4"/>
-    </row>
-    <row r="379" spans="5:5" ht="13">
-      <c r="E379" s="4"/>
-    </row>
-    <row r="380" spans="5:5" ht="13">
-      <c r="E380" s="4"/>
-    </row>
-    <row r="381" spans="5:5" ht="13">
-      <c r="E381" s="4"/>
-    </row>
-    <row r="382" spans="5:5" ht="13">
-      <c r="E382" s="4"/>
-    </row>
-    <row r="383" spans="5:5" ht="13">
-      <c r="E383" s="4"/>
-    </row>
-    <row r="384" spans="5:5" ht="13">
-      <c r="E384" s="4"/>
-    </row>
-    <row r="385" spans="5:5" ht="13">
-      <c r="E385" s="4"/>
-    </row>
-    <row r="386" spans="5:5" ht="13">
-      <c r="E386" s="4"/>
-    </row>
-    <row r="387" spans="5:5" ht="13">
-      <c r="E387" s="4"/>
-    </row>
-    <row r="388" spans="5:5" ht="13">
-      <c r="E388" s="4"/>
-    </row>
-    <row r="389" spans="5:5" ht="13">
-      <c r="E389" s="4"/>
-    </row>
-    <row r="390" spans="5:5" ht="13">
-      <c r="E390" s="4"/>
-    </row>
-    <row r="391" spans="5:5" ht="13">
-      <c r="E391" s="4"/>
-    </row>
-    <row r="392" spans="5:5" ht="13">
-      <c r="E392" s="4"/>
-    </row>
-    <row r="393" spans="5:5" ht="13">
-      <c r="E393" s="4"/>
-    </row>
-    <row r="394" spans="5:5" ht="13">
-      <c r="E394" s="4"/>
-    </row>
-    <row r="395" spans="5:5" ht="13">
-      <c r="E395" s="4"/>
-    </row>
-    <row r="396" spans="5:5" ht="13">
-      <c r="E396" s="4"/>
-    </row>
-    <row r="397" spans="5:5" ht="13">
-      <c r="E397" s="4"/>
-    </row>
-    <row r="398" spans="5:5" ht="13">
-      <c r="E398" s="4"/>
-    </row>
-    <row r="399" spans="5:5" ht="13">
-      <c r="E399" s="4"/>
-    </row>
-    <row r="400" spans="5:5" ht="13">
-      <c r="E400" s="4"/>
-    </row>
-    <row r="401" spans="5:5" ht="13">
-      <c r="E401" s="4"/>
-    </row>
-    <row r="402" spans="5:5" ht="13">
-      <c r="E402" s="4"/>
-    </row>
-    <row r="403" spans="5:5" ht="13">
-      <c r="E403" s="4"/>
-    </row>
-    <row r="404" spans="5:5" ht="13">
-      <c r="E404" s="4"/>
-    </row>
-    <row r="405" spans="5:5" ht="13">
-      <c r="E405" s="4"/>
-    </row>
-    <row r="406" spans="5:5" ht="13">
-      <c r="E406" s="4"/>
-    </row>
-    <row r="407" spans="5:5" ht="13">
-      <c r="E407" s="4"/>
-    </row>
-    <row r="408" spans="5:5" ht="13">
-      <c r="E408" s="4"/>
-    </row>
-    <row r="409" spans="5:5" ht="13">
-      <c r="E409" s="4"/>
-    </row>
-    <row r="410" spans="5:5" ht="13">
-      <c r="E410" s="4"/>
-    </row>
-    <row r="411" spans="5:5" ht="13">
-      <c r="E411" s="4"/>
-    </row>
-    <row r="412" spans="5:5" ht="13">
-      <c r="E412" s="4"/>
-    </row>
-    <row r="413" spans="5:5" ht="13">
-      <c r="E413" s="4"/>
-    </row>
-    <row r="414" spans="5:5" ht="13">
-      <c r="E414" s="4"/>
-    </row>
-    <row r="415" spans="5:5" ht="13">
-      <c r="E415" s="4"/>
-    </row>
-    <row r="416" spans="5:5" ht="13">
-      <c r="E416" s="4"/>
-    </row>
-    <row r="417" spans="5:5" ht="13">
-      <c r="E417" s="4"/>
-    </row>
-    <row r="418" spans="5:5" ht="13">
-      <c r="E418" s="4"/>
-    </row>
-    <row r="419" spans="5:5" ht="13">
-      <c r="E419" s="4"/>
-    </row>
-    <row r="420" spans="5:5" ht="13">
-      <c r="E420" s="4"/>
-    </row>
-    <row r="421" spans="5:5" ht="13">
-      <c r="E421" s="4"/>
-    </row>
-    <row r="422" spans="5:5" ht="13">
-      <c r="E422" s="4"/>
-    </row>
-    <row r="423" spans="5:5" ht="13">
-      <c r="E423" s="4"/>
-    </row>
-    <row r="424" spans="5:5" ht="13">
-      <c r="E424" s="4"/>
-    </row>
-    <row r="425" spans="5:5" ht="13">
-      <c r="E425" s="4"/>
-    </row>
-    <row r="426" spans="5:5" ht="13">
-      <c r="E426" s="4"/>
-    </row>
-    <row r="427" spans="5:5" ht="13">
-      <c r="E427" s="4"/>
-    </row>
-    <row r="428" spans="5:5" ht="13">
-      <c r="E428" s="4"/>
-    </row>
-    <row r="429" spans="5:5" ht="13">
-      <c r="E429" s="4"/>
-    </row>
-    <row r="430" spans="5:5" ht="13">
-      <c r="E430" s="4"/>
-    </row>
-    <row r="431" spans="5:5" ht="13">
-      <c r="E431" s="4"/>
-    </row>
-    <row r="432" spans="5:5" ht="13">
-      <c r="E432" s="4"/>
-    </row>
-    <row r="433" spans="5:5" ht="13">
-      <c r="E433" s="4"/>
-    </row>
-    <row r="434" spans="5:5" ht="13">
-      <c r="E434" s="4"/>
-    </row>
-    <row r="435" spans="5:5" ht="13">
-      <c r="E435" s="4"/>
-    </row>
-    <row r="436" spans="5:5" ht="13">
-      <c r="E436" s="4"/>
-    </row>
-    <row r="437" spans="5:5" ht="13">
-      <c r="E437" s="4"/>
-    </row>
-    <row r="438" spans="5:5" ht="13">
-      <c r="E438" s="4"/>
-    </row>
-    <row r="439" spans="5:5" ht="13">
-      <c r="E439" s="4"/>
-    </row>
-    <row r="440" spans="5:5" ht="13">
-      <c r="E440" s="4"/>
-    </row>
-    <row r="441" spans="5:5" ht="13">
-      <c r="E441" s="4"/>
-    </row>
-    <row r="442" spans="5:5" ht="13">
-      <c r="E442" s="4"/>
-    </row>
-    <row r="443" spans="5:5" ht="13">
-      <c r="E443" s="4"/>
-    </row>
-    <row r="444" spans="5:5" ht="13">
-      <c r="E444" s="4"/>
-    </row>
-    <row r="445" spans="5:5" ht="13">
-      <c r="E445" s="4"/>
-    </row>
-    <row r="446" spans="5:5" ht="13">
-      <c r="E446" s="4"/>
-    </row>
-    <row r="447" spans="5:5" ht="13">
-      <c r="E447" s="4"/>
-    </row>
-    <row r="448" spans="5:5" ht="13">
-      <c r="E448" s="4"/>
-    </row>
-    <row r="449" spans="5:5" ht="13">
-      <c r="E449" s="4"/>
-    </row>
-    <row r="450" spans="5:5" ht="13">
-      <c r="E450" s="4"/>
-    </row>
-    <row r="451" spans="5:5" ht="13">
-      <c r="E451" s="4"/>
-    </row>
-    <row r="452" spans="5:5" ht="13">
-      <c r="E452" s="4"/>
-    </row>
-    <row r="453" spans="5:5" ht="13">
-      <c r="E453" s="4"/>
-    </row>
-    <row r="454" spans="5:5" ht="13">
-      <c r="E454" s="4"/>
-    </row>
-    <row r="455" spans="5:5" ht="13">
-      <c r="E455" s="4"/>
-    </row>
-    <row r="456" spans="5:5" ht="13">
-      <c r="E456" s="4"/>
-    </row>
-    <row r="457" spans="5:5" ht="13">
-      <c r="E457" s="4"/>
-    </row>
-    <row r="458" spans="5:5" ht="13">
-      <c r="E458" s="4"/>
-    </row>
-    <row r="459" spans="5:5" ht="13">
-      <c r="E459" s="4"/>
-    </row>
-    <row r="460" spans="5:5" ht="13">
-      <c r="E460" s="4"/>
-    </row>
-    <row r="461" spans="5:5" ht="13">
-      <c r="E461" s="4"/>
-    </row>
-    <row r="462" spans="5:5" ht="13">
-      <c r="E462" s="4"/>
-    </row>
-    <row r="463" spans="5:5" ht="13">
-      <c r="E463" s="4"/>
-    </row>
-    <row r="464" spans="5:5" ht="13">
-      <c r="E464" s="4"/>
-    </row>
-    <row r="465" spans="5:5" ht="13">
-      <c r="E465" s="4"/>
-    </row>
-    <row r="466" spans="5:5" ht="13">
-      <c r="E466" s="4"/>
-    </row>
-    <row r="467" spans="5:5" ht="13">
-      <c r="E467" s="4"/>
-    </row>
-    <row r="468" spans="5:5" ht="13">
-      <c r="E468" s="4"/>
-    </row>
-    <row r="469" spans="5:5" ht="13">
-      <c r="E469" s="4"/>
-    </row>
-    <row r="470" spans="5:5" ht="13">
-      <c r="E470" s="4"/>
-    </row>
-    <row r="471" spans="5:5" ht="13">
-      <c r="E471" s="4"/>
-    </row>
-    <row r="472" spans="5:5" ht="13">
-      <c r="E472" s="4"/>
-    </row>
-    <row r="473" spans="5:5" ht="13">
-      <c r="E473" s="4"/>
-    </row>
-    <row r="474" spans="5:5" ht="13">
-      <c r="E474" s="4"/>
-    </row>
-    <row r="475" spans="5:5" ht="13">
-      <c r="E475" s="4"/>
-    </row>
-    <row r="476" spans="5:5" ht="13">
-      <c r="E476" s="4"/>
-    </row>
-    <row r="477" spans="5:5" ht="13">
-      <c r="E477" s="4"/>
-    </row>
-    <row r="478" spans="5:5" ht="13">
-      <c r="E478" s="4"/>
-    </row>
-    <row r="479" spans="5:5" ht="13">
-      <c r="E479" s="4"/>
-    </row>
-    <row r="480" spans="5:5" ht="13">
-      <c r="E480" s="4"/>
-    </row>
-    <row r="481" spans="5:5" ht="13">
-      <c r="E481" s="4"/>
-    </row>
-    <row r="482" spans="5:5" ht="13">
-      <c r="E482" s="4"/>
-    </row>
-    <row r="483" spans="5:5" ht="13">
-      <c r="E483" s="4"/>
-    </row>
-    <row r="484" spans="5:5" ht="13">
-      <c r="E484" s="4"/>
-    </row>
-    <row r="485" spans="5:5" ht="13">
-      <c r="E485" s="4"/>
-    </row>
-    <row r="486" spans="5:5" ht="13">
-      <c r="E486" s="4"/>
-    </row>
-    <row r="487" spans="5:5" ht="13">
-      <c r="E487" s="4"/>
-    </row>
-    <row r="488" spans="5:5" ht="13">
-      <c r="E488" s="4"/>
-    </row>
-    <row r="489" spans="5:5" ht="13">
-      <c r="E489" s="4"/>
-    </row>
-    <row r="490" spans="5:5" ht="13">
-      <c r="E490" s="4"/>
-    </row>
-    <row r="491" spans="5:5" ht="13">
-      <c r="E491" s="4"/>
-    </row>
-    <row r="492" spans="5:5" ht="13">
-      <c r="E492" s="4"/>
-    </row>
-    <row r="493" spans="5:5" ht="13">
-      <c r="E493" s="4"/>
-    </row>
-    <row r="494" spans="5:5" ht="13">
-      <c r="E494" s="4"/>
-    </row>
-    <row r="495" spans="5:5" ht="13">
-      <c r="E495" s="4"/>
-    </row>
-    <row r="496" spans="5:5" ht="13">
-      <c r="E496" s="4"/>
-    </row>
-    <row r="497" spans="5:5" ht="13">
-      <c r="E497" s="4"/>
-    </row>
-    <row r="498" spans="5:5" ht="13">
-      <c r="E498" s="4"/>
-    </row>
-    <row r="499" spans="5:5" ht="13">
-      <c r="E499" s="4"/>
-    </row>
-    <row r="500" spans="5:5" ht="13">
-      <c r="E500" s="4"/>
-    </row>
-    <row r="501" spans="5:5" ht="13">
-      <c r="E501" s="4"/>
-    </row>
-    <row r="502" spans="5:5" ht="13">
-      <c r="E502" s="4"/>
-    </row>
-    <row r="503" spans="5:5" ht="13">
-      <c r="E503" s="4"/>
-    </row>
-    <row r="504" spans="5:5" ht="13">
-      <c r="E504" s="4"/>
-    </row>
-    <row r="505" spans="5:5" ht="13">
-      <c r="E505" s="4"/>
-    </row>
-    <row r="506" spans="5:5" ht="13">
-      <c r="E506" s="4"/>
-    </row>
-    <row r="507" spans="5:5" ht="13">
-      <c r="E507" s="4"/>
-    </row>
-    <row r="508" spans="5:5" ht="13">
-      <c r="E508" s="4"/>
-    </row>
-    <row r="509" spans="5:5" ht="13">
-      <c r="E509" s="4"/>
-    </row>
-    <row r="510" spans="5:5" ht="13">
-      <c r="E510" s="4"/>
-    </row>
-    <row r="511" spans="5:5" ht="13">
-      <c r="E511" s="4"/>
-    </row>
-    <row r="512" spans="5:5" ht="13">
-      <c r="E512" s="4"/>
-    </row>
-    <row r="513" spans="5:5" ht="13">
-      <c r="E513" s="4"/>
-    </row>
-    <row r="514" spans="5:5" ht="13">
-      <c r="E514" s="4"/>
-    </row>
-    <row r="515" spans="5:5" ht="13">
-      <c r="E515" s="4"/>
-    </row>
-    <row r="516" spans="5:5" ht="13">
-      <c r="E516" s="4"/>
-    </row>
-    <row r="517" spans="5:5" ht="13">
-      <c r="E517" s="4"/>
-    </row>
-    <row r="518" spans="5:5" ht="13">
-      <c r="E518" s="4"/>
-    </row>
-    <row r="519" spans="5:5" ht="13">
-      <c r="E519" s="4"/>
-    </row>
-    <row r="520" spans="5:5" ht="13">
-      <c r="E520" s="4"/>
-    </row>
-    <row r="521" spans="5:5" ht="13">
-      <c r="E521" s="4"/>
-    </row>
-    <row r="522" spans="5:5" ht="13">
-      <c r="E522" s="4"/>
-    </row>
-    <row r="523" spans="5:5" ht="13">
-      <c r="E523" s="4"/>
-    </row>
-    <row r="524" spans="5:5" ht="13">
-      <c r="E524" s="4"/>
-    </row>
-    <row r="525" spans="5:5" ht="13">
-      <c r="E525" s="4"/>
-    </row>
-    <row r="526" spans="5:5" ht="13">
-      <c r="E526" s="4"/>
-    </row>
-    <row r="527" spans="5:5" ht="13">
-      <c r="E527" s="4"/>
-    </row>
-    <row r="528" spans="5:5" ht="13">
-      <c r="E528" s="4"/>
-    </row>
-    <row r="529" spans="5:5" ht="13">
-      <c r="E529" s="4"/>
-    </row>
-    <row r="530" spans="5:5" ht="13">
-      <c r="E530" s="4"/>
-    </row>
-    <row r="531" spans="5:5" ht="13">
-      <c r="E531" s="4"/>
-    </row>
-    <row r="532" spans="5:5" ht="13">
-      <c r="E532" s="4"/>
-    </row>
-    <row r="533" spans="5:5" ht="13">
-      <c r="E533" s="4"/>
-    </row>
-    <row r="534" spans="5:5" ht="13">
-      <c r="E534" s="4"/>
-    </row>
-    <row r="535" spans="5:5" ht="13">
-      <c r="E535" s="4"/>
-    </row>
-    <row r="536" spans="5:5" ht="13">
-      <c r="E536" s="4"/>
-    </row>
-    <row r="537" spans="5:5" ht="13">
-      <c r="E537" s="4"/>
-    </row>
-    <row r="538" spans="5:5" ht="13">
-      <c r="E538" s="4"/>
-    </row>
-    <row r="539" spans="5:5" ht="13">
-      <c r="E539" s="4"/>
-    </row>
-    <row r="540" spans="5:5" ht="13">
-      <c r="E540" s="4"/>
-    </row>
-    <row r="541" spans="5:5" ht="13">
-      <c r="E541" s="4"/>
-    </row>
-    <row r="542" spans="5:5" ht="13">
-      <c r="E542" s="4"/>
-    </row>
-    <row r="543" spans="5:5" ht="13">
-      <c r="E543" s="4"/>
-    </row>
-    <row r="544" spans="5:5" ht="13">
-      <c r="E544" s="4"/>
-    </row>
-    <row r="545" spans="5:5" ht="13">
-      <c r="E545" s="4"/>
-    </row>
-    <row r="546" spans="5:5" ht="13">
-      <c r="E546" s="4"/>
-    </row>
-    <row r="547" spans="5:5" ht="13">
-      <c r="E547" s="4"/>
-    </row>
-    <row r="548" spans="5:5" ht="13">
-      <c r="E548" s="4"/>
-    </row>
-    <row r="549" spans="5:5" ht="13">
-      <c r="E549" s="4"/>
-    </row>
-    <row r="550" spans="5:5" ht="13">
-      <c r="E550" s="4"/>
-    </row>
-    <row r="551" spans="5:5" ht="13">
-      <c r="E551" s="4"/>
-    </row>
-    <row r="552" spans="5:5" ht="13">
-      <c r="E552" s="4"/>
-    </row>
-    <row r="553" spans="5:5" ht="13">
-      <c r="E553" s="4"/>
-    </row>
-    <row r="554" spans="5:5" ht="13">
-      <c r="E554" s="4"/>
-    </row>
-    <row r="555" spans="5:5" ht="13">
-      <c r="E555" s="4"/>
-    </row>
-    <row r="556" spans="5:5" ht="13">
-      <c r="E556" s="4"/>
-    </row>
-    <row r="557" spans="5:5" ht="13">
-      <c r="E557" s="4"/>
-    </row>
-    <row r="558" spans="5:5" ht="13">
-      <c r="E558" s="4"/>
-    </row>
-    <row r="559" spans="5:5" ht="13">
-      <c r="E559" s="4"/>
-    </row>
-    <row r="560" spans="5:5" ht="13">
-      <c r="E560" s="4"/>
-    </row>
-    <row r="561" spans="5:5" ht="13">
-      <c r="E561" s="4"/>
-    </row>
-    <row r="562" spans="5:5" ht="13">
-      <c r="E562" s="4"/>
-    </row>
-    <row r="563" spans="5:5" ht="13">
-      <c r="E563" s="4"/>
-    </row>
-    <row r="564" spans="5:5" ht="13">
-      <c r="E564" s="4"/>
-    </row>
-    <row r="565" spans="5:5" ht="13">
-      <c r="E565" s="4"/>
-    </row>
-    <row r="566" spans="5:5" ht="13">
-      <c r="E566" s="4"/>
-    </row>
-    <row r="567" spans="5:5" ht="13">
-      <c r="E567" s="4"/>
-    </row>
-    <row r="568" spans="5:5" ht="13">
-      <c r="E568" s="4"/>
-    </row>
-    <row r="569" spans="5:5" ht="13">
-      <c r="E569" s="4"/>
-    </row>
-    <row r="570" spans="5:5" ht="13">
-      <c r="E570" s="4"/>
-    </row>
-    <row r="571" spans="5:5" ht="13">
-      <c r="E571" s="4"/>
-    </row>
-    <row r="572" spans="5:5" ht="13">
-      <c r="E572" s="4"/>
-    </row>
-    <row r="573" spans="5:5" ht="13">
-      <c r="E573" s="4"/>
-    </row>
-    <row r="574" spans="5:5" ht="13">
-      <c r="E574" s="4"/>
-    </row>
-    <row r="575" spans="5:5" ht="13">
-      <c r="E575" s="4"/>
-    </row>
-    <row r="576" spans="5:5" ht="13">
-      <c r="E576" s="4"/>
-    </row>
-    <row r="577" spans="5:5" ht="13">
-      <c r="E577" s="4"/>
-    </row>
-    <row r="578" spans="5:5" ht="13">
-      <c r="E578" s="4"/>
-    </row>
-    <row r="579" spans="5:5" ht="13">
-      <c r="E579" s="4"/>
-    </row>
-    <row r="580" spans="5:5" ht="13">
-      <c r="E580" s="4"/>
-    </row>
-    <row r="581" spans="5:5" ht="13">
-      <c r="E581" s="4"/>
-    </row>
-    <row r="582" spans="5:5" ht="13">
-      <c r="E582" s="4"/>
-    </row>
-    <row r="583" spans="5:5" ht="13">
-      <c r="E583" s="4"/>
-    </row>
-    <row r="584" spans="5:5" ht="13">
-      <c r="E584" s="4"/>
-    </row>
-    <row r="585" spans="5:5" ht="13">
-      <c r="E585" s="4"/>
-    </row>
-    <row r="586" spans="5:5" ht="13">
-      <c r="E586" s="4"/>
-    </row>
-    <row r="587" spans="5:5" ht="13">
-      <c r="E587" s="4"/>
-    </row>
-    <row r="588" spans="5:5" ht="13">
-      <c r="E588" s="4"/>
-    </row>
-    <row r="589" spans="5:5" ht="13">
-      <c r="E589" s="4"/>
-    </row>
-    <row r="590" spans="5:5" ht="13">
-      <c r="E590" s="4"/>
-    </row>
-    <row r="591" spans="5:5" ht="13">
-      <c r="E591" s="4"/>
-    </row>
-    <row r="592" spans="5:5" ht="13">
-      <c r="E592" s="4"/>
-    </row>
-    <row r="593" spans="5:5" ht="13">
-      <c r="E593" s="4"/>
-    </row>
-    <row r="594" spans="5:5" ht="13">
-      <c r="E594" s="4"/>
-    </row>
-    <row r="595" spans="5:5" ht="13">
-      <c r="E595" s="4"/>
-    </row>
-    <row r="596" spans="5:5" ht="13">
-      <c r="E596" s="4"/>
-    </row>
-    <row r="597" spans="5:5" ht="13">
-      <c r="E597" s="4"/>
-    </row>
-    <row r="598" spans="5:5" ht="13">
-      <c r="E598" s="4"/>
-    </row>
-    <row r="599" spans="5:5" ht="13">
-      <c r="E599" s="4"/>
-    </row>
-    <row r="600" spans="5:5" ht="13">
-      <c r="E600" s="4"/>
-    </row>
-    <row r="601" spans="5:5" ht="13">
-      <c r="E601" s="4"/>
-    </row>
-    <row r="602" spans="5:5" ht="13">
-      <c r="E602" s="4"/>
-    </row>
-    <row r="603" spans="5:5" ht="13">
-      <c r="E603" s="4"/>
-    </row>
-    <row r="604" spans="5:5" ht="13">
-      <c r="E604" s="4"/>
-    </row>
-    <row r="605" spans="5:5" ht="13">
-      <c r="E605" s="4"/>
-    </row>
-    <row r="606" spans="5:5" ht="13">
-      <c r="E606" s="4"/>
-    </row>
-    <row r="607" spans="5:5" ht="13">
-      <c r="E607" s="4"/>
-    </row>
-    <row r="608" spans="5:5" ht="13">
-      <c r="E608" s="4"/>
-    </row>
-    <row r="609" spans="5:5" ht="13">
-      <c r="E609" s="4"/>
-    </row>
-    <row r="610" spans="5:5" ht="13">
-      <c r="E610" s="4"/>
-    </row>
-    <row r="611" spans="5:5" ht="13">
-      <c r="E611" s="4"/>
-    </row>
-    <row r="612" spans="5:5" ht="13">
-      <c r="E612" s="4"/>
-    </row>
-    <row r="613" spans="5:5" ht="13">
-      <c r="E613" s="4"/>
-    </row>
-    <row r="614" spans="5:5" ht="13">
-      <c r="E614" s="4"/>
-    </row>
-    <row r="615" spans="5:5" ht="13">
-      <c r="E615" s="4"/>
-    </row>
-    <row r="616" spans="5:5" ht="13">
-      <c r="E616" s="4"/>
-    </row>
-    <row r="617" spans="5:5" ht="13">
-      <c r="E617" s="4"/>
-    </row>
-    <row r="618" spans="5:5" ht="13">
-      <c r="E618" s="4"/>
-    </row>
-    <row r="619" spans="5:5" ht="13">
-      <c r="E619" s="4"/>
-    </row>
-    <row r="620" spans="5:5" ht="13">
-      <c r="E620" s="4"/>
-    </row>
-    <row r="621" spans="5:5" ht="13">
-      <c r="E621" s="4"/>
-    </row>
-    <row r="622" spans="5:5" ht="13">
-      <c r="E622" s="4"/>
-    </row>
-    <row r="623" spans="5:5" ht="13">
-      <c r="E623" s="4"/>
-    </row>
-    <row r="624" spans="5:5" ht="13">
-      <c r="E624" s="4"/>
-    </row>
-    <row r="625" spans="5:5" ht="13">
-      <c r="E625" s="4"/>
-    </row>
-    <row r="626" spans="5:5" ht="13">
-      <c r="E626" s="4"/>
-    </row>
-    <row r="627" spans="5:5" ht="13">
-      <c r="E627" s="4"/>
-    </row>
-    <row r="628" spans="5:5" ht="13">
-      <c r="E628" s="4"/>
-    </row>
-    <row r="629" spans="5:5" ht="13">
-      <c r="E629" s="4"/>
-    </row>
-    <row r="630" spans="5:5" ht="13">
-      <c r="E630" s="4"/>
-    </row>
-    <row r="631" spans="5:5" ht="13">
-      <c r="E631" s="4"/>
-    </row>
-    <row r="632" spans="5:5" ht="13">
-      <c r="E632" s="4"/>
-    </row>
-    <row r="633" spans="5:5" ht="13">
-      <c r="E633" s="4"/>
-    </row>
-    <row r="634" spans="5:5" ht="13">
-      <c r="E634" s="4"/>
-    </row>
-    <row r="635" spans="5:5" ht="13">
-      <c r="E635" s="4"/>
-    </row>
-    <row r="636" spans="5:5" ht="13">
-      <c r="E636" s="4"/>
-    </row>
-    <row r="637" spans="5:5" ht="13">
-      <c r="E637" s="4"/>
-    </row>
-    <row r="638" spans="5:5" ht="13">
-      <c r="E638" s="4"/>
-    </row>
-    <row r="639" spans="5:5" ht="13">
-      <c r="E639" s="4"/>
-    </row>
-    <row r="640" spans="5:5" ht="13">
-      <c r="E640" s="4"/>
-    </row>
-    <row r="641" spans="5:5" ht="13">
-      <c r="E641" s="4"/>
-    </row>
-    <row r="642" spans="5:5" ht="13">
-      <c r="E642" s="4"/>
-    </row>
-    <row r="643" spans="5:5" ht="13">
-      <c r="E643" s="4"/>
-    </row>
-    <row r="644" spans="5:5" ht="13">
-      <c r="E644" s="4"/>
-    </row>
-    <row r="645" spans="5:5" ht="13">
-      <c r="E645" s="4"/>
-    </row>
-    <row r="646" spans="5:5" ht="13">
-      <c r="E646" s="4"/>
-    </row>
-    <row r="647" spans="5:5" ht="13">
-      <c r="E647" s="4"/>
-    </row>
-    <row r="648" spans="5:5" ht="13">
-      <c r="E648" s="4"/>
-    </row>
-    <row r="649" spans="5:5" ht="13">
-      <c r="E649" s="4"/>
-    </row>
-    <row r="650" spans="5:5" ht="13">
-      <c r="E650" s="4"/>
-    </row>
-    <row r="651" spans="5:5" ht="13">
-      <c r="E651" s="4"/>
-    </row>
-    <row r="652" spans="5:5" ht="13">
-      <c r="E652" s="4"/>
-    </row>
-    <row r="653" spans="5:5" ht="13">
-      <c r="E653" s="4"/>
-    </row>
-    <row r="654" spans="5:5" ht="13">
-      <c r="E654" s="4"/>
-    </row>
-    <row r="655" spans="5:5" ht="13">
-      <c r="E655" s="4"/>
-    </row>
-    <row r="656" spans="5:5" ht="13">
-      <c r="E656" s="4"/>
-    </row>
-    <row r="657" spans="5:5" ht="13">
-      <c r="E657" s="4"/>
-    </row>
-    <row r="658" spans="5:5" ht="13">
-      <c r="E658" s="4"/>
-    </row>
-    <row r="659" spans="5:5" ht="13">
-      <c r="E659" s="4"/>
-    </row>
-    <row r="660" spans="5:5" ht="13">
-      <c r="E660" s="4"/>
-    </row>
-    <row r="661" spans="5:5" ht="13">
-      <c r="E661" s="4"/>
-    </row>
-    <row r="662" spans="5:5" ht="13">
-      <c r="E662" s="4"/>
-    </row>
-    <row r="663" spans="5:5" ht="13">
-      <c r="E663" s="4"/>
-    </row>
-    <row r="664" spans="5:5" ht="13">
-      <c r="E664" s="4"/>
-    </row>
-    <row r="665" spans="5:5" ht="13">
-      <c r="E665" s="4"/>
-    </row>
-    <row r="666" spans="5:5" ht="13">
-      <c r="E666" s="4"/>
-    </row>
-    <row r="667" spans="5:5" ht="13">
-      <c r="E667" s="4"/>
-    </row>
-    <row r="668" spans="5:5" ht="13">
-      <c r="E668" s="4"/>
-    </row>
-    <row r="669" spans="5:5" ht="13">
-      <c r="E669" s="4"/>
-    </row>
-    <row r="670" spans="5:5" ht="13">
-      <c r="E670" s="4"/>
-    </row>
-    <row r="671" spans="5:5" ht="13">
-      <c r="E671" s="4"/>
-    </row>
-    <row r="672" spans="5:5" ht="13">
-      <c r="E672" s="4"/>
-    </row>
-    <row r="673" spans="5:5" ht="13">
-      <c r="E673" s="4"/>
-    </row>
-    <row r="674" spans="5:5" ht="13">
-      <c r="E674" s="4"/>
-    </row>
-    <row r="675" spans="5:5" ht="13">
-      <c r="E675" s="4"/>
-    </row>
-    <row r="676" spans="5:5" ht="13">
-      <c r="E676" s="4"/>
-    </row>
-    <row r="677" spans="5:5" ht="13">
-      <c r="E677" s="4"/>
-    </row>
-    <row r="678" spans="5:5" ht="13">
-      <c r="E678" s="4"/>
-    </row>
-    <row r="679" spans="5:5" ht="13">
-      <c r="E679" s="4"/>
-    </row>
-    <row r="680" spans="5:5" ht="13">
-      <c r="E680" s="4"/>
-    </row>
-    <row r="681" spans="5:5" ht="13">
-      <c r="E681" s="4"/>
-    </row>
-    <row r="682" spans="5:5" ht="13">
-      <c r="E682" s="4"/>
-    </row>
-    <row r="683" spans="5:5" ht="13">
-      <c r="E683" s="4"/>
-    </row>
-    <row r="684" spans="5:5" ht="13">
-      <c r="E684" s="4"/>
-    </row>
-    <row r="685" spans="5:5" ht="13">
-      <c r="E685" s="4"/>
-    </row>
-    <row r="686" spans="5:5" ht="13">
-      <c r="E686" s="4"/>
-    </row>
-    <row r="687" spans="5:5" ht="13">
-      <c r="E687" s="4"/>
-    </row>
-    <row r="688" spans="5:5" ht="13">
-      <c r="E688" s="4"/>
-    </row>
-    <row r="689" spans="5:5" ht="13">
-      <c r="E689" s="4"/>
-    </row>
-    <row r="690" spans="5:5" ht="13">
-      <c r="E690" s="4"/>
-    </row>
-    <row r="691" spans="5:5" ht="13">
-      <c r="E691" s="4"/>
-    </row>
-    <row r="692" spans="5:5" ht="13">
-      <c r="E692" s="4"/>
-    </row>
-    <row r="693" spans="5:5" ht="13">
-      <c r="E693" s="4"/>
-    </row>
-    <row r="694" spans="5:5" ht="13">
-      <c r="E694" s="4"/>
-    </row>
-    <row r="695" spans="5:5" ht="13">
-      <c r="E695" s="4"/>
-    </row>
-    <row r="696" spans="5:5" ht="13">
-      <c r="E696" s="4"/>
-    </row>
-    <row r="697" spans="5:5" ht="13">
-      <c r="E697" s="4"/>
-    </row>
-    <row r="698" spans="5:5" ht="13">
-      <c r="E698" s="4"/>
-    </row>
-    <row r="699" spans="5:5" ht="13">
-      <c r="E699" s="4"/>
-    </row>
-    <row r="700" spans="5:5" ht="13">
-      <c r="E700" s="4"/>
-    </row>
-    <row r="701" spans="5:5" ht="13">
-      <c r="E701" s="4"/>
-    </row>
-    <row r="702" spans="5:5" ht="13">
-      <c r="E702" s="4"/>
-    </row>
-    <row r="703" spans="5:5" ht="13">
-      <c r="E703" s="4"/>
-    </row>
-    <row r="704" spans="5:5" ht="13">
-      <c r="E704" s="4"/>
-    </row>
-    <row r="705" spans="5:5" ht="13">
-      <c r="E705" s="4"/>
-    </row>
-    <row r="706" spans="5:5" ht="13">
-      <c r="E706" s="4"/>
-    </row>
-    <row r="707" spans="5:5" ht="13">
-      <c r="E707" s="4"/>
-    </row>
-    <row r="708" spans="5:5" ht="13">
-      <c r="E708" s="4"/>
-    </row>
-    <row r="709" spans="5:5" ht="13">
-      <c r="E709" s="4"/>
-    </row>
-    <row r="710" spans="5:5" ht="13">
-      <c r="E710" s="4"/>
-    </row>
-    <row r="711" spans="5:5" ht="13">
-      <c r="E711" s="4"/>
-    </row>
-    <row r="712" spans="5:5" ht="13">
-      <c r="E712" s="4"/>
-    </row>
-    <row r="713" spans="5:5" ht="13">
-      <c r="E713" s="4"/>
-    </row>
-    <row r="714" spans="5:5" ht="13">
-      <c r="E714" s="4"/>
-    </row>
-    <row r="715" spans="5:5" ht="13">
-      <c r="E715" s="4"/>
-    </row>
-    <row r="716" spans="5:5" ht="13">
-      <c r="E716" s="4"/>
-    </row>
-    <row r="717" spans="5:5" ht="13">
-      <c r="E717" s="4"/>
-    </row>
-    <row r="718" spans="5:5" ht="13">
-      <c r="E718" s="4"/>
-    </row>
-    <row r="719" spans="5:5" ht="13">
-      <c r="E719" s="4"/>
-    </row>
-    <row r="720" spans="5:5" ht="13">
-      <c r="E720" s="4"/>
-    </row>
-    <row r="721" spans="5:5" ht="13">
-      <c r="E721" s="4"/>
-    </row>
-    <row r="722" spans="5:5" ht="13">
-      <c r="E722" s="4"/>
-    </row>
-    <row r="723" spans="5:5" ht="13">
-      <c r="E723" s="4"/>
-    </row>
-    <row r="724" spans="5:5" ht="13">
-      <c r="E724" s="4"/>
-    </row>
-    <row r="725" spans="5:5" ht="13">
-      <c r="E725" s="4"/>
-    </row>
-    <row r="726" spans="5:5" ht="13">
-      <c r="E726" s="4"/>
-    </row>
-    <row r="727" spans="5:5" ht="13">
-      <c r="E727" s="4"/>
-    </row>
-    <row r="728" spans="5:5" ht="13">
-      <c r="E728" s="4"/>
-    </row>
-    <row r="729" spans="5:5" ht="13">
-      <c r="E729" s="4"/>
-    </row>
-    <row r="730" spans="5:5" ht="13">
-      <c r="E730" s="4"/>
-    </row>
-    <row r="731" spans="5:5" ht="13">
-      <c r="E731" s="4"/>
-    </row>
-    <row r="732" spans="5:5" ht="13">
-      <c r="E732" s="4"/>
-    </row>
-    <row r="733" spans="5:5" ht="13">
-      <c r="E733" s="4"/>
-    </row>
-    <row r="734" spans="5:5" ht="13">
-      <c r="E734" s="4"/>
-    </row>
-    <row r="735" spans="5:5" ht="13">
-      <c r="E735" s="4"/>
-    </row>
-    <row r="736" spans="5:5" ht="13">
-      <c r="E736" s="4"/>
-    </row>
-    <row r="737" spans="5:5" ht="13">
-      <c r="E737" s="4"/>
-    </row>
-    <row r="738" spans="5:5" ht="13">
-      <c r="E738" s="4"/>
-    </row>
-    <row r="739" spans="5:5" ht="13">
-      <c r="E739" s="4"/>
-    </row>
-    <row r="740" spans="5:5" ht="13">
-      <c r="E740" s="4"/>
-    </row>
-    <row r="741" spans="5:5" ht="13">
-      <c r="E741" s="4"/>
-    </row>
-    <row r="742" spans="5:5" ht="13">
-      <c r="E742" s="4"/>
-    </row>
-    <row r="743" spans="5:5" ht="13">
-      <c r="E743" s="4"/>
-    </row>
-    <row r="744" spans="5:5" ht="13">
-      <c r="E744" s="4"/>
-    </row>
-    <row r="745" spans="5:5" ht="13">
-      <c r="E745" s="4"/>
-    </row>
-    <row r="746" spans="5:5" ht="13">
-      <c r="E746" s="4"/>
-    </row>
-    <row r="747" spans="5:5" ht="13">
-      <c r="E747" s="4"/>
-    </row>
-    <row r="748" spans="5:5" ht="13">
-      <c r="E748" s="4"/>
-    </row>
-    <row r="749" spans="5:5" ht="13">
-      <c r="E749" s="4"/>
-    </row>
-    <row r="750" spans="5:5" ht="13">
-      <c r="E750" s="4"/>
-    </row>
-    <row r="751" spans="5:5" ht="13">
-      <c r="E751" s="4"/>
-    </row>
-    <row r="752" spans="5:5" ht="13">
-      <c r="E752" s="4"/>
-    </row>
-    <row r="753" spans="5:5" ht="13">
-      <c r="E753" s="4"/>
-    </row>
-    <row r="754" spans="5:5" ht="13">
-      <c r="E754" s="4"/>
-    </row>
-    <row r="755" spans="5:5" ht="13">
-      <c r="E755" s="4"/>
-    </row>
-    <row r="756" spans="5:5" ht="13">
-      <c r="E756" s="4"/>
-    </row>
-    <row r="757" spans="5:5" ht="13">
-      <c r="E757" s="4"/>
-    </row>
-    <row r="758" spans="5:5" ht="13">
-      <c r="E758" s="4"/>
-    </row>
-    <row r="759" spans="5:5" ht="13">
-      <c r="E759" s="4"/>
-    </row>
-    <row r="760" spans="5:5" ht="13">
-      <c r="E760" s="4"/>
-    </row>
-    <row r="761" spans="5:5" ht="13">
-      <c r="E761" s="4"/>
-    </row>
-    <row r="762" spans="5:5" ht="13">
-      <c r="E762" s="4"/>
-    </row>
-    <row r="763" spans="5:5" ht="13">
-      <c r="E763" s="4"/>
-    </row>
-    <row r="764" spans="5:5" ht="13">
-      <c r="E764" s="4"/>
-    </row>
-    <row r="765" spans="5:5" ht="13">
-      <c r="E765" s="4"/>
-    </row>
-    <row r="766" spans="5:5" ht="13">
-      <c r="E766" s="4"/>
-    </row>
-    <row r="767" spans="5:5" ht="13">
-      <c r="E767" s="4"/>
-    </row>
-    <row r="768" spans="5:5" ht="13">
-      <c r="E768" s="4"/>
-    </row>
-    <row r="769" spans="5:5" ht="13">
-      <c r="E769" s="4"/>
-    </row>
-    <row r="770" spans="5:5" ht="13">
-      <c r="E770" s="4"/>
-    </row>
-    <row r="771" spans="5:5" ht="13">
-      <c r="E771" s="4"/>
-    </row>
-    <row r="772" spans="5:5" ht="13">
-      <c r="E772" s="4"/>
-    </row>
-    <row r="773" spans="5:5" ht="13">
-      <c r="E773" s="4"/>
-    </row>
-    <row r="774" spans="5:5" ht="13">
-      <c r="E774" s="4"/>
-    </row>
-    <row r="775" spans="5:5" ht="13">
-      <c r="E775" s="4"/>
-    </row>
-    <row r="776" spans="5:5" ht="13">
-      <c r="E776" s="4"/>
-    </row>
-    <row r="777" spans="5:5" ht="13">
-      <c r="E777" s="4"/>
-    </row>
-    <row r="778" spans="5:5" ht="13">
-      <c r="E778" s="4"/>
-    </row>
-    <row r="779" spans="5:5" ht="13">
-      <c r="E779" s="4"/>
-    </row>
-    <row r="780" spans="5:5" ht="13">
-      <c r="E780" s="4"/>
-    </row>
-    <row r="781" spans="5:5" ht="13">
-      <c r="E781" s="4"/>
-    </row>
-    <row r="782" spans="5:5" ht="13">
-      <c r="E782" s="4"/>
-    </row>
-    <row r="783" spans="5:5" ht="13">
-      <c r="E783" s="4"/>
-    </row>
-    <row r="784" spans="5:5" ht="13">
-      <c r="E784" s="4"/>
-    </row>
-    <row r="785" spans="5:5" ht="13">
-      <c r="E785" s="4"/>
-    </row>
-    <row r="786" spans="5:5" ht="13">
-      <c r="E786" s="4"/>
-    </row>
-    <row r="787" spans="5:5" ht="13">
-      <c r="E787" s="4"/>
-    </row>
-    <row r="788" spans="5:5" ht="13">
-      <c r="E788" s="4"/>
-    </row>
-    <row r="789" spans="5:5" ht="13">
-      <c r="E789" s="4"/>
-    </row>
-    <row r="790" spans="5:5" ht="13">
-      <c r="E790" s="4"/>
-    </row>
-    <row r="791" spans="5:5" ht="13">
-      <c r="E791" s="4"/>
-    </row>
-    <row r="792" spans="5:5" ht="13">
-      <c r="E792" s="4"/>
-    </row>
-    <row r="793" spans="5:5" ht="13">
-      <c r="E793" s="4"/>
-    </row>
-    <row r="794" spans="5:5" ht="13">
-      <c r="E794" s="4"/>
-    </row>
-    <row r="795" spans="5:5" ht="13">
-      <c r="E795" s="4"/>
-    </row>
-    <row r="796" spans="5:5" ht="13">
-      <c r="E796" s="4"/>
-    </row>
-    <row r="797" spans="5:5" ht="13">
-      <c r="E797" s="4"/>
-    </row>
-    <row r="798" spans="5:5" ht="13">
-      <c r="E798" s="4"/>
-    </row>
-    <row r="799" spans="5:5" ht="13">
-      <c r="E799" s="4"/>
-    </row>
-    <row r="800" spans="5:5" ht="13">
-      <c r="E800" s="4"/>
-    </row>
-    <row r="801" spans="5:5" ht="13">
-      <c r="E801" s="4"/>
-    </row>
-    <row r="802" spans="5:5" ht="13">
-      <c r="E802" s="4"/>
-    </row>
-    <row r="803" spans="5:5" ht="13">
-      <c r="E803" s="4"/>
-    </row>
-    <row r="804" spans="5:5" ht="13">
-      <c r="E804" s="4"/>
-    </row>
-    <row r="805" spans="5:5" ht="13">
-      <c r="E805" s="4"/>
-    </row>
-    <row r="806" spans="5:5" ht="13">
-      <c r="E806" s="4"/>
-    </row>
-    <row r="807" spans="5:5" ht="13">
-      <c r="E807" s="4"/>
-    </row>
-    <row r="808" spans="5:5" ht="13">
-      <c r="E808" s="4"/>
-    </row>
-    <row r="809" spans="5:5" ht="13">
-      <c r="E809" s="4"/>
-    </row>
-    <row r="810" spans="5:5" ht="13">
-      <c r="E810" s="4"/>
-    </row>
-    <row r="811" spans="5:5" ht="13">
-      <c r="E811" s="4"/>
-    </row>
-    <row r="812" spans="5:5" ht="13">
-      <c r="E812" s="4"/>
-    </row>
-    <row r="813" spans="5:5" ht="13">
-      <c r="E813" s="4"/>
-    </row>
-    <row r="814" spans="5:5" ht="13">
-      <c r="E814" s="4"/>
-    </row>
-    <row r="815" spans="5:5" ht="13">
-      <c r="E815" s="4"/>
-    </row>
-    <row r="816" spans="5:5" ht="13">
-      <c r="E816" s="4"/>
-    </row>
-    <row r="817" spans="5:5" ht="13">
-      <c r="E817" s="4"/>
-    </row>
-    <row r="818" spans="5:5" ht="13">
-      <c r="E818" s="4"/>
-    </row>
-    <row r="819" spans="5:5" ht="13">
-      <c r="E819" s="4"/>
-    </row>
-    <row r="820" spans="5:5" ht="13">
-      <c r="E820" s="4"/>
-    </row>
-    <row r="821" spans="5:5" ht="13">
-      <c r="E821" s="4"/>
-    </row>
-    <row r="822" spans="5:5" ht="13">
-      <c r="E822" s="4"/>
-    </row>
-    <row r="823" spans="5:5" ht="13">
-      <c r="E823" s="4"/>
-    </row>
-    <row r="824" spans="5:5" ht="13">
-      <c r="E824" s="4"/>
-    </row>
-    <row r="825" spans="5:5" ht="13">
-      <c r="E825" s="4"/>
-    </row>
-    <row r="826" spans="5:5" ht="13">
-      <c r="E826" s="4"/>
-    </row>
-    <row r="827" spans="5:5" ht="13">
-      <c r="E827" s="4"/>
-    </row>
-    <row r="828" spans="5:5" ht="13">
-      <c r="E828" s="4"/>
-    </row>
-    <row r="829" spans="5:5" ht="13">
-      <c r="E829" s="4"/>
-    </row>
-    <row r="830" spans="5:5" ht="13">
-      <c r="E830" s="4"/>
-    </row>
-    <row r="831" spans="5:5" ht="13">
-      <c r="E831" s="4"/>
-    </row>
-    <row r="832" spans="5:5" ht="13">
-      <c r="E832" s="4"/>
-    </row>
-    <row r="833" spans="5:5" ht="13">
-      <c r="E833" s="4"/>
-    </row>
-    <row r="834" spans="5:5" ht="13">
-      <c r="E834" s="4"/>
-    </row>
-    <row r="835" spans="5:5" ht="13">
-      <c r="E835" s="4"/>
-    </row>
-    <row r="836" spans="5:5" ht="13">
-      <c r="E836" s="4"/>
-    </row>
-    <row r="837" spans="5:5" ht="13">
-      <c r="E837" s="4"/>
-    </row>
-    <row r="838" spans="5:5" ht="13">
-      <c r="E838" s="4"/>
-    </row>
-    <row r="839" spans="5:5" ht="13">
-      <c r="E839" s="4"/>
-    </row>
-    <row r="840" spans="5:5" ht="13">
-      <c r="E840" s="4"/>
-    </row>
-    <row r="841" spans="5:5" ht="13">
-      <c r="E841" s="4"/>
-    </row>
-    <row r="842" spans="5:5" ht="13">
-      <c r="E842" s="4"/>
-    </row>
-    <row r="843" spans="5:5" ht="13">
-      <c r="E843" s="4"/>
-    </row>
-    <row r="844" spans="5:5" ht="13">
-      <c r="E844" s="4"/>
-    </row>
-    <row r="845" spans="5:5" ht="13">
-      <c r="E845" s="4"/>
-    </row>
-    <row r="846" spans="5:5" ht="13">
-      <c r="E846" s="4"/>
-    </row>
-    <row r="847" spans="5:5" ht="13">
-      <c r="E847" s="4"/>
-    </row>
-    <row r="848" spans="5:5" ht="13">
-      <c r="E848" s="4"/>
-    </row>
-    <row r="849" spans="5:5" ht="13">
-      <c r="E849" s="4"/>
-    </row>
-    <row r="850" spans="5:5" ht="13">
-      <c r="E850" s="4"/>
-    </row>
-    <row r="851" spans="5:5" ht="13">
-      <c r="E851" s="4"/>
-    </row>
-    <row r="852" spans="5:5" ht="13">
-      <c r="E852" s="4"/>
-    </row>
-    <row r="853" spans="5:5" ht="13">
-      <c r="E853" s="4"/>
-    </row>
-    <row r="854" spans="5:5" ht="13">
-      <c r="E854" s="4"/>
-    </row>
-    <row r="855" spans="5:5" ht="13">
-      <c r="E855" s="4"/>
-    </row>
-    <row r="856" spans="5:5" ht="13">
-      <c r="E856" s="4"/>
-    </row>
-    <row r="857" spans="5:5" ht="13">
-      <c r="E857" s="4"/>
-    </row>
-    <row r="858" spans="5:5" ht="13">
-      <c r="E858" s="4"/>
-    </row>
-    <row r="859" spans="5:5" ht="13">
-      <c r="E859" s="4"/>
-    </row>
-    <row r="860" spans="5:5" ht="13">
-      <c r="E860" s="4"/>
-    </row>
-    <row r="861" spans="5:5" ht="13">
-      <c r="E861" s="4"/>
-    </row>
-    <row r="862" spans="5:5" ht="13">
-      <c r="E862" s="4"/>
-    </row>
-    <row r="863" spans="5:5" ht="13">
-      <c r="E863" s="4"/>
-    </row>
-    <row r="864" spans="5:5" ht="13">
-      <c r="E864" s="4"/>
-    </row>
-    <row r="865" spans="5:5" ht="13">
-      <c r="E865" s="4"/>
-    </row>
-    <row r="866" spans="5:5" ht="13">
-      <c r="E866" s="4"/>
-    </row>
-    <row r="867" spans="5:5" ht="13">
-      <c r="E867" s="4"/>
-    </row>
-    <row r="868" spans="5:5" ht="13">
-      <c r="E868" s="4"/>
-    </row>
-    <row r="869" spans="5:5" ht="13">
-      <c r="E869" s="4"/>
-    </row>
-    <row r="870" spans="5:5" ht="13">
-      <c r="E870" s="4"/>
-    </row>
-    <row r="871" spans="5:5" ht="13">
-      <c r="E871" s="4"/>
-    </row>
-    <row r="872" spans="5:5" ht="13">
-      <c r="E872" s="4"/>
-    </row>
-    <row r="873" spans="5:5" ht="13">
-      <c r="E873" s="4"/>
-    </row>
-    <row r="874" spans="5:5" ht="13">
-      <c r="E874" s="4"/>
-    </row>
-    <row r="875" spans="5:5" ht="13">
-      <c r="E875" s="4"/>
-    </row>
-    <row r="876" spans="5:5" ht="13">
-      <c r="E876" s="4"/>
-    </row>
-    <row r="877" spans="5:5" ht="13">
-      <c r="E877" s="4"/>
-    </row>
-    <row r="878" spans="5:5" ht="13">
-      <c r="E878" s="4"/>
-    </row>
-    <row r="879" spans="5:5" ht="13">
-      <c r="E879" s="4"/>
-    </row>
-    <row r="880" spans="5:5" ht="13">
-      <c r="E880" s="4"/>
-    </row>
-    <row r="881" spans="5:5" ht="13">
-      <c r="E881" s="4"/>
-    </row>
-    <row r="882" spans="5:5" ht="13">
-      <c r="E882" s="4"/>
-    </row>
-    <row r="883" spans="5:5" ht="13">
-      <c r="E883" s="4"/>
-    </row>
-    <row r="884" spans="5:5" ht="13">
-      <c r="E884" s="4"/>
-    </row>
-    <row r="885" spans="5:5" ht="13">
-      <c r="E885" s="4"/>
-    </row>
-    <row r="886" spans="5:5" ht="13">
-      <c r="E886" s="4"/>
-    </row>
-    <row r="887" spans="5:5" ht="13">
-      <c r="E887" s="4"/>
-    </row>
-    <row r="888" spans="5:5" ht="13">
-      <c r="E888" s="4"/>
-    </row>
-    <row r="889" spans="5:5" ht="13">
-      <c r="E889" s="4"/>
-    </row>
-    <row r="890" spans="5:5" ht="13">
-      <c r="E890" s="4"/>
-    </row>
-    <row r="891" spans="5:5" ht="13">
-      <c r="E891" s="4"/>
-    </row>
-    <row r="892" spans="5:5" ht="13">
-      <c r="E892" s="4"/>
-    </row>
-    <row r="893" spans="5:5" ht="13">
-      <c r="E893" s="4"/>
-    </row>
-    <row r="894" spans="5:5" ht="13">
-      <c r="E894" s="4"/>
-    </row>
-    <row r="895" spans="5:5" ht="13">
-      <c r="E895" s="4"/>
-    </row>
-    <row r="896" spans="5:5" ht="13">
-      <c r="E896" s="4"/>
-    </row>
-    <row r="897" spans="5:5" ht="13">
-      <c r="E897" s="4"/>
-    </row>
-    <row r="898" spans="5:5" ht="13">
-      <c r="E898" s="4"/>
-    </row>
-    <row r="899" spans="5:5" ht="13">
-      <c r="E899" s="4"/>
-    </row>
-    <row r="900" spans="5:5" ht="13">
-      <c r="E900" s="4"/>
-    </row>
-    <row r="901" spans="5:5" ht="13">
-      <c r="E901" s="4"/>
-    </row>
-    <row r="902" spans="5:5" ht="13">
-      <c r="E902" s="4"/>
-    </row>
-    <row r="903" spans="5:5" ht="13">
-      <c r="E903" s="4"/>
-    </row>
-    <row r="904" spans="5:5" ht="13">
-      <c r="E904" s="4"/>
-    </row>
-    <row r="905" spans="5:5" ht="13">
-      <c r="E905" s="4"/>
-    </row>
-    <row r="906" spans="5:5" ht="13">
-      <c r="E906" s="4"/>
-    </row>
-    <row r="907" spans="5:5" ht="13">
-      <c r="E907" s="4"/>
-    </row>
-    <row r="908" spans="5:5" ht="13">
-      <c r="E908" s="4"/>
-    </row>
-    <row r="909" spans="5:5" ht="13">
-      <c r="E909" s="4"/>
-    </row>
-    <row r="910" spans="5:5" ht="13">
-      <c r="E910" s="4"/>
-    </row>
-    <row r="911" spans="5:5" ht="13">
-      <c r="E911" s="4"/>
-    </row>
-    <row r="912" spans="5:5" ht="13">
-      <c r="E912" s="4"/>
-    </row>
-    <row r="913" spans="5:5" ht="13">
-      <c r="E913" s="4"/>
-    </row>
-    <row r="914" spans="5:5" ht="13">
-      <c r="E914" s="4"/>
-    </row>
-    <row r="915" spans="5:5" ht="13">
-      <c r="E915" s="4"/>
-    </row>
-    <row r="916" spans="5:5" ht="13">
-      <c r="E916" s="4"/>
-    </row>
-    <row r="917" spans="5:5" ht="13">
-      <c r="E917" s="4"/>
-    </row>
-    <row r="918" spans="5:5" ht="13">
-      <c r="E918" s="4"/>
-    </row>
-    <row r="919" spans="5:5" ht="13">
-      <c r="E919" s="4"/>
-    </row>
-    <row r="920" spans="5:5" ht="13">
-      <c r="E920" s="4"/>
-    </row>
-    <row r="921" spans="5:5" ht="13">
-      <c r="E921" s="4"/>
-    </row>
-    <row r="922" spans="5:5" ht="13">
-      <c r="E922" s="4"/>
-    </row>
-    <row r="923" spans="5:5" ht="13">
-      <c r="E923" s="4"/>
-    </row>
-    <row r="924" spans="5:5" ht="13">
-      <c r="E924" s="4"/>
-    </row>
-    <row r="925" spans="5:5" ht="13">
-      <c r="E925" s="4"/>
-    </row>
-    <row r="926" spans="5:5" ht="13">
-      <c r="E926" s="4"/>
-    </row>
-    <row r="927" spans="5:5" ht="13">
-      <c r="E927" s="4"/>
-    </row>
-    <row r="928" spans="5:5" ht="13">
-      <c r="E928" s="4"/>
-    </row>
-    <row r="929" spans="5:5" ht="13">
-      <c r="E929" s="4"/>
-    </row>
-    <row r="930" spans="5:5" ht="13">
-      <c r="E930" s="4"/>
-    </row>
-    <row r="931" spans="5:5" ht="13">
-      <c r="E931" s="4"/>
-    </row>
-    <row r="932" spans="5:5" ht="13">
-      <c r="E932" s="4"/>
-    </row>
-    <row r="933" spans="5:5" ht="13">
-      <c r="E933" s="4"/>
-    </row>
-    <row r="934" spans="5:5" ht="13">
-      <c r="E934" s="4"/>
-    </row>
-    <row r="935" spans="5:5" ht="13">
-      <c r="E935" s="4"/>
-    </row>
-    <row r="936" spans="5:5" ht="13">
-      <c r="E936" s="4"/>
-    </row>
-    <row r="937" spans="5:5" ht="13">
-      <c r="E937" s="4"/>
-    </row>
-    <row r="938" spans="5:5" ht="13">
-      <c r="E938" s="4"/>
-    </row>
-    <row r="939" spans="5:5" ht="13">
-      <c r="E939" s="4"/>
-    </row>
-    <row r="940" spans="5:5" ht="13">
-      <c r="E940" s="4"/>
-    </row>
-    <row r="941" spans="5:5" ht="13">
-      <c r="E941" s="4"/>
-    </row>
-    <row r="942" spans="5:5" ht="13">
-      <c r="E942" s="4"/>
-    </row>
-    <row r="943" spans="5:5" ht="13">
-      <c r="E943" s="4"/>
-    </row>
-    <row r="944" spans="5:5" ht="13">
-      <c r="E944" s="4"/>
-    </row>
-    <row r="945" spans="5:5" ht="13">
-      <c r="E945" s="4"/>
-    </row>
-    <row r="946" spans="5:5" ht="13">
-      <c r="E946" s="4"/>
-    </row>
-    <row r="947" spans="5:5" ht="13">
-      <c r="E947" s="4"/>
-    </row>
-    <row r="948" spans="5:5" ht="13">
-      <c r="E948" s="4"/>
-    </row>
-    <row r="949" spans="5:5" ht="13">
-      <c r="E949" s="4"/>
-    </row>
-    <row r="950" spans="5:5" ht="13">
-      <c r="E950" s="4"/>
-    </row>
-    <row r="951" spans="5:5" ht="13">
-      <c r="E951" s="4"/>
-    </row>
-    <row r="952" spans="5:5" ht="13">
-      <c r="E952" s="4"/>
-    </row>
-    <row r="953" spans="5:5" ht="13">
-      <c r="E953" s="4"/>
-    </row>
-    <row r="954" spans="5:5" ht="13">
-      <c r="E954" s="4"/>
-    </row>
-    <row r="955" spans="5:5" ht="13">
-      <c r="E955" s="4"/>
-    </row>
-    <row r="956" spans="5:5" ht="13">
-      <c r="E956" s="4"/>
-    </row>
-    <row r="957" spans="5:5" ht="13">
-      <c r="E957" s="4"/>
-    </row>
-    <row r="958" spans="5:5" ht="13">
-      <c r="E958" s="4"/>
-    </row>
-    <row r="959" spans="5:5" ht="13">
-      <c r="E959" s="4"/>
-    </row>
-    <row r="960" spans="5:5" ht="13">
-      <c r="E960" s="4"/>
-    </row>
-    <row r="961" spans="5:5" ht="13">
-      <c r="E961" s="4"/>
-    </row>
-    <row r="962" spans="5:5" ht="13">
-      <c r="E962" s="4"/>
-    </row>
-    <row r="963" spans="5:5" ht="13">
-      <c r="E963" s="4"/>
-    </row>
-    <row r="964" spans="5:5" ht="13">
-      <c r="E964" s="4"/>
-    </row>
-    <row r="965" spans="5:5" ht="13">
-      <c r="E965" s="4"/>
-    </row>
-    <row r="966" spans="5:5" ht="13">
-      <c r="E966" s="4"/>
-    </row>
-    <row r="967" spans="5:5" ht="13">
-      <c r="E967" s="4"/>
-    </row>
-    <row r="968" spans="5:5" ht="13">
-      <c r="E968" s="4"/>
-    </row>
-    <row r="969" spans="5:5" ht="13">
-      <c r="E969" s="4"/>
-    </row>
-    <row r="970" spans="5:5" ht="13">
-      <c r="E970" s="4"/>
-    </row>
-    <row r="971" spans="5:5" ht="13">
-      <c r="E971" s="4"/>
-    </row>
-    <row r="972" spans="5:5" ht="13">
-      <c r="E972" s="4"/>
-    </row>
-    <row r="973" spans="5:5" ht="13">
-      <c r="E973" s="4"/>
-    </row>
-    <row r="974" spans="5:5" ht="13">
-      <c r="E974" s="4"/>
-    </row>
-    <row r="975" spans="5:5" ht="13">
-      <c r="E975" s="4"/>
-    </row>
-    <row r="976" spans="5:5" ht="13">
-      <c r="E976" s="4"/>
-    </row>
-    <row r="977" spans="5:5" ht="13">
-      <c r="E977" s="4"/>
-    </row>
-    <row r="978" spans="5:5" ht="13">
-      <c r="E978" s="4"/>
-    </row>
-    <row r="979" spans="5:5" ht="13">
-      <c r="E979" s="4"/>
-    </row>
-    <row r="980" spans="5:5" ht="13">
-      <c r="E980" s="4"/>
-    </row>
-    <row r="981" spans="5:5" ht="13">
-      <c r="E981" s="4"/>
-    </row>
-    <row r="982" spans="5:5" ht="13">
-      <c r="E982" s="4"/>
-    </row>
-    <row r="983" spans="5:5" ht="13">
-      <c r="E983" s="4"/>
-    </row>
-    <row r="984" spans="5:5" ht="13">
-      <c r="E984" s="4"/>
-    </row>
-    <row r="985" spans="5:5" ht="13">
-      <c r="E985" s="4"/>
-    </row>
-    <row r="986" spans="5:5" ht="13">
-      <c r="E986" s="4"/>
-    </row>
-    <row r="987" spans="5:5" ht="13">
-      <c r="E987" s="4"/>
-    </row>
-    <row r="988" spans="5:5" ht="13">
-      <c r="E988" s="4"/>
-    </row>
-    <row r="989" spans="5:5" ht="13">
-      <c r="E989" s="4"/>
-    </row>
-    <row r="990" spans="5:5" ht="13">
-      <c r="E990" s="4"/>
-    </row>
-    <row r="991" spans="5:5" ht="13">
-      <c r="E991" s="4"/>
-    </row>
-    <row r="992" spans="5:5" ht="13">
-      <c r="E992" s="4"/>
-    </row>
-    <row r="993" spans="5:5" ht="13">
-      <c r="E993" s="4"/>
-    </row>
-    <row r="994" spans="5:5" ht="13">
-      <c r="E994" s="4"/>
-    </row>
-    <row r="995" spans="5:5" ht="13">
-      <c r="E995" s="4"/>
-    </row>
-    <row r="996" spans="5:5" ht="13">
-      <c r="E996" s="4"/>
-    </row>
-    <row r="997" spans="5:5" ht="13">
-      <c r="E997" s="4"/>
-    </row>
-    <row r="998" spans="5:5" ht="13">
-      <c r="E998" s="4"/>
-    </row>
-    <row r="999" spans="5:5" ht="13">
-      <c r="E999" s="4"/>
-    </row>
-    <row r="1000" spans="5:5" ht="13">
-      <c r="E1000" s="4"/>
-    </row>
+    </row>
+    <row r="84" ht="13"/>
+    <row r="85" ht="13"/>
+    <row r="86" ht="13"/>
+    <row r="87" ht="13"/>
+    <row r="88" ht="13"/>
+    <row r="89" ht="13"/>
+    <row r="90" ht="13"/>
+    <row r="91" ht="13"/>
+    <row r="92" ht="13"/>
+    <row r="93" ht="13"/>
+    <row r="94" ht="13"/>
+    <row r="95" ht="13"/>
+    <row r="96" ht="13"/>
+    <row r="97" ht="13"/>
+    <row r="98" ht="13"/>
+    <row r="99" ht="13"/>
+    <row r="100" ht="13"/>
+    <row r="101" ht="13"/>
+    <row r="102" ht="13"/>
+    <row r="103" ht="13"/>
+    <row r="104" ht="13"/>
+    <row r="105" ht="13"/>
+    <row r="106" ht="13"/>
+    <row r="107" ht="13"/>
+    <row r="108" ht="13"/>
+    <row r="109" ht="13"/>
+    <row r="110" ht="13"/>
+    <row r="111" ht="13"/>
+    <row r="112" ht="13"/>
+    <row r="113" ht="13"/>
+    <row r="114" ht="13"/>
+    <row r="115" ht="13"/>
+    <row r="116" ht="13"/>
+    <row r="117" ht="13"/>
+    <row r="118" ht="13"/>
+    <row r="119" ht="13"/>
+    <row r="120" ht="13"/>
+    <row r="121" ht="13"/>
+    <row r="122" ht="13"/>
+    <row r="123" ht="13"/>
+    <row r="124" ht="13"/>
+    <row r="125" ht="13"/>
+    <row r="126" ht="13"/>
+    <row r="127" ht="13"/>
+    <row r="128" ht="13"/>
+    <row r="129" ht="13"/>
+    <row r="130" ht="13"/>
+    <row r="131" ht="13"/>
+    <row r="132" ht="13"/>
+    <row r="133" ht="13"/>
+    <row r="134" ht="13"/>
+    <row r="135" ht="13"/>
+    <row r="136" ht="13"/>
+    <row r="137" ht="13"/>
+    <row r="138" ht="13"/>
+    <row r="139" ht="13"/>
+    <row r="140" ht="13"/>
+    <row r="141" ht="13"/>
+    <row r="142" ht="13"/>
+    <row r="143" ht="13"/>
+    <row r="144" ht="13"/>
+    <row r="145" ht="13"/>
+    <row r="146" ht="13"/>
+    <row r="147" ht="13"/>
+    <row r="148" ht="13"/>
+    <row r="149" ht="13"/>
+    <row r="150" ht="13"/>
+    <row r="151" ht="13"/>
+    <row r="152" ht="13"/>
+    <row r="153" ht="13"/>
+    <row r="154" ht="13"/>
+    <row r="155" ht="13"/>
+    <row r="156" ht="13"/>
+    <row r="157" ht="13"/>
+    <row r="158" ht="13"/>
+    <row r="159" ht="13"/>
+    <row r="160" ht="13"/>
+    <row r="161" ht="13"/>
+    <row r="162" ht="13"/>
+    <row r="163" ht="13"/>
+    <row r="164" ht="13"/>
+    <row r="165" ht="13"/>
+    <row r="166" ht="13"/>
+    <row r="167" ht="13"/>
+    <row r="168" ht="13"/>
+    <row r="169" ht="13"/>
+    <row r="170" ht="13"/>
+    <row r="171" ht="13"/>
+    <row r="172" ht="13"/>
+    <row r="173" ht="13"/>
+    <row r="174" ht="13"/>
+    <row r="175" ht="13"/>
+    <row r="176" ht="13"/>
+    <row r="177" ht="13"/>
+    <row r="178" ht="13"/>
+    <row r="179" ht="13"/>
+    <row r="180" ht="13"/>
+    <row r="181" ht="13"/>
+    <row r="182" ht="13"/>
+    <row r="183" ht="13"/>
+    <row r="184" ht="13"/>
+    <row r="185" ht="13"/>
+    <row r="186" ht="13"/>
+    <row r="187" ht="13"/>
+    <row r="188" ht="13"/>
+    <row r="189" ht="13"/>
+    <row r="190" ht="13"/>
+    <row r="191" ht="13"/>
+    <row r="192" ht="13"/>
+    <row r="193" ht="13"/>
+    <row r="194" ht="13"/>
+    <row r="195" ht="13"/>
+    <row r="196" ht="13"/>
+    <row r="197" ht="13"/>
+    <row r="198" ht="13"/>
+    <row r="199" ht="13"/>
+    <row r="200" ht="13"/>
+    <row r="201" ht="13"/>
+    <row r="202" ht="13"/>
+    <row r="203" ht="13"/>
+    <row r="204" ht="13"/>
+    <row r="205" ht="13"/>
+    <row r="206" ht="13"/>
+    <row r="207" ht="13"/>
+    <row r="208" ht="13"/>
+    <row r="209" ht="13"/>
+    <row r="210" ht="13"/>
+    <row r="211" ht="13"/>
+    <row r="212" ht="13"/>
+    <row r="213" ht="13"/>
+    <row r="214" ht="13"/>
+    <row r="215" ht="13"/>
+    <row r="216" ht="13"/>
+    <row r="217" ht="13"/>
+    <row r="218" ht="13"/>
+    <row r="219" ht="13"/>
+    <row r="220" ht="13"/>
+    <row r="221" ht="13"/>
+    <row r="222" ht="13"/>
+    <row r="223" ht="13"/>
+    <row r="224" ht="13"/>
+    <row r="225" ht="13"/>
+    <row r="226" ht="13"/>
+    <row r="227" ht="13"/>
+    <row r="228" ht="13"/>
+    <row r="229" ht="13"/>
+    <row r="230" ht="13"/>
+    <row r="231" ht="13"/>
+    <row r="232" ht="13"/>
+    <row r="233" ht="13"/>
+    <row r="234" ht="13"/>
+    <row r="235" ht="13"/>
+    <row r="236" ht="13"/>
+    <row r="237" ht="13"/>
+    <row r="238" ht="13"/>
+    <row r="239" ht="13"/>
+    <row r="240" ht="13"/>
+    <row r="241" ht="13"/>
+    <row r="242" ht="13"/>
+    <row r="243" ht="13"/>
+    <row r="244" ht="13"/>
+    <row r="245" ht="13"/>
+    <row r="246" ht="13"/>
+    <row r="247" ht="13"/>
+    <row r="248" ht="13"/>
+    <row r="249" ht="13"/>
+    <row r="250" ht="13"/>
+    <row r="251" ht="13"/>
+    <row r="252" ht="13"/>
+    <row r="253" ht="13"/>
+    <row r="254" ht="13"/>
+    <row r="255" ht="13"/>
+    <row r="256" ht="13"/>
+    <row r="257" ht="13"/>
+    <row r="258" ht="13"/>
+    <row r="259" ht="13"/>
+    <row r="260" ht="13"/>
+    <row r="261" ht="13"/>
+    <row r="262" ht="13"/>
+    <row r="263" ht="13"/>
+    <row r="264" ht="13"/>
+    <row r="265" ht="13"/>
+    <row r="266" ht="13"/>
+    <row r="267" ht="13"/>
+    <row r="268" ht="13"/>
+    <row r="269" ht="13"/>
+    <row r="270" ht="13"/>
+    <row r="271" ht="13"/>
+    <row r="272" ht="13"/>
+    <row r="273" ht="13"/>
+    <row r="274" ht="13"/>
+    <row r="275" ht="13"/>
+    <row r="276" ht="13"/>
+    <row r="277" ht="13"/>
+    <row r="278" ht="13"/>
+    <row r="279" ht="13"/>
+    <row r="280" ht="13"/>
+    <row r="281" ht="13"/>
+    <row r="282" ht="13"/>
+    <row r="283" ht="13"/>
+    <row r="284" ht="13"/>
+    <row r="285" ht="13"/>
+    <row r="286" ht="13"/>
+    <row r="287" ht="13"/>
+    <row r="288" ht="13"/>
+    <row r="289" ht="13"/>
+    <row r="290" ht="13"/>
+    <row r="291" ht="13"/>
+    <row r="292" ht="13"/>
+    <row r="293" ht="13"/>
+    <row r="294" ht="13"/>
+    <row r="295" ht="13"/>
+    <row r="296" ht="13"/>
+    <row r="297" ht="13"/>
+    <row r="298" ht="13"/>
+    <row r="299" ht="13"/>
+    <row r="300" ht="13"/>
+    <row r="301" ht="13"/>
+    <row r="302" ht="13"/>
+    <row r="303" ht="13"/>
+    <row r="304" ht="13"/>
+    <row r="305" ht="13"/>
+    <row r="306" ht="13"/>
+    <row r="307" ht="13"/>
+    <row r="308" ht="13"/>
+    <row r="309" ht="13"/>
+    <row r="310" ht="13"/>
+    <row r="311" ht="13"/>
+    <row r="312" ht="13"/>
+    <row r="313" ht="13"/>
+    <row r="314" ht="13"/>
+    <row r="315" ht="13"/>
+    <row r="316" ht="13"/>
+    <row r="317" ht="13"/>
+    <row r="318" ht="13"/>
+    <row r="319" ht="13"/>
+    <row r="320" ht="13"/>
+    <row r="321" ht="13"/>
+    <row r="322" ht="13"/>
+    <row r="323" ht="13"/>
+    <row r="324" ht="13"/>
+    <row r="325" ht="13"/>
+    <row r="326" ht="13"/>
+    <row r="327" ht="13"/>
+    <row r="328" ht="13"/>
+    <row r="329" ht="13"/>
+    <row r="330" ht="13"/>
+    <row r="331" ht="13"/>
+    <row r="332" ht="13"/>
+    <row r="333" ht="13"/>
+    <row r="334" ht="13"/>
+    <row r="335" ht="13"/>
+    <row r="336" ht="13"/>
+    <row r="337" ht="13"/>
+    <row r="338" ht="13"/>
+    <row r="339" ht="13"/>
+    <row r="340" ht="13"/>
+    <row r="341" ht="13"/>
+    <row r="342" ht="13"/>
+    <row r="343" ht="13"/>
+    <row r="344" ht="13"/>
+    <row r="345" ht="13"/>
+    <row r="346" ht="13"/>
+    <row r="347" ht="13"/>
+    <row r="348" ht="13"/>
+    <row r="349" ht="13"/>
+    <row r="350" ht="13"/>
+    <row r="351" ht="13"/>
+    <row r="352" ht="13"/>
+    <row r="353" ht="13"/>
+    <row r="354" ht="13"/>
+    <row r="355" ht="13"/>
+    <row r="356" ht="13"/>
+    <row r="357" ht="13"/>
+    <row r="358" ht="13"/>
+    <row r="359" ht="13"/>
+    <row r="360" ht="13"/>
+    <row r="361" ht="13"/>
+    <row r="362" ht="13"/>
+    <row r="363" ht="13"/>
+    <row r="364" ht="13"/>
+    <row r="365" ht="13"/>
+    <row r="366" ht="13"/>
+    <row r="367" ht="13"/>
+    <row r="368" ht="13"/>
+    <row r="369" ht="13"/>
+    <row r="370" ht="13"/>
+    <row r="371" ht="13"/>
+    <row r="372" ht="13"/>
+    <row r="373" ht="13"/>
+    <row r="374" ht="13"/>
+    <row r="375" ht="13"/>
+    <row r="376" ht="13"/>
+    <row r="377" ht="13"/>
+    <row r="378" ht="13"/>
+    <row r="379" ht="13"/>
+    <row r="380" ht="13"/>
+    <row r="381" ht="13"/>
+    <row r="382" ht="13"/>
+    <row r="383" ht="13"/>
+    <row r="384" ht="13"/>
+    <row r="385" ht="13"/>
+    <row r="386" ht="13"/>
+    <row r="387" ht="13"/>
+    <row r="388" ht="13"/>
+    <row r="389" ht="13"/>
+    <row r="390" ht="13"/>
+    <row r="391" ht="13"/>
+    <row r="392" ht="13"/>
+    <row r="393" ht="13"/>
+    <row r="394" ht="13"/>
+    <row r="395" ht="13"/>
+    <row r="396" ht="13"/>
+    <row r="397" ht="13"/>
+    <row r="398" ht="13"/>
+    <row r="399" ht="13"/>
+    <row r="400" ht="13"/>
+    <row r="401" ht="13"/>
+    <row r="402" ht="13"/>
+    <row r="403" ht="13"/>
+    <row r="404" ht="13"/>
+    <row r="405" ht="13"/>
+    <row r="406" ht="13"/>
+    <row r="407" ht="13"/>
+    <row r="408" ht="13"/>
+    <row r="409" ht="13"/>
+    <row r="410" ht="13"/>
+    <row r="411" ht="13"/>
+    <row r="412" ht="13"/>
+    <row r="413" ht="13"/>
+    <row r="414" ht="13"/>
+    <row r="415" ht="13"/>
+    <row r="416" ht="13"/>
+    <row r="417" ht="13"/>
+    <row r="418" ht="13"/>
+    <row r="419" ht="13"/>
+    <row r="420" ht="13"/>
+    <row r="421" ht="13"/>
+    <row r="422" ht="13"/>
+    <row r="423" ht="13"/>
+    <row r="424" ht="13"/>
+    <row r="425" ht="13"/>
+    <row r="426" ht="13"/>
+    <row r="427" ht="13"/>
+    <row r="428" ht="13"/>
+    <row r="429" ht="13"/>
+    <row r="430" ht="13"/>
+    <row r="431" ht="13"/>
+    <row r="432" ht="13"/>
+    <row r="433" ht="13"/>
+    <row r="434" ht="13"/>
+    <row r="435" ht="13"/>
+    <row r="436" ht="13"/>
+    <row r="437" ht="13"/>
+    <row r="438" ht="13"/>
+    <row r="439" ht="13"/>
+    <row r="440" ht="13"/>
+    <row r="441" ht="13"/>
+    <row r="442" ht="13"/>
+    <row r="443" ht="13"/>
+    <row r="444" ht="13"/>
+    <row r="445" ht="13"/>
+    <row r="446" ht="13"/>
+    <row r="447" ht="13"/>
+    <row r="448" ht="13"/>
+    <row r="449" ht="13"/>
+    <row r="450" ht="13"/>
+    <row r="451" ht="13"/>
+    <row r="452" ht="13"/>
+    <row r="453" ht="13"/>
+    <row r="454" ht="13"/>
+    <row r="455" ht="13"/>
+    <row r="456" ht="13"/>
+    <row r="457" ht="13"/>
+    <row r="458" ht="13"/>
+    <row r="459" ht="13"/>
+    <row r="460" ht="13"/>
+    <row r="461" ht="13"/>
+    <row r="462" ht="13"/>
+    <row r="463" ht="13"/>
+    <row r="464" ht="13"/>
+    <row r="465" ht="13"/>
+    <row r="466" ht="13"/>
+    <row r="467" ht="13"/>
+    <row r="468" ht="13"/>
+    <row r="469" ht="13"/>
+    <row r="470" ht="13"/>
+    <row r="471" ht="13"/>
+    <row r="472" ht="13"/>
+    <row r="473" ht="13"/>
+    <row r="474" ht="13"/>
+    <row r="475" ht="13"/>
+    <row r="476" ht="13"/>
+    <row r="477" ht="13"/>
+    <row r="478" ht="13"/>
+    <row r="479" ht="13"/>
+    <row r="480" ht="13"/>
+    <row r="481" ht="13"/>
+    <row r="482" ht="13"/>
+    <row r="483" ht="13"/>
+    <row r="484" ht="13"/>
+    <row r="485" ht="13"/>
+    <row r="486" ht="13"/>
+    <row r="487" ht="13"/>
+    <row r="488" ht="13"/>
+    <row r="489" ht="13"/>
+    <row r="490" ht="13"/>
+    <row r="491" ht="13"/>
+    <row r="492" ht="13"/>
+    <row r="493" ht="13"/>
+    <row r="494" ht="13"/>
+    <row r="495" ht="13"/>
+    <row r="496" ht="13"/>
+    <row r="497" ht="13"/>
+    <row r="498" ht="13"/>
+    <row r="499" ht="13"/>
+    <row r="500" ht="13"/>
+    <row r="501" ht="13"/>
+    <row r="502" ht="13"/>
+    <row r="503" ht="13"/>
+    <row r="504" ht="13"/>
+    <row r="505" ht="13"/>
+    <row r="506" ht="13"/>
+    <row r="507" ht="13"/>
+    <row r="508" ht="13"/>
+    <row r="509" ht="13"/>
+    <row r="510" ht="13"/>
+    <row r="511" ht="13"/>
+    <row r="512" ht="13"/>
+    <row r="513" ht="13"/>
+    <row r="514" ht="13"/>
+    <row r="515" ht="13"/>
+    <row r="516" ht="13"/>
+    <row r="517" ht="13"/>
+    <row r="518" ht="13"/>
+    <row r="519" ht="13"/>
+    <row r="520" ht="13"/>
+    <row r="521" ht="13"/>
+    <row r="522" ht="13"/>
+    <row r="523" ht="13"/>
+    <row r="524" ht="13"/>
+    <row r="525" ht="13"/>
+    <row r="526" ht="13"/>
+    <row r="527" ht="13"/>
+    <row r="528" ht="13"/>
+    <row r="529" ht="13"/>
+    <row r="530" ht="13"/>
+    <row r="531" ht="13"/>
+    <row r="532" ht="13"/>
+    <row r="533" ht="13"/>
+    <row r="534" ht="13"/>
+    <row r="535" ht="13"/>
+    <row r="536" ht="13"/>
+    <row r="537" ht="13"/>
+    <row r="538" ht="13"/>
+    <row r="539" ht="13"/>
+    <row r="540" ht="13"/>
+    <row r="541" ht="13"/>
+    <row r="542" ht="13"/>
+    <row r="543" ht="13"/>
+    <row r="544" ht="13"/>
+    <row r="545" ht="13"/>
+    <row r="546" ht="13"/>
+    <row r="547" ht="13"/>
+    <row r="548" ht="13"/>
+    <row r="549" ht="13"/>
+    <row r="550" ht="13"/>
+    <row r="551" ht="13"/>
+    <row r="552" ht="13"/>
+    <row r="553" ht="13"/>
+    <row r="554" ht="13"/>
+    <row r="555" ht="13"/>
+    <row r="556" ht="13"/>
+    <row r="557" ht="13"/>
+    <row r="558" ht="13"/>
+    <row r="559" ht="13"/>
+    <row r="560" ht="13"/>
+    <row r="561" ht="13"/>
+    <row r="562" ht="13"/>
+    <row r="563" ht="13"/>
+    <row r="564" ht="13"/>
+    <row r="565" ht="13"/>
+    <row r="566" ht="13"/>
+    <row r="567" ht="13"/>
+    <row r="568" ht="13"/>
+    <row r="569" ht="13"/>
+    <row r="570" ht="13"/>
+    <row r="571" ht="13"/>
+    <row r="572" ht="13"/>
+    <row r="573" ht="13"/>
+    <row r="574" ht="13"/>
+    <row r="575" ht="13"/>
+    <row r="576" ht="13"/>
+    <row r="577" ht="13"/>
+    <row r="578" ht="13"/>
+    <row r="579" ht="13"/>
+    <row r="580" ht="13"/>
+    <row r="581" ht="13"/>
+    <row r="582" ht="13"/>
+    <row r="583" ht="13"/>
+    <row r="584" ht="13"/>
+    <row r="585" ht="13"/>
+    <row r="586" ht="13"/>
+    <row r="587" ht="13"/>
+    <row r="588" ht="13"/>
+    <row r="589" ht="13"/>
+    <row r="590" ht="13"/>
+    <row r="591" ht="13"/>
+    <row r="592" ht="13"/>
+    <row r="593" ht="13"/>
+    <row r="594" ht="13"/>
+    <row r="595" ht="13"/>
+    <row r="596" ht="13"/>
+    <row r="597" ht="13"/>
+    <row r="598" ht="13"/>
+    <row r="599" ht="13"/>
+    <row r="600" ht="13"/>
+    <row r="601" ht="13"/>
+    <row r="602" ht="13"/>
+    <row r="603" ht="13"/>
+    <row r="604" ht="13"/>
+    <row r="605" ht="13"/>
+    <row r="606" ht="13"/>
+    <row r="607" ht="13"/>
+    <row r="608" ht="13"/>
+    <row r="609" ht="13"/>
+    <row r="610" ht="13"/>
+    <row r="611" ht="13"/>
+    <row r="612" ht="13"/>
+    <row r="613" ht="13"/>
+    <row r="614" ht="13"/>
+    <row r="615" ht="13"/>
+    <row r="616" ht="13"/>
+    <row r="617" ht="13"/>
+    <row r="618" ht="13"/>
+    <row r="619" ht="13"/>
+    <row r="620" ht="13"/>
+    <row r="621" ht="13"/>
+    <row r="622" ht="13"/>
+    <row r="623" ht="13"/>
+    <row r="624" ht="13"/>
+    <row r="625" ht="13"/>
+    <row r="626" ht="13"/>
+    <row r="627" ht="13"/>
+    <row r="628" ht="13"/>
+    <row r="629" ht="13"/>
+    <row r="630" ht="13"/>
+    <row r="631" ht="13"/>
+    <row r="632" ht="13"/>
+    <row r="633" ht="13"/>
+    <row r="634" ht="13"/>
+    <row r="635" ht="13"/>
+    <row r="636" ht="13"/>
+    <row r="637" ht="13"/>
+    <row r="638" ht="13"/>
+    <row r="639" ht="13"/>
+    <row r="640" ht="13"/>
+    <row r="641" ht="13"/>
+    <row r="642" ht="13"/>
+    <row r="643" ht="13"/>
+    <row r="644" ht="13"/>
+    <row r="645" ht="13"/>
+    <row r="646" ht="13"/>
+    <row r="647" ht="13"/>
+    <row r="648" ht="13"/>
+    <row r="649" ht="13"/>
+    <row r="650" ht="13"/>
+    <row r="651" ht="13"/>
+    <row r="652" ht="13"/>
+    <row r="653" ht="13"/>
+    <row r="654" ht="13"/>
+    <row r="655" ht="13"/>
+    <row r="656" ht="13"/>
+    <row r="657" ht="13"/>
+    <row r="658" ht="13"/>
+    <row r="659" ht="13"/>
+    <row r="660" ht="13"/>
+    <row r="661" ht="13"/>
+    <row r="662" ht="13"/>
+    <row r="663" ht="13"/>
+    <row r="664" ht="13"/>
+    <row r="665" ht="13"/>
+    <row r="666" ht="13"/>
+    <row r="667" ht="13"/>
+    <row r="668" ht="13"/>
+    <row r="669" ht="13"/>
+    <row r="670" ht="13"/>
+    <row r="671" ht="13"/>
+    <row r="672" ht="13"/>
+    <row r="673" ht="13"/>
+    <row r="674" ht="13"/>
+    <row r="675" ht="13"/>
+    <row r="676" ht="13"/>
+    <row r="677" ht="13"/>
+    <row r="678" ht="13"/>
+    <row r="679" ht="13"/>
+    <row r="680" ht="13"/>
+    <row r="681" ht="13"/>
+    <row r="682" ht="13"/>
+    <row r="683" ht="13"/>
+    <row r="684" ht="13"/>
+    <row r="685" ht="13"/>
+    <row r="686" ht="13"/>
+    <row r="687" ht="13"/>
+    <row r="688" ht="13"/>
+    <row r="689" ht="13"/>
+    <row r="690" ht="13"/>
+    <row r="691" ht="13"/>
+    <row r="692" ht="13"/>
+    <row r="693" ht="13"/>
+    <row r="694" ht="13"/>
+    <row r="695" ht="13"/>
+    <row r="696" ht="13"/>
+    <row r="697" ht="13"/>
+    <row r="698" ht="13"/>
+    <row r="699" ht="13"/>
+    <row r="700" ht="13"/>
+    <row r="701" ht="13"/>
+    <row r="702" ht="13"/>
+    <row r="703" ht="13"/>
+    <row r="704" ht="13"/>
+    <row r="705" ht="13"/>
+    <row r="706" ht="13"/>
+    <row r="707" ht="13"/>
+    <row r="708" ht="13"/>
+    <row r="709" ht="13"/>
+    <row r="710" ht="13"/>
+    <row r="711" ht="13"/>
+    <row r="712" ht="13"/>
+    <row r="713" ht="13"/>
+    <row r="714" ht="13"/>
+    <row r="715" ht="13"/>
+    <row r="716" ht="13"/>
+    <row r="717" ht="13"/>
+    <row r="718" ht="13"/>
+    <row r="719" ht="13"/>
+    <row r="720" ht="13"/>
+    <row r="721" ht="13"/>
+    <row r="722" ht="13"/>
+    <row r="723" ht="13"/>
+    <row r="724" ht="13"/>
+    <row r="725" ht="13"/>
+    <row r="726" ht="13"/>
+    <row r="727" ht="13"/>
+    <row r="728" ht="13"/>
+    <row r="729" ht="13"/>
+    <row r="730" ht="13"/>
+    <row r="731" ht="13"/>
+    <row r="732" ht="13"/>
+    <row r="733" ht="13"/>
+    <row r="734" ht="13"/>
+    <row r="735" ht="13"/>
+    <row r="736" ht="13"/>
+    <row r="737" ht="13"/>
+    <row r="738" ht="13"/>
+    <row r="739" ht="13"/>
+    <row r="740" ht="13"/>
+    <row r="741" ht="13"/>
+    <row r="742" ht="13"/>
+    <row r="743" ht="13"/>
+    <row r="744" ht="13"/>
+    <row r="745" ht="13"/>
+    <row r="746" ht="13"/>
+    <row r="747" ht="13"/>
+    <row r="748" ht="13"/>
+    <row r="749" ht="13"/>
+    <row r="750" ht="13"/>
+    <row r="751" ht="13"/>
+    <row r="752" ht="13"/>
+    <row r="753" ht="13"/>
+    <row r="754" ht="13"/>
+    <row r="755" ht="13"/>
+    <row r="756" ht="13"/>
+    <row r="757" ht="13"/>
+    <row r="758" ht="13"/>
+    <row r="759" ht="13"/>
+    <row r="760" ht="13"/>
+    <row r="761" ht="13"/>
+    <row r="762" ht="13"/>
+    <row r="763" ht="13"/>
+    <row r="764" ht="13"/>
+    <row r="765" ht="13"/>
+    <row r="766" ht="13"/>
+    <row r="767" ht="13"/>
+    <row r="768" ht="13"/>
+    <row r="769" ht="13"/>
+    <row r="770" ht="13"/>
+    <row r="771" ht="13"/>
+    <row r="772" ht="13"/>
+    <row r="773" ht="13"/>
+    <row r="774" ht="13"/>
+    <row r="775" ht="13"/>
+    <row r="776" ht="13"/>
+    <row r="777" ht="13"/>
+    <row r="778" ht="13"/>
+    <row r="779" ht="13"/>
+    <row r="780" ht="13"/>
+    <row r="781" ht="13"/>
+    <row r="782" ht="13"/>
+    <row r="783" ht="13"/>
+    <row r="784" ht="13"/>
+    <row r="785" ht="13"/>
+    <row r="786" ht="13"/>
+    <row r="787" ht="13"/>
+    <row r="788" ht="13"/>
+    <row r="789" ht="13"/>
+    <row r="790" ht="13"/>
+    <row r="791" ht="13"/>
+    <row r="792" ht="13"/>
+    <row r="793" ht="13"/>
+    <row r="794" ht="13"/>
+    <row r="795" ht="13"/>
+    <row r="796" ht="13"/>
+    <row r="797" ht="13"/>
+    <row r="798" ht="13"/>
+    <row r="799" ht="13"/>
+    <row r="800" ht="13"/>
+    <row r="801" ht="13"/>
+    <row r="802" ht="13"/>
+    <row r="803" ht="13"/>
+    <row r="804" ht="13"/>
+    <row r="805" ht="13"/>
+    <row r="806" ht="13"/>
+    <row r="807" ht="13"/>
+    <row r="808" ht="13"/>
+    <row r="809" ht="13"/>
+    <row r="810" ht="13"/>
+    <row r="811" ht="13"/>
+    <row r="812" ht="13"/>
+    <row r="813" ht="13"/>
+    <row r="814" ht="13"/>
+    <row r="815" ht="13"/>
+    <row r="816" ht="13"/>
+    <row r="817" ht="13"/>
+    <row r="818" ht="13"/>
+    <row r="819" ht="13"/>
+    <row r="820" ht="13"/>
+    <row r="821" ht="13"/>
+    <row r="822" ht="13"/>
+    <row r="823" ht="13"/>
+    <row r="824" ht="13"/>
+    <row r="825" ht="13"/>
+    <row r="826" ht="13"/>
+    <row r="827" ht="13"/>
+    <row r="828" ht="13"/>
+    <row r="829" ht="13"/>
+    <row r="830" ht="13"/>
+    <row r="831" ht="13"/>
+    <row r="832" ht="13"/>
+    <row r="833" ht="13"/>
+    <row r="834" ht="13"/>
+    <row r="835" ht="13"/>
+    <row r="836" ht="13"/>
+    <row r="837" ht="13"/>
+    <row r="838" ht="13"/>
+    <row r="839" ht="13"/>
+    <row r="840" ht="13"/>
+    <row r="841" ht="13"/>
+    <row r="842" ht="13"/>
+    <row r="843" ht="13"/>
+    <row r="844" ht="13"/>
+    <row r="845" ht="13"/>
+    <row r="846" ht="13"/>
+    <row r="847" ht="13"/>
+    <row r="848" ht="13"/>
+    <row r="849" ht="13"/>
+    <row r="850" ht="13"/>
+    <row r="851" ht="13"/>
+    <row r="852" ht="13"/>
+    <row r="853" ht="13"/>
+    <row r="854" ht="13"/>
+    <row r="855" ht="13"/>
+    <row r="856" ht="13"/>
+    <row r="857" ht="13"/>
+    <row r="858" ht="13"/>
+    <row r="859" ht="13"/>
+    <row r="860" ht="13"/>
+    <row r="861" ht="13"/>
+    <row r="862" ht="13"/>
+    <row r="863" ht="13"/>
+    <row r="864" ht="13"/>
+    <row r="865" ht="13"/>
+    <row r="866" ht="13"/>
+    <row r="867" ht="13"/>
+    <row r="868" ht="13"/>
+    <row r="869" ht="13"/>
+    <row r="870" ht="13"/>
+    <row r="871" ht="13"/>
+    <row r="872" ht="13"/>
+    <row r="873" ht="13"/>
+    <row r="874" ht="13"/>
+    <row r="875" ht="13"/>
+    <row r="876" ht="13"/>
+    <row r="877" ht="13"/>
+    <row r="878" ht="13"/>
+    <row r="879" ht="13"/>
+    <row r="880" ht="13"/>
+    <row r="881" ht="13"/>
+    <row r="882" ht="13"/>
+    <row r="883" ht="13"/>
+    <row r="884" ht="13"/>
+    <row r="885" ht="13"/>
+    <row r="886" ht="13"/>
+    <row r="887" ht="13"/>
+    <row r="888" ht="13"/>
+    <row r="889" ht="13"/>
+    <row r="890" ht="13"/>
+    <row r="891" ht="13"/>
+    <row r="892" ht="13"/>
+    <row r="893" ht="13"/>
+    <row r="894" ht="13"/>
+    <row r="895" ht="13"/>
+    <row r="896" ht="13"/>
+    <row r="897" ht="13"/>
+    <row r="898" ht="13"/>
+    <row r="899" ht="13"/>
+    <row r="900" ht="13"/>
+    <row r="901" ht="13"/>
+    <row r="902" ht="13"/>
+    <row r="903" ht="13"/>
+    <row r="904" ht="13"/>
+    <row r="905" ht="13"/>
+    <row r="906" ht="13"/>
+    <row r="907" ht="13"/>
+    <row r="908" ht="13"/>
+    <row r="909" ht="13"/>
+    <row r="910" ht="13"/>
+    <row r="911" ht="13"/>
+    <row r="912" ht="13"/>
+    <row r="913" ht="13"/>
+    <row r="914" ht="13"/>
+    <row r="915" ht="13"/>
+    <row r="916" ht="13"/>
+    <row r="917" ht="13"/>
+    <row r="918" ht="13"/>
+    <row r="919" ht="13"/>
+    <row r="920" ht="13"/>
+    <row r="921" ht="13"/>
+    <row r="922" ht="13"/>
+    <row r="923" ht="13"/>
+    <row r="924" ht="13"/>
+    <row r="925" ht="13"/>
+    <row r="926" ht="13"/>
+    <row r="927" ht="13"/>
+    <row r="928" ht="13"/>
+    <row r="929" ht="13"/>
+    <row r="930" ht="13"/>
+    <row r="931" ht="13"/>
+    <row r="932" ht="13"/>
+    <row r="933" ht="13"/>
+    <row r="934" ht="13"/>
+    <row r="935" ht="13"/>
+    <row r="936" ht="13"/>
+    <row r="937" ht="13"/>
+    <row r="938" ht="13"/>
+    <row r="939" ht="13"/>
+    <row r="940" ht="13"/>
+    <row r="941" ht="13"/>
+    <row r="942" ht="13"/>
+    <row r="943" ht="13"/>
+    <row r="944" ht="13"/>
+    <row r="945" ht="13"/>
+    <row r="946" ht="13"/>
+    <row r="947" ht="13"/>
+    <row r="948" ht="13"/>
+    <row r="949" ht="13"/>
+    <row r="950" ht="13"/>
+    <row r="951" ht="13"/>
+    <row r="952" ht="13"/>
+    <row r="953" ht="13"/>
+    <row r="954" ht="13"/>
+    <row r="955" ht="13"/>
+    <row r="956" ht="13"/>
+    <row r="957" ht="13"/>
+    <row r="958" ht="13"/>
+    <row r="959" ht="13"/>
+    <row r="960" ht="13"/>
+    <row r="961" ht="13"/>
+    <row r="962" ht="13"/>
+    <row r="963" ht="13"/>
+    <row r="964" ht="13"/>
+    <row r="965" ht="13"/>
+    <row r="966" ht="13"/>
+    <row r="967" ht="13"/>
+    <row r="968" ht="13"/>
+    <row r="969" ht="13"/>
+    <row r="970" ht="13"/>
+    <row r="971" ht="13"/>
+    <row r="972" ht="13"/>
+    <row r="973" ht="13"/>
+    <row r="974" ht="13"/>
+    <row r="975" ht="13"/>
+    <row r="976" ht="13"/>
+    <row r="977" ht="13"/>
+    <row r="978" ht="13"/>
+    <row r="979" ht="13"/>
+    <row r="980" ht="13"/>
+    <row r="981" ht="13"/>
+    <row r="982" ht="13"/>
+    <row r="983" ht="13"/>
+    <row r="984" ht="13"/>
+    <row r="985" ht="13"/>
+    <row r="986" ht="13"/>
+    <row r="987" ht="13"/>
+    <row r="988" ht="13"/>
+    <row r="989" ht="13"/>
+    <row r="990" ht="13"/>
+    <row r="991" ht="13"/>
+    <row r="992" ht="13"/>
+    <row r="993" ht="13"/>
+    <row r="994" ht="13"/>
+    <row r="995" ht="13"/>
+    <row r="996" ht="13"/>
+    <row r="997" ht="13"/>
+    <row r="998" ht="13"/>
+    <row r="999" ht="13"/>
+    <row r="1000" ht="13"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4286,7 +2241,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:F17"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4310,22 +2265,22 @@
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
@@ -4344,16 +2299,16 @@
     </row>
     <row r="2" spans="1:30" ht="15.75" customHeight="1">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>150</v>
@@ -4374,16 +2329,16 @@
     </row>
     <row r="3" spans="1:30" ht="15.75" customHeight="1">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>150</v>
@@ -4404,16 +2359,16 @@
     </row>
     <row r="4" spans="1:30" ht="15.75" customHeight="1">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>150</v>
@@ -4434,16 +2389,16 @@
     </row>
     <row r="5" spans="1:30" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>150</v>
@@ -4464,16 +2419,16 @@
     </row>
     <row r="6" spans="1:30" ht="15.75" customHeight="1">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>150</v>
@@ -4494,16 +2449,16 @@
     </row>
     <row r="7" spans="1:30" ht="15.75" customHeight="1">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>150</v>
@@ -4524,16 +2479,16 @@
     </row>
     <row r="8" spans="1:30" ht="15.75" customHeight="1">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>150</v>
@@ -4554,16 +2509,16 @@
     </row>
     <row r="9" spans="1:30" ht="15.75" customHeight="1">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>150</v>
@@ -4584,16 +2539,16 @@
     </row>
     <row r="10" spans="1:30" ht="15.75" customHeight="1">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>150</v>
@@ -4614,16 +2569,16 @@
     </row>
     <row r="11" spans="1:30" ht="15.75" customHeight="1">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>150</v>
@@ -4644,16 +2599,16 @@
     </row>
     <row r="12" spans="1:30" ht="15.75" customHeight="1">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>150</v>
@@ -4674,16 +2629,16 @@
     </row>
     <row r="13" spans="1:30" ht="15.75" customHeight="1">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>150</v>
@@ -4704,16 +2659,16 @@
     </row>
     <row r="14" spans="1:30" ht="15.75" customHeight="1">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E14">
         <v>150</v>
@@ -4734,16 +2689,16 @@
     </row>
     <row r="15" spans="1:30" ht="15.75" customHeight="1">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E15">
         <v>150</v>
@@ -4764,16 +2719,16 @@
     </row>
     <row r="16" spans="1:30" ht="15.75" customHeight="1">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E16">
         <v>150</v>
@@ -4794,16 +2749,16 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E17">
         <v>150</v>
@@ -22568,10 +20523,10 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -22600,18 +20555,18 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -22628,9 +20583,9 @@
   </sheetPr>
   <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -22642,10 +20597,10 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -22673,295 +20628,295 @@
     </row>
     <row r="2" spans="1:26" ht="15">
       <c r="A2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:26" ht="15">
+      <c r="A3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:26" ht="15">
+      <c r="A4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:26" ht="15">
+      <c r="A5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:26" ht="15">
+      <c r="A6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="1:26" ht="15">
-      <c r="A3" s="9" t="s">
+      <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:26" ht="15">
+      <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" spans="1:26" ht="15">
-      <c r="A4" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:26" ht="15">
+      <c r="A8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="1:26" ht="15">
-      <c r="A5" s="9" t="s">
+      <c r="B8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:26" ht="15">
+      <c r="A9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:26" ht="15">
+      <c r="A10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="1:26" ht="15">
-      <c r="A6" s="13" t="s">
+      <c r="B10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:26" ht="15">
+      <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="1:26" ht="15">
+      <c r="A12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:26" ht="15">
-      <c r="A7" s="9" t="s">
+      <c r="B12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:26" ht="15">
+      <c r="A13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="1:26" ht="15">
-      <c r="A8" s="9" t="s">
+      <c r="B13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="1:26" ht="15">
-      <c r="A9" s="9" t="s">
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:26" ht="15">
+      <c r="A14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:26" ht="15">
-      <c r="A10" s="9" t="s">
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:26" ht="15">
-      <c r="A11" s="9" t="s">
+      <c r="B15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="1:26" ht="15">
-      <c r="A12" s="9" t="s">
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B16" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A17" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="1:26" ht="15">
-      <c r="A13" s="9" t="s">
+      <c r="B17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="9" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A18" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="12"/>
-    </row>
-    <row r="14" spans="1:26" ht="15">
-      <c r="A14" s="9" t="s">
+      <c r="B18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="9" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A19" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B19" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A20" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A16" s="9" t="s">
+      <c r="B20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A17" s="13" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A21" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B21" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="13" t="s">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A22" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B22" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A19" s="9" t="s">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A23" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A20" s="9" t="s">
+      <c r="B23" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="9" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A24" s="9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A21" s="9" t="s">
+      <c r="B24" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A25" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B25" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A22" s="9" t="s">
+    <row r="26" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A26" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B26" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A23" s="9" t="s">
+    <row r="27" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A27" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B27" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A28" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A24" s="9" t="s">
+      <c r="B28" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A25" s="9" t="s">
+      <c r="B29" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="9" t="s">
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A30" s="9" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A26" s="9" t="s">
+      <c r="B30" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="9" t="s">
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A31" s="9" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="9" t="s">
+      <c r="B31" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A28" s="9" t="s">
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A32" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B32" s="13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A29" s="9" t="s">
+    <row r="33" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A33" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B33" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A34" s="9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A30" s="9" t="s">
+      <c r="B34" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A35" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B35" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A36" s="9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A31" s="9" t="s">
+      <c r="B36" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A32" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A33" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A35" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A36" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -22971,6 +20926,47 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D077B6-035D-754F-89D0-AD0330B7C482}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="63.6640625" customWidth="1"/>
+    <col min="3" max="3" width="43.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="14">
+      <c r="A1" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -22983,7 +20979,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="18">
       <c r="A1" s="14" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -23013,76 +21009,76 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A4" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A5" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A6" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A10" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A14" s="16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A15" s="16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A5" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A6" s="16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A7" s="4"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A10" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="4"/>
     </row>
     <row r="17" spans="1:26" ht="18">
       <c r="A17" s="14" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -23112,22 +21108,22 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1">
       <c r="A20" s="17" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="18" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1">

--- a/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DA1CF3-E8EE-2846-97AB-0B5AEA96266A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57513DA5-5149-DF40-A220-1661542BA72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12180" yWindow="1520" windowWidth="29900" windowHeight="20220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -837,7 +837,7 @@
     <t>accucor</t>
   </si>
   <si>
-    <t>Anonymous, polar-HILIC-25-min, unknown, 1972-11-24</t>
+    <t>Xianfeng Zeng, polar-HILIC-25-min, unknown, 1972-11-24</t>
   </si>
 </sst>
 </file>
@@ -20929,9 +20929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D077B6-035D-754F-89D0-AD0330B7C482}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>

--- a/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A856538A-BA16-0043-9B06-A4BB2FE5FFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57513DA5-5149-DF40-A220-1661542BA72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="5120" windowWidth="29900" windowHeight="12800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12180" yWindow="1520" windowWidth="29900" windowHeight="20220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Animals" sheetId="1" r:id="rId1"/>
     <sheet name="Samples" sheetId="2" r:id="rId2"/>
     <sheet name="Treatments" sheetId="3" r:id="rId3"/>
     <sheet name="Tissues" sheetId="4" r:id="rId4"/>
-    <sheet name="Infusions" sheetId="5" r:id="rId5"/>
+    <sheet name="Peak Annotation Files" sheetId="6" r:id="rId5"/>
+    <sheet name="Infusions" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -36,6 +37,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Unique identifier for the animal (mouse) the sample was collected from. MUST match the Animal ID in the Animal Table.
 </t>
@@ -45,6 +47,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">	-Lance Parsons</t>
         </r>
@@ -57,6 +60,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Genotype (optional)
@@ -71,6 +75,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Animal Body Weight (g) (optional)
@@ -85,6 +90,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>The infusion given to this animal.
@@ -98,31 +104,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Concentration(s) of infusate in this infusion solution (in mM).
-Multiple tracers in a single infusion should have concentrations specified as comma separated lists.
-	-Lance Parsons
-Correction based on issue #400:
-Multiple tracers in a single infusion should have concentrations specified as a semi-colon delimited list in the same order and cardinality as the list of semi-colon delimited tracer encodings in the Infusate column.
-	-Robert Leach</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Volume of infusate solution infused in microliters (ul) per minute, per gram of mouse body weight
@@ -136,13 +125,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Animal feeding status: have the mice been fasted or fed?
@@ -152,27 +142,37 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <scheme val="minor"/>
+            <family val="2"/>
           </rPr>
-          <t>Short, unique identifier for an animal treatment protocol. Details should be provided in the Treatments table.
-	-Lance Parsons</t>
+          <t xml:space="preserve">Short, unique identifier for an animal treatment protocol. Details should be provided in the Treatments table.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">	-Lance Parsons</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">An identifier for the "experiment", which is typically a collection of mice similar infusion parameters. this is loosely defined based on the person who did the infusions. Here, there is a consistant format: two initials for the lab member who did the infusion and then a number (date?)
 </t>
@@ -182,27 +182,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">	-Lance Parsons</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">A long form description for the study which may include the experimental design process, citations, and other relevant details
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">	-Lance Parsons</t>
         </r>
@@ -225,10 +205,19 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <scheme val="minor"/>
+            <family val="2"/>
           </rPr>
-          <t>Name of the sample, must match the sample name in AccuCor file
-	-Lance Parsons</t>
+          <t xml:space="preserve">Name of the sample, must match the sample name in AccuCor file
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">	-Lance Parsons</t>
         </r>
       </text>
     </comment>
@@ -239,6 +228,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Date the sample was collected (YYYY-MM-DD)
@@ -253,6 +243,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Name of researcher who collected the sample
@@ -267,6 +258,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Tissue type
@@ -283,6 +275,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Minutes after infusion that the sample was collected
@@ -297,6 +290,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Unique identifier for the animal (mouse) the sample was collected from. MUST match the Animal ID in the Animal Table.
@@ -321,6 +315,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Short, unique identifier for an animal treatment protocol. Must match the values provided in the Animals table.
 </t>
@@ -330,6 +325,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">	-Lance Parsons</t>
         </r>
@@ -342,6 +338,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">A thorough description of an animal treatment protocol. This will be useful for searching and filtering, so use standard terms and be as complete as possible.
 </t>
@@ -351,6 +348,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">	-Lance Parsons</t>
         </r>
@@ -363,6 +361,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>this is an example treatment.  If this applies to your animal, please use this treatment.  If this does not apply to your animal, please add a new treatment.  Be as descriptive as possible.
@@ -387,6 +386,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>@mneinast@princeton.edu @matthewmcbride@princeton.edu - I believe I have seen datasets with both "BAT" and "iBAT", which I likely have erroneously merged. Should we add "bat_inquinal" or similar?
@@ -416,6 +416,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Modified to match the description in issue #400 (apart from changing "Tracer column" (which doesn't exist) to "Infusate column"
@@ -428,21 +429,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="118">
-  <si>
-    <t>Animal ID</t>
-  </si>
-  <si>
-    <t>Animal Genotype</t>
-  </si>
-  <si>
-    <t>Animal Body Weight</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="122">
   <si>
     <t>Infusate</t>
-  </si>
-  <si>
-    <t>Tracer Concentrations</t>
   </si>
   <si>
     <t>Infusion Rate</t>
@@ -452,15 +441,6 @@
   </si>
   <si>
     <t>Animal Treatment</t>
-  </si>
-  <si>
-    <t>Study Name</t>
-  </si>
-  <si>
-    <t>Study Description</t>
-  </si>
-  <si>
-    <t>Sample Name</t>
   </si>
   <si>
     <t>Date Collected</t>
@@ -637,9 +617,6 @@
     <t>testicle</t>
   </si>
   <si>
-    <t>testical</t>
-  </si>
-  <si>
     <t>ovary</t>
   </si>
   <si>
@@ -647,9 +624,6 @@
   </si>
   <si>
     <t>tumor_nonspecific</t>
-  </si>
-  <si>
-    <t>nonspecified tumor - only use this if other information is unknown</t>
   </si>
   <si>
     <t>tumor_hct116</t>
@@ -663,6 +637,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Individual tracer compounds will be formatted: </t>
     </r>
@@ -703,6 +678,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Mixtures of compounds will be formatted: </t>
     </r>
@@ -720,6 +696,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>. tracer_mix_name is optional</t>
     </r>
@@ -746,9 +723,6 @@
     <t>WT</t>
   </si>
   <si>
-    <t>lysine-[13C6]</t>
-  </si>
-  <si>
     <t>obob_fasted</t>
   </si>
   <si>
@@ -756,9 +730,6 @@
   </si>
   <si>
     <t>Small OBOB</t>
-  </si>
-  <si>
-    <t>Infusion was actually 6 labeled tracers:  Histidine, Lysine, Methionine, Phenylalanine, Threonine, Tryptophan</t>
   </si>
   <si>
     <t>BAT-xz971</t>
@@ -823,6 +794,51 @@
   <si>
     <t>No manipulation besides what is already described in other fields.</t>
   </si>
+  <si>
+    <t>Animal Name</t>
+  </si>
+  <si>
+    <t>Genotype</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>lysine-[13C6][23.2]</t>
+  </si>
+  <si>
+    <t>unspecified tumor - only use this if other information is unknown</t>
+  </si>
+  <si>
+    <t>Peak Annotation File</t>
+  </si>
+  <si>
+    <t>File Format</t>
+  </si>
+  <si>
+    <t>Default Sequence Name</t>
+  </si>
+  <si>
+    <t>DataRepo/data/tests/small_obob/small_obob_maven_6eaas_inf_req_prefix.xlsx</t>
+  </si>
+  <si>
+    <t>accucor</t>
+  </si>
+  <si>
+    <t>Xianfeng Zeng, polar-HILIC-25-min, unknown, 1972-11-24</t>
+  </si>
 </sst>
 </file>
 
@@ -831,7 +847,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -843,40 +859,47 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF9900"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF34A853"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -884,12 +907,14 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -908,11 +933,27 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -947,10 +988,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -975,9 +1017,12 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{F34B0BC4-0474-5D47-93C7-FE64BAA63C00}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1193,11 +1238,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J1000"/>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1205,3072 +1250,982 @@
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="17.1640625" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2">
         <v>971</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C2">
         <v>26.3</v>
       </c>
-      <c r="D2" t="s">
-        <v>92</v>
+      <c r="D2" s="20" t="s">
+        <v>114</v>
       </c>
       <c r="E2">
-        <v>23.2</v>
-      </c>
-      <c r="F2">
         <v>0.11</v>
       </c>
+      <c r="F2" t="s">
+        <v>84</v>
+      </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
-      <c r="I2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1">
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1">
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1">
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1">
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E44" s="4"/>
-    </row>
-    <row r="45" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E45" s="4"/>
-    </row>
-    <row r="46" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E47" s="4"/>
-    </row>
-    <row r="48" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E57" s="4"/>
-    </row>
-    <row r="58" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E58" s="4"/>
-    </row>
-    <row r="59" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E59" s="4"/>
-    </row>
-    <row r="60" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E60" s="4"/>
-    </row>
-    <row r="61" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E61" s="4"/>
-    </row>
-    <row r="62" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E62" s="4"/>
-    </row>
-    <row r="63" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E63" s="4"/>
-    </row>
-    <row r="64" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E64" s="4"/>
-    </row>
-    <row r="65" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E65" s="4"/>
-    </row>
-    <row r="66" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E66" s="4"/>
-    </row>
-    <row r="67" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E67" s="4"/>
-    </row>
-    <row r="68" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E68" s="4"/>
-    </row>
-    <row r="69" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E69" s="4"/>
-    </row>
-    <row r="70" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E70" s="4"/>
-    </row>
-    <row r="71" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E71" s="4"/>
-    </row>
-    <row r="72" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E72" s="4"/>
-    </row>
-    <row r="73" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E73" s="4"/>
-    </row>
-    <row r="74" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E74" s="4"/>
-    </row>
-    <row r="75" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E75" s="4"/>
-    </row>
-    <row r="76" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E76" s="4"/>
-    </row>
-    <row r="77" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E77" s="4"/>
-    </row>
-    <row r="78" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E78" s="4"/>
-    </row>
-    <row r="79" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E79" s="4"/>
-    </row>
-    <row r="80" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E80" s="4"/>
-    </row>
-    <row r="81" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E81" s="4"/>
-    </row>
-    <row r="82" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E82" s="4"/>
-    </row>
-    <row r="83" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E83" s="4"/>
-    </row>
-    <row r="84" spans="5:5" ht="13">
-      <c r="E84" s="4"/>
-    </row>
-    <row r="85" spans="5:5" ht="13">
-      <c r="E85" s="4"/>
-    </row>
-    <row r="86" spans="5:5" ht="13">
-      <c r="E86" s="4"/>
-    </row>
-    <row r="87" spans="5:5" ht="13">
-      <c r="E87" s="4"/>
-    </row>
-    <row r="88" spans="5:5" ht="13">
-      <c r="E88" s="4"/>
-    </row>
-    <row r="89" spans="5:5" ht="13">
-      <c r="E89" s="4"/>
-    </row>
-    <row r="90" spans="5:5" ht="13">
-      <c r="E90" s="4"/>
-    </row>
-    <row r="91" spans="5:5" ht="13">
-      <c r="E91" s="4"/>
-    </row>
-    <row r="92" spans="5:5" ht="13">
-      <c r="E92" s="4"/>
-    </row>
-    <row r="93" spans="5:5" ht="13">
-      <c r="E93" s="4"/>
-    </row>
-    <row r="94" spans="5:5" ht="13">
-      <c r="E94" s="4"/>
-    </row>
-    <row r="95" spans="5:5" ht="13">
-      <c r="E95" s="4"/>
-    </row>
-    <row r="96" spans="5:5" ht="13">
-      <c r="E96" s="4"/>
-    </row>
-    <row r="97" spans="5:5" ht="13">
-      <c r="E97" s="4"/>
-    </row>
-    <row r="98" spans="5:5" ht="13">
-      <c r="E98" s="4"/>
-    </row>
-    <row r="99" spans="5:5" ht="13">
-      <c r="E99" s="4"/>
-    </row>
-    <row r="100" spans="5:5" ht="13">
-      <c r="E100" s="4"/>
-    </row>
-    <row r="101" spans="5:5" ht="13">
-      <c r="E101" s="4"/>
-    </row>
-    <row r="102" spans="5:5" ht="13">
-      <c r="E102" s="4"/>
-    </row>
-    <row r="103" spans="5:5" ht="13">
-      <c r="E103" s="4"/>
-    </row>
-    <row r="104" spans="5:5" ht="13">
-      <c r="E104" s="4"/>
-    </row>
-    <row r="105" spans="5:5" ht="13">
-      <c r="E105" s="4"/>
-    </row>
-    <row r="106" spans="5:5" ht="13">
-      <c r="E106" s="4"/>
-    </row>
-    <row r="107" spans="5:5" ht="13">
-      <c r="E107" s="4"/>
-    </row>
-    <row r="108" spans="5:5" ht="13">
-      <c r="E108" s="4"/>
-    </row>
-    <row r="109" spans="5:5" ht="13">
-      <c r="E109" s="4"/>
-    </row>
-    <row r="110" spans="5:5" ht="13">
-      <c r="E110" s="4"/>
-    </row>
-    <row r="111" spans="5:5" ht="13">
-      <c r="E111" s="4"/>
-    </row>
-    <row r="112" spans="5:5" ht="13">
-      <c r="E112" s="4"/>
-    </row>
-    <row r="113" spans="5:5" ht="13">
-      <c r="E113" s="4"/>
-    </row>
-    <row r="114" spans="5:5" ht="13">
-      <c r="E114" s="4"/>
-    </row>
-    <row r="115" spans="5:5" ht="13">
-      <c r="E115" s="4"/>
-    </row>
-    <row r="116" spans="5:5" ht="13">
-      <c r="E116" s="4"/>
-    </row>
-    <row r="117" spans="5:5" ht="13">
-      <c r="E117" s="4"/>
-    </row>
-    <row r="118" spans="5:5" ht="13">
-      <c r="E118" s="4"/>
-    </row>
-    <row r="119" spans="5:5" ht="13">
-      <c r="E119" s="4"/>
-    </row>
-    <row r="120" spans="5:5" ht="13">
-      <c r="E120" s="4"/>
-    </row>
-    <row r="121" spans="5:5" ht="13">
-      <c r="E121" s="4"/>
-    </row>
-    <row r="122" spans="5:5" ht="13">
-      <c r="E122" s="4"/>
-    </row>
-    <row r="123" spans="5:5" ht="13">
-      <c r="E123" s="4"/>
-    </row>
-    <row r="124" spans="5:5" ht="13">
-      <c r="E124" s="4"/>
-    </row>
-    <row r="125" spans="5:5" ht="13">
-      <c r="E125" s="4"/>
-    </row>
-    <row r="126" spans="5:5" ht="13">
-      <c r="E126" s="4"/>
-    </row>
-    <row r="127" spans="5:5" ht="13">
-      <c r="E127" s="4"/>
-    </row>
-    <row r="128" spans="5:5" ht="13">
-      <c r="E128" s="4"/>
-    </row>
-    <row r="129" spans="5:5" ht="13">
-      <c r="E129" s="4"/>
-    </row>
-    <row r="130" spans="5:5" ht="13">
-      <c r="E130" s="4"/>
-    </row>
-    <row r="131" spans="5:5" ht="13">
-      <c r="E131" s="4"/>
-    </row>
-    <row r="132" spans="5:5" ht="13">
-      <c r="E132" s="4"/>
-    </row>
-    <row r="133" spans="5:5" ht="13">
-      <c r="E133" s="4"/>
-    </row>
-    <row r="134" spans="5:5" ht="13">
-      <c r="E134" s="4"/>
-    </row>
-    <row r="135" spans="5:5" ht="13">
-      <c r="E135" s="4"/>
-    </row>
-    <row r="136" spans="5:5" ht="13">
-      <c r="E136" s="4"/>
-    </row>
-    <row r="137" spans="5:5" ht="13">
-      <c r="E137" s="4"/>
-    </row>
-    <row r="138" spans="5:5" ht="13">
-      <c r="E138" s="4"/>
-    </row>
-    <row r="139" spans="5:5" ht="13">
-      <c r="E139" s="4"/>
-    </row>
-    <row r="140" spans="5:5" ht="13">
-      <c r="E140" s="4"/>
-    </row>
-    <row r="141" spans="5:5" ht="13">
-      <c r="E141" s="4"/>
-    </row>
-    <row r="142" spans="5:5" ht="13">
-      <c r="E142" s="4"/>
-    </row>
-    <row r="143" spans="5:5" ht="13">
-      <c r="E143" s="4"/>
-    </row>
-    <row r="144" spans="5:5" ht="13">
-      <c r="E144" s="4"/>
-    </row>
-    <row r="145" spans="5:5" ht="13">
-      <c r="E145" s="4"/>
-    </row>
-    <row r="146" spans="5:5" ht="13">
-      <c r="E146" s="4"/>
-    </row>
-    <row r="147" spans="5:5" ht="13">
-      <c r="E147" s="4"/>
-    </row>
-    <row r="148" spans="5:5" ht="13">
-      <c r="E148" s="4"/>
-    </row>
-    <row r="149" spans="5:5" ht="13">
-      <c r="E149" s="4"/>
-    </row>
-    <row r="150" spans="5:5" ht="13">
-      <c r="E150" s="4"/>
-    </row>
-    <row r="151" spans="5:5" ht="13">
-      <c r="E151" s="4"/>
-    </row>
-    <row r="152" spans="5:5" ht="13">
-      <c r="E152" s="4"/>
-    </row>
-    <row r="153" spans="5:5" ht="13">
-      <c r="E153" s="4"/>
-    </row>
-    <row r="154" spans="5:5" ht="13">
-      <c r="E154" s="4"/>
-    </row>
-    <row r="155" spans="5:5" ht="13">
-      <c r="E155" s="4"/>
-    </row>
-    <row r="156" spans="5:5" ht="13">
-      <c r="E156" s="4"/>
-    </row>
-    <row r="157" spans="5:5" ht="13">
-      <c r="E157" s="4"/>
-    </row>
-    <row r="158" spans="5:5" ht="13">
-      <c r="E158" s="4"/>
-    </row>
-    <row r="159" spans="5:5" ht="13">
-      <c r="E159" s="4"/>
-    </row>
-    <row r="160" spans="5:5" ht="13">
-      <c r="E160" s="4"/>
-    </row>
-    <row r="161" spans="5:5" ht="13">
-      <c r="E161" s="4"/>
-    </row>
-    <row r="162" spans="5:5" ht="13">
-      <c r="E162" s="4"/>
-    </row>
-    <row r="163" spans="5:5" ht="13">
-      <c r="E163" s="4"/>
-    </row>
-    <row r="164" spans="5:5" ht="13">
-      <c r="E164" s="4"/>
-    </row>
-    <row r="165" spans="5:5" ht="13">
-      <c r="E165" s="4"/>
-    </row>
-    <row r="166" spans="5:5" ht="13">
-      <c r="E166" s="4"/>
-    </row>
-    <row r="167" spans="5:5" ht="13">
-      <c r="E167" s="4"/>
-    </row>
-    <row r="168" spans="5:5" ht="13">
-      <c r="E168" s="4"/>
-    </row>
-    <row r="169" spans="5:5" ht="13">
-      <c r="E169" s="4"/>
-    </row>
-    <row r="170" spans="5:5" ht="13">
-      <c r="E170" s="4"/>
-    </row>
-    <row r="171" spans="5:5" ht="13">
-      <c r="E171" s="4"/>
-    </row>
-    <row r="172" spans="5:5" ht="13">
-      <c r="E172" s="4"/>
-    </row>
-    <row r="173" spans="5:5" ht="13">
-      <c r="E173" s="4"/>
-    </row>
-    <row r="174" spans="5:5" ht="13">
-      <c r="E174" s="4"/>
-    </row>
-    <row r="175" spans="5:5" ht="13">
-      <c r="E175" s="4"/>
-    </row>
-    <row r="176" spans="5:5" ht="13">
-      <c r="E176" s="4"/>
-    </row>
-    <row r="177" spans="5:5" ht="13">
-      <c r="E177" s="4"/>
-    </row>
-    <row r="178" spans="5:5" ht="13">
-      <c r="E178" s="4"/>
-    </row>
-    <row r="179" spans="5:5" ht="13">
-      <c r="E179" s="4"/>
-    </row>
-    <row r="180" spans="5:5" ht="13">
-      <c r="E180" s="4"/>
-    </row>
-    <row r="181" spans="5:5" ht="13">
-      <c r="E181" s="4"/>
-    </row>
-    <row r="182" spans="5:5" ht="13">
-      <c r="E182" s="4"/>
-    </row>
-    <row r="183" spans="5:5" ht="13">
-      <c r="E183" s="4"/>
-    </row>
-    <row r="184" spans="5:5" ht="13">
-      <c r="E184" s="4"/>
-    </row>
-    <row r="185" spans="5:5" ht="13">
-      <c r="E185" s="4"/>
-    </row>
-    <row r="186" spans="5:5" ht="13">
-      <c r="E186" s="4"/>
-    </row>
-    <row r="187" spans="5:5" ht="13">
-      <c r="E187" s="4"/>
-    </row>
-    <row r="188" spans="5:5" ht="13">
-      <c r="E188" s="4"/>
-    </row>
-    <row r="189" spans="5:5" ht="13">
-      <c r="E189" s="4"/>
-    </row>
-    <row r="190" spans="5:5" ht="13">
-      <c r="E190" s="4"/>
-    </row>
-    <row r="191" spans="5:5" ht="13">
-      <c r="E191" s="4"/>
-    </row>
-    <row r="192" spans="5:5" ht="13">
-      <c r="E192" s="4"/>
-    </row>
-    <row r="193" spans="5:5" ht="13">
-      <c r="E193" s="4"/>
-    </row>
-    <row r="194" spans="5:5" ht="13">
-      <c r="E194" s="4"/>
-    </row>
-    <row r="195" spans="5:5" ht="13">
-      <c r="E195" s="4"/>
-    </row>
-    <row r="196" spans="5:5" ht="13">
-      <c r="E196" s="4"/>
-    </row>
-    <row r="197" spans="5:5" ht="13">
-      <c r="E197" s="4"/>
-    </row>
-    <row r="198" spans="5:5" ht="13">
-      <c r="E198" s="4"/>
-    </row>
-    <row r="199" spans="5:5" ht="13">
-      <c r="E199" s="4"/>
-    </row>
-    <row r="200" spans="5:5" ht="13">
-      <c r="E200" s="4"/>
-    </row>
-    <row r="201" spans="5:5" ht="13">
-      <c r="E201" s="4"/>
-    </row>
-    <row r="202" spans="5:5" ht="13">
-      <c r="E202" s="4"/>
-    </row>
-    <row r="203" spans="5:5" ht="13">
-      <c r="E203" s="4"/>
-    </row>
-    <row r="204" spans="5:5" ht="13">
-      <c r="E204" s="4"/>
-    </row>
-    <row r="205" spans="5:5" ht="13">
-      <c r="E205" s="4"/>
-    </row>
-    <row r="206" spans="5:5" ht="13">
-      <c r="E206" s="4"/>
-    </row>
-    <row r="207" spans="5:5" ht="13">
-      <c r="E207" s="4"/>
-    </row>
-    <row r="208" spans="5:5" ht="13">
-      <c r="E208" s="4"/>
-    </row>
-    <row r="209" spans="5:5" ht="13">
-      <c r="E209" s="4"/>
-    </row>
-    <row r="210" spans="5:5" ht="13">
-      <c r="E210" s="4"/>
-    </row>
-    <row r="211" spans="5:5" ht="13">
-      <c r="E211" s="4"/>
-    </row>
-    <row r="212" spans="5:5" ht="13">
-      <c r="E212" s="4"/>
-    </row>
-    <row r="213" spans="5:5" ht="13">
-      <c r="E213" s="4"/>
-    </row>
-    <row r="214" spans="5:5" ht="13">
-      <c r="E214" s="4"/>
-    </row>
-    <row r="215" spans="5:5" ht="13">
-      <c r="E215" s="4"/>
-    </row>
-    <row r="216" spans="5:5" ht="13">
-      <c r="E216" s="4"/>
-    </row>
-    <row r="217" spans="5:5" ht="13">
-      <c r="E217" s="4"/>
-    </row>
-    <row r="218" spans="5:5" ht="13">
-      <c r="E218" s="4"/>
-    </row>
-    <row r="219" spans="5:5" ht="13">
-      <c r="E219" s="4"/>
-    </row>
-    <row r="220" spans="5:5" ht="13">
-      <c r="E220" s="4"/>
-    </row>
-    <row r="221" spans="5:5" ht="13">
-      <c r="E221" s="4"/>
-    </row>
-    <row r="222" spans="5:5" ht="13">
-      <c r="E222" s="4"/>
-    </row>
-    <row r="223" spans="5:5" ht="13">
-      <c r="E223" s="4"/>
-    </row>
-    <row r="224" spans="5:5" ht="13">
-      <c r="E224" s="4"/>
-    </row>
-    <row r="225" spans="5:5" ht="13">
-      <c r="E225" s="4"/>
-    </row>
-    <row r="226" spans="5:5" ht="13">
-      <c r="E226" s="4"/>
-    </row>
-    <row r="227" spans="5:5" ht="13">
-      <c r="E227" s="4"/>
-    </row>
-    <row r="228" spans="5:5" ht="13">
-      <c r="E228" s="4"/>
-    </row>
-    <row r="229" spans="5:5" ht="13">
-      <c r="E229" s="4"/>
-    </row>
-    <row r="230" spans="5:5" ht="13">
-      <c r="E230" s="4"/>
-    </row>
-    <row r="231" spans="5:5" ht="13">
-      <c r="E231" s="4"/>
-    </row>
-    <row r="232" spans="5:5" ht="13">
-      <c r="E232" s="4"/>
-    </row>
-    <row r="233" spans="5:5" ht="13">
-      <c r="E233" s="4"/>
-    </row>
-    <row r="234" spans="5:5" ht="13">
-      <c r="E234" s="4"/>
-    </row>
-    <row r="235" spans="5:5" ht="13">
-      <c r="E235" s="4"/>
-    </row>
-    <row r="236" spans="5:5" ht="13">
-      <c r="E236" s="4"/>
-    </row>
-    <row r="237" spans="5:5" ht="13">
-      <c r="E237" s="4"/>
-    </row>
-    <row r="238" spans="5:5" ht="13">
-      <c r="E238" s="4"/>
-    </row>
-    <row r="239" spans="5:5" ht="13">
-      <c r="E239" s="4"/>
-    </row>
-    <row r="240" spans="5:5" ht="13">
-      <c r="E240" s="4"/>
-    </row>
-    <row r="241" spans="5:5" ht="13">
-      <c r="E241" s="4"/>
-    </row>
-    <row r="242" spans="5:5" ht="13">
-      <c r="E242" s="4"/>
-    </row>
-    <row r="243" spans="5:5" ht="13">
-      <c r="E243" s="4"/>
-    </row>
-    <row r="244" spans="5:5" ht="13">
-      <c r="E244" s="4"/>
-    </row>
-    <row r="245" spans="5:5" ht="13">
-      <c r="E245" s="4"/>
-    </row>
-    <row r="246" spans="5:5" ht="13">
-      <c r="E246" s="4"/>
-    </row>
-    <row r="247" spans="5:5" ht="13">
-      <c r="E247" s="4"/>
-    </row>
-    <row r="248" spans="5:5" ht="13">
-      <c r="E248" s="4"/>
-    </row>
-    <row r="249" spans="5:5" ht="13">
-      <c r="E249" s="4"/>
-    </row>
-    <row r="250" spans="5:5" ht="13">
-      <c r="E250" s="4"/>
-    </row>
-    <row r="251" spans="5:5" ht="13">
-      <c r="E251" s="4"/>
-    </row>
-    <row r="252" spans="5:5" ht="13">
-      <c r="E252" s="4"/>
-    </row>
-    <row r="253" spans="5:5" ht="13">
-      <c r="E253" s="4"/>
-    </row>
-    <row r="254" spans="5:5" ht="13">
-      <c r="E254" s="4"/>
-    </row>
-    <row r="255" spans="5:5" ht="13">
-      <c r="E255" s="4"/>
-    </row>
-    <row r="256" spans="5:5" ht="13">
-      <c r="E256" s="4"/>
-    </row>
-    <row r="257" spans="5:5" ht="13">
-      <c r="E257" s="4"/>
-    </row>
-    <row r="258" spans="5:5" ht="13">
-      <c r="E258" s="4"/>
-    </row>
-    <row r="259" spans="5:5" ht="13">
-      <c r="E259" s="4"/>
-    </row>
-    <row r="260" spans="5:5" ht="13">
-      <c r="E260" s="4"/>
-    </row>
-    <row r="261" spans="5:5" ht="13">
-      <c r="E261" s="4"/>
-    </row>
-    <row r="262" spans="5:5" ht="13">
-      <c r="E262" s="4"/>
-    </row>
-    <row r="263" spans="5:5" ht="13">
-      <c r="E263" s="4"/>
-    </row>
-    <row r="264" spans="5:5" ht="13">
-      <c r="E264" s="4"/>
-    </row>
-    <row r="265" spans="5:5" ht="13">
-      <c r="E265" s="4"/>
-    </row>
-    <row r="266" spans="5:5" ht="13">
-      <c r="E266" s="4"/>
-    </row>
-    <row r="267" spans="5:5" ht="13">
-      <c r="E267" s="4"/>
-    </row>
-    <row r="268" spans="5:5" ht="13">
-      <c r="E268" s="4"/>
-    </row>
-    <row r="269" spans="5:5" ht="13">
-      <c r="E269" s="4"/>
-    </row>
-    <row r="270" spans="5:5" ht="13">
-      <c r="E270" s="4"/>
-    </row>
-    <row r="271" spans="5:5" ht="13">
-      <c r="E271" s="4"/>
-    </row>
-    <row r="272" spans="5:5" ht="13">
-      <c r="E272" s="4"/>
-    </row>
-    <row r="273" spans="5:5" ht="13">
-      <c r="E273" s="4"/>
-    </row>
-    <row r="274" spans="5:5" ht="13">
-      <c r="E274" s="4"/>
-    </row>
-    <row r="275" spans="5:5" ht="13">
-      <c r="E275" s="4"/>
-    </row>
-    <row r="276" spans="5:5" ht="13">
-      <c r="E276" s="4"/>
-    </row>
-    <row r="277" spans="5:5" ht="13">
-      <c r="E277" s="4"/>
-    </row>
-    <row r="278" spans="5:5" ht="13">
-      <c r="E278" s="4"/>
-    </row>
-    <row r="279" spans="5:5" ht="13">
-      <c r="E279" s="4"/>
-    </row>
-    <row r="280" spans="5:5" ht="13">
-      <c r="E280" s="4"/>
-    </row>
-    <row r="281" spans="5:5" ht="13">
-      <c r="E281" s="4"/>
-    </row>
-    <row r="282" spans="5:5" ht="13">
-      <c r="E282" s="4"/>
-    </row>
-    <row r="283" spans="5:5" ht="13">
-      <c r="E283" s="4"/>
-    </row>
-    <row r="284" spans="5:5" ht="13">
-      <c r="E284" s="4"/>
-    </row>
-    <row r="285" spans="5:5" ht="13">
-      <c r="E285" s="4"/>
-    </row>
-    <row r="286" spans="5:5" ht="13">
-      <c r="E286" s="4"/>
-    </row>
-    <row r="287" spans="5:5" ht="13">
-      <c r="E287" s="4"/>
-    </row>
-    <row r="288" spans="5:5" ht="13">
-      <c r="E288" s="4"/>
-    </row>
-    <row r="289" spans="5:5" ht="13">
-      <c r="E289" s="4"/>
-    </row>
-    <row r="290" spans="5:5" ht="13">
-      <c r="E290" s="4"/>
-    </row>
-    <row r="291" spans="5:5" ht="13">
-      <c r="E291" s="4"/>
-    </row>
-    <row r="292" spans="5:5" ht="13">
-      <c r="E292" s="4"/>
-    </row>
-    <row r="293" spans="5:5" ht="13">
-      <c r="E293" s="4"/>
-    </row>
-    <row r="294" spans="5:5" ht="13">
-      <c r="E294" s="4"/>
-    </row>
-    <row r="295" spans="5:5" ht="13">
-      <c r="E295" s="4"/>
-    </row>
-    <row r="296" spans="5:5" ht="13">
-      <c r="E296" s="4"/>
-    </row>
-    <row r="297" spans="5:5" ht="13">
-      <c r="E297" s="4"/>
-    </row>
-    <row r="298" spans="5:5" ht="13">
-      <c r="E298" s="4"/>
-    </row>
-    <row r="299" spans="5:5" ht="13">
-      <c r="E299" s="4"/>
-    </row>
-    <row r="300" spans="5:5" ht="13">
-      <c r="E300" s="4"/>
-    </row>
-    <row r="301" spans="5:5" ht="13">
-      <c r="E301" s="4"/>
-    </row>
-    <row r="302" spans="5:5" ht="13">
-      <c r="E302" s="4"/>
-    </row>
-    <row r="303" spans="5:5" ht="13">
-      <c r="E303" s="4"/>
-    </row>
-    <row r="304" spans="5:5" ht="13">
-      <c r="E304" s="4"/>
-    </row>
-    <row r="305" spans="5:5" ht="13">
-      <c r="E305" s="4"/>
-    </row>
-    <row r="306" spans="5:5" ht="13">
-      <c r="E306" s="4"/>
-    </row>
-    <row r="307" spans="5:5" ht="13">
-      <c r="E307" s="4"/>
-    </row>
-    <row r="308" spans="5:5" ht="13">
-      <c r="E308" s="4"/>
-    </row>
-    <row r="309" spans="5:5" ht="13">
-      <c r="E309" s="4"/>
-    </row>
-    <row r="310" spans="5:5" ht="13">
-      <c r="E310" s="4"/>
-    </row>
-    <row r="311" spans="5:5" ht="13">
-      <c r="E311" s="4"/>
-    </row>
-    <row r="312" spans="5:5" ht="13">
-      <c r="E312" s="4"/>
-    </row>
-    <row r="313" spans="5:5" ht="13">
-      <c r="E313" s="4"/>
-    </row>
-    <row r="314" spans="5:5" ht="13">
-      <c r="E314" s="4"/>
-    </row>
-    <row r="315" spans="5:5" ht="13">
-      <c r="E315" s="4"/>
-    </row>
-    <row r="316" spans="5:5" ht="13">
-      <c r="E316" s="4"/>
-    </row>
-    <row r="317" spans="5:5" ht="13">
-      <c r="E317" s="4"/>
-    </row>
-    <row r="318" spans="5:5" ht="13">
-      <c r="E318" s="4"/>
-    </row>
-    <row r="319" spans="5:5" ht="13">
-      <c r="E319" s="4"/>
-    </row>
-    <row r="320" spans="5:5" ht="13">
-      <c r="E320" s="4"/>
-    </row>
-    <row r="321" spans="5:5" ht="13">
-      <c r="E321" s="4"/>
-    </row>
-    <row r="322" spans="5:5" ht="13">
-      <c r="E322" s="4"/>
-    </row>
-    <row r="323" spans="5:5" ht="13">
-      <c r="E323" s="4"/>
-    </row>
-    <row r="324" spans="5:5" ht="13">
-      <c r="E324" s="4"/>
-    </row>
-    <row r="325" spans="5:5" ht="13">
-      <c r="E325" s="4"/>
-    </row>
-    <row r="326" spans="5:5" ht="13">
-      <c r="E326" s="4"/>
-    </row>
-    <row r="327" spans="5:5" ht="13">
-      <c r="E327" s="4"/>
-    </row>
-    <row r="328" spans="5:5" ht="13">
-      <c r="E328" s="4"/>
-    </row>
-    <row r="329" spans="5:5" ht="13">
-      <c r="E329" s="4"/>
-    </row>
-    <row r="330" spans="5:5" ht="13">
-      <c r="E330" s="4"/>
-    </row>
-    <row r="331" spans="5:5" ht="13">
-      <c r="E331" s="4"/>
-    </row>
-    <row r="332" spans="5:5" ht="13">
-      <c r="E332" s="4"/>
-    </row>
-    <row r="333" spans="5:5" ht="13">
-      <c r="E333" s="4"/>
-    </row>
-    <row r="334" spans="5:5" ht="13">
-      <c r="E334" s="4"/>
-    </row>
-    <row r="335" spans="5:5" ht="13">
-      <c r="E335" s="4"/>
-    </row>
-    <row r="336" spans="5:5" ht="13">
-      <c r="E336" s="4"/>
-    </row>
-    <row r="337" spans="5:5" ht="13">
-      <c r="E337" s="4"/>
-    </row>
-    <row r="338" spans="5:5" ht="13">
-      <c r="E338" s="4"/>
-    </row>
-    <row r="339" spans="5:5" ht="13">
-      <c r="E339" s="4"/>
-    </row>
-    <row r="340" spans="5:5" ht="13">
-      <c r="E340" s="4"/>
-    </row>
-    <row r="341" spans="5:5" ht="13">
-      <c r="E341" s="4"/>
-    </row>
-    <row r="342" spans="5:5" ht="13">
-      <c r="E342" s="4"/>
-    </row>
-    <row r="343" spans="5:5" ht="13">
-      <c r="E343" s="4"/>
-    </row>
-    <row r="344" spans="5:5" ht="13">
-      <c r="E344" s="4"/>
-    </row>
-    <row r="345" spans="5:5" ht="13">
-      <c r="E345" s="4"/>
-    </row>
-    <row r="346" spans="5:5" ht="13">
-      <c r="E346" s="4"/>
-    </row>
-    <row r="347" spans="5:5" ht="13">
-      <c r="E347" s="4"/>
-    </row>
-    <row r="348" spans="5:5" ht="13">
-      <c r="E348" s="4"/>
-    </row>
-    <row r="349" spans="5:5" ht="13">
-      <c r="E349" s="4"/>
-    </row>
-    <row r="350" spans="5:5" ht="13">
-      <c r="E350" s="4"/>
-    </row>
-    <row r="351" spans="5:5" ht="13">
-      <c r="E351" s="4"/>
-    </row>
-    <row r="352" spans="5:5" ht="13">
-      <c r="E352" s="4"/>
-    </row>
-    <row r="353" spans="5:5" ht="13">
-      <c r="E353" s="4"/>
-    </row>
-    <row r="354" spans="5:5" ht="13">
-      <c r="E354" s="4"/>
-    </row>
-    <row r="355" spans="5:5" ht="13">
-      <c r="E355" s="4"/>
-    </row>
-    <row r="356" spans="5:5" ht="13">
-      <c r="E356" s="4"/>
-    </row>
-    <row r="357" spans="5:5" ht="13">
-      <c r="E357" s="4"/>
-    </row>
-    <row r="358" spans="5:5" ht="13">
-      <c r="E358" s="4"/>
-    </row>
-    <row r="359" spans="5:5" ht="13">
-      <c r="E359" s="4"/>
-    </row>
-    <row r="360" spans="5:5" ht="13">
-      <c r="E360" s="4"/>
-    </row>
-    <row r="361" spans="5:5" ht="13">
-      <c r="E361" s="4"/>
-    </row>
-    <row r="362" spans="5:5" ht="13">
-      <c r="E362" s="4"/>
-    </row>
-    <row r="363" spans="5:5" ht="13">
-      <c r="E363" s="4"/>
-    </row>
-    <row r="364" spans="5:5" ht="13">
-      <c r="E364" s="4"/>
-    </row>
-    <row r="365" spans="5:5" ht="13">
-      <c r="E365" s="4"/>
-    </row>
-    <row r="366" spans="5:5" ht="13">
-      <c r="E366" s="4"/>
-    </row>
-    <row r="367" spans="5:5" ht="13">
-      <c r="E367" s="4"/>
-    </row>
-    <row r="368" spans="5:5" ht="13">
-      <c r="E368" s="4"/>
-    </row>
-    <row r="369" spans="5:5" ht="13">
-      <c r="E369" s="4"/>
-    </row>
-    <row r="370" spans="5:5" ht="13">
-      <c r="E370" s="4"/>
-    </row>
-    <row r="371" spans="5:5" ht="13">
-      <c r="E371" s="4"/>
-    </row>
-    <row r="372" spans="5:5" ht="13">
-      <c r="E372" s="4"/>
-    </row>
-    <row r="373" spans="5:5" ht="13">
-      <c r="E373" s="4"/>
-    </row>
-    <row r="374" spans="5:5" ht="13">
-      <c r="E374" s="4"/>
-    </row>
-    <row r="375" spans="5:5" ht="13">
-      <c r="E375" s="4"/>
-    </row>
-    <row r="376" spans="5:5" ht="13">
-      <c r="E376" s="4"/>
-    </row>
-    <row r="377" spans="5:5" ht="13">
-      <c r="E377" s="4"/>
-    </row>
-    <row r="378" spans="5:5" ht="13">
-      <c r="E378" s="4"/>
-    </row>
-    <row r="379" spans="5:5" ht="13">
-      <c r="E379" s="4"/>
-    </row>
-    <row r="380" spans="5:5" ht="13">
-      <c r="E380" s="4"/>
-    </row>
-    <row r="381" spans="5:5" ht="13">
-      <c r="E381" s="4"/>
-    </row>
-    <row r="382" spans="5:5" ht="13">
-      <c r="E382" s="4"/>
-    </row>
-    <row r="383" spans="5:5" ht="13">
-      <c r="E383" s="4"/>
-    </row>
-    <row r="384" spans="5:5" ht="13">
-      <c r="E384" s="4"/>
-    </row>
-    <row r="385" spans="5:5" ht="13">
-      <c r="E385" s="4"/>
-    </row>
-    <row r="386" spans="5:5" ht="13">
-      <c r="E386" s="4"/>
-    </row>
-    <row r="387" spans="5:5" ht="13">
-      <c r="E387" s="4"/>
-    </row>
-    <row r="388" spans="5:5" ht="13">
-      <c r="E388" s="4"/>
-    </row>
-    <row r="389" spans="5:5" ht="13">
-      <c r="E389" s="4"/>
-    </row>
-    <row r="390" spans="5:5" ht="13">
-      <c r="E390" s="4"/>
-    </row>
-    <row r="391" spans="5:5" ht="13">
-      <c r="E391" s="4"/>
-    </row>
-    <row r="392" spans="5:5" ht="13">
-      <c r="E392" s="4"/>
-    </row>
-    <row r="393" spans="5:5" ht="13">
-      <c r="E393" s="4"/>
-    </row>
-    <row r="394" spans="5:5" ht="13">
-      <c r="E394" s="4"/>
-    </row>
-    <row r="395" spans="5:5" ht="13">
-      <c r="E395" s="4"/>
-    </row>
-    <row r="396" spans="5:5" ht="13">
-      <c r="E396" s="4"/>
-    </row>
-    <row r="397" spans="5:5" ht="13">
-      <c r="E397" s="4"/>
-    </row>
-    <row r="398" spans="5:5" ht="13">
-      <c r="E398" s="4"/>
-    </row>
-    <row r="399" spans="5:5" ht="13">
-      <c r="E399" s="4"/>
-    </row>
-    <row r="400" spans="5:5" ht="13">
-      <c r="E400" s="4"/>
-    </row>
-    <row r="401" spans="5:5" ht="13">
-      <c r="E401" s="4"/>
-    </row>
-    <row r="402" spans="5:5" ht="13">
-      <c r="E402" s="4"/>
-    </row>
-    <row r="403" spans="5:5" ht="13">
-      <c r="E403" s="4"/>
-    </row>
-    <row r="404" spans="5:5" ht="13">
-      <c r="E404" s="4"/>
-    </row>
-    <row r="405" spans="5:5" ht="13">
-      <c r="E405" s="4"/>
-    </row>
-    <row r="406" spans="5:5" ht="13">
-      <c r="E406" s="4"/>
-    </row>
-    <row r="407" spans="5:5" ht="13">
-      <c r="E407" s="4"/>
-    </row>
-    <row r="408" spans="5:5" ht="13">
-      <c r="E408" s="4"/>
-    </row>
-    <row r="409" spans="5:5" ht="13">
-      <c r="E409" s="4"/>
-    </row>
-    <row r="410" spans="5:5" ht="13">
-      <c r="E410" s="4"/>
-    </row>
-    <row r="411" spans="5:5" ht="13">
-      <c r="E411" s="4"/>
-    </row>
-    <row r="412" spans="5:5" ht="13">
-      <c r="E412" s="4"/>
-    </row>
-    <row r="413" spans="5:5" ht="13">
-      <c r="E413" s="4"/>
-    </row>
-    <row r="414" spans="5:5" ht="13">
-      <c r="E414" s="4"/>
-    </row>
-    <row r="415" spans="5:5" ht="13">
-      <c r="E415" s="4"/>
-    </row>
-    <row r="416" spans="5:5" ht="13">
-      <c r="E416" s="4"/>
-    </row>
-    <row r="417" spans="5:5" ht="13">
-      <c r="E417" s="4"/>
-    </row>
-    <row r="418" spans="5:5" ht="13">
-      <c r="E418" s="4"/>
-    </row>
-    <row r="419" spans="5:5" ht="13">
-      <c r="E419" s="4"/>
-    </row>
-    <row r="420" spans="5:5" ht="13">
-      <c r="E420" s="4"/>
-    </row>
-    <row r="421" spans="5:5" ht="13">
-      <c r="E421" s="4"/>
-    </row>
-    <row r="422" spans="5:5" ht="13">
-      <c r="E422" s="4"/>
-    </row>
-    <row r="423" spans="5:5" ht="13">
-      <c r="E423" s="4"/>
-    </row>
-    <row r="424" spans="5:5" ht="13">
-      <c r="E424" s="4"/>
-    </row>
-    <row r="425" spans="5:5" ht="13">
-      <c r="E425" s="4"/>
-    </row>
-    <row r="426" spans="5:5" ht="13">
-      <c r="E426" s="4"/>
-    </row>
-    <row r="427" spans="5:5" ht="13">
-      <c r="E427" s="4"/>
-    </row>
-    <row r="428" spans="5:5" ht="13">
-      <c r="E428" s="4"/>
-    </row>
-    <row r="429" spans="5:5" ht="13">
-      <c r="E429" s="4"/>
-    </row>
-    <row r="430" spans="5:5" ht="13">
-      <c r="E430" s="4"/>
-    </row>
-    <row r="431" spans="5:5" ht="13">
-      <c r="E431" s="4"/>
-    </row>
-    <row r="432" spans="5:5" ht="13">
-      <c r="E432" s="4"/>
-    </row>
-    <row r="433" spans="5:5" ht="13">
-      <c r="E433" s="4"/>
-    </row>
-    <row r="434" spans="5:5" ht="13">
-      <c r="E434" s="4"/>
-    </row>
-    <row r="435" spans="5:5" ht="13">
-      <c r="E435" s="4"/>
-    </row>
-    <row r="436" spans="5:5" ht="13">
-      <c r="E436" s="4"/>
-    </row>
-    <row r="437" spans="5:5" ht="13">
-      <c r="E437" s="4"/>
-    </row>
-    <row r="438" spans="5:5" ht="13">
-      <c r="E438" s="4"/>
-    </row>
-    <row r="439" spans="5:5" ht="13">
-      <c r="E439" s="4"/>
-    </row>
-    <row r="440" spans="5:5" ht="13">
-      <c r="E440" s="4"/>
-    </row>
-    <row r="441" spans="5:5" ht="13">
-      <c r="E441" s="4"/>
-    </row>
-    <row r="442" spans="5:5" ht="13">
-      <c r="E442" s="4"/>
-    </row>
-    <row r="443" spans="5:5" ht="13">
-      <c r="E443" s="4"/>
-    </row>
-    <row r="444" spans="5:5" ht="13">
-      <c r="E444" s="4"/>
-    </row>
-    <row r="445" spans="5:5" ht="13">
-      <c r="E445" s="4"/>
-    </row>
-    <row r="446" spans="5:5" ht="13">
-      <c r="E446" s="4"/>
-    </row>
-    <row r="447" spans="5:5" ht="13">
-      <c r="E447" s="4"/>
-    </row>
-    <row r="448" spans="5:5" ht="13">
-      <c r="E448" s="4"/>
-    </row>
-    <row r="449" spans="5:5" ht="13">
-      <c r="E449" s="4"/>
-    </row>
-    <row r="450" spans="5:5" ht="13">
-      <c r="E450" s="4"/>
-    </row>
-    <row r="451" spans="5:5" ht="13">
-      <c r="E451" s="4"/>
-    </row>
-    <row r="452" spans="5:5" ht="13">
-      <c r="E452" s="4"/>
-    </row>
-    <row r="453" spans="5:5" ht="13">
-      <c r="E453" s="4"/>
-    </row>
-    <row r="454" spans="5:5" ht="13">
-      <c r="E454" s="4"/>
-    </row>
-    <row r="455" spans="5:5" ht="13">
-      <c r="E455" s="4"/>
-    </row>
-    <row r="456" spans="5:5" ht="13">
-      <c r="E456" s="4"/>
-    </row>
-    <row r="457" spans="5:5" ht="13">
-      <c r="E457" s="4"/>
-    </row>
-    <row r="458" spans="5:5" ht="13">
-      <c r="E458" s="4"/>
-    </row>
-    <row r="459" spans="5:5" ht="13">
-      <c r="E459" s="4"/>
-    </row>
-    <row r="460" spans="5:5" ht="13">
-      <c r="E460" s="4"/>
-    </row>
-    <row r="461" spans="5:5" ht="13">
-      <c r="E461" s="4"/>
-    </row>
-    <row r="462" spans="5:5" ht="13">
-      <c r="E462" s="4"/>
-    </row>
-    <row r="463" spans="5:5" ht="13">
-      <c r="E463" s="4"/>
-    </row>
-    <row r="464" spans="5:5" ht="13">
-      <c r="E464" s="4"/>
-    </row>
-    <row r="465" spans="5:5" ht="13">
-      <c r="E465" s="4"/>
-    </row>
-    <row r="466" spans="5:5" ht="13">
-      <c r="E466" s="4"/>
-    </row>
-    <row r="467" spans="5:5" ht="13">
-      <c r="E467" s="4"/>
-    </row>
-    <row r="468" spans="5:5" ht="13">
-      <c r="E468" s="4"/>
-    </row>
-    <row r="469" spans="5:5" ht="13">
-      <c r="E469" s="4"/>
-    </row>
-    <row r="470" spans="5:5" ht="13">
-      <c r="E470" s="4"/>
-    </row>
-    <row r="471" spans="5:5" ht="13">
-      <c r="E471" s="4"/>
-    </row>
-    <row r="472" spans="5:5" ht="13">
-      <c r="E472" s="4"/>
-    </row>
-    <row r="473" spans="5:5" ht="13">
-      <c r="E473" s="4"/>
-    </row>
-    <row r="474" spans="5:5" ht="13">
-      <c r="E474" s="4"/>
-    </row>
-    <row r="475" spans="5:5" ht="13">
-      <c r="E475" s="4"/>
-    </row>
-    <row r="476" spans="5:5" ht="13">
-      <c r="E476" s="4"/>
-    </row>
-    <row r="477" spans="5:5" ht="13">
-      <c r="E477" s="4"/>
-    </row>
-    <row r="478" spans="5:5" ht="13">
-      <c r="E478" s="4"/>
-    </row>
-    <row r="479" spans="5:5" ht="13">
-      <c r="E479" s="4"/>
-    </row>
-    <row r="480" spans="5:5" ht="13">
-      <c r="E480" s="4"/>
-    </row>
-    <row r="481" spans="5:5" ht="13">
-      <c r="E481" s="4"/>
-    </row>
-    <row r="482" spans="5:5" ht="13">
-      <c r="E482" s="4"/>
-    </row>
-    <row r="483" spans="5:5" ht="13">
-      <c r="E483" s="4"/>
-    </row>
-    <row r="484" spans="5:5" ht="13">
-      <c r="E484" s="4"/>
-    </row>
-    <row r="485" spans="5:5" ht="13">
-      <c r="E485" s="4"/>
-    </row>
-    <row r="486" spans="5:5" ht="13">
-      <c r="E486" s="4"/>
-    </row>
-    <row r="487" spans="5:5" ht="13">
-      <c r="E487" s="4"/>
-    </row>
-    <row r="488" spans="5:5" ht="13">
-      <c r="E488" s="4"/>
-    </row>
-    <row r="489" spans="5:5" ht="13">
-      <c r="E489" s="4"/>
-    </row>
-    <row r="490" spans="5:5" ht="13">
-      <c r="E490" s="4"/>
-    </row>
-    <row r="491" spans="5:5" ht="13">
-      <c r="E491" s="4"/>
-    </row>
-    <row r="492" spans="5:5" ht="13">
-      <c r="E492" s="4"/>
-    </row>
-    <row r="493" spans="5:5" ht="13">
-      <c r="E493" s="4"/>
-    </row>
-    <row r="494" spans="5:5" ht="13">
-      <c r="E494" s="4"/>
-    </row>
-    <row r="495" spans="5:5" ht="13">
-      <c r="E495" s="4"/>
-    </row>
-    <row r="496" spans="5:5" ht="13">
-      <c r="E496" s="4"/>
-    </row>
-    <row r="497" spans="5:5" ht="13">
-      <c r="E497" s="4"/>
-    </row>
-    <row r="498" spans="5:5" ht="13">
-      <c r="E498" s="4"/>
-    </row>
-    <row r="499" spans="5:5" ht="13">
-      <c r="E499" s="4"/>
-    </row>
-    <row r="500" spans="5:5" ht="13">
-      <c r="E500" s="4"/>
-    </row>
-    <row r="501" spans="5:5" ht="13">
-      <c r="E501" s="4"/>
-    </row>
-    <row r="502" spans="5:5" ht="13">
-      <c r="E502" s="4"/>
-    </row>
-    <row r="503" spans="5:5" ht="13">
-      <c r="E503" s="4"/>
-    </row>
-    <row r="504" spans="5:5" ht="13">
-      <c r="E504" s="4"/>
-    </row>
-    <row r="505" spans="5:5" ht="13">
-      <c r="E505" s="4"/>
-    </row>
-    <row r="506" spans="5:5" ht="13">
-      <c r="E506" s="4"/>
-    </row>
-    <row r="507" spans="5:5" ht="13">
-      <c r="E507" s="4"/>
-    </row>
-    <row r="508" spans="5:5" ht="13">
-      <c r="E508" s="4"/>
-    </row>
-    <row r="509" spans="5:5" ht="13">
-      <c r="E509" s="4"/>
-    </row>
-    <row r="510" spans="5:5" ht="13">
-      <c r="E510" s="4"/>
-    </row>
-    <row r="511" spans="5:5" ht="13">
-      <c r="E511" s="4"/>
-    </row>
-    <row r="512" spans="5:5" ht="13">
-      <c r="E512" s="4"/>
-    </row>
-    <row r="513" spans="5:5" ht="13">
-      <c r="E513" s="4"/>
-    </row>
-    <row r="514" spans="5:5" ht="13">
-      <c r="E514" s="4"/>
-    </row>
-    <row r="515" spans="5:5" ht="13">
-      <c r="E515" s="4"/>
-    </row>
-    <row r="516" spans="5:5" ht="13">
-      <c r="E516" s="4"/>
-    </row>
-    <row r="517" spans="5:5" ht="13">
-      <c r="E517" s="4"/>
-    </row>
-    <row r="518" spans="5:5" ht="13">
-      <c r="E518" s="4"/>
-    </row>
-    <row r="519" spans="5:5" ht="13">
-      <c r="E519" s="4"/>
-    </row>
-    <row r="520" spans="5:5" ht="13">
-      <c r="E520" s="4"/>
-    </row>
-    <row r="521" spans="5:5" ht="13">
-      <c r="E521" s="4"/>
-    </row>
-    <row r="522" spans="5:5" ht="13">
-      <c r="E522" s="4"/>
-    </row>
-    <row r="523" spans="5:5" ht="13">
-      <c r="E523" s="4"/>
-    </row>
-    <row r="524" spans="5:5" ht="13">
-      <c r="E524" s="4"/>
-    </row>
-    <row r="525" spans="5:5" ht="13">
-      <c r="E525" s="4"/>
-    </row>
-    <row r="526" spans="5:5" ht="13">
-      <c r="E526" s="4"/>
-    </row>
-    <row r="527" spans="5:5" ht="13">
-      <c r="E527" s="4"/>
-    </row>
-    <row r="528" spans="5:5" ht="13">
-      <c r="E528" s="4"/>
-    </row>
-    <row r="529" spans="5:5" ht="13">
-      <c r="E529" s="4"/>
-    </row>
-    <row r="530" spans="5:5" ht="13">
-      <c r="E530" s="4"/>
-    </row>
-    <row r="531" spans="5:5" ht="13">
-      <c r="E531" s="4"/>
-    </row>
-    <row r="532" spans="5:5" ht="13">
-      <c r="E532" s="4"/>
-    </row>
-    <row r="533" spans="5:5" ht="13">
-      <c r="E533" s="4"/>
-    </row>
-    <row r="534" spans="5:5" ht="13">
-      <c r="E534" s="4"/>
-    </row>
-    <row r="535" spans="5:5" ht="13">
-      <c r="E535" s="4"/>
-    </row>
-    <row r="536" spans="5:5" ht="13">
-      <c r="E536" s="4"/>
-    </row>
-    <row r="537" spans="5:5" ht="13">
-      <c r="E537" s="4"/>
-    </row>
-    <row r="538" spans="5:5" ht="13">
-      <c r="E538" s="4"/>
-    </row>
-    <row r="539" spans="5:5" ht="13">
-      <c r="E539" s="4"/>
-    </row>
-    <row r="540" spans="5:5" ht="13">
-      <c r="E540" s="4"/>
-    </row>
-    <row r="541" spans="5:5" ht="13">
-      <c r="E541" s="4"/>
-    </row>
-    <row r="542" spans="5:5" ht="13">
-      <c r="E542" s="4"/>
-    </row>
-    <row r="543" spans="5:5" ht="13">
-      <c r="E543" s="4"/>
-    </row>
-    <row r="544" spans="5:5" ht="13">
-      <c r="E544" s="4"/>
-    </row>
-    <row r="545" spans="5:5" ht="13">
-      <c r="E545" s="4"/>
-    </row>
-    <row r="546" spans="5:5" ht="13">
-      <c r="E546" s="4"/>
-    </row>
-    <row r="547" spans="5:5" ht="13">
-      <c r="E547" s="4"/>
-    </row>
-    <row r="548" spans="5:5" ht="13">
-      <c r="E548" s="4"/>
-    </row>
-    <row r="549" spans="5:5" ht="13">
-      <c r="E549" s="4"/>
-    </row>
-    <row r="550" spans="5:5" ht="13">
-      <c r="E550" s="4"/>
-    </row>
-    <row r="551" spans="5:5" ht="13">
-      <c r="E551" s="4"/>
-    </row>
-    <row r="552" spans="5:5" ht="13">
-      <c r="E552" s="4"/>
-    </row>
-    <row r="553" spans="5:5" ht="13">
-      <c r="E553" s="4"/>
-    </row>
-    <row r="554" spans="5:5" ht="13">
-      <c r="E554" s="4"/>
-    </row>
-    <row r="555" spans="5:5" ht="13">
-      <c r="E555" s="4"/>
-    </row>
-    <row r="556" spans="5:5" ht="13">
-      <c r="E556" s="4"/>
-    </row>
-    <row r="557" spans="5:5" ht="13">
-      <c r="E557" s="4"/>
-    </row>
-    <row r="558" spans="5:5" ht="13">
-      <c r="E558" s="4"/>
-    </row>
-    <row r="559" spans="5:5" ht="13">
-      <c r="E559" s="4"/>
-    </row>
-    <row r="560" spans="5:5" ht="13">
-      <c r="E560" s="4"/>
-    </row>
-    <row r="561" spans="5:5" ht="13">
-      <c r="E561" s="4"/>
-    </row>
-    <row r="562" spans="5:5" ht="13">
-      <c r="E562" s="4"/>
-    </row>
-    <row r="563" spans="5:5" ht="13">
-      <c r="E563" s="4"/>
-    </row>
-    <row r="564" spans="5:5" ht="13">
-      <c r="E564" s="4"/>
-    </row>
-    <row r="565" spans="5:5" ht="13">
-      <c r="E565" s="4"/>
-    </row>
-    <row r="566" spans="5:5" ht="13">
-      <c r="E566" s="4"/>
-    </row>
-    <row r="567" spans="5:5" ht="13">
-      <c r="E567" s="4"/>
-    </row>
-    <row r="568" spans="5:5" ht="13">
-      <c r="E568" s="4"/>
-    </row>
-    <row r="569" spans="5:5" ht="13">
-      <c r="E569" s="4"/>
-    </row>
-    <row r="570" spans="5:5" ht="13">
-      <c r="E570" s="4"/>
-    </row>
-    <row r="571" spans="5:5" ht="13">
-      <c r="E571" s="4"/>
-    </row>
-    <row r="572" spans="5:5" ht="13">
-      <c r="E572" s="4"/>
-    </row>
-    <row r="573" spans="5:5" ht="13">
-      <c r="E573" s="4"/>
-    </row>
-    <row r="574" spans="5:5" ht="13">
-      <c r="E574" s="4"/>
-    </row>
-    <row r="575" spans="5:5" ht="13">
-      <c r="E575" s="4"/>
-    </row>
-    <row r="576" spans="5:5" ht="13">
-      <c r="E576" s="4"/>
-    </row>
-    <row r="577" spans="5:5" ht="13">
-      <c r="E577" s="4"/>
-    </row>
-    <row r="578" spans="5:5" ht="13">
-      <c r="E578" s="4"/>
-    </row>
-    <row r="579" spans="5:5" ht="13">
-      <c r="E579" s="4"/>
-    </row>
-    <row r="580" spans="5:5" ht="13">
-      <c r="E580" s="4"/>
-    </row>
-    <row r="581" spans="5:5" ht="13">
-      <c r="E581" s="4"/>
-    </row>
-    <row r="582" spans="5:5" ht="13">
-      <c r="E582" s="4"/>
-    </row>
-    <row r="583" spans="5:5" ht="13">
-      <c r="E583" s="4"/>
-    </row>
-    <row r="584" spans="5:5" ht="13">
-      <c r="E584" s="4"/>
-    </row>
-    <row r="585" spans="5:5" ht="13">
-      <c r="E585" s="4"/>
-    </row>
-    <row r="586" spans="5:5" ht="13">
-      <c r="E586" s="4"/>
-    </row>
-    <row r="587" spans="5:5" ht="13">
-      <c r="E587" s="4"/>
-    </row>
-    <row r="588" spans="5:5" ht="13">
-      <c r="E588" s="4"/>
-    </row>
-    <row r="589" spans="5:5" ht="13">
-      <c r="E589" s="4"/>
-    </row>
-    <row r="590" spans="5:5" ht="13">
-      <c r="E590" s="4"/>
-    </row>
-    <row r="591" spans="5:5" ht="13">
-      <c r="E591" s="4"/>
-    </row>
-    <row r="592" spans="5:5" ht="13">
-      <c r="E592" s="4"/>
-    </row>
-    <row r="593" spans="5:5" ht="13">
-      <c r="E593" s="4"/>
-    </row>
-    <row r="594" spans="5:5" ht="13">
-      <c r="E594" s="4"/>
-    </row>
-    <row r="595" spans="5:5" ht="13">
-      <c r="E595" s="4"/>
-    </row>
-    <row r="596" spans="5:5" ht="13">
-      <c r="E596" s="4"/>
-    </row>
-    <row r="597" spans="5:5" ht="13">
-      <c r="E597" s="4"/>
-    </row>
-    <row r="598" spans="5:5" ht="13">
-      <c r="E598" s="4"/>
-    </row>
-    <row r="599" spans="5:5" ht="13">
-      <c r="E599" s="4"/>
-    </row>
-    <row r="600" spans="5:5" ht="13">
-      <c r="E600" s="4"/>
-    </row>
-    <row r="601" spans="5:5" ht="13">
-      <c r="E601" s="4"/>
-    </row>
-    <row r="602" spans="5:5" ht="13">
-      <c r="E602" s="4"/>
-    </row>
-    <row r="603" spans="5:5" ht="13">
-      <c r="E603" s="4"/>
-    </row>
-    <row r="604" spans="5:5" ht="13">
-      <c r="E604" s="4"/>
-    </row>
-    <row r="605" spans="5:5" ht="13">
-      <c r="E605" s="4"/>
-    </row>
-    <row r="606" spans="5:5" ht="13">
-      <c r="E606" s="4"/>
-    </row>
-    <row r="607" spans="5:5" ht="13">
-      <c r="E607" s="4"/>
-    </row>
-    <row r="608" spans="5:5" ht="13">
-      <c r="E608" s="4"/>
-    </row>
-    <row r="609" spans="5:5" ht="13">
-      <c r="E609" s="4"/>
-    </row>
-    <row r="610" spans="5:5" ht="13">
-      <c r="E610" s="4"/>
-    </row>
-    <row r="611" spans="5:5" ht="13">
-      <c r="E611" s="4"/>
-    </row>
-    <row r="612" spans="5:5" ht="13">
-      <c r="E612" s="4"/>
-    </row>
-    <row r="613" spans="5:5" ht="13">
-      <c r="E613" s="4"/>
-    </row>
-    <row r="614" spans="5:5" ht="13">
-      <c r="E614" s="4"/>
-    </row>
-    <row r="615" spans="5:5" ht="13">
-      <c r="E615" s="4"/>
-    </row>
-    <row r="616" spans="5:5" ht="13">
-      <c r="E616" s="4"/>
-    </row>
-    <row r="617" spans="5:5" ht="13">
-      <c r="E617" s="4"/>
-    </row>
-    <row r="618" spans="5:5" ht="13">
-      <c r="E618" s="4"/>
-    </row>
-    <row r="619" spans="5:5" ht="13">
-      <c r="E619" s="4"/>
-    </row>
-    <row r="620" spans="5:5" ht="13">
-      <c r="E620" s="4"/>
-    </row>
-    <row r="621" spans="5:5" ht="13">
-      <c r="E621" s="4"/>
-    </row>
-    <row r="622" spans="5:5" ht="13">
-      <c r="E622" s="4"/>
-    </row>
-    <row r="623" spans="5:5" ht="13">
-      <c r="E623" s="4"/>
-    </row>
-    <row r="624" spans="5:5" ht="13">
-      <c r="E624" s="4"/>
-    </row>
-    <row r="625" spans="5:5" ht="13">
-      <c r="E625" s="4"/>
-    </row>
-    <row r="626" spans="5:5" ht="13">
-      <c r="E626" s="4"/>
-    </row>
-    <row r="627" spans="5:5" ht="13">
-      <c r="E627" s="4"/>
-    </row>
-    <row r="628" spans="5:5" ht="13">
-      <c r="E628" s="4"/>
-    </row>
-    <row r="629" spans="5:5" ht="13">
-      <c r="E629" s="4"/>
-    </row>
-    <row r="630" spans="5:5" ht="13">
-      <c r="E630" s="4"/>
-    </row>
-    <row r="631" spans="5:5" ht="13">
-      <c r="E631" s="4"/>
-    </row>
-    <row r="632" spans="5:5" ht="13">
-      <c r="E632" s="4"/>
-    </row>
-    <row r="633" spans="5:5" ht="13">
-      <c r="E633" s="4"/>
-    </row>
-    <row r="634" spans="5:5" ht="13">
-      <c r="E634" s="4"/>
-    </row>
-    <row r="635" spans="5:5" ht="13">
-      <c r="E635" s="4"/>
-    </row>
-    <row r="636" spans="5:5" ht="13">
-      <c r="E636" s="4"/>
-    </row>
-    <row r="637" spans="5:5" ht="13">
-      <c r="E637" s="4"/>
-    </row>
-    <row r="638" spans="5:5" ht="13">
-      <c r="E638" s="4"/>
-    </row>
-    <row r="639" spans="5:5" ht="13">
-      <c r="E639" s="4"/>
-    </row>
-    <row r="640" spans="5:5" ht="13">
-      <c r="E640" s="4"/>
-    </row>
-    <row r="641" spans="5:5" ht="13">
-      <c r="E641" s="4"/>
-    </row>
-    <row r="642" spans="5:5" ht="13">
-      <c r="E642" s="4"/>
-    </row>
-    <row r="643" spans="5:5" ht="13">
-      <c r="E643" s="4"/>
-    </row>
-    <row r="644" spans="5:5" ht="13">
-      <c r="E644" s="4"/>
-    </row>
-    <row r="645" spans="5:5" ht="13">
-      <c r="E645" s="4"/>
-    </row>
-    <row r="646" spans="5:5" ht="13">
-      <c r="E646" s="4"/>
-    </row>
-    <row r="647" spans="5:5" ht="13">
-      <c r="E647" s="4"/>
-    </row>
-    <row r="648" spans="5:5" ht="13">
-      <c r="E648" s="4"/>
-    </row>
-    <row r="649" spans="5:5" ht="13">
-      <c r="E649" s="4"/>
-    </row>
-    <row r="650" spans="5:5" ht="13">
-      <c r="E650" s="4"/>
-    </row>
-    <row r="651" spans="5:5" ht="13">
-      <c r="E651" s="4"/>
-    </row>
-    <row r="652" spans="5:5" ht="13">
-      <c r="E652" s="4"/>
-    </row>
-    <row r="653" spans="5:5" ht="13">
-      <c r="E653" s="4"/>
-    </row>
-    <row r="654" spans="5:5" ht="13">
-      <c r="E654" s="4"/>
-    </row>
-    <row r="655" spans="5:5" ht="13">
-      <c r="E655" s="4"/>
-    </row>
-    <row r="656" spans="5:5" ht="13">
-      <c r="E656" s="4"/>
-    </row>
-    <row r="657" spans="5:5" ht="13">
-      <c r="E657" s="4"/>
-    </row>
-    <row r="658" spans="5:5" ht="13">
-      <c r="E658" s="4"/>
-    </row>
-    <row r="659" spans="5:5" ht="13">
-      <c r="E659" s="4"/>
-    </row>
-    <row r="660" spans="5:5" ht="13">
-      <c r="E660" s="4"/>
-    </row>
-    <row r="661" spans="5:5" ht="13">
-      <c r="E661" s="4"/>
-    </row>
-    <row r="662" spans="5:5" ht="13">
-      <c r="E662" s="4"/>
-    </row>
-    <row r="663" spans="5:5" ht="13">
-      <c r="E663" s="4"/>
-    </row>
-    <row r="664" spans="5:5" ht="13">
-      <c r="E664" s="4"/>
-    </row>
-    <row r="665" spans="5:5" ht="13">
-      <c r="E665" s="4"/>
-    </row>
-    <row r="666" spans="5:5" ht="13">
-      <c r="E666" s="4"/>
-    </row>
-    <row r="667" spans="5:5" ht="13">
-      <c r="E667" s="4"/>
-    </row>
-    <row r="668" spans="5:5" ht="13">
-      <c r="E668" s="4"/>
-    </row>
-    <row r="669" spans="5:5" ht="13">
-      <c r="E669" s="4"/>
-    </row>
-    <row r="670" spans="5:5" ht="13">
-      <c r="E670" s="4"/>
-    </row>
-    <row r="671" spans="5:5" ht="13">
-      <c r="E671" s="4"/>
-    </row>
-    <row r="672" spans="5:5" ht="13">
-      <c r="E672" s="4"/>
-    </row>
-    <row r="673" spans="5:5" ht="13">
-      <c r="E673" s="4"/>
-    </row>
-    <row r="674" spans="5:5" ht="13">
-      <c r="E674" s="4"/>
-    </row>
-    <row r="675" spans="5:5" ht="13">
-      <c r="E675" s="4"/>
-    </row>
-    <row r="676" spans="5:5" ht="13">
-      <c r="E676" s="4"/>
-    </row>
-    <row r="677" spans="5:5" ht="13">
-      <c r="E677" s="4"/>
-    </row>
-    <row r="678" spans="5:5" ht="13">
-      <c r="E678" s="4"/>
-    </row>
-    <row r="679" spans="5:5" ht="13">
-      <c r="E679" s="4"/>
-    </row>
-    <row r="680" spans="5:5" ht="13">
-      <c r="E680" s="4"/>
-    </row>
-    <row r="681" spans="5:5" ht="13">
-      <c r="E681" s="4"/>
-    </row>
-    <row r="682" spans="5:5" ht="13">
-      <c r="E682" s="4"/>
-    </row>
-    <row r="683" spans="5:5" ht="13">
-      <c r="E683" s="4"/>
-    </row>
-    <row r="684" spans="5:5" ht="13">
-      <c r="E684" s="4"/>
-    </row>
-    <row r="685" spans="5:5" ht="13">
-      <c r="E685" s="4"/>
-    </row>
-    <row r="686" spans="5:5" ht="13">
-      <c r="E686" s="4"/>
-    </row>
-    <row r="687" spans="5:5" ht="13">
-      <c r="E687" s="4"/>
-    </row>
-    <row r="688" spans="5:5" ht="13">
-      <c r="E688" s="4"/>
-    </row>
-    <row r="689" spans="5:5" ht="13">
-      <c r="E689" s="4"/>
-    </row>
-    <row r="690" spans="5:5" ht="13">
-      <c r="E690" s="4"/>
-    </row>
-    <row r="691" spans="5:5" ht="13">
-      <c r="E691" s="4"/>
-    </row>
-    <row r="692" spans="5:5" ht="13">
-      <c r="E692" s="4"/>
-    </row>
-    <row r="693" spans="5:5" ht="13">
-      <c r="E693" s="4"/>
-    </row>
-    <row r="694" spans="5:5" ht="13">
-      <c r="E694" s="4"/>
-    </row>
-    <row r="695" spans="5:5" ht="13">
-      <c r="E695" s="4"/>
-    </row>
-    <row r="696" spans="5:5" ht="13">
-      <c r="E696" s="4"/>
-    </row>
-    <row r="697" spans="5:5" ht="13">
-      <c r="E697" s="4"/>
-    </row>
-    <row r="698" spans="5:5" ht="13">
-      <c r="E698" s="4"/>
-    </row>
-    <row r="699" spans="5:5" ht="13">
-      <c r="E699" s="4"/>
-    </row>
-    <row r="700" spans="5:5" ht="13">
-      <c r="E700" s="4"/>
-    </row>
-    <row r="701" spans="5:5" ht="13">
-      <c r="E701" s="4"/>
-    </row>
-    <row r="702" spans="5:5" ht="13">
-      <c r="E702" s="4"/>
-    </row>
-    <row r="703" spans="5:5" ht="13">
-      <c r="E703" s="4"/>
-    </row>
-    <row r="704" spans="5:5" ht="13">
-      <c r="E704" s="4"/>
-    </row>
-    <row r="705" spans="5:5" ht="13">
-      <c r="E705" s="4"/>
-    </row>
-    <row r="706" spans="5:5" ht="13">
-      <c r="E706" s="4"/>
-    </row>
-    <row r="707" spans="5:5" ht="13">
-      <c r="E707" s="4"/>
-    </row>
-    <row r="708" spans="5:5" ht="13">
-      <c r="E708" s="4"/>
-    </row>
-    <row r="709" spans="5:5" ht="13">
-      <c r="E709" s="4"/>
-    </row>
-    <row r="710" spans="5:5" ht="13">
-      <c r="E710" s="4"/>
-    </row>
-    <row r="711" spans="5:5" ht="13">
-      <c r="E711" s="4"/>
-    </row>
-    <row r="712" spans="5:5" ht="13">
-      <c r="E712" s="4"/>
-    </row>
-    <row r="713" spans="5:5" ht="13">
-      <c r="E713" s="4"/>
-    </row>
-    <row r="714" spans="5:5" ht="13">
-      <c r="E714" s="4"/>
-    </row>
-    <row r="715" spans="5:5" ht="13">
-      <c r="E715" s="4"/>
-    </row>
-    <row r="716" spans="5:5" ht="13">
-      <c r="E716" s="4"/>
-    </row>
-    <row r="717" spans="5:5" ht="13">
-      <c r="E717" s="4"/>
-    </row>
-    <row r="718" spans="5:5" ht="13">
-      <c r="E718" s="4"/>
-    </row>
-    <row r="719" spans="5:5" ht="13">
-      <c r="E719" s="4"/>
-    </row>
-    <row r="720" spans="5:5" ht="13">
-      <c r="E720" s="4"/>
-    </row>
-    <row r="721" spans="5:5" ht="13">
-      <c r="E721" s="4"/>
-    </row>
-    <row r="722" spans="5:5" ht="13">
-      <c r="E722" s="4"/>
-    </row>
-    <row r="723" spans="5:5" ht="13">
-      <c r="E723" s="4"/>
-    </row>
-    <row r="724" spans="5:5" ht="13">
-      <c r="E724" s="4"/>
-    </row>
-    <row r="725" spans="5:5" ht="13">
-      <c r="E725" s="4"/>
-    </row>
-    <row r="726" spans="5:5" ht="13">
-      <c r="E726" s="4"/>
-    </row>
-    <row r="727" spans="5:5" ht="13">
-      <c r="E727" s="4"/>
-    </row>
-    <row r="728" spans="5:5" ht="13">
-      <c r="E728" s="4"/>
-    </row>
-    <row r="729" spans="5:5" ht="13">
-      <c r="E729" s="4"/>
-    </row>
-    <row r="730" spans="5:5" ht="13">
-      <c r="E730" s="4"/>
-    </row>
-    <row r="731" spans="5:5" ht="13">
-      <c r="E731" s="4"/>
-    </row>
-    <row r="732" spans="5:5" ht="13">
-      <c r="E732" s="4"/>
-    </row>
-    <row r="733" spans="5:5" ht="13">
-      <c r="E733" s="4"/>
-    </row>
-    <row r="734" spans="5:5" ht="13">
-      <c r="E734" s="4"/>
-    </row>
-    <row r="735" spans="5:5" ht="13">
-      <c r="E735" s="4"/>
-    </row>
-    <row r="736" spans="5:5" ht="13">
-      <c r="E736" s="4"/>
-    </row>
-    <row r="737" spans="5:5" ht="13">
-      <c r="E737" s="4"/>
-    </row>
-    <row r="738" spans="5:5" ht="13">
-      <c r="E738" s="4"/>
-    </row>
-    <row r="739" spans="5:5" ht="13">
-      <c r="E739" s="4"/>
-    </row>
-    <row r="740" spans="5:5" ht="13">
-      <c r="E740" s="4"/>
-    </row>
-    <row r="741" spans="5:5" ht="13">
-      <c r="E741" s="4"/>
-    </row>
-    <row r="742" spans="5:5" ht="13">
-      <c r="E742" s="4"/>
-    </row>
-    <row r="743" spans="5:5" ht="13">
-      <c r="E743" s="4"/>
-    </row>
-    <row r="744" spans="5:5" ht="13">
-      <c r="E744" s="4"/>
-    </row>
-    <row r="745" spans="5:5" ht="13">
-      <c r="E745" s="4"/>
-    </row>
-    <row r="746" spans="5:5" ht="13">
-      <c r="E746" s="4"/>
-    </row>
-    <row r="747" spans="5:5" ht="13">
-      <c r="E747" s="4"/>
-    </row>
-    <row r="748" spans="5:5" ht="13">
-      <c r="E748" s="4"/>
-    </row>
-    <row r="749" spans="5:5" ht="13">
-      <c r="E749" s="4"/>
-    </row>
-    <row r="750" spans="5:5" ht="13">
-      <c r="E750" s="4"/>
-    </row>
-    <row r="751" spans="5:5" ht="13">
-      <c r="E751" s="4"/>
-    </row>
-    <row r="752" spans="5:5" ht="13">
-      <c r="E752" s="4"/>
-    </row>
-    <row r="753" spans="5:5" ht="13">
-      <c r="E753" s="4"/>
-    </row>
-    <row r="754" spans="5:5" ht="13">
-      <c r="E754" s="4"/>
-    </row>
-    <row r="755" spans="5:5" ht="13">
-      <c r="E755" s="4"/>
-    </row>
-    <row r="756" spans="5:5" ht="13">
-      <c r="E756" s="4"/>
-    </row>
-    <row r="757" spans="5:5" ht="13">
-      <c r="E757" s="4"/>
-    </row>
-    <row r="758" spans="5:5" ht="13">
-      <c r="E758" s="4"/>
-    </row>
-    <row r="759" spans="5:5" ht="13">
-      <c r="E759" s="4"/>
-    </row>
-    <row r="760" spans="5:5" ht="13">
-      <c r="E760" s="4"/>
-    </row>
-    <row r="761" spans="5:5" ht="13">
-      <c r="E761" s="4"/>
-    </row>
-    <row r="762" spans="5:5" ht="13">
-      <c r="E762" s="4"/>
-    </row>
-    <row r="763" spans="5:5" ht="13">
-      <c r="E763" s="4"/>
-    </row>
-    <row r="764" spans="5:5" ht="13">
-      <c r="E764" s="4"/>
-    </row>
-    <row r="765" spans="5:5" ht="13">
-      <c r="E765" s="4"/>
-    </row>
-    <row r="766" spans="5:5" ht="13">
-      <c r="E766" s="4"/>
-    </row>
-    <row r="767" spans="5:5" ht="13">
-      <c r="E767" s="4"/>
-    </row>
-    <row r="768" spans="5:5" ht="13">
-      <c r="E768" s="4"/>
-    </row>
-    <row r="769" spans="5:5" ht="13">
-      <c r="E769" s="4"/>
-    </row>
-    <row r="770" spans="5:5" ht="13">
-      <c r="E770" s="4"/>
-    </row>
-    <row r="771" spans="5:5" ht="13">
-      <c r="E771" s="4"/>
-    </row>
-    <row r="772" spans="5:5" ht="13">
-      <c r="E772" s="4"/>
-    </row>
-    <row r="773" spans="5:5" ht="13">
-      <c r="E773" s="4"/>
-    </row>
-    <row r="774" spans="5:5" ht="13">
-      <c r="E774" s="4"/>
-    </row>
-    <row r="775" spans="5:5" ht="13">
-      <c r="E775" s="4"/>
-    </row>
-    <row r="776" spans="5:5" ht="13">
-      <c r="E776" s="4"/>
-    </row>
-    <row r="777" spans="5:5" ht="13">
-      <c r="E777" s="4"/>
-    </row>
-    <row r="778" spans="5:5" ht="13">
-      <c r="E778" s="4"/>
-    </row>
-    <row r="779" spans="5:5" ht="13">
-      <c r="E779" s="4"/>
-    </row>
-    <row r="780" spans="5:5" ht="13">
-      <c r="E780" s="4"/>
-    </row>
-    <row r="781" spans="5:5" ht="13">
-      <c r="E781" s="4"/>
-    </row>
-    <row r="782" spans="5:5" ht="13">
-      <c r="E782" s="4"/>
-    </row>
-    <row r="783" spans="5:5" ht="13">
-      <c r="E783" s="4"/>
-    </row>
-    <row r="784" spans="5:5" ht="13">
-      <c r="E784" s="4"/>
-    </row>
-    <row r="785" spans="5:5" ht="13">
-      <c r="E785" s="4"/>
-    </row>
-    <row r="786" spans="5:5" ht="13">
-      <c r="E786" s="4"/>
-    </row>
-    <row r="787" spans="5:5" ht="13">
-      <c r="E787" s="4"/>
-    </row>
-    <row r="788" spans="5:5" ht="13">
-      <c r="E788" s="4"/>
-    </row>
-    <row r="789" spans="5:5" ht="13">
-      <c r="E789" s="4"/>
-    </row>
-    <row r="790" spans="5:5" ht="13">
-      <c r="E790" s="4"/>
-    </row>
-    <row r="791" spans="5:5" ht="13">
-      <c r="E791" s="4"/>
-    </row>
-    <row r="792" spans="5:5" ht="13">
-      <c r="E792" s="4"/>
-    </row>
-    <row r="793" spans="5:5" ht="13">
-      <c r="E793" s="4"/>
-    </row>
-    <row r="794" spans="5:5" ht="13">
-      <c r="E794" s="4"/>
-    </row>
-    <row r="795" spans="5:5" ht="13">
-      <c r="E795" s="4"/>
-    </row>
-    <row r="796" spans="5:5" ht="13">
-      <c r="E796" s="4"/>
-    </row>
-    <row r="797" spans="5:5" ht="13">
-      <c r="E797" s="4"/>
-    </row>
-    <row r="798" spans="5:5" ht="13">
-      <c r="E798" s="4"/>
-    </row>
-    <row r="799" spans="5:5" ht="13">
-      <c r="E799" s="4"/>
-    </row>
-    <row r="800" spans="5:5" ht="13">
-      <c r="E800" s="4"/>
-    </row>
-    <row r="801" spans="5:5" ht="13">
-      <c r="E801" s="4"/>
-    </row>
-    <row r="802" spans="5:5" ht="13">
-      <c r="E802" s="4"/>
-    </row>
-    <row r="803" spans="5:5" ht="13">
-      <c r="E803" s="4"/>
-    </row>
-    <row r="804" spans="5:5" ht="13">
-      <c r="E804" s="4"/>
-    </row>
-    <row r="805" spans="5:5" ht="13">
-      <c r="E805" s="4"/>
-    </row>
-    <row r="806" spans="5:5" ht="13">
-      <c r="E806" s="4"/>
-    </row>
-    <row r="807" spans="5:5" ht="13">
-      <c r="E807" s="4"/>
-    </row>
-    <row r="808" spans="5:5" ht="13">
-      <c r="E808" s="4"/>
-    </row>
-    <row r="809" spans="5:5" ht="13">
-      <c r="E809" s="4"/>
-    </row>
-    <row r="810" spans="5:5" ht="13">
-      <c r="E810" s="4"/>
-    </row>
-    <row r="811" spans="5:5" ht="13">
-      <c r="E811" s="4"/>
-    </row>
-    <row r="812" spans="5:5" ht="13">
-      <c r="E812" s="4"/>
-    </row>
-    <row r="813" spans="5:5" ht="13">
-      <c r="E813" s="4"/>
-    </row>
-    <row r="814" spans="5:5" ht="13">
-      <c r="E814" s="4"/>
-    </row>
-    <row r="815" spans="5:5" ht="13">
-      <c r="E815" s="4"/>
-    </row>
-    <row r="816" spans="5:5" ht="13">
-      <c r="E816" s="4"/>
-    </row>
-    <row r="817" spans="5:5" ht="13">
-      <c r="E817" s="4"/>
-    </row>
-    <row r="818" spans="5:5" ht="13">
-      <c r="E818" s="4"/>
-    </row>
-    <row r="819" spans="5:5" ht="13">
-      <c r="E819" s="4"/>
-    </row>
-    <row r="820" spans="5:5" ht="13">
-      <c r="E820" s="4"/>
-    </row>
-    <row r="821" spans="5:5" ht="13">
-      <c r="E821" s="4"/>
-    </row>
-    <row r="822" spans="5:5" ht="13">
-      <c r="E822" s="4"/>
-    </row>
-    <row r="823" spans="5:5" ht="13">
-      <c r="E823" s="4"/>
-    </row>
-    <row r="824" spans="5:5" ht="13">
-      <c r="E824" s="4"/>
-    </row>
-    <row r="825" spans="5:5" ht="13">
-      <c r="E825" s="4"/>
-    </row>
-    <row r="826" spans="5:5" ht="13">
-      <c r="E826" s="4"/>
-    </row>
-    <row r="827" spans="5:5" ht="13">
-      <c r="E827" s="4"/>
-    </row>
-    <row r="828" spans="5:5" ht="13">
-      <c r="E828" s="4"/>
-    </row>
-    <row r="829" spans="5:5" ht="13">
-      <c r="E829" s="4"/>
-    </row>
-    <row r="830" spans="5:5" ht="13">
-      <c r="E830" s="4"/>
-    </row>
-    <row r="831" spans="5:5" ht="13">
-      <c r="E831" s="4"/>
-    </row>
-    <row r="832" spans="5:5" ht="13">
-      <c r="E832" s="4"/>
-    </row>
-    <row r="833" spans="5:5" ht="13">
-      <c r="E833" s="4"/>
-    </row>
-    <row r="834" spans="5:5" ht="13">
-      <c r="E834" s="4"/>
-    </row>
-    <row r="835" spans="5:5" ht="13">
-      <c r="E835" s="4"/>
-    </row>
-    <row r="836" spans="5:5" ht="13">
-      <c r="E836" s="4"/>
-    </row>
-    <row r="837" spans="5:5" ht="13">
-      <c r="E837" s="4"/>
-    </row>
-    <row r="838" spans="5:5" ht="13">
-      <c r="E838" s="4"/>
-    </row>
-    <row r="839" spans="5:5" ht="13">
-      <c r="E839" s="4"/>
-    </row>
-    <row r="840" spans="5:5" ht="13">
-      <c r="E840" s="4"/>
-    </row>
-    <row r="841" spans="5:5" ht="13">
-      <c r="E841" s="4"/>
-    </row>
-    <row r="842" spans="5:5" ht="13">
-      <c r="E842" s="4"/>
-    </row>
-    <row r="843" spans="5:5" ht="13">
-      <c r="E843" s="4"/>
-    </row>
-    <row r="844" spans="5:5" ht="13">
-      <c r="E844" s="4"/>
-    </row>
-    <row r="845" spans="5:5" ht="13">
-      <c r="E845" s="4"/>
-    </row>
-    <row r="846" spans="5:5" ht="13">
-      <c r="E846" s="4"/>
-    </row>
-    <row r="847" spans="5:5" ht="13">
-      <c r="E847" s="4"/>
-    </row>
-    <row r="848" spans="5:5" ht="13">
-      <c r="E848" s="4"/>
-    </row>
-    <row r="849" spans="5:5" ht="13">
-      <c r="E849" s="4"/>
-    </row>
-    <row r="850" spans="5:5" ht="13">
-      <c r="E850" s="4"/>
-    </row>
-    <row r="851" spans="5:5" ht="13">
-      <c r="E851" s="4"/>
-    </row>
-    <row r="852" spans="5:5" ht="13">
-      <c r="E852" s="4"/>
-    </row>
-    <row r="853" spans="5:5" ht="13">
-      <c r="E853" s="4"/>
-    </row>
-    <row r="854" spans="5:5" ht="13">
-      <c r="E854" s="4"/>
-    </row>
-    <row r="855" spans="5:5" ht="13">
-      <c r="E855" s="4"/>
-    </row>
-    <row r="856" spans="5:5" ht="13">
-      <c r="E856" s="4"/>
-    </row>
-    <row r="857" spans="5:5" ht="13">
-      <c r="E857" s="4"/>
-    </row>
-    <row r="858" spans="5:5" ht="13">
-      <c r="E858" s="4"/>
-    </row>
-    <row r="859" spans="5:5" ht="13">
-      <c r="E859" s="4"/>
-    </row>
-    <row r="860" spans="5:5" ht="13">
-      <c r="E860" s="4"/>
-    </row>
-    <row r="861" spans="5:5" ht="13">
-      <c r="E861" s="4"/>
-    </row>
-    <row r="862" spans="5:5" ht="13">
-      <c r="E862" s="4"/>
-    </row>
-    <row r="863" spans="5:5" ht="13">
-      <c r="E863" s="4"/>
-    </row>
-    <row r="864" spans="5:5" ht="13">
-      <c r="E864" s="4"/>
-    </row>
-    <row r="865" spans="5:5" ht="13">
-      <c r="E865" s="4"/>
-    </row>
-    <row r="866" spans="5:5" ht="13">
-      <c r="E866" s="4"/>
-    </row>
-    <row r="867" spans="5:5" ht="13">
-      <c r="E867" s="4"/>
-    </row>
-    <row r="868" spans="5:5" ht="13">
-      <c r="E868" s="4"/>
-    </row>
-    <row r="869" spans="5:5" ht="13">
-      <c r="E869" s="4"/>
-    </row>
-    <row r="870" spans="5:5" ht="13">
-      <c r="E870" s="4"/>
-    </row>
-    <row r="871" spans="5:5" ht="13">
-      <c r="E871" s="4"/>
-    </row>
-    <row r="872" spans="5:5" ht="13">
-      <c r="E872" s="4"/>
-    </row>
-    <row r="873" spans="5:5" ht="13">
-      <c r="E873" s="4"/>
-    </row>
-    <row r="874" spans="5:5" ht="13">
-      <c r="E874" s="4"/>
-    </row>
-    <row r="875" spans="5:5" ht="13">
-      <c r="E875" s="4"/>
-    </row>
-    <row r="876" spans="5:5" ht="13">
-      <c r="E876" s="4"/>
-    </row>
-    <row r="877" spans="5:5" ht="13">
-      <c r="E877" s="4"/>
-    </row>
-    <row r="878" spans="5:5" ht="13">
-      <c r="E878" s="4"/>
-    </row>
-    <row r="879" spans="5:5" ht="13">
-      <c r="E879" s="4"/>
-    </row>
-    <row r="880" spans="5:5" ht="13">
-      <c r="E880" s="4"/>
-    </row>
-    <row r="881" spans="5:5" ht="13">
-      <c r="E881" s="4"/>
-    </row>
-    <row r="882" spans="5:5" ht="13">
-      <c r="E882" s="4"/>
-    </row>
-    <row r="883" spans="5:5" ht="13">
-      <c r="E883" s="4"/>
-    </row>
-    <row r="884" spans="5:5" ht="13">
-      <c r="E884" s="4"/>
-    </row>
-    <row r="885" spans="5:5" ht="13">
-      <c r="E885" s="4"/>
-    </row>
-    <row r="886" spans="5:5" ht="13">
-      <c r="E886" s="4"/>
-    </row>
-    <row r="887" spans="5:5" ht="13">
-      <c r="E887" s="4"/>
-    </row>
-    <row r="888" spans="5:5" ht="13">
-      <c r="E888" s="4"/>
-    </row>
-    <row r="889" spans="5:5" ht="13">
-      <c r="E889" s="4"/>
-    </row>
-    <row r="890" spans="5:5" ht="13">
-      <c r="E890" s="4"/>
-    </row>
-    <row r="891" spans="5:5" ht="13">
-      <c r="E891" s="4"/>
-    </row>
-    <row r="892" spans="5:5" ht="13">
-      <c r="E892" s="4"/>
-    </row>
-    <row r="893" spans="5:5" ht="13">
-      <c r="E893" s="4"/>
-    </row>
-    <row r="894" spans="5:5" ht="13">
-      <c r="E894" s="4"/>
-    </row>
-    <row r="895" spans="5:5" ht="13">
-      <c r="E895" s="4"/>
-    </row>
-    <row r="896" spans="5:5" ht="13">
-      <c r="E896" s="4"/>
-    </row>
-    <row r="897" spans="5:5" ht="13">
-      <c r="E897" s="4"/>
-    </row>
-    <row r="898" spans="5:5" ht="13">
-      <c r="E898" s="4"/>
-    </row>
-    <row r="899" spans="5:5" ht="13">
-      <c r="E899" s="4"/>
-    </row>
-    <row r="900" spans="5:5" ht="13">
-      <c r="E900" s="4"/>
-    </row>
-    <row r="901" spans="5:5" ht="13">
-      <c r="E901" s="4"/>
-    </row>
-    <row r="902" spans="5:5" ht="13">
-      <c r="E902" s="4"/>
-    </row>
-    <row r="903" spans="5:5" ht="13">
-      <c r="E903" s="4"/>
-    </row>
-    <row r="904" spans="5:5" ht="13">
-      <c r="E904" s="4"/>
-    </row>
-    <row r="905" spans="5:5" ht="13">
-      <c r="E905" s="4"/>
-    </row>
-    <row r="906" spans="5:5" ht="13">
-      <c r="E906" s="4"/>
-    </row>
-    <row r="907" spans="5:5" ht="13">
-      <c r="E907" s="4"/>
-    </row>
-    <row r="908" spans="5:5" ht="13">
-      <c r="E908" s="4"/>
-    </row>
-    <row r="909" spans="5:5" ht="13">
-      <c r="E909" s="4"/>
-    </row>
-    <row r="910" spans="5:5" ht="13">
-      <c r="E910" s="4"/>
-    </row>
-    <row r="911" spans="5:5" ht="13">
-      <c r="E911" s="4"/>
-    </row>
-    <row r="912" spans="5:5" ht="13">
-      <c r="E912" s="4"/>
-    </row>
-    <row r="913" spans="5:5" ht="13">
-      <c r="E913" s="4"/>
-    </row>
-    <row r="914" spans="5:5" ht="13">
-      <c r="E914" s="4"/>
-    </row>
-    <row r="915" spans="5:5" ht="13">
-      <c r="E915" s="4"/>
-    </row>
-    <row r="916" spans="5:5" ht="13">
-      <c r="E916" s="4"/>
-    </row>
-    <row r="917" spans="5:5" ht="13">
-      <c r="E917" s="4"/>
-    </row>
-    <row r="918" spans="5:5" ht="13">
-      <c r="E918" s="4"/>
-    </row>
-    <row r="919" spans="5:5" ht="13">
-      <c r="E919" s="4"/>
-    </row>
-    <row r="920" spans="5:5" ht="13">
-      <c r="E920" s="4"/>
-    </row>
-    <row r="921" spans="5:5" ht="13">
-      <c r="E921" s="4"/>
-    </row>
-    <row r="922" spans="5:5" ht="13">
-      <c r="E922" s="4"/>
-    </row>
-    <row r="923" spans="5:5" ht="13">
-      <c r="E923" s="4"/>
-    </row>
-    <row r="924" spans="5:5" ht="13">
-      <c r="E924" s="4"/>
-    </row>
-    <row r="925" spans="5:5" ht="13">
-      <c r="E925" s="4"/>
-    </row>
-    <row r="926" spans="5:5" ht="13">
-      <c r="E926" s="4"/>
-    </row>
-    <row r="927" spans="5:5" ht="13">
-      <c r="E927" s="4"/>
-    </row>
-    <row r="928" spans="5:5" ht="13">
-      <c r="E928" s="4"/>
-    </row>
-    <row r="929" spans="5:5" ht="13">
-      <c r="E929" s="4"/>
-    </row>
-    <row r="930" spans="5:5" ht="13">
-      <c r="E930" s="4"/>
-    </row>
-    <row r="931" spans="5:5" ht="13">
-      <c r="E931" s="4"/>
-    </row>
-    <row r="932" spans="5:5" ht="13">
-      <c r="E932" s="4"/>
-    </row>
-    <row r="933" spans="5:5" ht="13">
-      <c r="E933" s="4"/>
-    </row>
-    <row r="934" spans="5:5" ht="13">
-      <c r="E934" s="4"/>
-    </row>
-    <row r="935" spans="5:5" ht="13">
-      <c r="E935" s="4"/>
-    </row>
-    <row r="936" spans="5:5" ht="13">
-      <c r="E936" s="4"/>
-    </row>
-    <row r="937" spans="5:5" ht="13">
-      <c r="E937" s="4"/>
-    </row>
-    <row r="938" spans="5:5" ht="13">
-      <c r="E938" s="4"/>
-    </row>
-    <row r="939" spans="5:5" ht="13">
-      <c r="E939" s="4"/>
-    </row>
-    <row r="940" spans="5:5" ht="13">
-      <c r="E940" s="4"/>
-    </row>
-    <row r="941" spans="5:5" ht="13">
-      <c r="E941" s="4"/>
-    </row>
-    <row r="942" spans="5:5" ht="13">
-      <c r="E942" s="4"/>
-    </row>
-    <row r="943" spans="5:5" ht="13">
-      <c r="E943" s="4"/>
-    </row>
-    <row r="944" spans="5:5" ht="13">
-      <c r="E944" s="4"/>
-    </row>
-    <row r="945" spans="5:5" ht="13">
-      <c r="E945" s="4"/>
-    </row>
-    <row r="946" spans="5:5" ht="13">
-      <c r="E946" s="4"/>
-    </row>
-    <row r="947" spans="5:5" ht="13">
-      <c r="E947" s="4"/>
-    </row>
-    <row r="948" spans="5:5" ht="13">
-      <c r="E948" s="4"/>
-    </row>
-    <row r="949" spans="5:5" ht="13">
-      <c r="E949" s="4"/>
-    </row>
-    <row r="950" spans="5:5" ht="13">
-      <c r="E950" s="4"/>
-    </row>
-    <row r="951" spans="5:5" ht="13">
-      <c r="E951" s="4"/>
-    </row>
-    <row r="952" spans="5:5" ht="13">
-      <c r="E952" s="4"/>
-    </row>
-    <row r="953" spans="5:5" ht="13">
-      <c r="E953" s="4"/>
-    </row>
-    <row r="954" spans="5:5" ht="13">
-      <c r="E954" s="4"/>
-    </row>
-    <row r="955" spans="5:5" ht="13">
-      <c r="E955" s="4"/>
-    </row>
-    <row r="956" spans="5:5" ht="13">
-      <c r="E956" s="4"/>
-    </row>
-    <row r="957" spans="5:5" ht="13">
-      <c r="E957" s="4"/>
-    </row>
-    <row r="958" spans="5:5" ht="13">
-      <c r="E958" s="4"/>
-    </row>
-    <row r="959" spans="5:5" ht="13">
-      <c r="E959" s="4"/>
-    </row>
-    <row r="960" spans="5:5" ht="13">
-      <c r="E960" s="4"/>
-    </row>
-    <row r="961" spans="5:5" ht="13">
-      <c r="E961" s="4"/>
-    </row>
-    <row r="962" spans="5:5" ht="13">
-      <c r="E962" s="4"/>
-    </row>
-    <row r="963" spans="5:5" ht="13">
-      <c r="E963" s="4"/>
-    </row>
-    <row r="964" spans="5:5" ht="13">
-      <c r="E964" s="4"/>
-    </row>
-    <row r="965" spans="5:5" ht="13">
-      <c r="E965" s="4"/>
-    </row>
-    <row r="966" spans="5:5" ht="13">
-      <c r="E966" s="4"/>
-    </row>
-    <row r="967" spans="5:5" ht="13">
-      <c r="E967" s="4"/>
-    </row>
-    <row r="968" spans="5:5" ht="13">
-      <c r="E968" s="4"/>
-    </row>
-    <row r="969" spans="5:5" ht="13">
-      <c r="E969" s="4"/>
-    </row>
-    <row r="970" spans="5:5" ht="13">
-      <c r="E970" s="4"/>
-    </row>
-    <row r="971" spans="5:5" ht="13">
-      <c r="E971" s="4"/>
-    </row>
-    <row r="972" spans="5:5" ht="13">
-      <c r="E972" s="4"/>
-    </row>
-    <row r="973" spans="5:5" ht="13">
-      <c r="E973" s="4"/>
-    </row>
-    <row r="974" spans="5:5" ht="13">
-      <c r="E974" s="4"/>
-    </row>
-    <row r="975" spans="5:5" ht="13">
-      <c r="E975" s="4"/>
-    </row>
-    <row r="976" spans="5:5" ht="13">
-      <c r="E976" s="4"/>
-    </row>
-    <row r="977" spans="5:5" ht="13">
-      <c r="E977" s="4"/>
-    </row>
-    <row r="978" spans="5:5" ht="13">
-      <c r="E978" s="4"/>
-    </row>
-    <row r="979" spans="5:5" ht="13">
-      <c r="E979" s="4"/>
-    </row>
-    <row r="980" spans="5:5" ht="13">
-      <c r="E980" s="4"/>
-    </row>
-    <row r="981" spans="5:5" ht="13">
-      <c r="E981" s="4"/>
-    </row>
-    <row r="982" spans="5:5" ht="13">
-      <c r="E982" s="4"/>
-    </row>
-    <row r="983" spans="5:5" ht="13">
-      <c r="E983" s="4"/>
-    </row>
-    <row r="984" spans="5:5" ht="13">
-      <c r="E984" s="4"/>
-    </row>
-    <row r="985" spans="5:5" ht="13">
-      <c r="E985" s="4"/>
-    </row>
-    <row r="986" spans="5:5" ht="13">
-      <c r="E986" s="4"/>
-    </row>
-    <row r="987" spans="5:5" ht="13">
-      <c r="E987" s="4"/>
-    </row>
-    <row r="988" spans="5:5" ht="13">
-      <c r="E988" s="4"/>
-    </row>
-    <row r="989" spans="5:5" ht="13">
-      <c r="E989" s="4"/>
-    </row>
-    <row r="990" spans="5:5" ht="13">
-      <c r="E990" s="4"/>
-    </row>
-    <row r="991" spans="5:5" ht="13">
-      <c r="E991" s="4"/>
-    </row>
-    <row r="992" spans="5:5" ht="13">
-      <c r="E992" s="4"/>
-    </row>
-    <row r="993" spans="5:5" ht="13">
-      <c r="E993" s="4"/>
-    </row>
-    <row r="994" spans="5:5" ht="13">
-      <c r="E994" s="4"/>
-    </row>
-    <row r="995" spans="5:5" ht="13">
-      <c r="E995" s="4"/>
-    </row>
-    <row r="996" spans="5:5" ht="13">
-      <c r="E996" s="4"/>
-    </row>
-    <row r="997" spans="5:5" ht="13">
-      <c r="E997" s="4"/>
-    </row>
-    <row r="998" spans="5:5" ht="13">
-      <c r="E998" s="4"/>
-    </row>
-    <row r="999" spans="5:5" ht="13">
-      <c r="E999" s="4"/>
-    </row>
-    <row r="1000" spans="5:5" ht="13">
-      <c r="E1000" s="4"/>
-    </row>
+    </row>
+    <row r="84" ht="13"/>
+    <row r="85" ht="13"/>
+    <row r="86" ht="13"/>
+    <row r="87" ht="13"/>
+    <row r="88" ht="13"/>
+    <row r="89" ht="13"/>
+    <row r="90" ht="13"/>
+    <row r="91" ht="13"/>
+    <row r="92" ht="13"/>
+    <row r="93" ht="13"/>
+    <row r="94" ht="13"/>
+    <row r="95" ht="13"/>
+    <row r="96" ht="13"/>
+    <row r="97" ht="13"/>
+    <row r="98" ht="13"/>
+    <row r="99" ht="13"/>
+    <row r="100" ht="13"/>
+    <row r="101" ht="13"/>
+    <row r="102" ht="13"/>
+    <row r="103" ht="13"/>
+    <row r="104" ht="13"/>
+    <row r="105" ht="13"/>
+    <row r="106" ht="13"/>
+    <row r="107" ht="13"/>
+    <row r="108" ht="13"/>
+    <row r="109" ht="13"/>
+    <row r="110" ht="13"/>
+    <row r="111" ht="13"/>
+    <row r="112" ht="13"/>
+    <row r="113" ht="13"/>
+    <row r="114" ht="13"/>
+    <row r="115" ht="13"/>
+    <row r="116" ht="13"/>
+    <row r="117" ht="13"/>
+    <row r="118" ht="13"/>
+    <row r="119" ht="13"/>
+    <row r="120" ht="13"/>
+    <row r="121" ht="13"/>
+    <row r="122" ht="13"/>
+    <row r="123" ht="13"/>
+    <row r="124" ht="13"/>
+    <row r="125" ht="13"/>
+    <row r="126" ht="13"/>
+    <row r="127" ht="13"/>
+    <row r="128" ht="13"/>
+    <row r="129" ht="13"/>
+    <row r="130" ht="13"/>
+    <row r="131" ht="13"/>
+    <row r="132" ht="13"/>
+    <row r="133" ht="13"/>
+    <row r="134" ht="13"/>
+    <row r="135" ht="13"/>
+    <row r="136" ht="13"/>
+    <row r="137" ht="13"/>
+    <row r="138" ht="13"/>
+    <row r="139" ht="13"/>
+    <row r="140" ht="13"/>
+    <row r="141" ht="13"/>
+    <row r="142" ht="13"/>
+    <row r="143" ht="13"/>
+    <row r="144" ht="13"/>
+    <row r="145" ht="13"/>
+    <row r="146" ht="13"/>
+    <row r="147" ht="13"/>
+    <row r="148" ht="13"/>
+    <row r="149" ht="13"/>
+    <row r="150" ht="13"/>
+    <row r="151" ht="13"/>
+    <row r="152" ht="13"/>
+    <row r="153" ht="13"/>
+    <row r="154" ht="13"/>
+    <row r="155" ht="13"/>
+    <row r="156" ht="13"/>
+    <row r="157" ht="13"/>
+    <row r="158" ht="13"/>
+    <row r="159" ht="13"/>
+    <row r="160" ht="13"/>
+    <row r="161" ht="13"/>
+    <row r="162" ht="13"/>
+    <row r="163" ht="13"/>
+    <row r="164" ht="13"/>
+    <row r="165" ht="13"/>
+    <row r="166" ht="13"/>
+    <row r="167" ht="13"/>
+    <row r="168" ht="13"/>
+    <row r="169" ht="13"/>
+    <row r="170" ht="13"/>
+    <row r="171" ht="13"/>
+    <row r="172" ht="13"/>
+    <row r="173" ht="13"/>
+    <row r="174" ht="13"/>
+    <row r="175" ht="13"/>
+    <row r="176" ht="13"/>
+    <row r="177" ht="13"/>
+    <row r="178" ht="13"/>
+    <row r="179" ht="13"/>
+    <row r="180" ht="13"/>
+    <row r="181" ht="13"/>
+    <row r="182" ht="13"/>
+    <row r="183" ht="13"/>
+    <row r="184" ht="13"/>
+    <row r="185" ht="13"/>
+    <row r="186" ht="13"/>
+    <row r="187" ht="13"/>
+    <row r="188" ht="13"/>
+    <row r="189" ht="13"/>
+    <row r="190" ht="13"/>
+    <row r="191" ht="13"/>
+    <row r="192" ht="13"/>
+    <row r="193" ht="13"/>
+    <row r="194" ht="13"/>
+    <row r="195" ht="13"/>
+    <row r="196" ht="13"/>
+    <row r="197" ht="13"/>
+    <row r="198" ht="13"/>
+    <row r="199" ht="13"/>
+    <row r="200" ht="13"/>
+    <row r="201" ht="13"/>
+    <row r="202" ht="13"/>
+    <row r="203" ht="13"/>
+    <row r="204" ht="13"/>
+    <row r="205" ht="13"/>
+    <row r="206" ht="13"/>
+    <row r="207" ht="13"/>
+    <row r="208" ht="13"/>
+    <row r="209" ht="13"/>
+    <row r="210" ht="13"/>
+    <row r="211" ht="13"/>
+    <row r="212" ht="13"/>
+    <row r="213" ht="13"/>
+    <row r="214" ht="13"/>
+    <row r="215" ht="13"/>
+    <row r="216" ht="13"/>
+    <row r="217" ht="13"/>
+    <row r="218" ht="13"/>
+    <row r="219" ht="13"/>
+    <row r="220" ht="13"/>
+    <row r="221" ht="13"/>
+    <row r="222" ht="13"/>
+    <row r="223" ht="13"/>
+    <row r="224" ht="13"/>
+    <row r="225" ht="13"/>
+    <row r="226" ht="13"/>
+    <row r="227" ht="13"/>
+    <row r="228" ht="13"/>
+    <row r="229" ht="13"/>
+    <row r="230" ht="13"/>
+    <row r="231" ht="13"/>
+    <row r="232" ht="13"/>
+    <row r="233" ht="13"/>
+    <row r="234" ht="13"/>
+    <row r="235" ht="13"/>
+    <row r="236" ht="13"/>
+    <row r="237" ht="13"/>
+    <row r="238" ht="13"/>
+    <row r="239" ht="13"/>
+    <row r="240" ht="13"/>
+    <row r="241" ht="13"/>
+    <row r="242" ht="13"/>
+    <row r="243" ht="13"/>
+    <row r="244" ht="13"/>
+    <row r="245" ht="13"/>
+    <row r="246" ht="13"/>
+    <row r="247" ht="13"/>
+    <row r="248" ht="13"/>
+    <row r="249" ht="13"/>
+    <row r="250" ht="13"/>
+    <row r="251" ht="13"/>
+    <row r="252" ht="13"/>
+    <row r="253" ht="13"/>
+    <row r="254" ht="13"/>
+    <row r="255" ht="13"/>
+    <row r="256" ht="13"/>
+    <row r="257" ht="13"/>
+    <row r="258" ht="13"/>
+    <row r="259" ht="13"/>
+    <row r="260" ht="13"/>
+    <row r="261" ht="13"/>
+    <row r="262" ht="13"/>
+    <row r="263" ht="13"/>
+    <row r="264" ht="13"/>
+    <row r="265" ht="13"/>
+    <row r="266" ht="13"/>
+    <row r="267" ht="13"/>
+    <row r="268" ht="13"/>
+    <row r="269" ht="13"/>
+    <row r="270" ht="13"/>
+    <row r="271" ht="13"/>
+    <row r="272" ht="13"/>
+    <row r="273" ht="13"/>
+    <row r="274" ht="13"/>
+    <row r="275" ht="13"/>
+    <row r="276" ht="13"/>
+    <row r="277" ht="13"/>
+    <row r="278" ht="13"/>
+    <row r="279" ht="13"/>
+    <row r="280" ht="13"/>
+    <row r="281" ht="13"/>
+    <row r="282" ht="13"/>
+    <row r="283" ht="13"/>
+    <row r="284" ht="13"/>
+    <row r="285" ht="13"/>
+    <row r="286" ht="13"/>
+    <row r="287" ht="13"/>
+    <row r="288" ht="13"/>
+    <row r="289" ht="13"/>
+    <row r="290" ht="13"/>
+    <row r="291" ht="13"/>
+    <row r="292" ht="13"/>
+    <row r="293" ht="13"/>
+    <row r="294" ht="13"/>
+    <row r="295" ht="13"/>
+    <row r="296" ht="13"/>
+    <row r="297" ht="13"/>
+    <row r="298" ht="13"/>
+    <row r="299" ht="13"/>
+    <row r="300" ht="13"/>
+    <row r="301" ht="13"/>
+    <row r="302" ht="13"/>
+    <row r="303" ht="13"/>
+    <row r="304" ht="13"/>
+    <row r="305" ht="13"/>
+    <row r="306" ht="13"/>
+    <row r="307" ht="13"/>
+    <row r="308" ht="13"/>
+    <row r="309" ht="13"/>
+    <row r="310" ht="13"/>
+    <row r="311" ht="13"/>
+    <row r="312" ht="13"/>
+    <row r="313" ht="13"/>
+    <row r="314" ht="13"/>
+    <row r="315" ht="13"/>
+    <row r="316" ht="13"/>
+    <row r="317" ht="13"/>
+    <row r="318" ht="13"/>
+    <row r="319" ht="13"/>
+    <row r="320" ht="13"/>
+    <row r="321" ht="13"/>
+    <row r="322" ht="13"/>
+    <row r="323" ht="13"/>
+    <row r="324" ht="13"/>
+    <row r="325" ht="13"/>
+    <row r="326" ht="13"/>
+    <row r="327" ht="13"/>
+    <row r="328" ht="13"/>
+    <row r="329" ht="13"/>
+    <row r="330" ht="13"/>
+    <row r="331" ht="13"/>
+    <row r="332" ht="13"/>
+    <row r="333" ht="13"/>
+    <row r="334" ht="13"/>
+    <row r="335" ht="13"/>
+    <row r="336" ht="13"/>
+    <row r="337" ht="13"/>
+    <row r="338" ht="13"/>
+    <row r="339" ht="13"/>
+    <row r="340" ht="13"/>
+    <row r="341" ht="13"/>
+    <row r="342" ht="13"/>
+    <row r="343" ht="13"/>
+    <row r="344" ht="13"/>
+    <row r="345" ht="13"/>
+    <row r="346" ht="13"/>
+    <row r="347" ht="13"/>
+    <row r="348" ht="13"/>
+    <row r="349" ht="13"/>
+    <row r="350" ht="13"/>
+    <row r="351" ht="13"/>
+    <row r="352" ht="13"/>
+    <row r="353" ht="13"/>
+    <row r="354" ht="13"/>
+    <row r="355" ht="13"/>
+    <row r="356" ht="13"/>
+    <row r="357" ht="13"/>
+    <row r="358" ht="13"/>
+    <row r="359" ht="13"/>
+    <row r="360" ht="13"/>
+    <row r="361" ht="13"/>
+    <row r="362" ht="13"/>
+    <row r="363" ht="13"/>
+    <row r="364" ht="13"/>
+    <row r="365" ht="13"/>
+    <row r="366" ht="13"/>
+    <row r="367" ht="13"/>
+    <row r="368" ht="13"/>
+    <row r="369" ht="13"/>
+    <row r="370" ht="13"/>
+    <row r="371" ht="13"/>
+    <row r="372" ht="13"/>
+    <row r="373" ht="13"/>
+    <row r="374" ht="13"/>
+    <row r="375" ht="13"/>
+    <row r="376" ht="13"/>
+    <row r="377" ht="13"/>
+    <row r="378" ht="13"/>
+    <row r="379" ht="13"/>
+    <row r="380" ht="13"/>
+    <row r="381" ht="13"/>
+    <row r="382" ht="13"/>
+    <row r="383" ht="13"/>
+    <row r="384" ht="13"/>
+    <row r="385" ht="13"/>
+    <row r="386" ht="13"/>
+    <row r="387" ht="13"/>
+    <row r="388" ht="13"/>
+    <row r="389" ht="13"/>
+    <row r="390" ht="13"/>
+    <row r="391" ht="13"/>
+    <row r="392" ht="13"/>
+    <row r="393" ht="13"/>
+    <row r="394" ht="13"/>
+    <row r="395" ht="13"/>
+    <row r="396" ht="13"/>
+    <row r="397" ht="13"/>
+    <row r="398" ht="13"/>
+    <row r="399" ht="13"/>
+    <row r="400" ht="13"/>
+    <row r="401" ht="13"/>
+    <row r="402" ht="13"/>
+    <row r="403" ht="13"/>
+    <row r="404" ht="13"/>
+    <row r="405" ht="13"/>
+    <row r="406" ht="13"/>
+    <row r="407" ht="13"/>
+    <row r="408" ht="13"/>
+    <row r="409" ht="13"/>
+    <row r="410" ht="13"/>
+    <row r="411" ht="13"/>
+    <row r="412" ht="13"/>
+    <row r="413" ht="13"/>
+    <row r="414" ht="13"/>
+    <row r="415" ht="13"/>
+    <row r="416" ht="13"/>
+    <row r="417" ht="13"/>
+    <row r="418" ht="13"/>
+    <row r="419" ht="13"/>
+    <row r="420" ht="13"/>
+    <row r="421" ht="13"/>
+    <row r="422" ht="13"/>
+    <row r="423" ht="13"/>
+    <row r="424" ht="13"/>
+    <row r="425" ht="13"/>
+    <row r="426" ht="13"/>
+    <row r="427" ht="13"/>
+    <row r="428" ht="13"/>
+    <row r="429" ht="13"/>
+    <row r="430" ht="13"/>
+    <row r="431" ht="13"/>
+    <row r="432" ht="13"/>
+    <row r="433" ht="13"/>
+    <row r="434" ht="13"/>
+    <row r="435" ht="13"/>
+    <row r="436" ht="13"/>
+    <row r="437" ht="13"/>
+    <row r="438" ht="13"/>
+    <row r="439" ht="13"/>
+    <row r="440" ht="13"/>
+    <row r="441" ht="13"/>
+    <row r="442" ht="13"/>
+    <row r="443" ht="13"/>
+    <row r="444" ht="13"/>
+    <row r="445" ht="13"/>
+    <row r="446" ht="13"/>
+    <row r="447" ht="13"/>
+    <row r="448" ht="13"/>
+    <row r="449" ht="13"/>
+    <row r="450" ht="13"/>
+    <row r="451" ht="13"/>
+    <row r="452" ht="13"/>
+    <row r="453" ht="13"/>
+    <row r="454" ht="13"/>
+    <row r="455" ht="13"/>
+    <row r="456" ht="13"/>
+    <row r="457" ht="13"/>
+    <row r="458" ht="13"/>
+    <row r="459" ht="13"/>
+    <row r="460" ht="13"/>
+    <row r="461" ht="13"/>
+    <row r="462" ht="13"/>
+    <row r="463" ht="13"/>
+    <row r="464" ht="13"/>
+    <row r="465" ht="13"/>
+    <row r="466" ht="13"/>
+    <row r="467" ht="13"/>
+    <row r="468" ht="13"/>
+    <row r="469" ht="13"/>
+    <row r="470" ht="13"/>
+    <row r="471" ht="13"/>
+    <row r="472" ht="13"/>
+    <row r="473" ht="13"/>
+    <row r="474" ht="13"/>
+    <row r="475" ht="13"/>
+    <row r="476" ht="13"/>
+    <row r="477" ht="13"/>
+    <row r="478" ht="13"/>
+    <row r="479" ht="13"/>
+    <row r="480" ht="13"/>
+    <row r="481" ht="13"/>
+    <row r="482" ht="13"/>
+    <row r="483" ht="13"/>
+    <row r="484" ht="13"/>
+    <row r="485" ht="13"/>
+    <row r="486" ht="13"/>
+    <row r="487" ht="13"/>
+    <row r="488" ht="13"/>
+    <row r="489" ht="13"/>
+    <row r="490" ht="13"/>
+    <row r="491" ht="13"/>
+    <row r="492" ht="13"/>
+    <row r="493" ht="13"/>
+    <row r="494" ht="13"/>
+    <row r="495" ht="13"/>
+    <row r="496" ht="13"/>
+    <row r="497" ht="13"/>
+    <row r="498" ht="13"/>
+    <row r="499" ht="13"/>
+    <row r="500" ht="13"/>
+    <row r="501" ht="13"/>
+    <row r="502" ht="13"/>
+    <row r="503" ht="13"/>
+    <row r="504" ht="13"/>
+    <row r="505" ht="13"/>
+    <row r="506" ht="13"/>
+    <row r="507" ht="13"/>
+    <row r="508" ht="13"/>
+    <row r="509" ht="13"/>
+    <row r="510" ht="13"/>
+    <row r="511" ht="13"/>
+    <row r="512" ht="13"/>
+    <row r="513" ht="13"/>
+    <row r="514" ht="13"/>
+    <row r="515" ht="13"/>
+    <row r="516" ht="13"/>
+    <row r="517" ht="13"/>
+    <row r="518" ht="13"/>
+    <row r="519" ht="13"/>
+    <row r="520" ht="13"/>
+    <row r="521" ht="13"/>
+    <row r="522" ht="13"/>
+    <row r="523" ht="13"/>
+    <row r="524" ht="13"/>
+    <row r="525" ht="13"/>
+    <row r="526" ht="13"/>
+    <row r="527" ht="13"/>
+    <row r="528" ht="13"/>
+    <row r="529" ht="13"/>
+    <row r="530" ht="13"/>
+    <row r="531" ht="13"/>
+    <row r="532" ht="13"/>
+    <row r="533" ht="13"/>
+    <row r="534" ht="13"/>
+    <row r="535" ht="13"/>
+    <row r="536" ht="13"/>
+    <row r="537" ht="13"/>
+    <row r="538" ht="13"/>
+    <row r="539" ht="13"/>
+    <row r="540" ht="13"/>
+    <row r="541" ht="13"/>
+    <row r="542" ht="13"/>
+    <row r="543" ht="13"/>
+    <row r="544" ht="13"/>
+    <row r="545" ht="13"/>
+    <row r="546" ht="13"/>
+    <row r="547" ht="13"/>
+    <row r="548" ht="13"/>
+    <row r="549" ht="13"/>
+    <row r="550" ht="13"/>
+    <row r="551" ht="13"/>
+    <row r="552" ht="13"/>
+    <row r="553" ht="13"/>
+    <row r="554" ht="13"/>
+    <row r="555" ht="13"/>
+    <row r="556" ht="13"/>
+    <row r="557" ht="13"/>
+    <row r="558" ht="13"/>
+    <row r="559" ht="13"/>
+    <row r="560" ht="13"/>
+    <row r="561" ht="13"/>
+    <row r="562" ht="13"/>
+    <row r="563" ht="13"/>
+    <row r="564" ht="13"/>
+    <row r="565" ht="13"/>
+    <row r="566" ht="13"/>
+    <row r="567" ht="13"/>
+    <row r="568" ht="13"/>
+    <row r="569" ht="13"/>
+    <row r="570" ht="13"/>
+    <row r="571" ht="13"/>
+    <row r="572" ht="13"/>
+    <row r="573" ht="13"/>
+    <row r="574" ht="13"/>
+    <row r="575" ht="13"/>
+    <row r="576" ht="13"/>
+    <row r="577" ht="13"/>
+    <row r="578" ht="13"/>
+    <row r="579" ht="13"/>
+    <row r="580" ht="13"/>
+    <row r="581" ht="13"/>
+    <row r="582" ht="13"/>
+    <row r="583" ht="13"/>
+    <row r="584" ht="13"/>
+    <row r="585" ht="13"/>
+    <row r="586" ht="13"/>
+    <row r="587" ht="13"/>
+    <row r="588" ht="13"/>
+    <row r="589" ht="13"/>
+    <row r="590" ht="13"/>
+    <row r="591" ht="13"/>
+    <row r="592" ht="13"/>
+    <row r="593" ht="13"/>
+    <row r="594" ht="13"/>
+    <row r="595" ht="13"/>
+    <row r="596" ht="13"/>
+    <row r="597" ht="13"/>
+    <row r="598" ht="13"/>
+    <row r="599" ht="13"/>
+    <row r="600" ht="13"/>
+    <row r="601" ht="13"/>
+    <row r="602" ht="13"/>
+    <row r="603" ht="13"/>
+    <row r="604" ht="13"/>
+    <row r="605" ht="13"/>
+    <row r="606" ht="13"/>
+    <row r="607" ht="13"/>
+    <row r="608" ht="13"/>
+    <row r="609" ht="13"/>
+    <row r="610" ht="13"/>
+    <row r="611" ht="13"/>
+    <row r="612" ht="13"/>
+    <row r="613" ht="13"/>
+    <row r="614" ht="13"/>
+    <row r="615" ht="13"/>
+    <row r="616" ht="13"/>
+    <row r="617" ht="13"/>
+    <row r="618" ht="13"/>
+    <row r="619" ht="13"/>
+    <row r="620" ht="13"/>
+    <row r="621" ht="13"/>
+    <row r="622" ht="13"/>
+    <row r="623" ht="13"/>
+    <row r="624" ht="13"/>
+    <row r="625" ht="13"/>
+    <row r="626" ht="13"/>
+    <row r="627" ht="13"/>
+    <row r="628" ht="13"/>
+    <row r="629" ht="13"/>
+    <row r="630" ht="13"/>
+    <row r="631" ht="13"/>
+    <row r="632" ht="13"/>
+    <row r="633" ht="13"/>
+    <row r="634" ht="13"/>
+    <row r="635" ht="13"/>
+    <row r="636" ht="13"/>
+    <row r="637" ht="13"/>
+    <row r="638" ht="13"/>
+    <row r="639" ht="13"/>
+    <row r="640" ht="13"/>
+    <row r="641" ht="13"/>
+    <row r="642" ht="13"/>
+    <row r="643" ht="13"/>
+    <row r="644" ht="13"/>
+    <row r="645" ht="13"/>
+    <row r="646" ht="13"/>
+    <row r="647" ht="13"/>
+    <row r="648" ht="13"/>
+    <row r="649" ht="13"/>
+    <row r="650" ht="13"/>
+    <row r="651" ht="13"/>
+    <row r="652" ht="13"/>
+    <row r="653" ht="13"/>
+    <row r="654" ht="13"/>
+    <row r="655" ht="13"/>
+    <row r="656" ht="13"/>
+    <row r="657" ht="13"/>
+    <row r="658" ht="13"/>
+    <row r="659" ht="13"/>
+    <row r="660" ht="13"/>
+    <row r="661" ht="13"/>
+    <row r="662" ht="13"/>
+    <row r="663" ht="13"/>
+    <row r="664" ht="13"/>
+    <row r="665" ht="13"/>
+    <row r="666" ht="13"/>
+    <row r="667" ht="13"/>
+    <row r="668" ht="13"/>
+    <row r="669" ht="13"/>
+    <row r="670" ht="13"/>
+    <row r="671" ht="13"/>
+    <row r="672" ht="13"/>
+    <row r="673" ht="13"/>
+    <row r="674" ht="13"/>
+    <row r="675" ht="13"/>
+    <row r="676" ht="13"/>
+    <row r="677" ht="13"/>
+    <row r="678" ht="13"/>
+    <row r="679" ht="13"/>
+    <row r="680" ht="13"/>
+    <row r="681" ht="13"/>
+    <row r="682" ht="13"/>
+    <row r="683" ht="13"/>
+    <row r="684" ht="13"/>
+    <row r="685" ht="13"/>
+    <row r="686" ht="13"/>
+    <row r="687" ht="13"/>
+    <row r="688" ht="13"/>
+    <row r="689" ht="13"/>
+    <row r="690" ht="13"/>
+    <row r="691" ht="13"/>
+    <row r="692" ht="13"/>
+    <row r="693" ht="13"/>
+    <row r="694" ht="13"/>
+    <row r="695" ht="13"/>
+    <row r="696" ht="13"/>
+    <row r="697" ht="13"/>
+    <row r="698" ht="13"/>
+    <row r="699" ht="13"/>
+    <row r="700" ht="13"/>
+    <row r="701" ht="13"/>
+    <row r="702" ht="13"/>
+    <row r="703" ht="13"/>
+    <row r="704" ht="13"/>
+    <row r="705" ht="13"/>
+    <row r="706" ht="13"/>
+    <row r="707" ht="13"/>
+    <row r="708" ht="13"/>
+    <row r="709" ht="13"/>
+    <row r="710" ht="13"/>
+    <row r="711" ht="13"/>
+    <row r="712" ht="13"/>
+    <row r="713" ht="13"/>
+    <row r="714" ht="13"/>
+    <row r="715" ht="13"/>
+    <row r="716" ht="13"/>
+    <row r="717" ht="13"/>
+    <row r="718" ht="13"/>
+    <row r="719" ht="13"/>
+    <row r="720" ht="13"/>
+    <row r="721" ht="13"/>
+    <row r="722" ht="13"/>
+    <row r="723" ht="13"/>
+    <row r="724" ht="13"/>
+    <row r="725" ht="13"/>
+    <row r="726" ht="13"/>
+    <row r="727" ht="13"/>
+    <row r="728" ht="13"/>
+    <row r="729" ht="13"/>
+    <row r="730" ht="13"/>
+    <row r="731" ht="13"/>
+    <row r="732" ht="13"/>
+    <row r="733" ht="13"/>
+    <row r="734" ht="13"/>
+    <row r="735" ht="13"/>
+    <row r="736" ht="13"/>
+    <row r="737" ht="13"/>
+    <row r="738" ht="13"/>
+    <row r="739" ht="13"/>
+    <row r="740" ht="13"/>
+    <row r="741" ht="13"/>
+    <row r="742" ht="13"/>
+    <row r="743" ht="13"/>
+    <row r="744" ht="13"/>
+    <row r="745" ht="13"/>
+    <row r="746" ht="13"/>
+    <row r="747" ht="13"/>
+    <row r="748" ht="13"/>
+    <row r="749" ht="13"/>
+    <row r="750" ht="13"/>
+    <row r="751" ht="13"/>
+    <row r="752" ht="13"/>
+    <row r="753" ht="13"/>
+    <row r="754" ht="13"/>
+    <row r="755" ht="13"/>
+    <row r="756" ht="13"/>
+    <row r="757" ht="13"/>
+    <row r="758" ht="13"/>
+    <row r="759" ht="13"/>
+    <row r="760" ht="13"/>
+    <row r="761" ht="13"/>
+    <row r="762" ht="13"/>
+    <row r="763" ht="13"/>
+    <row r="764" ht="13"/>
+    <row r="765" ht="13"/>
+    <row r="766" ht="13"/>
+    <row r="767" ht="13"/>
+    <row r="768" ht="13"/>
+    <row r="769" ht="13"/>
+    <row r="770" ht="13"/>
+    <row r="771" ht="13"/>
+    <row r="772" ht="13"/>
+    <row r="773" ht="13"/>
+    <row r="774" ht="13"/>
+    <row r="775" ht="13"/>
+    <row r="776" ht="13"/>
+    <row r="777" ht="13"/>
+    <row r="778" ht="13"/>
+    <row r="779" ht="13"/>
+    <row r="780" ht="13"/>
+    <row r="781" ht="13"/>
+    <row r="782" ht="13"/>
+    <row r="783" ht="13"/>
+    <row r="784" ht="13"/>
+    <row r="785" ht="13"/>
+    <row r="786" ht="13"/>
+    <row r="787" ht="13"/>
+    <row r="788" ht="13"/>
+    <row r="789" ht="13"/>
+    <row r="790" ht="13"/>
+    <row r="791" ht="13"/>
+    <row r="792" ht="13"/>
+    <row r="793" ht="13"/>
+    <row r="794" ht="13"/>
+    <row r="795" ht="13"/>
+    <row r="796" ht="13"/>
+    <row r="797" ht="13"/>
+    <row r="798" ht="13"/>
+    <row r="799" ht="13"/>
+    <row r="800" ht="13"/>
+    <row r="801" ht="13"/>
+    <row r="802" ht="13"/>
+    <row r="803" ht="13"/>
+    <row r="804" ht="13"/>
+    <row r="805" ht="13"/>
+    <row r="806" ht="13"/>
+    <row r="807" ht="13"/>
+    <row r="808" ht="13"/>
+    <row r="809" ht="13"/>
+    <row r="810" ht="13"/>
+    <row r="811" ht="13"/>
+    <row r="812" ht="13"/>
+    <row r="813" ht="13"/>
+    <row r="814" ht="13"/>
+    <row r="815" ht="13"/>
+    <row r="816" ht="13"/>
+    <row r="817" ht="13"/>
+    <row r="818" ht="13"/>
+    <row r="819" ht="13"/>
+    <row r="820" ht="13"/>
+    <row r="821" ht="13"/>
+    <row r="822" ht="13"/>
+    <row r="823" ht="13"/>
+    <row r="824" ht="13"/>
+    <row r="825" ht="13"/>
+    <row r="826" ht="13"/>
+    <row r="827" ht="13"/>
+    <row r="828" ht="13"/>
+    <row r="829" ht="13"/>
+    <row r="830" ht="13"/>
+    <row r="831" ht="13"/>
+    <row r="832" ht="13"/>
+    <row r="833" ht="13"/>
+    <row r="834" ht="13"/>
+    <row r="835" ht="13"/>
+    <row r="836" ht="13"/>
+    <row r="837" ht="13"/>
+    <row r="838" ht="13"/>
+    <row r="839" ht="13"/>
+    <row r="840" ht="13"/>
+    <row r="841" ht="13"/>
+    <row r="842" ht="13"/>
+    <row r="843" ht="13"/>
+    <row r="844" ht="13"/>
+    <row r="845" ht="13"/>
+    <row r="846" ht="13"/>
+    <row r="847" ht="13"/>
+    <row r="848" ht="13"/>
+    <row r="849" ht="13"/>
+    <row r="850" ht="13"/>
+    <row r="851" ht="13"/>
+    <row r="852" ht="13"/>
+    <row r="853" ht="13"/>
+    <row r="854" ht="13"/>
+    <row r="855" ht="13"/>
+    <row r="856" ht="13"/>
+    <row r="857" ht="13"/>
+    <row r="858" ht="13"/>
+    <row r="859" ht="13"/>
+    <row r="860" ht="13"/>
+    <row r="861" ht="13"/>
+    <row r="862" ht="13"/>
+    <row r="863" ht="13"/>
+    <row r="864" ht="13"/>
+    <row r="865" ht="13"/>
+    <row r="866" ht="13"/>
+    <row r="867" ht="13"/>
+    <row r="868" ht="13"/>
+    <row r="869" ht="13"/>
+    <row r="870" ht="13"/>
+    <row r="871" ht="13"/>
+    <row r="872" ht="13"/>
+    <row r="873" ht="13"/>
+    <row r="874" ht="13"/>
+    <row r="875" ht="13"/>
+    <row r="876" ht="13"/>
+    <row r="877" ht="13"/>
+    <row r="878" ht="13"/>
+    <row r="879" ht="13"/>
+    <row r="880" ht="13"/>
+    <row r="881" ht="13"/>
+    <row r="882" ht="13"/>
+    <row r="883" ht="13"/>
+    <row r="884" ht="13"/>
+    <row r="885" ht="13"/>
+    <row r="886" ht="13"/>
+    <row r="887" ht="13"/>
+    <row r="888" ht="13"/>
+    <row r="889" ht="13"/>
+    <row r="890" ht="13"/>
+    <row r="891" ht="13"/>
+    <row r="892" ht="13"/>
+    <row r="893" ht="13"/>
+    <row r="894" ht="13"/>
+    <row r="895" ht="13"/>
+    <row r="896" ht="13"/>
+    <row r="897" ht="13"/>
+    <row r="898" ht="13"/>
+    <row r="899" ht="13"/>
+    <row r="900" ht="13"/>
+    <row r="901" ht="13"/>
+    <row r="902" ht="13"/>
+    <row r="903" ht="13"/>
+    <row r="904" ht="13"/>
+    <row r="905" ht="13"/>
+    <row r="906" ht="13"/>
+    <row r="907" ht="13"/>
+    <row r="908" ht="13"/>
+    <row r="909" ht="13"/>
+    <row r="910" ht="13"/>
+    <row r="911" ht="13"/>
+    <row r="912" ht="13"/>
+    <row r="913" ht="13"/>
+    <row r="914" ht="13"/>
+    <row r="915" ht="13"/>
+    <row r="916" ht="13"/>
+    <row r="917" ht="13"/>
+    <row r="918" ht="13"/>
+    <row r="919" ht="13"/>
+    <row r="920" ht="13"/>
+    <row r="921" ht="13"/>
+    <row r="922" ht="13"/>
+    <row r="923" ht="13"/>
+    <row r="924" ht="13"/>
+    <row r="925" ht="13"/>
+    <row r="926" ht="13"/>
+    <row r="927" ht="13"/>
+    <row r="928" ht="13"/>
+    <row r="929" ht="13"/>
+    <row r="930" ht="13"/>
+    <row r="931" ht="13"/>
+    <row r="932" ht="13"/>
+    <row r="933" ht="13"/>
+    <row r="934" ht="13"/>
+    <row r="935" ht="13"/>
+    <row r="936" ht="13"/>
+    <row r="937" ht="13"/>
+    <row r="938" ht="13"/>
+    <row r="939" ht="13"/>
+    <row r="940" ht="13"/>
+    <row r="941" ht="13"/>
+    <row r="942" ht="13"/>
+    <row r="943" ht="13"/>
+    <row r="944" ht="13"/>
+    <row r="945" ht="13"/>
+    <row r="946" ht="13"/>
+    <row r="947" ht="13"/>
+    <row r="948" ht="13"/>
+    <row r="949" ht="13"/>
+    <row r="950" ht="13"/>
+    <row r="951" ht="13"/>
+    <row r="952" ht="13"/>
+    <row r="953" ht="13"/>
+    <row r="954" ht="13"/>
+    <row r="955" ht="13"/>
+    <row r="956" ht="13"/>
+    <row r="957" ht="13"/>
+    <row r="958" ht="13"/>
+    <row r="959" ht="13"/>
+    <row r="960" ht="13"/>
+    <row r="961" ht="13"/>
+    <row r="962" ht="13"/>
+    <row r="963" ht="13"/>
+    <row r="964" ht="13"/>
+    <row r="965" ht="13"/>
+    <row r="966" ht="13"/>
+    <row r="967" ht="13"/>
+    <row r="968" ht="13"/>
+    <row r="969" ht="13"/>
+    <row r="970" ht="13"/>
+    <row r="971" ht="13"/>
+    <row r="972" ht="13"/>
+    <row r="973" ht="13"/>
+    <row r="974" ht="13"/>
+    <row r="975" ht="13"/>
+    <row r="976" ht="13"/>
+    <row r="977" ht="13"/>
+    <row r="978" ht="13"/>
+    <row r="979" ht="13"/>
+    <row r="980" ht="13"/>
+    <row r="981" ht="13"/>
+    <row r="982" ht="13"/>
+    <row r="983" ht="13"/>
+    <row r="984" ht="13"/>
+    <row r="985" ht="13"/>
+    <row r="986" ht="13"/>
+    <row r="987" ht="13"/>
+    <row r="988" ht="13"/>
+    <row r="989" ht="13"/>
+    <row r="990" ht="13"/>
+    <row r="991" ht="13"/>
+    <row r="992" ht="13"/>
+    <row r="993" ht="13"/>
+    <row r="994" ht="13"/>
+    <row r="995" ht="13"/>
+    <row r="996" ht="13"/>
+    <row r="997" ht="13"/>
+    <row r="998" ht="13"/>
+    <row r="999" ht="13"/>
+    <row r="1000" ht="13"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4286,7 +2241,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:F17"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4310,22 +2265,22 @@
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
@@ -4344,16 +2299,16 @@
     </row>
     <row r="2" spans="1:30" ht="15.75" customHeight="1">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>150</v>
@@ -4374,16 +2329,16 @@
     </row>
     <row r="3" spans="1:30" ht="15.75" customHeight="1">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>150</v>
@@ -4404,16 +2359,16 @@
     </row>
     <row r="4" spans="1:30" ht="15.75" customHeight="1">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>150</v>
@@ -4434,16 +2389,16 @@
     </row>
     <row r="5" spans="1:30" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>150</v>
@@ -4464,16 +2419,16 @@
     </row>
     <row r="6" spans="1:30" ht="15.75" customHeight="1">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>150</v>
@@ -4494,16 +2449,16 @@
     </row>
     <row r="7" spans="1:30" ht="15.75" customHeight="1">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>150</v>
@@ -4524,16 +2479,16 @@
     </row>
     <row r="8" spans="1:30" ht="15.75" customHeight="1">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>150</v>
@@ -4554,16 +2509,16 @@
     </row>
     <row r="9" spans="1:30" ht="15.75" customHeight="1">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>150</v>
@@ -4584,16 +2539,16 @@
     </row>
     <row r="10" spans="1:30" ht="15.75" customHeight="1">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>150</v>
@@ -4614,16 +2569,16 @@
     </row>
     <row r="11" spans="1:30" ht="15.75" customHeight="1">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>150</v>
@@ -4644,16 +2599,16 @@
     </row>
     <row r="12" spans="1:30" ht="15.75" customHeight="1">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>150</v>
@@ -4674,16 +2629,16 @@
     </row>
     <row r="13" spans="1:30" ht="15.75" customHeight="1">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>150</v>
@@ -4704,16 +2659,16 @@
     </row>
     <row r="14" spans="1:30" ht="15.75" customHeight="1">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E14">
         <v>150</v>
@@ -4734,16 +2689,16 @@
     </row>
     <row r="15" spans="1:30" ht="15.75" customHeight="1">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E15">
         <v>150</v>
@@ -4764,16 +2719,16 @@
     </row>
     <row r="16" spans="1:30" ht="15.75" customHeight="1">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E16">
         <v>150</v>
@@ -4794,16 +2749,16 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E17">
         <v>150</v>
@@ -22568,10 +20523,10 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -22600,18 +20555,18 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -22628,9 +20583,9 @@
   </sheetPr>
   <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -22642,10 +20597,10 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -22673,295 +20628,295 @@
     </row>
     <row r="2" spans="1:26" ht="15">
       <c r="A2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:26" ht="15">
+      <c r="A3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:26" ht="15">
+      <c r="A4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:26" ht="15">
+      <c r="A5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:26" ht="15">
+      <c r="A6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="1:26" ht="15">
-      <c r="A3" s="9" t="s">
+      <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:26" ht="15">
+      <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" spans="1:26" ht="15">
-      <c r="A4" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:26" ht="15">
+      <c r="A8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="1:26" ht="15">
-      <c r="A5" s="9" t="s">
+      <c r="B8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:26" ht="15">
+      <c r="A9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:26" ht="15">
+      <c r="A10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="1:26" ht="15">
-      <c r="A6" s="13" t="s">
+      <c r="B10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:26" ht="15">
+      <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="1:26" ht="15">
+      <c r="A12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:26" ht="15">
-      <c r="A7" s="9" t="s">
+      <c r="B12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:26" ht="15">
+      <c r="A13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="1:26" ht="15">
-      <c r="A8" s="9" t="s">
+      <c r="B13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="1:26" ht="15">
-      <c r="A9" s="9" t="s">
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:26" ht="15">
+      <c r="A14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:26" ht="15">
-      <c r="A10" s="9" t="s">
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:26" ht="15">
-      <c r="A11" s="9" t="s">
+      <c r="B15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="1:26" ht="15">
-      <c r="A12" s="9" t="s">
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B16" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A17" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="1:26" ht="15">
-      <c r="A13" s="9" t="s">
+      <c r="B17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="9" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A18" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="12"/>
-    </row>
-    <row r="14" spans="1:26" ht="15">
-      <c r="A14" s="9" t="s">
+      <c r="B18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="9" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A19" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B19" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A20" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A16" s="9" t="s">
+      <c r="B20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A17" s="13" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A21" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B21" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="13" t="s">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A22" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B22" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A19" s="9" t="s">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A23" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A20" s="9" t="s">
+      <c r="B23" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="9" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A24" s="9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A21" s="9" t="s">
+      <c r="B24" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A25" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B25" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A22" s="9" t="s">
+    <row r="26" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A26" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B26" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A23" s="9" t="s">
+    <row r="27" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A27" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B27" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A28" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A24" s="9" t="s">
+      <c r="B28" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A25" s="9" t="s">
+      <c r="B29" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="9" t="s">
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A30" s="9" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A26" s="9" t="s">
+      <c r="B30" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="9" t="s">
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A31" s="9" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="9" t="s">
+      <c r="B31" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A28" s="9" t="s">
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A32" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B32" s="13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A29" s="9" t="s">
+    <row r="33" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A33" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B33" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A34" s="9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A30" s="9" t="s">
+      <c r="B34" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A35" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B35" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A36" s="9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A31" s="9" t="s">
+      <c r="B36" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A32" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A33" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A35" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A36" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -22971,6 +20926,45 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D077B6-035D-754F-89D0-AD0330B7C482}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="63.6640625" customWidth="1"/>
+    <col min="3" max="3" width="43.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="14">
+      <c r="A1" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -22983,7 +20977,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="18">
       <c r="A1" s="14" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -23013,76 +21007,76 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A4" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A5" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A6" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A10" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A14" s="16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A15" s="16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A5" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A6" s="16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A7" s="4"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A10" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="4"/>
     </row>
     <row r="17" spans="1:26" ht="18">
       <c r="A17" s="14" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -23112,22 +21106,22 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1">
       <c r="A20" s="17" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="18" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1">

--- a/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table.xlsx
@@ -1,30 +1,160 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57513DA5-5149-DF40-A220-1661542BA72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78474804-941F-6B45-92A5-24FF911A5915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="1520" windowWidth="29900" windowHeight="20220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12180" yWindow="1520" windowWidth="29900" windowHeight="20220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Animals" sheetId="1" r:id="rId1"/>
-    <sheet name="Samples" sheetId="2" r:id="rId2"/>
-    <sheet name="Treatments" sheetId="3" r:id="rId3"/>
-    <sheet name="Tissues" sheetId="4" r:id="rId4"/>
+    <sheet name="Study" sheetId="9" r:id="rId1"/>
+    <sheet name="Animals" sheetId="1" r:id="rId2"/>
+    <sheet name="Samples" sheetId="2" r:id="rId3"/>
+    <sheet name="Sequences" sheetId="8" r:id="rId4"/>
     <sheet name="Peak Annotation Files" sheetId="6" r:id="rId5"/>
-    <sheet name="Infusions" sheetId="5" r:id="rId6"/>
+    <sheet name="Peak Annotation Details" sheetId="7" r:id="rId6"/>
+    <sheet name="Treatments" sheetId="3" r:id="rId7"/>
+    <sheet name="Tissues" sheetId="4" r:id="rId8"/>
+    <sheet name="Infusions" sheetId="5" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>TraceBase Dev Team</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{C8F73FAE-0063-184D-AE84-904817F8C9D8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">A 2 to 6 character unique readable alphanumeric code for the study, to be used
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">as a prefix for animal names, sample names, etc if necessary, to make them
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">unique.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Must be unique.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{9DD3C0F6-643F-C646-9957-604AAD2D5A2E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t>A succinct name for the study, which is a collection of one or more series of
+animals and their associated data.
+Must be unique.
+Required.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{13ED60A2-33CC-984B-A004-5ADFF55D03F9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t>A long form description for the study which may include the experimental design
+process, citations, and other relevant details.
+Optional.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
@@ -192,7 +322,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
@@ -291,10 +421,18 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>Unique identifier for the animal (mouse) the sample was collected from. MUST match the Animal ID in the Animal Table.
-	-Lance Parsons</t>
+          <t xml:space="preserve">Unique identifier for the animal (mouse) the sample was collected from. MUST match the Animal ID in the Animal Table.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">	-Lance Parsons</t>
         </r>
       </text>
     </comment>
@@ -302,7 +440,646 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>TraceBase Dev Team</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{BA594A13-C096-E648-A909-5EA315C2027A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Readonly.  (Calculated by formula.)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Read-only. (Calculated by formula).
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">A unique sequence identifier.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Note that a sequence record is unique to a researcher, protocol, instrument
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">model, and date.  If a researcher performs multiple such Mass Spec runs on the
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">same day, this sequence record will represent multiple runs.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column is used to populate Sequence Name choices in the Peak Annotation
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Details sheet.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Comma-delimited string combining the values from these columns in this order:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Operator
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- LC Protocol Name
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Instrument
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Date
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t>Required.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{1EA521C2-020B-9F46-A820-B9976CA1DF2F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t>Researcher who operated the Mass Spec instrument.
+Required.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{A5F50F62-FBF1-7D40-AA60-C5F377B8509F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t>Unique laboratory-defined name of the liquid chromatography method.(e.g. polar-
+HILIC-25-min)
+Select a 'LC Protocol Name' from the dropdowns in this column.  The dropdowns
+are populated by the 'Name' column in the 'LC Protocols' sheet, so if the
+dropdowns are empty, add rows to the 'LC Protocols' sheet.
+Must be unique.
+Required.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{E1153B1B-1884-F747-9FE9-4F7A7E59CCA5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t>The name of the mass spectrometer.
+Required.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{4A40E0E3-93EE-3C44-9665-322464D3B0D9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The date that the mass spectrometer was run.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Format: YYYY-MM-DD.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t>Required.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{3E5856A4-F467-FF4C-A644-A2B06F3179B0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Notes on this mass spectrometer run sequence.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Must be unique.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>TraceBase Dev Team</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{CE64C618-F29B-424B-9E2B-4759D1D50CB3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">A sample that was injected at least once during a mass spectrometer sequence.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Select a 'Sample Name' from the dropdowns in this column.  The dropdowns are
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">populated by the 'Sample' column in the 'Samples' sheet, so if the dropdowns are
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">empty, add rows to the 'Samples' sheet.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t>Required.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{3E8E86B8-003F-B24B-9DC9-6D0A3211D678}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sample header from Peak Annotation File Name.
+Required.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{78ECA8BA-6272-844B-9091-88941D611C5B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t>A file representing a subset of data extracted from the raw file (e.g. an mzXML
+file).
+Optional.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{F6A3EF04-F3BD-0A45-B669-0FB9B4EFE55A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t>Name of the accucor or isocorr file that this sample was analyzed in, if any.
+If the sample on this row was included in a Peak Annotation File Name, add the
+name of that file here.  If you are loading an mzXML File Name that was not used
+in a Peak Annotation File Name, leave this value empty.
+Note, you do not need to have an mzXML File Name associated with every Sample
+Data Header from a Peak Annotation File Name worked out ahead of time.  That
+association can be made at a later date.
+Select a 'Peak Annotation File Name' from the dropdowns in this column.  The
+dropdowns are populated by the 'Peak Annotation File' column in the 'Peak
+Annotation Files' sheet, so if the dropdowns are empty, add rows to the 'Peak
+Annotation Files' sheet.
+Optional.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{C98875B1-996F-DE4C-BDD9-A095939013A2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t>The MSRun Sequence associated with the Sample Name, Sample Data Header, and/or
+mzXML File Name on this row.
+Comma-delimited string combining the values from these columns from the
+Sequences sheet in this order:
+- Operator
+- LC Protocol Name
+- Instrument
+- Date
+Select a 'Sequence Name' from the dropdowns in this column.  The dropdowns are
+populated by the 'Sequence Name' column in the 'Sequences' sheet, so if the
+dropdowns are empty, add rows to the 'Sequences' sheet.
+Optional.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{7335DF1F-904A-1448-AB21-45B4A8BDCD73}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Whether to load data associated with this sample, e.g. a blank sample.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Enter 'skip' to skip loading of the sample and peak annotation data.  The mzXML
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">file will be saved if supplied, but it will not be associated with an
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MSRunSample or MSRunSequence, since the Sample record will not be created.  Note
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">that the Sample Name, Sample Data Header, and Sequence Name columns must still
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">have a unique combo value (for file validation, even though they won't be used).
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Boolean: 'skip' or ''.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
@@ -373,7 +1150,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
@@ -403,7 +1180,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
@@ -429,7 +1206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="141">
   <si>
     <t>Infusate</t>
   </si>
@@ -839,6 +1616,63 @@
   <si>
     <t>Xianfeng Zeng, polar-HILIC-25-min, unknown, 1972-11-24</t>
   </si>
+  <si>
+    <t>Sample Name</t>
+  </si>
+  <si>
+    <t>Sample Data Header</t>
+  </si>
+  <si>
+    <t>mzXML File Name</t>
+  </si>
+  <si>
+    <t>Peak Annotation File Name</t>
+  </si>
+  <si>
+    <t>Sequence Name</t>
+  </si>
+  <si>
+    <t>Skip</t>
+  </si>
+  <si>
+    <t>small_obob_maven_6eaas_inf_req_prefix.xlsx</t>
+  </si>
+  <si>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>LC Protocol Name</t>
+  </si>
+  <si>
+    <t>Instrument</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>polar-HILIC-25-min</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>1972-11-24</t>
+  </si>
+  <si>
+    <t>Study ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>A description</t>
+  </si>
+  <si>
+    <t>obob</t>
+  </si>
 </sst>
 </file>
 
@@ -847,7 +1681,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -955,6 +1789,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Courier"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -964,7 +1818,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -987,12 +1841,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1019,12 +1888,224 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{F34B0BC4-0474-5D47-93C7-FE64BAA63C00}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1234,6 +2315,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C61425D-F23C-6F4F-8608-324522C2138E}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="14">
+      <c r="A1" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="notContainsErrors" dxfId="7" priority="1">
+      <formula>NOT(ISERROR(A1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="notContainsErrors" dxfId="6" priority="2">
+      <formula>NOT(ISERROR(B1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1">
+    <cfRule type="notContainsErrors" dxfId="5" priority="3">
+      <formula>NOT(ISERROR(C1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1242,7 +2377,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2232,7 +3367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2246,12 +3381,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="25.83203125" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" customWidth="1"/>
     <col min="8" max="8" width="17.1640625" customWidth="1"/>
     <col min="9" max="9" width="16.6640625" customWidth="1"/>
@@ -20503,7 +21638,402 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10F537B-37AF-BD4C-9F83-7496A78BD954}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14">
+      <c r="A1" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="notContainsErrors" dxfId="4" priority="1">
+      <formula>NOT(ISERROR(A1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:E1">
+    <cfRule type="notContainsErrors" dxfId="3" priority="2">
+      <formula>NOT(ISERROR(B1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1">
+    <cfRule type="notContainsErrors" dxfId="2" priority="3">
+      <formula>NOT(ISERROR(F1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D077B6-035D-754F-89D0-AD0330B7C482}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="63.6640625" customWidth="1"/>
+    <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="14">
+      <c r="A1" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD2DCCD-0178-094D-9522-9414A02DC911}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.5" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14">
+      <c r="A1" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:B1">
+    <cfRule type="notContainsErrors" dxfId="1" priority="1">
+      <formula>NOT(ISERROR(A1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:F1">
+    <cfRule type="notContainsErrors" dxfId="0" priority="2">
+      <formula>NOT(ISERROR(C1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" prompt="Each sample name must be unique" sqref="A2:B17" xr:uid="{F169F778-8480-4947-ABEB-D876FA8E756B}">
+      <formula1>COUNTIF($A:$A,"="&amp;A2)  &lt; 2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -20518,7 +22048,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="126.6640625" customWidth="1"/>
+    <col min="2" max="2" width="52.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
@@ -20576,7 +22106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -20925,46 +22455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D077B6-035D-754F-89D0-AD0330B7C482}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
-  <cols>
-    <col min="1" max="1" width="63.6640625" customWidth="1"/>
-    <col min="3" max="3" width="43.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="14">
-      <c r="A1" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>

--- a/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78474804-941F-6B45-92A5-24FF911A5915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46F09BC-FC88-9148-BB58-64E5D2AE771A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12180" yWindow="1520" windowWidth="29900" windowHeight="20220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,80 +46,7 @@
     <author>TraceBase Dev Team</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{C8F73FAE-0063-184D-AE84-904817F8C9D8}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Courier"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">A 2 to 6 character unique readable alphanumeric code for the study, to be used
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Courier"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">as a prefix for animal names, sample names, etc if necessary, to make them
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Courier"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">unique.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Courier"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Courier"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Must be unique.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Courier"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Courier"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{9DD3C0F6-643F-C646-9957-604AAD2D5A2E}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{9DD3C0F6-643F-C646-9957-604AAD2D5A2E}">
       <text>
         <r>
           <rPr>
@@ -135,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{13ED60A2-33CC-984B-A004-5ADFF55D03F9}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{13ED60A2-33CC-984B-A004-5ADFF55D03F9}">
       <text>
         <r>
           <rPr>
@@ -1206,7 +1133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="139">
   <si>
     <t>Infusate</t>
   </si>
@@ -1662,16 +1589,10 @@
     <t>1972-11-24</t>
   </si>
   <si>
-    <t>Study ID</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
     <t>A description</t>
-  </si>
-  <si>
-    <t>obob</t>
   </si>
 </sst>
 </file>
@@ -2316,51 +2237,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C61425D-F23C-6F4F-8608-324522C2138E}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14">
+    <row r="1" spans="1:2" ht="14">
       <c r="A1" s="22" t="s">
         <v>137</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>138</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="notContainsErrors" dxfId="7" priority="1">
+    <cfRule type="notContainsErrors" dxfId="6" priority="2">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="notContainsErrors" dxfId="6" priority="2">
+    <cfRule type="notContainsErrors" dxfId="5" priority="3">
       <formula>NOT(ISERROR(B1))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1">
-    <cfRule type="notContainsErrors" dxfId="5" priority="3">
-      <formula>NOT(ISERROR(C1))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46F09BC-FC88-9148-BB58-64E5D2AE771A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2451D4EB-5D43-264B-A20B-4D1CB0FDF139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="1520" windowWidth="29900" windowHeight="20220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12180" yWindow="1520" windowWidth="29900" windowHeight="20220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="9" r:id="rId1"/>
     <sheet name="Animals" sheetId="1" r:id="rId2"/>
     <sheet name="Samples" sheetId="2" r:id="rId3"/>
-    <sheet name="Sequences" sheetId="8" r:id="rId4"/>
+    <sheet name="MS Runs" sheetId="8" r:id="rId4"/>
     <sheet name="Peak Annotation Files" sheetId="6" r:id="rId5"/>
     <sheet name="Peak Annotation Details" sheetId="7" r:id="rId6"/>
     <sheet name="Treatments" sheetId="3" r:id="rId7"/>
     <sheet name="Tissues" sheetId="4" r:id="rId8"/>
     <sheet name="Infusions" sheetId="5" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -870,22 +870,151 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Courier"/>
             <family val="2"/>
           </rPr>
-          <t>The MSRun Sequence associated with the Sample Name, Sample Data Header, and/or
-mzXML File Name on this row.
-Comma-delimited string combining the values from these columns from the
-Sequences sheet in this order:
-- Operator
-- LC Protocol Name
-- Instrument
-- Date
-Select a 'Sequence Name' from the dropdowns in this column.  The dropdowns are
-populated by the 'Sequence Name' column in the 'Sequences' sheet, so if the
-dropdowns are empty, add rows to the 'Sequences' sheet.
-Optional.</t>
+          <t xml:space="preserve">The MSRun Sequence associated with the Sample Name, Sample Data Header, and/or
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">mzXML File Name on this row.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Comma-delimited string combining the values from these columns from the
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Sequences sheet in this order:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Operator
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- LC Protocol Name
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Instrument
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Date
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Select a 'Sequence Name' from the dropdowns in this column.  The dropdowns are
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">populated by the 'Sequence Name' column in the 'Sequences' sheet, so if the
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">dropdowns are empty, add rows to the 'Sequences' sheet.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional.</t>
         </r>
       </text>
     </comment>
@@ -1133,7 +1262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="140">
   <si>
     <t>Infusate</t>
   </si>
@@ -1532,9 +1661,6 @@
     <t>File Format</t>
   </si>
   <si>
-    <t>Default Sequence Name</t>
-  </si>
-  <si>
     <t>DataRepo/data/tests/small_obob/small_obob_maven_6eaas_inf_req_prefix.xlsx</t>
   </si>
   <si>
@@ -1554,9 +1680,6 @@
   </si>
   <si>
     <t>Peak Annotation File Name</t>
-  </si>
-  <si>
-    <t>Sequence Name</t>
   </si>
   <si>
     <t>Skip</t>
@@ -1593,6 +1716,15 @@
   </si>
   <si>
     <t>A description</t>
+  </si>
+  <si>
+    <t>MS Run Name</t>
+  </si>
+  <si>
+    <t>Default MS Run</t>
+  </si>
+  <si>
+    <t>MS Run</t>
   </si>
 </sst>
 </file>
@@ -1817,7 +1949,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{F34B0BC4-0474-5D47-93C7-FE64BAA63C00}"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="7">
     <dxf>
       <font>
         <b/>
@@ -1981,32 +2113,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
       <border>
@@ -2239,7 +2345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C61425D-F23C-6F4F-8608-324522C2138E}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -2248,7 +2354,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14">
       <c r="A1" s="22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>10</v>
@@ -2259,7 +2365,7 @@
         <v>85</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -21552,7 +21658,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10F537B-37AF-BD4C-9F83-7496A78BD954}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -21565,39 +21673,39 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14">
       <c r="A1" s="22" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>131</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
         <v>88</v>
       </c>
       <c r="C2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>134</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -21626,7 +21734,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -21643,18 +21751,18 @@
         <v>117</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>120</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -21680,22 +21788,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14">
       <c r="A1" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>125</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -21706,10 +21814,10 @@
         <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -21720,10 +21828,10 @@
         <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -21734,10 +21842,10 @@
         <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -21748,10 +21856,10 @@
         <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -21762,10 +21870,10 @@
         <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -21776,10 +21884,10 @@
         <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -21790,10 +21898,10 @@
         <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -21804,10 +21912,10 @@
         <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -21818,10 +21926,10 @@
         <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -21832,10 +21940,10 @@
         <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -21846,10 +21954,10 @@
         <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -21860,10 +21968,10 @@
         <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -21874,10 +21982,10 @@
         <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -21888,10 +21996,10 @@
         <v>101</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -21902,10 +22010,10 @@
         <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -21916,10 +22024,10 @@
         <v>104</v>
       </c>
       <c r="D17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2451D4EB-5D43-264B-A20B-4D1CB0FDF139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B357F6A-1690-D640-98F4-93EE6206030F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12180" yWindow="1520" windowWidth="29900" windowHeight="20220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Study" sheetId="9" r:id="rId1"/>
     <sheet name="Animals" sheetId="1" r:id="rId2"/>
     <sheet name="Samples" sheetId="2" r:id="rId3"/>
-    <sheet name="MS Runs" sheetId="8" r:id="rId4"/>
+    <sheet name="Sequences" sheetId="8" r:id="rId4"/>
     <sheet name="Peak Annotation Files" sheetId="6" r:id="rId5"/>
     <sheet name="Peak Annotation Details" sheetId="7" r:id="rId6"/>
     <sheet name="Treatments" sheetId="3" r:id="rId7"/>

--- a/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B357F6A-1690-D640-98F4-93EE6206030F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51463D55-54EC-0E42-84B9-092C7E03EAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="1520" windowWidth="29900" windowHeight="20220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12180" yWindow="1520" windowWidth="29900" windowHeight="20220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="9" r:id="rId1"/>
@@ -1721,10 +1721,10 @@
     <t>MS Run Name</t>
   </si>
   <si>
-    <t>Default MS Run</t>
+    <t>MS Run</t>
   </si>
   <si>
-    <t>MS Run</t>
+    <t>Default Sequence</t>
   </si>
 </sst>
 </file>
@@ -21658,7 +21658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10F537B-37AF-BD4C-9F83-7496A78BD954}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -21733,7 +21733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D077B6-035D-754F-89D0-AD0330B7C482}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -21751,7 +21751,7 @@
         <v>117</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -21800,7 +21800,7 @@
         <v>124</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>125</v>

--- a/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51463D55-54EC-0E42-84B9-092C7E03EAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F976F00-5A1D-D446-BAF5-C7479368C772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="1520" windowWidth="29900" windowHeight="20220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12180" yWindow="1520" windowWidth="29900" windowHeight="20220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="9" r:id="rId1"/>
@@ -1718,13 +1718,13 @@
     <t>A description</t>
   </si>
   <si>
-    <t>MS Run Name</t>
-  </si>
-  <si>
     <t>MS Run</t>
   </si>
   <si>
     <t>Default Sequence</t>
+  </si>
+  <si>
+    <t>Sequence Name</t>
   </si>
 </sst>
 </file>
@@ -21658,7 +21658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10F537B-37AF-BD4C-9F83-7496A78BD954}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -21673,7 +21673,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14">
       <c r="A1" s="22" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>127</v>
@@ -21733,7 +21733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D077B6-035D-754F-89D0-AD0330B7C482}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -21751,7 +21751,7 @@
         <v>117</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -21800,7 +21800,7 @@
         <v>124</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>125</v>

--- a/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F976F00-5A1D-D446-BAF5-C7479368C772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F700F3E9-A803-A640-A68A-5C6529F76A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="1520" windowWidth="29900" windowHeight="20220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12180" yWindow="1520" windowWidth="29900" windowHeight="20220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="9" r:id="rId1"/>
@@ -1718,13 +1718,13 @@
     <t>A description</t>
   </si>
   <si>
-    <t>MS Run</t>
-  </si>
-  <si>
     <t>Default Sequence</t>
   </si>
   <si>
     <t>Sequence Name</t>
+  </si>
+  <si>
+    <t>Sequence</t>
   </si>
 </sst>
 </file>
@@ -21658,7 +21658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10F537B-37AF-BD4C-9F83-7496A78BD954}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -21673,7 +21673,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14">
       <c r="A1" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>127</v>
@@ -21751,7 +21751,7 @@
         <v>117</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -21774,7 +21774,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD2DCCD-0178-094D-9522-9414A02DC911}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -21800,7 +21802,7 @@
         <v>124</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>125</v>

--- a/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F700F3E9-A803-A640-A68A-5C6529F76A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2156F6-D9D0-9346-B0C0-2D9C81DB6207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="1520" windowWidth="29900" windowHeight="20220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="9" r:id="rId1"/>
-    <sheet name="Animals" sheetId="1" r:id="rId2"/>
-    <sheet name="Samples" sheetId="2" r:id="rId3"/>
-    <sheet name="Sequences" sheetId="8" r:id="rId4"/>
-    <sheet name="Peak Annotation Files" sheetId="6" r:id="rId5"/>
-    <sheet name="Peak Annotation Details" sheetId="7" r:id="rId6"/>
-    <sheet name="Treatments" sheetId="3" r:id="rId7"/>
-    <sheet name="Tissues" sheetId="4" r:id="rId8"/>
-    <sheet name="Infusions" sheetId="5" r:id="rId9"/>
+    <sheet name="Tracers" sheetId="10" r:id="rId2"/>
+    <sheet name="Infusates" sheetId="11" r:id="rId3"/>
+    <sheet name="Animals" sheetId="1" r:id="rId4"/>
+    <sheet name="Samples" sheetId="2" r:id="rId5"/>
+    <sheet name="Sequences" sheetId="8" r:id="rId6"/>
+    <sheet name="Peak Annotation Files" sheetId="6" r:id="rId7"/>
+    <sheet name="Peak Annotation Details" sheetId="7" r:id="rId8"/>
+    <sheet name="Treatments" sheetId="3" r:id="rId9"/>
+    <sheet name="Tissues" sheetId="4" r:id="rId10"/>
+    <sheet name="Compounds" sheetId="12" r:id="rId11"/>
+    <sheet name="Infusions" sheetId="5" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -81,7 +84,355 @@
 </comments>
 </file>
 
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>TraceBase Dev Team</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{E25468B9-E824-DD49-BC8B-CC679B1DBF0C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t>The compound name that is commonly used in the laboratory (e.g. "glucose",
+"C16:0", etc.).
+The values in this column are referenced by the 'Compound' column in the
+'Tracers' sheet.
+Must be unique.
+Required.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{A90C5F97-6AFF-944F-8F25-F5445F813503}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t>A unique identifier for this compound in the Human Metabolome Database
+(https://hmdb.ca/metabolites).
+Must be unique.
+Required.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{681C4EC6-838E-C34D-8851-250B702442C7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t>The molecular formula of the compound (e.g. "C6H12O6", "C16H32O2", etc.).
+Required.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{01B10DDA-DE02-E44A-AEC2-A316E16C9C8D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t>A synonymous name for a compound that is commonly used within the laboratory.
+(e.g. "palmitic acid", "hexadecanoic acid", "C16", and "palmitate" might also be
+synonyms for "C16:0").
+Semicolon-delimited list of synonym names.
+Must be unique.
+Required.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Modified to match the description in issue #400 (apart from changing "Tracer column" (which doesn't exist) to "Infusate column"
+	-Robert Leach</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>TraceBase Dev Team</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{1C878F20-DCCF-6C4F-8756-45B11882FF80}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t>Arbitrary number that identifies every row containing a label that belongs to a
+tracer.  Each row defines 1 label and this value links them together.
+The values in this column are not loaded into the database.  It is only used to
+populate the Tracer Name column using an excel formula.  All rows having the
+same Tracer Row Group are used to build the Tracer Name column values.
+Required.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{0146E7A0-215D-0847-A928-06F5E9112B02}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t>Primary name of the compound for which this is a tracer.
+The dropdown menus in this column are populated by the Compound column in the
+Compounds sheet.
+Select a 'Compound' from the dropdowns in this column.  The dropdowns are
+populated by the 'Compound' column in the 'Compounds' sheet, so if the dropdowns
+are empty, add rows to the 'Compounds' sheet.
+Required.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{E53E7604-E709-9345-90C1-3104DAB21C6B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t>The sum of the number of protons and neutrons of the labeled atom, a.k.a.
+'isotope', e.g. Carbon 14.  The number of protons identifies the element that
+this tracer is an isotope of.  The number of neutrons in the element equals the
+number of protons, but in an isotope, the number of neutrons will be less than
+or greater than the number of protons.  Note, this differs from the 'atomic
+number' which indicates the number of protons only.
+Required.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{E60BB0A0-9414-4141-BB4E-34B25E50E35F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t>The type of atom that is labeled in the tracer compound (e.g. "C", "H", "O").
+Select a 'Element' from the dropdowns in this column.  Valid values are:
+- C
+- N
+- H
+- O
+- S
+- P
+Required.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{6E89B9E6-F8EE-654E-B38D-3F6CFF649547}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t>The number of labeled atoms (M+) in the tracer compound supplied to this animal.
+Note that the count must be greater than or equal to the number of positions.
+Required.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{1DCA7803-7E10-464E-9FAA-BB0579FADBF2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t>The known labeled atom positions in the compound.  Note that the number of known
+labeled positions must be less than or equal to the labeled_count.
+Comma-delimited string of integers.
+Optional.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{700778E3-B5D7-1B43-8B13-8F01B961F423}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t>Readonly.  (Calculated by formula.)
+A unique name or lab identifier of the tracer, e.g. 'lysine-C14'.
+The values in this column are referenced by the 'Tracer' column in the
+'Infusates' sheet.
+Must be unique.
+Required.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>TraceBase Dev Team</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{88CD0B7D-6100-3E46-9320-38B14F825EE3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t>Arbitrary number that identifies every row containing a tracer that belongs to a
+single infusate.  Each row defines 1 tracer (at a particular Tracer
+Concentration) and this value links them together.
+The values in this column are not loaded into the database.  It is only used to
+populate the Infusate Name column using an excel formula.  All rows having the
+same Infusate Row Group are used to build the Infusate Name column values.
+Required.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{63E42714-D4F1-3C49-BB8F-2DCD2307AB3C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t>A short name or lab identifier of refering to a group of tracer compounds, e.g
+'6eaas'.  There may be multiple infusate records with this group name, each
+referring to the same tracers at different concentrations.
+Select a 'Tracer Group Name' from the dropdowns in this column.  Valid values
+are:
+- BCAAs_13C
+- KLI
+Optional.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{7AF193C0-D1E7-7441-9F4B-D6BB377CD34B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t>Name of a tracer in this infusate at a specific Tracer Concentration.
+Select a 'Tracer' from the dropdowns in this column.  The dropdowns are
+populated by the 'Tracer Name' column in the 'Tracers' sheet, so if the
+dropdowns are empty, add rows to the 'Tracers' sheet.
+Required.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{2FACA0AB-B9D3-7B48-899A-AE3ECFCB3FA3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t>The millimolar concentration of the tracer in a specific infusate 'recipe' (mM).
+Required.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{FE2D7741-F462-7947-8560-99123CF8D074}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t>Readonly.  (Calculated by formula.)
+A unique name or lab identifier of the infusate 'recipe' containing 1 or more
+tracer compounds at specific concentrations.
+While this column is automatically populated by excel formula, the following
+describes the formula output, if you wish to manually enter it.
+Individual tracer compounds will be formatted as: compound_name-[weight element
+count,weight element count]
+example: valine-[13C5,15N1]
+Mixtures of compounds will be formatted as: tracer_group_name {tracer[conc];
+tracer[conc]}
+example:
+BCAAs
+{isoleucine-[13C6,15N1][23.2];leucine-[13C6,15N1][100];valine-[13C5,15N1][0.9]}
+Note that the concentrations in the name are limited to 3 significant figures,
+but the saved value is as entered.
+The values in this column are referenced by the 'Infusate' column in the
+'Animals' sheet.
+Must be unique.
+Required.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
@@ -249,7 +600,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
@@ -367,7 +718,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>TraceBase Dev Team</author>
@@ -733,7 +1084,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>TraceBase Dev Team</author>
@@ -1135,7 +1486,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
@@ -1206,7 +1557,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
@@ -1236,33 +1587,30 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Modified to match the description in issue #400 (apart from changing "Tracer column" (which doesn't exist) to "Infusate column"
-	-Robert Leach</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="170">
   <si>
     <t>Infusate</t>
   </si>
@@ -1622,9 +1970,6 @@
     <t>PREFIX_newsample</t>
   </si>
   <si>
-    <t>ob/ob homozygouse mice were fasted</t>
-  </si>
-  <si>
     <t>No manipulation besides what is already described in other fields.</t>
   </si>
   <si>
@@ -1726,6 +2071,99 @@
   <si>
     <t>Sequence</t>
   </si>
+  <si>
+    <t>Tracer Row Group</t>
+  </si>
+  <si>
+    <t>Compound</t>
+  </si>
+  <si>
+    <t>Mass Number</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>Label Count</t>
+  </si>
+  <si>
+    <t>Label Positions</t>
+  </si>
+  <si>
+    <t>Tracer Name</t>
+  </si>
+  <si>
+    <t>Infusate Row Group</t>
+  </si>
+  <si>
+    <t>Tracer Group Name</t>
+  </si>
+  <si>
+    <t>Tracer</t>
+  </si>
+  <si>
+    <t>Tracer Concentration</t>
+  </si>
+  <si>
+    <t>Infusate Name</t>
+  </si>
+  <si>
+    <t>lysine-[13C6]</t>
+  </si>
+  <si>
+    <t>lysine</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>newsample</t>
+  </si>
+  <si>
+    <t>HMDB ID</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Synonyms</t>
+  </si>
+  <si>
+    <t>glucose</t>
+  </si>
+  <si>
+    <t>HMDB0000122</t>
+  </si>
+  <si>
+    <t>C6H12O6</t>
+  </si>
+  <si>
+    <t>D-Glucose;Glucose;dextrose;glucose</t>
+  </si>
+  <si>
+    <t>lactate</t>
+  </si>
+  <si>
+    <t>HMDB0000190</t>
+  </si>
+  <si>
+    <t>C3H6O3</t>
+  </si>
+  <si>
+    <t>2-hydroxypropanoate;2-hydroxypropanoic acid;L-Lactic acid;Lactate;lactate;lactic acid</t>
+  </si>
+  <si>
+    <t>C6H14N2O2</t>
+  </si>
+  <si>
+    <t>HMDB0000182</t>
+  </si>
+  <si>
+    <t>L-Lysine; Lysine; lys; lysine</t>
+  </si>
+  <si>
+    <t>ob/ob homozygous mice were fasted</t>
+  </si>
 </sst>
 </file>
 
@@ -1734,7 +2172,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1862,16 +2300,29 @@
       <name val="Courier"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1909,12 +2360,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1944,12 +2411,71 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{F34B0BC4-0474-5D47-93C7-FE64BAA63C00}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{0C7473BC-87B0-8B4B-A0FD-42FB1E1A2E15}"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2061,6 +2587,188 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDCE6F1"/>
         </patternFill>
       </fill>
       <border>
@@ -2354,7 +3062,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14">
       <c r="A1" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>10</v>
@@ -2365,17 +3073,17 @@
         <v>85</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="notContainsErrors" dxfId="6" priority="2">
+    <cfRule type="notContainsErrors" dxfId="15" priority="2">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="notContainsErrors" dxfId="5" priority="3">
+    <cfRule type="notContainsErrors" dxfId="14" priority="3">
       <formula>NOT(ISERROR(B1))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2384,7 +3092,3961 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:Z36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="62.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+    </row>
+    <row r="2" spans="1:26" ht="15">
+      <c r="A2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:26" ht="15">
+      <c r="A3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:26" ht="15">
+      <c r="A4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:26" ht="15">
+      <c r="A5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:26" ht="15">
+      <c r="A6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:26" ht="15">
+      <c r="A7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:26" ht="15">
+      <c r="A8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:26" ht="15">
+      <c r="A9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:26" ht="15">
+      <c r="A10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:26" ht="15">
+      <c r="A11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="1:26" ht="15">
+      <c r="A12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:26" ht="15">
+      <c r="A13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:26" ht="15">
+      <c r="A14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A17" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A18" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A20" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A25" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A27" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A29" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A30" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A31" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A32" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A33" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A34" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A35" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A36" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2166FC50-E341-DD4B-A3E8-A13696D76D0F}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="11.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
+      <c r="A2" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15">
+      <c r="A3" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15">
+      <c r="A4" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15">
+      <c r="A5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+    </row>
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" s="26"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:C1">
+    <cfRule type="notContainsErrors" dxfId="1" priority="1">
+      <formula>NOT(ISERROR(A1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="notContainsErrors" dxfId="0" priority="2">
+      <formula>NOT(ISERROR(D1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:Z1002"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:26" ht="18">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A4" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A5" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A6" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A10" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A14" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A15" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:26" ht="18">
+      <c r="A17" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+    </row>
+    <row r="18" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A19" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A20" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A21" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="32" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A33" s="4"/>
+    </row>
+    <row r="34" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A34" s="4"/>
+    </row>
+    <row r="35" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A35" s="4"/>
+    </row>
+    <row r="36" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A36" s="4"/>
+    </row>
+    <row r="37" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A37" s="4"/>
+    </row>
+    <row r="38" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A38" s="4"/>
+    </row>
+    <row r="39" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A39" s="4"/>
+    </row>
+    <row r="40" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A40" s="4"/>
+    </row>
+    <row r="41" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="42" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="43" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A43" s="4"/>
+    </row>
+    <row r="44" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A44" s="4"/>
+    </row>
+    <row r="45" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A45" s="4"/>
+    </row>
+    <row r="46" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A46" s="4"/>
+    </row>
+    <row r="47" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A47" s="4"/>
+    </row>
+    <row r="48" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A48" s="4"/>
+    </row>
+    <row r="49" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A49" s="4"/>
+    </row>
+    <row r="50" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A50" s="4"/>
+    </row>
+    <row r="51" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A51" s="4"/>
+    </row>
+    <row r="52" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A52" s="4"/>
+    </row>
+    <row r="53" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A53" s="4"/>
+    </row>
+    <row r="54" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A54" s="4"/>
+    </row>
+    <row r="55" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A55" s="4"/>
+    </row>
+    <row r="56" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A56" s="4"/>
+    </row>
+    <row r="57" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A57" s="4"/>
+    </row>
+    <row r="58" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A58" s="4"/>
+    </row>
+    <row r="59" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A59" s="4"/>
+    </row>
+    <row r="60" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A60" s="4"/>
+    </row>
+    <row r="61" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A61" s="4"/>
+    </row>
+    <row r="62" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A62" s="4"/>
+    </row>
+    <row r="63" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A63" s="4"/>
+    </row>
+    <row r="64" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A64" s="4"/>
+    </row>
+    <row r="65" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A65" s="4"/>
+    </row>
+    <row r="66" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A66" s="4"/>
+    </row>
+    <row r="67" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A67" s="4"/>
+    </row>
+    <row r="68" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A68" s="4"/>
+    </row>
+    <row r="69" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A69" s="4"/>
+    </row>
+    <row r="70" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A70" s="4"/>
+    </row>
+    <row r="71" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A71" s="4"/>
+    </row>
+    <row r="72" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A72" s="4"/>
+    </row>
+    <row r="73" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A73" s="4"/>
+    </row>
+    <row r="74" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A74" s="4"/>
+    </row>
+    <row r="75" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A75" s="4"/>
+    </row>
+    <row r="76" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A76" s="4"/>
+    </row>
+    <row r="77" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A77" s="4"/>
+    </row>
+    <row r="78" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A78" s="4"/>
+    </row>
+    <row r="79" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A79" s="4"/>
+    </row>
+    <row r="80" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A80" s="4"/>
+    </row>
+    <row r="81" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A81" s="4"/>
+    </row>
+    <row r="82" spans="1:1" ht="13">
+      <c r="A82" s="4"/>
+    </row>
+    <row r="83" spans="1:1" ht="13">
+      <c r="A83" s="4"/>
+    </row>
+    <row r="84" spans="1:1" ht="13">
+      <c r="A84" s="4"/>
+    </row>
+    <row r="85" spans="1:1" ht="13">
+      <c r="A85" s="4"/>
+    </row>
+    <row r="86" spans="1:1" ht="13">
+      <c r="A86" s="4"/>
+    </row>
+    <row r="87" spans="1:1" ht="13">
+      <c r="A87" s="4"/>
+    </row>
+    <row r="88" spans="1:1" ht="13">
+      <c r="A88" s="4"/>
+    </row>
+    <row r="89" spans="1:1" ht="13">
+      <c r="A89" s="4"/>
+    </row>
+    <row r="90" spans="1:1" ht="13">
+      <c r="A90" s="4"/>
+    </row>
+    <row r="91" spans="1:1" ht="13">
+      <c r="A91" s="4"/>
+    </row>
+    <row r="92" spans="1:1" ht="13">
+      <c r="A92" s="4"/>
+    </row>
+    <row r="93" spans="1:1" ht="13">
+      <c r="A93" s="4"/>
+    </row>
+    <row r="94" spans="1:1" ht="13">
+      <c r="A94" s="4"/>
+    </row>
+    <row r="95" spans="1:1" ht="13">
+      <c r="A95" s="4"/>
+    </row>
+    <row r="96" spans="1:1" ht="13">
+      <c r="A96" s="4"/>
+    </row>
+    <row r="97" spans="1:1" ht="13">
+      <c r="A97" s="4"/>
+    </row>
+    <row r="98" spans="1:1" ht="13">
+      <c r="A98" s="4"/>
+    </row>
+    <row r="99" spans="1:1" ht="13">
+      <c r="A99" s="4"/>
+    </row>
+    <row r="100" spans="1:1" ht="13">
+      <c r="A100" s="4"/>
+    </row>
+    <row r="101" spans="1:1" ht="13">
+      <c r="A101" s="4"/>
+    </row>
+    <row r="102" spans="1:1" ht="13">
+      <c r="A102" s="4"/>
+    </row>
+    <row r="103" spans="1:1" ht="13">
+      <c r="A103" s="4"/>
+    </row>
+    <row r="104" spans="1:1" ht="13">
+      <c r="A104" s="4"/>
+    </row>
+    <row r="105" spans="1:1" ht="13">
+      <c r="A105" s="4"/>
+    </row>
+    <row r="106" spans="1:1" ht="13">
+      <c r="A106" s="4"/>
+    </row>
+    <row r="107" spans="1:1" ht="13">
+      <c r="A107" s="4"/>
+    </row>
+    <row r="108" spans="1:1" ht="13">
+      <c r="A108" s="4"/>
+    </row>
+    <row r="109" spans="1:1" ht="13">
+      <c r="A109" s="4"/>
+    </row>
+    <row r="110" spans="1:1" ht="13">
+      <c r="A110" s="4"/>
+    </row>
+    <row r="111" spans="1:1" ht="13">
+      <c r="A111" s="4"/>
+    </row>
+    <row r="112" spans="1:1" ht="13">
+      <c r="A112" s="4"/>
+    </row>
+    <row r="113" spans="1:1" ht="13">
+      <c r="A113" s="4"/>
+    </row>
+    <row r="114" spans="1:1" ht="13">
+      <c r="A114" s="4"/>
+    </row>
+    <row r="115" spans="1:1" ht="13">
+      <c r="A115" s="4"/>
+    </row>
+    <row r="116" spans="1:1" ht="13">
+      <c r="A116" s="4"/>
+    </row>
+    <row r="117" spans="1:1" ht="13">
+      <c r="A117" s="4"/>
+    </row>
+    <row r="118" spans="1:1" ht="13">
+      <c r="A118" s="4"/>
+    </row>
+    <row r="119" spans="1:1" ht="13">
+      <c r="A119" s="4"/>
+    </row>
+    <row r="120" spans="1:1" ht="13">
+      <c r="A120" s="4"/>
+    </row>
+    <row r="121" spans="1:1" ht="13">
+      <c r="A121" s="4"/>
+    </row>
+    <row r="122" spans="1:1" ht="13">
+      <c r="A122" s="4"/>
+    </row>
+    <row r="123" spans="1:1" ht="13">
+      <c r="A123" s="4"/>
+    </row>
+    <row r="124" spans="1:1" ht="13">
+      <c r="A124" s="4"/>
+    </row>
+    <row r="125" spans="1:1" ht="13">
+      <c r="A125" s="4"/>
+    </row>
+    <row r="126" spans="1:1" ht="13">
+      <c r="A126" s="4"/>
+    </row>
+    <row r="127" spans="1:1" ht="13">
+      <c r="A127" s="4"/>
+    </row>
+    <row r="128" spans="1:1" ht="13">
+      <c r="A128" s="4"/>
+    </row>
+    <row r="129" spans="1:1" ht="13">
+      <c r="A129" s="4"/>
+    </row>
+    <row r="130" spans="1:1" ht="13">
+      <c r="A130" s="4"/>
+    </row>
+    <row r="131" spans="1:1" ht="13">
+      <c r="A131" s="4"/>
+    </row>
+    <row r="132" spans="1:1" ht="13">
+      <c r="A132" s="4"/>
+    </row>
+    <row r="133" spans="1:1" ht="13">
+      <c r="A133" s="4"/>
+    </row>
+    <row r="134" spans="1:1" ht="13">
+      <c r="A134" s="4"/>
+    </row>
+    <row r="135" spans="1:1" ht="13">
+      <c r="A135" s="4"/>
+    </row>
+    <row r="136" spans="1:1" ht="13">
+      <c r="A136" s="4"/>
+    </row>
+    <row r="137" spans="1:1" ht="13">
+      <c r="A137" s="4"/>
+    </row>
+    <row r="138" spans="1:1" ht="13">
+      <c r="A138" s="4"/>
+    </row>
+    <row r="139" spans="1:1" ht="13">
+      <c r="A139" s="4"/>
+    </row>
+    <row r="140" spans="1:1" ht="13">
+      <c r="A140" s="4"/>
+    </row>
+    <row r="141" spans="1:1" ht="13">
+      <c r="A141" s="4"/>
+    </row>
+    <row r="142" spans="1:1" ht="13">
+      <c r="A142" s="4"/>
+    </row>
+    <row r="143" spans="1:1" ht="13">
+      <c r="A143" s="4"/>
+    </row>
+    <row r="144" spans="1:1" ht="13">
+      <c r="A144" s="4"/>
+    </row>
+    <row r="145" spans="1:1" ht="13">
+      <c r="A145" s="4"/>
+    </row>
+    <row r="146" spans="1:1" ht="13">
+      <c r="A146" s="4"/>
+    </row>
+    <row r="147" spans="1:1" ht="13">
+      <c r="A147" s="4"/>
+    </row>
+    <row r="148" spans="1:1" ht="13">
+      <c r="A148" s="4"/>
+    </row>
+    <row r="149" spans="1:1" ht="13">
+      <c r="A149" s="4"/>
+    </row>
+    <row r="150" spans="1:1" ht="13">
+      <c r="A150" s="4"/>
+    </row>
+    <row r="151" spans="1:1" ht="13">
+      <c r="A151" s="4"/>
+    </row>
+    <row r="152" spans="1:1" ht="13">
+      <c r="A152" s="4"/>
+    </row>
+    <row r="153" spans="1:1" ht="13">
+      <c r="A153" s="4"/>
+    </row>
+    <row r="154" spans="1:1" ht="13">
+      <c r="A154" s="4"/>
+    </row>
+    <row r="155" spans="1:1" ht="13">
+      <c r="A155" s="4"/>
+    </row>
+    <row r="156" spans="1:1" ht="13">
+      <c r="A156" s="4"/>
+    </row>
+    <row r="157" spans="1:1" ht="13">
+      <c r="A157" s="4"/>
+    </row>
+    <row r="158" spans="1:1" ht="13">
+      <c r="A158" s="4"/>
+    </row>
+    <row r="159" spans="1:1" ht="13">
+      <c r="A159" s="4"/>
+    </row>
+    <row r="160" spans="1:1" ht="13">
+      <c r="A160" s="4"/>
+    </row>
+    <row r="161" spans="1:1" ht="13">
+      <c r="A161" s="4"/>
+    </row>
+    <row r="162" spans="1:1" ht="13">
+      <c r="A162" s="4"/>
+    </row>
+    <row r="163" spans="1:1" ht="13">
+      <c r="A163" s="4"/>
+    </row>
+    <row r="164" spans="1:1" ht="13">
+      <c r="A164" s="4"/>
+    </row>
+    <row r="165" spans="1:1" ht="13">
+      <c r="A165" s="4"/>
+    </row>
+    <row r="166" spans="1:1" ht="13">
+      <c r="A166" s="4"/>
+    </row>
+    <row r="167" spans="1:1" ht="13">
+      <c r="A167" s="4"/>
+    </row>
+    <row r="168" spans="1:1" ht="13">
+      <c r="A168" s="4"/>
+    </row>
+    <row r="169" spans="1:1" ht="13">
+      <c r="A169" s="4"/>
+    </row>
+    <row r="170" spans="1:1" ht="13">
+      <c r="A170" s="4"/>
+    </row>
+    <row r="171" spans="1:1" ht="13">
+      <c r="A171" s="4"/>
+    </row>
+    <row r="172" spans="1:1" ht="13">
+      <c r="A172" s="4"/>
+    </row>
+    <row r="173" spans="1:1" ht="13">
+      <c r="A173" s="4"/>
+    </row>
+    <row r="174" spans="1:1" ht="13">
+      <c r="A174" s="4"/>
+    </row>
+    <row r="175" spans="1:1" ht="13">
+      <c r="A175" s="4"/>
+    </row>
+    <row r="176" spans="1:1" ht="13">
+      <c r="A176" s="4"/>
+    </row>
+    <row r="177" spans="1:1" ht="13">
+      <c r="A177" s="4"/>
+    </row>
+    <row r="178" spans="1:1" ht="13">
+      <c r="A178" s="4"/>
+    </row>
+    <row r="179" spans="1:1" ht="13">
+      <c r="A179" s="4"/>
+    </row>
+    <row r="180" spans="1:1" ht="13">
+      <c r="A180" s="4"/>
+    </row>
+    <row r="181" spans="1:1" ht="13">
+      <c r="A181" s="4"/>
+    </row>
+    <row r="182" spans="1:1" ht="13">
+      <c r="A182" s="4"/>
+    </row>
+    <row r="183" spans="1:1" ht="13">
+      <c r="A183" s="4"/>
+    </row>
+    <row r="184" spans="1:1" ht="13">
+      <c r="A184" s="4"/>
+    </row>
+    <row r="185" spans="1:1" ht="13">
+      <c r="A185" s="4"/>
+    </row>
+    <row r="186" spans="1:1" ht="13">
+      <c r="A186" s="4"/>
+    </row>
+    <row r="187" spans="1:1" ht="13">
+      <c r="A187" s="4"/>
+    </row>
+    <row r="188" spans="1:1" ht="13">
+      <c r="A188" s="4"/>
+    </row>
+    <row r="189" spans="1:1" ht="13">
+      <c r="A189" s="4"/>
+    </row>
+    <row r="190" spans="1:1" ht="13">
+      <c r="A190" s="4"/>
+    </row>
+    <row r="191" spans="1:1" ht="13">
+      <c r="A191" s="4"/>
+    </row>
+    <row r="192" spans="1:1" ht="13">
+      <c r="A192" s="4"/>
+    </row>
+    <row r="193" spans="1:1" ht="13">
+      <c r="A193" s="4"/>
+    </row>
+    <row r="194" spans="1:1" ht="13">
+      <c r="A194" s="4"/>
+    </row>
+    <row r="195" spans="1:1" ht="13">
+      <c r="A195" s="4"/>
+    </row>
+    <row r="196" spans="1:1" ht="13">
+      <c r="A196" s="4"/>
+    </row>
+    <row r="197" spans="1:1" ht="13">
+      <c r="A197" s="4"/>
+    </row>
+    <row r="198" spans="1:1" ht="13">
+      <c r="A198" s="4"/>
+    </row>
+    <row r="199" spans="1:1" ht="13">
+      <c r="A199" s="4"/>
+    </row>
+    <row r="200" spans="1:1" ht="13">
+      <c r="A200" s="4"/>
+    </row>
+    <row r="201" spans="1:1" ht="13">
+      <c r="A201" s="4"/>
+    </row>
+    <row r="202" spans="1:1" ht="13">
+      <c r="A202" s="4"/>
+    </row>
+    <row r="203" spans="1:1" ht="13">
+      <c r="A203" s="4"/>
+    </row>
+    <row r="204" spans="1:1" ht="13">
+      <c r="A204" s="4"/>
+    </row>
+    <row r="205" spans="1:1" ht="13">
+      <c r="A205" s="4"/>
+    </row>
+    <row r="206" spans="1:1" ht="13">
+      <c r="A206" s="4"/>
+    </row>
+    <row r="207" spans="1:1" ht="13">
+      <c r="A207" s="4"/>
+    </row>
+    <row r="208" spans="1:1" ht="13">
+      <c r="A208" s="4"/>
+    </row>
+    <row r="209" spans="1:1" ht="13">
+      <c r="A209" s="4"/>
+    </row>
+    <row r="210" spans="1:1" ht="13">
+      <c r="A210" s="4"/>
+    </row>
+    <row r="211" spans="1:1" ht="13">
+      <c r="A211" s="4"/>
+    </row>
+    <row r="212" spans="1:1" ht="13">
+      <c r="A212" s="4"/>
+    </row>
+    <row r="213" spans="1:1" ht="13">
+      <c r="A213" s="4"/>
+    </row>
+    <row r="214" spans="1:1" ht="13">
+      <c r="A214" s="4"/>
+    </row>
+    <row r="215" spans="1:1" ht="13">
+      <c r="A215" s="4"/>
+    </row>
+    <row r="216" spans="1:1" ht="13">
+      <c r="A216" s="4"/>
+    </row>
+    <row r="217" spans="1:1" ht="13">
+      <c r="A217" s="4"/>
+    </row>
+    <row r="218" spans="1:1" ht="13">
+      <c r="A218" s="4"/>
+    </row>
+    <row r="219" spans="1:1" ht="13">
+      <c r="A219" s="4"/>
+    </row>
+    <row r="220" spans="1:1" ht="13">
+      <c r="A220" s="4"/>
+    </row>
+    <row r="221" spans="1:1" ht="13">
+      <c r="A221" s="4"/>
+    </row>
+    <row r="222" spans="1:1" ht="13">
+      <c r="A222" s="4"/>
+    </row>
+    <row r="223" spans="1:1" ht="13">
+      <c r="A223" s="4"/>
+    </row>
+    <row r="224" spans="1:1" ht="13">
+      <c r="A224" s="4"/>
+    </row>
+    <row r="225" spans="1:1" ht="13">
+      <c r="A225" s="4"/>
+    </row>
+    <row r="226" spans="1:1" ht="13">
+      <c r="A226" s="4"/>
+    </row>
+    <row r="227" spans="1:1" ht="13">
+      <c r="A227" s="4"/>
+    </row>
+    <row r="228" spans="1:1" ht="13">
+      <c r="A228" s="4"/>
+    </row>
+    <row r="229" spans="1:1" ht="13">
+      <c r="A229" s="4"/>
+    </row>
+    <row r="230" spans="1:1" ht="13">
+      <c r="A230" s="4"/>
+    </row>
+    <row r="231" spans="1:1" ht="13">
+      <c r="A231" s="4"/>
+    </row>
+    <row r="232" spans="1:1" ht="13">
+      <c r="A232" s="4"/>
+    </row>
+    <row r="233" spans="1:1" ht="13">
+      <c r="A233" s="4"/>
+    </row>
+    <row r="234" spans="1:1" ht="13">
+      <c r="A234" s="4"/>
+    </row>
+    <row r="235" spans="1:1" ht="13">
+      <c r="A235" s="4"/>
+    </row>
+    <row r="236" spans="1:1" ht="13">
+      <c r="A236" s="4"/>
+    </row>
+    <row r="237" spans="1:1" ht="13">
+      <c r="A237" s="4"/>
+    </row>
+    <row r="238" spans="1:1" ht="13">
+      <c r="A238" s="4"/>
+    </row>
+    <row r="239" spans="1:1" ht="13">
+      <c r="A239" s="4"/>
+    </row>
+    <row r="240" spans="1:1" ht="13">
+      <c r="A240" s="4"/>
+    </row>
+    <row r="241" spans="1:1" ht="13">
+      <c r="A241" s="4"/>
+    </row>
+    <row r="242" spans="1:1" ht="13">
+      <c r="A242" s="4"/>
+    </row>
+    <row r="243" spans="1:1" ht="13">
+      <c r="A243" s="4"/>
+    </row>
+    <row r="244" spans="1:1" ht="13">
+      <c r="A244" s="4"/>
+    </row>
+    <row r="245" spans="1:1" ht="13">
+      <c r="A245" s="4"/>
+    </row>
+    <row r="246" spans="1:1" ht="13">
+      <c r="A246" s="4"/>
+    </row>
+    <row r="247" spans="1:1" ht="13">
+      <c r="A247" s="4"/>
+    </row>
+    <row r="248" spans="1:1" ht="13">
+      <c r="A248" s="4"/>
+    </row>
+    <row r="249" spans="1:1" ht="13">
+      <c r="A249" s="4"/>
+    </row>
+    <row r="250" spans="1:1" ht="13">
+      <c r="A250" s="4"/>
+    </row>
+    <row r="251" spans="1:1" ht="13">
+      <c r="A251" s="4"/>
+    </row>
+    <row r="252" spans="1:1" ht="13">
+      <c r="A252" s="4"/>
+    </row>
+    <row r="253" spans="1:1" ht="13">
+      <c r="A253" s="4"/>
+    </row>
+    <row r="254" spans="1:1" ht="13">
+      <c r="A254" s="4"/>
+    </row>
+    <row r="255" spans="1:1" ht="13">
+      <c r="A255" s="4"/>
+    </row>
+    <row r="256" spans="1:1" ht="13">
+      <c r="A256" s="4"/>
+    </row>
+    <row r="257" spans="1:1" ht="13">
+      <c r="A257" s="4"/>
+    </row>
+    <row r="258" spans="1:1" ht="13">
+      <c r="A258" s="4"/>
+    </row>
+    <row r="259" spans="1:1" ht="13">
+      <c r="A259" s="4"/>
+    </row>
+    <row r="260" spans="1:1" ht="13">
+      <c r="A260" s="4"/>
+    </row>
+    <row r="261" spans="1:1" ht="13">
+      <c r="A261" s="4"/>
+    </row>
+    <row r="262" spans="1:1" ht="13">
+      <c r="A262" s="4"/>
+    </row>
+    <row r="263" spans="1:1" ht="13">
+      <c r="A263" s="4"/>
+    </row>
+    <row r="264" spans="1:1" ht="13">
+      <c r="A264" s="4"/>
+    </row>
+    <row r="265" spans="1:1" ht="13">
+      <c r="A265" s="4"/>
+    </row>
+    <row r="266" spans="1:1" ht="13">
+      <c r="A266" s="4"/>
+    </row>
+    <row r="267" spans="1:1" ht="13">
+      <c r="A267" s="4"/>
+    </row>
+    <row r="268" spans="1:1" ht="13">
+      <c r="A268" s="4"/>
+    </row>
+    <row r="269" spans="1:1" ht="13">
+      <c r="A269" s="4"/>
+    </row>
+    <row r="270" spans="1:1" ht="13">
+      <c r="A270" s="4"/>
+    </row>
+    <row r="271" spans="1:1" ht="13">
+      <c r="A271" s="4"/>
+    </row>
+    <row r="272" spans="1:1" ht="13">
+      <c r="A272" s="4"/>
+    </row>
+    <row r="273" spans="1:1" ht="13">
+      <c r="A273" s="4"/>
+    </row>
+    <row r="274" spans="1:1" ht="13">
+      <c r="A274" s="4"/>
+    </row>
+    <row r="275" spans="1:1" ht="13">
+      <c r="A275" s="4"/>
+    </row>
+    <row r="276" spans="1:1" ht="13">
+      <c r="A276" s="4"/>
+    </row>
+    <row r="277" spans="1:1" ht="13">
+      <c r="A277" s="4"/>
+    </row>
+    <row r="278" spans="1:1" ht="13">
+      <c r="A278" s="4"/>
+    </row>
+    <row r="279" spans="1:1" ht="13">
+      <c r="A279" s="4"/>
+    </row>
+    <row r="280" spans="1:1" ht="13">
+      <c r="A280" s="4"/>
+    </row>
+    <row r="281" spans="1:1" ht="13">
+      <c r="A281" s="4"/>
+    </row>
+    <row r="282" spans="1:1" ht="13">
+      <c r="A282" s="4"/>
+    </row>
+    <row r="283" spans="1:1" ht="13">
+      <c r="A283" s="4"/>
+    </row>
+    <row r="284" spans="1:1" ht="13">
+      <c r="A284" s="4"/>
+    </row>
+    <row r="285" spans="1:1" ht="13">
+      <c r="A285" s="4"/>
+    </row>
+    <row r="286" spans="1:1" ht="13">
+      <c r="A286" s="4"/>
+    </row>
+    <row r="287" spans="1:1" ht="13">
+      <c r="A287" s="4"/>
+    </row>
+    <row r="288" spans="1:1" ht="13">
+      <c r="A288" s="4"/>
+    </row>
+    <row r="289" spans="1:1" ht="13">
+      <c r="A289" s="4"/>
+    </row>
+    <row r="290" spans="1:1" ht="13">
+      <c r="A290" s="4"/>
+    </row>
+    <row r="291" spans="1:1" ht="13">
+      <c r="A291" s="4"/>
+    </row>
+    <row r="292" spans="1:1" ht="13">
+      <c r="A292" s="4"/>
+    </row>
+    <row r="293" spans="1:1" ht="13">
+      <c r="A293" s="4"/>
+    </row>
+    <row r="294" spans="1:1" ht="13">
+      <c r="A294" s="4"/>
+    </row>
+    <row r="295" spans="1:1" ht="13">
+      <c r="A295" s="4"/>
+    </row>
+    <row r="296" spans="1:1" ht="13">
+      <c r="A296" s="4"/>
+    </row>
+    <row r="297" spans="1:1" ht="13">
+      <c r="A297" s="4"/>
+    </row>
+    <row r="298" spans="1:1" ht="13">
+      <c r="A298" s="4"/>
+    </row>
+    <row r="299" spans="1:1" ht="13">
+      <c r="A299" s="4"/>
+    </row>
+    <row r="300" spans="1:1" ht="13">
+      <c r="A300" s="4"/>
+    </row>
+    <row r="301" spans="1:1" ht="13">
+      <c r="A301" s="4"/>
+    </row>
+    <row r="302" spans="1:1" ht="13">
+      <c r="A302" s="4"/>
+    </row>
+    <row r="303" spans="1:1" ht="13">
+      <c r="A303" s="4"/>
+    </row>
+    <row r="304" spans="1:1" ht="13">
+      <c r="A304" s="4"/>
+    </row>
+    <row r="305" spans="1:1" ht="13">
+      <c r="A305" s="4"/>
+    </row>
+    <row r="306" spans="1:1" ht="13">
+      <c r="A306" s="4"/>
+    </row>
+    <row r="307" spans="1:1" ht="13">
+      <c r="A307" s="4"/>
+    </row>
+    <row r="308" spans="1:1" ht="13">
+      <c r="A308" s="4"/>
+    </row>
+    <row r="309" spans="1:1" ht="13">
+      <c r="A309" s="4"/>
+    </row>
+    <row r="310" spans="1:1" ht="13">
+      <c r="A310" s="4"/>
+    </row>
+    <row r="311" spans="1:1" ht="13">
+      <c r="A311" s="4"/>
+    </row>
+    <row r="312" spans="1:1" ht="13">
+      <c r="A312" s="4"/>
+    </row>
+    <row r="313" spans="1:1" ht="13">
+      <c r="A313" s="4"/>
+    </row>
+    <row r="314" spans="1:1" ht="13">
+      <c r="A314" s="4"/>
+    </row>
+    <row r="315" spans="1:1" ht="13">
+      <c r="A315" s="4"/>
+    </row>
+    <row r="316" spans="1:1" ht="13">
+      <c r="A316" s="4"/>
+    </row>
+    <row r="317" spans="1:1" ht="13">
+      <c r="A317" s="4"/>
+    </row>
+    <row r="318" spans="1:1" ht="13">
+      <c r="A318" s="4"/>
+    </row>
+    <row r="319" spans="1:1" ht="13">
+      <c r="A319" s="4"/>
+    </row>
+    <row r="320" spans="1:1" ht="13">
+      <c r="A320" s="4"/>
+    </row>
+    <row r="321" spans="1:1" ht="13">
+      <c r="A321" s="4"/>
+    </row>
+    <row r="322" spans="1:1" ht="13">
+      <c r="A322" s="4"/>
+    </row>
+    <row r="323" spans="1:1" ht="13">
+      <c r="A323" s="4"/>
+    </row>
+    <row r="324" spans="1:1" ht="13">
+      <c r="A324" s="4"/>
+    </row>
+    <row r="325" spans="1:1" ht="13">
+      <c r="A325" s="4"/>
+    </row>
+    <row r="326" spans="1:1" ht="13">
+      <c r="A326" s="4"/>
+    </row>
+    <row r="327" spans="1:1" ht="13">
+      <c r="A327" s="4"/>
+    </row>
+    <row r="328" spans="1:1" ht="13">
+      <c r="A328" s="4"/>
+    </row>
+    <row r="329" spans="1:1" ht="13">
+      <c r="A329" s="4"/>
+    </row>
+    <row r="330" spans="1:1" ht="13">
+      <c r="A330" s="4"/>
+    </row>
+    <row r="331" spans="1:1" ht="13">
+      <c r="A331" s="4"/>
+    </row>
+    <row r="332" spans="1:1" ht="13">
+      <c r="A332" s="4"/>
+    </row>
+    <row r="333" spans="1:1" ht="13">
+      <c r="A333" s="4"/>
+    </row>
+    <row r="334" spans="1:1" ht="13">
+      <c r="A334" s="4"/>
+    </row>
+    <row r="335" spans="1:1" ht="13">
+      <c r="A335" s="4"/>
+    </row>
+    <row r="336" spans="1:1" ht="13">
+      <c r="A336" s="4"/>
+    </row>
+    <row r="337" spans="1:1" ht="13">
+      <c r="A337" s="4"/>
+    </row>
+    <row r="338" spans="1:1" ht="13">
+      <c r="A338" s="4"/>
+    </row>
+    <row r="339" spans="1:1" ht="13">
+      <c r="A339" s="4"/>
+    </row>
+    <row r="340" spans="1:1" ht="13">
+      <c r="A340" s="4"/>
+    </row>
+    <row r="341" spans="1:1" ht="13">
+      <c r="A341" s="4"/>
+    </row>
+    <row r="342" spans="1:1" ht="13">
+      <c r="A342" s="4"/>
+    </row>
+    <row r="343" spans="1:1" ht="13">
+      <c r="A343" s="4"/>
+    </row>
+    <row r="344" spans="1:1" ht="13">
+      <c r="A344" s="4"/>
+    </row>
+    <row r="345" spans="1:1" ht="13">
+      <c r="A345" s="4"/>
+    </row>
+    <row r="346" spans="1:1" ht="13">
+      <c r="A346" s="4"/>
+    </row>
+    <row r="347" spans="1:1" ht="13">
+      <c r="A347" s="4"/>
+    </row>
+    <row r="348" spans="1:1" ht="13">
+      <c r="A348" s="4"/>
+    </row>
+    <row r="349" spans="1:1" ht="13">
+      <c r="A349" s="4"/>
+    </row>
+    <row r="350" spans="1:1" ht="13">
+      <c r="A350" s="4"/>
+    </row>
+    <row r="351" spans="1:1" ht="13">
+      <c r="A351" s="4"/>
+    </row>
+    <row r="352" spans="1:1" ht="13">
+      <c r="A352" s="4"/>
+    </row>
+    <row r="353" spans="1:1" ht="13">
+      <c r="A353" s="4"/>
+    </row>
+    <row r="354" spans="1:1" ht="13">
+      <c r="A354" s="4"/>
+    </row>
+    <row r="355" spans="1:1" ht="13">
+      <c r="A355" s="4"/>
+    </row>
+    <row r="356" spans="1:1" ht="13">
+      <c r="A356" s="4"/>
+    </row>
+    <row r="357" spans="1:1" ht="13">
+      <c r="A357" s="4"/>
+    </row>
+    <row r="358" spans="1:1" ht="13">
+      <c r="A358" s="4"/>
+    </row>
+    <row r="359" spans="1:1" ht="13">
+      <c r="A359" s="4"/>
+    </row>
+    <row r="360" spans="1:1" ht="13">
+      <c r="A360" s="4"/>
+    </row>
+    <row r="361" spans="1:1" ht="13">
+      <c r="A361" s="4"/>
+    </row>
+    <row r="362" spans="1:1" ht="13">
+      <c r="A362" s="4"/>
+    </row>
+    <row r="363" spans="1:1" ht="13">
+      <c r="A363" s="4"/>
+    </row>
+    <row r="364" spans="1:1" ht="13">
+      <c r="A364" s="4"/>
+    </row>
+    <row r="365" spans="1:1" ht="13">
+      <c r="A365" s="4"/>
+    </row>
+    <row r="366" spans="1:1" ht="13">
+      <c r="A366" s="4"/>
+    </row>
+    <row r="367" spans="1:1" ht="13">
+      <c r="A367" s="4"/>
+    </row>
+    <row r="368" spans="1:1" ht="13">
+      <c r="A368" s="4"/>
+    </row>
+    <row r="369" spans="1:1" ht="13">
+      <c r="A369" s="4"/>
+    </row>
+    <row r="370" spans="1:1" ht="13">
+      <c r="A370" s="4"/>
+    </row>
+    <row r="371" spans="1:1" ht="13">
+      <c r="A371" s="4"/>
+    </row>
+    <row r="372" spans="1:1" ht="13">
+      <c r="A372" s="4"/>
+    </row>
+    <row r="373" spans="1:1" ht="13">
+      <c r="A373" s="4"/>
+    </row>
+    <row r="374" spans="1:1" ht="13">
+      <c r="A374" s="4"/>
+    </row>
+    <row r="375" spans="1:1" ht="13">
+      <c r="A375" s="4"/>
+    </row>
+    <row r="376" spans="1:1" ht="13">
+      <c r="A376" s="4"/>
+    </row>
+    <row r="377" spans="1:1" ht="13">
+      <c r="A377" s="4"/>
+    </row>
+    <row r="378" spans="1:1" ht="13">
+      <c r="A378" s="4"/>
+    </row>
+    <row r="379" spans="1:1" ht="13">
+      <c r="A379" s="4"/>
+    </row>
+    <row r="380" spans="1:1" ht="13">
+      <c r="A380" s="4"/>
+    </row>
+    <row r="381" spans="1:1" ht="13">
+      <c r="A381" s="4"/>
+    </row>
+    <row r="382" spans="1:1" ht="13">
+      <c r="A382" s="4"/>
+    </row>
+    <row r="383" spans="1:1" ht="13">
+      <c r="A383" s="4"/>
+    </row>
+    <row r="384" spans="1:1" ht="13">
+      <c r="A384" s="4"/>
+    </row>
+    <row r="385" spans="1:1" ht="13">
+      <c r="A385" s="4"/>
+    </row>
+    <row r="386" spans="1:1" ht="13">
+      <c r="A386" s="4"/>
+    </row>
+    <row r="387" spans="1:1" ht="13">
+      <c r="A387" s="4"/>
+    </row>
+    <row r="388" spans="1:1" ht="13">
+      <c r="A388" s="4"/>
+    </row>
+    <row r="389" spans="1:1" ht="13">
+      <c r="A389" s="4"/>
+    </row>
+    <row r="390" spans="1:1" ht="13">
+      <c r="A390" s="4"/>
+    </row>
+    <row r="391" spans="1:1" ht="13">
+      <c r="A391" s="4"/>
+    </row>
+    <row r="392" spans="1:1" ht="13">
+      <c r="A392" s="4"/>
+    </row>
+    <row r="393" spans="1:1" ht="13">
+      <c r="A393" s="4"/>
+    </row>
+    <row r="394" spans="1:1" ht="13">
+      <c r="A394" s="4"/>
+    </row>
+    <row r="395" spans="1:1" ht="13">
+      <c r="A395" s="4"/>
+    </row>
+    <row r="396" spans="1:1" ht="13">
+      <c r="A396" s="4"/>
+    </row>
+    <row r="397" spans="1:1" ht="13">
+      <c r="A397" s="4"/>
+    </row>
+    <row r="398" spans="1:1" ht="13">
+      <c r="A398" s="4"/>
+    </row>
+    <row r="399" spans="1:1" ht="13">
+      <c r="A399" s="4"/>
+    </row>
+    <row r="400" spans="1:1" ht="13">
+      <c r="A400" s="4"/>
+    </row>
+    <row r="401" spans="1:1" ht="13">
+      <c r="A401" s="4"/>
+    </row>
+    <row r="402" spans="1:1" ht="13">
+      <c r="A402" s="4"/>
+    </row>
+    <row r="403" spans="1:1" ht="13">
+      <c r="A403" s="4"/>
+    </row>
+    <row r="404" spans="1:1" ht="13">
+      <c r="A404" s="4"/>
+    </row>
+    <row r="405" spans="1:1" ht="13">
+      <c r="A405" s="4"/>
+    </row>
+    <row r="406" spans="1:1" ht="13">
+      <c r="A406" s="4"/>
+    </row>
+    <row r="407" spans="1:1" ht="13">
+      <c r="A407" s="4"/>
+    </row>
+    <row r="408" spans="1:1" ht="13">
+      <c r="A408" s="4"/>
+    </row>
+    <row r="409" spans="1:1" ht="13">
+      <c r="A409" s="4"/>
+    </row>
+    <row r="410" spans="1:1" ht="13">
+      <c r="A410" s="4"/>
+    </row>
+    <row r="411" spans="1:1" ht="13">
+      <c r="A411" s="4"/>
+    </row>
+    <row r="412" spans="1:1" ht="13">
+      <c r="A412" s="4"/>
+    </row>
+    <row r="413" spans="1:1" ht="13">
+      <c r="A413" s="4"/>
+    </row>
+    <row r="414" spans="1:1" ht="13">
+      <c r="A414" s="4"/>
+    </row>
+    <row r="415" spans="1:1" ht="13">
+      <c r="A415" s="4"/>
+    </row>
+    <row r="416" spans="1:1" ht="13">
+      <c r="A416" s="4"/>
+    </row>
+    <row r="417" spans="1:1" ht="13">
+      <c r="A417" s="4"/>
+    </row>
+    <row r="418" spans="1:1" ht="13">
+      <c r="A418" s="4"/>
+    </row>
+    <row r="419" spans="1:1" ht="13">
+      <c r="A419" s="4"/>
+    </row>
+    <row r="420" spans="1:1" ht="13">
+      <c r="A420" s="4"/>
+    </row>
+    <row r="421" spans="1:1" ht="13">
+      <c r="A421" s="4"/>
+    </row>
+    <row r="422" spans="1:1" ht="13">
+      <c r="A422" s="4"/>
+    </row>
+    <row r="423" spans="1:1" ht="13">
+      <c r="A423" s="4"/>
+    </row>
+    <row r="424" spans="1:1" ht="13">
+      <c r="A424" s="4"/>
+    </row>
+    <row r="425" spans="1:1" ht="13">
+      <c r="A425" s="4"/>
+    </row>
+    <row r="426" spans="1:1" ht="13">
+      <c r="A426" s="4"/>
+    </row>
+    <row r="427" spans="1:1" ht="13">
+      <c r="A427" s="4"/>
+    </row>
+    <row r="428" spans="1:1" ht="13">
+      <c r="A428" s="4"/>
+    </row>
+    <row r="429" spans="1:1" ht="13">
+      <c r="A429" s="4"/>
+    </row>
+    <row r="430" spans="1:1" ht="13">
+      <c r="A430" s="4"/>
+    </row>
+    <row r="431" spans="1:1" ht="13">
+      <c r="A431" s="4"/>
+    </row>
+    <row r="432" spans="1:1" ht="13">
+      <c r="A432" s="4"/>
+    </row>
+    <row r="433" spans="1:1" ht="13">
+      <c r="A433" s="4"/>
+    </row>
+    <row r="434" spans="1:1" ht="13">
+      <c r="A434" s="4"/>
+    </row>
+    <row r="435" spans="1:1" ht="13">
+      <c r="A435" s="4"/>
+    </row>
+    <row r="436" spans="1:1" ht="13">
+      <c r="A436" s="4"/>
+    </row>
+    <row r="437" spans="1:1" ht="13">
+      <c r="A437" s="4"/>
+    </row>
+    <row r="438" spans="1:1" ht="13">
+      <c r="A438" s="4"/>
+    </row>
+    <row r="439" spans="1:1" ht="13">
+      <c r="A439" s="4"/>
+    </row>
+    <row r="440" spans="1:1" ht="13">
+      <c r="A440" s="4"/>
+    </row>
+    <row r="441" spans="1:1" ht="13">
+      <c r="A441" s="4"/>
+    </row>
+    <row r="442" spans="1:1" ht="13">
+      <c r="A442" s="4"/>
+    </row>
+    <row r="443" spans="1:1" ht="13">
+      <c r="A443" s="4"/>
+    </row>
+    <row r="444" spans="1:1" ht="13">
+      <c r="A444" s="4"/>
+    </row>
+    <row r="445" spans="1:1" ht="13">
+      <c r="A445" s="4"/>
+    </row>
+    <row r="446" spans="1:1" ht="13">
+      <c r="A446" s="4"/>
+    </row>
+    <row r="447" spans="1:1" ht="13">
+      <c r="A447" s="4"/>
+    </row>
+    <row r="448" spans="1:1" ht="13">
+      <c r="A448" s="4"/>
+    </row>
+    <row r="449" spans="1:1" ht="13">
+      <c r="A449" s="4"/>
+    </row>
+    <row r="450" spans="1:1" ht="13">
+      <c r="A450" s="4"/>
+    </row>
+    <row r="451" spans="1:1" ht="13">
+      <c r="A451" s="4"/>
+    </row>
+    <row r="452" spans="1:1" ht="13">
+      <c r="A452" s="4"/>
+    </row>
+    <row r="453" spans="1:1" ht="13">
+      <c r="A453" s="4"/>
+    </row>
+    <row r="454" spans="1:1" ht="13">
+      <c r="A454" s="4"/>
+    </row>
+    <row r="455" spans="1:1" ht="13">
+      <c r="A455" s="4"/>
+    </row>
+    <row r="456" spans="1:1" ht="13">
+      <c r="A456" s="4"/>
+    </row>
+    <row r="457" spans="1:1" ht="13">
+      <c r="A457" s="4"/>
+    </row>
+    <row r="458" spans="1:1" ht="13">
+      <c r="A458" s="4"/>
+    </row>
+    <row r="459" spans="1:1" ht="13">
+      <c r="A459" s="4"/>
+    </row>
+    <row r="460" spans="1:1" ht="13">
+      <c r="A460" s="4"/>
+    </row>
+    <row r="461" spans="1:1" ht="13">
+      <c r="A461" s="4"/>
+    </row>
+    <row r="462" spans="1:1" ht="13">
+      <c r="A462" s="4"/>
+    </row>
+    <row r="463" spans="1:1" ht="13">
+      <c r="A463" s="4"/>
+    </row>
+    <row r="464" spans="1:1" ht="13">
+      <c r="A464" s="4"/>
+    </row>
+    <row r="465" spans="1:1" ht="13">
+      <c r="A465" s="4"/>
+    </row>
+    <row r="466" spans="1:1" ht="13">
+      <c r="A466" s="4"/>
+    </row>
+    <row r="467" spans="1:1" ht="13">
+      <c r="A467" s="4"/>
+    </row>
+    <row r="468" spans="1:1" ht="13">
+      <c r="A468" s="4"/>
+    </row>
+    <row r="469" spans="1:1" ht="13">
+      <c r="A469" s="4"/>
+    </row>
+    <row r="470" spans="1:1" ht="13">
+      <c r="A470" s="4"/>
+    </row>
+    <row r="471" spans="1:1" ht="13">
+      <c r="A471" s="4"/>
+    </row>
+    <row r="472" spans="1:1" ht="13">
+      <c r="A472" s="4"/>
+    </row>
+    <row r="473" spans="1:1" ht="13">
+      <c r="A473" s="4"/>
+    </row>
+    <row r="474" spans="1:1" ht="13">
+      <c r="A474" s="4"/>
+    </row>
+    <row r="475" spans="1:1" ht="13">
+      <c r="A475" s="4"/>
+    </row>
+    <row r="476" spans="1:1" ht="13">
+      <c r="A476" s="4"/>
+    </row>
+    <row r="477" spans="1:1" ht="13">
+      <c r="A477" s="4"/>
+    </row>
+    <row r="478" spans="1:1" ht="13">
+      <c r="A478" s="4"/>
+    </row>
+    <row r="479" spans="1:1" ht="13">
+      <c r="A479" s="4"/>
+    </row>
+    <row r="480" spans="1:1" ht="13">
+      <c r="A480" s="4"/>
+    </row>
+    <row r="481" spans="1:1" ht="13">
+      <c r="A481" s="4"/>
+    </row>
+    <row r="482" spans="1:1" ht="13">
+      <c r="A482" s="4"/>
+    </row>
+    <row r="483" spans="1:1" ht="13">
+      <c r="A483" s="4"/>
+    </row>
+    <row r="484" spans="1:1" ht="13">
+      <c r="A484" s="4"/>
+    </row>
+    <row r="485" spans="1:1" ht="13">
+      <c r="A485" s="4"/>
+    </row>
+    <row r="486" spans="1:1" ht="13">
+      <c r="A486" s="4"/>
+    </row>
+    <row r="487" spans="1:1" ht="13">
+      <c r="A487" s="4"/>
+    </row>
+    <row r="488" spans="1:1" ht="13">
+      <c r="A488" s="4"/>
+    </row>
+    <row r="489" spans="1:1" ht="13">
+      <c r="A489" s="4"/>
+    </row>
+    <row r="490" spans="1:1" ht="13">
+      <c r="A490" s="4"/>
+    </row>
+    <row r="491" spans="1:1" ht="13">
+      <c r="A491" s="4"/>
+    </row>
+    <row r="492" spans="1:1" ht="13">
+      <c r="A492" s="4"/>
+    </row>
+    <row r="493" spans="1:1" ht="13">
+      <c r="A493" s="4"/>
+    </row>
+    <row r="494" spans="1:1" ht="13">
+      <c r="A494" s="4"/>
+    </row>
+    <row r="495" spans="1:1" ht="13">
+      <c r="A495" s="4"/>
+    </row>
+    <row r="496" spans="1:1" ht="13">
+      <c r="A496" s="4"/>
+    </row>
+    <row r="497" spans="1:1" ht="13">
+      <c r="A497" s="4"/>
+    </row>
+    <row r="498" spans="1:1" ht="13">
+      <c r="A498" s="4"/>
+    </row>
+    <row r="499" spans="1:1" ht="13">
+      <c r="A499" s="4"/>
+    </row>
+    <row r="500" spans="1:1" ht="13">
+      <c r="A500" s="4"/>
+    </row>
+    <row r="501" spans="1:1" ht="13">
+      <c r="A501" s="4"/>
+    </row>
+    <row r="502" spans="1:1" ht="13">
+      <c r="A502" s="4"/>
+    </row>
+    <row r="503" spans="1:1" ht="13">
+      <c r="A503" s="4"/>
+    </row>
+    <row r="504" spans="1:1" ht="13">
+      <c r="A504" s="4"/>
+    </row>
+    <row r="505" spans="1:1" ht="13">
+      <c r="A505" s="4"/>
+    </row>
+    <row r="506" spans="1:1" ht="13">
+      <c r="A506" s="4"/>
+    </row>
+    <row r="507" spans="1:1" ht="13">
+      <c r="A507" s="4"/>
+    </row>
+    <row r="508" spans="1:1" ht="13">
+      <c r="A508" s="4"/>
+    </row>
+    <row r="509" spans="1:1" ht="13">
+      <c r="A509" s="4"/>
+    </row>
+    <row r="510" spans="1:1" ht="13">
+      <c r="A510" s="4"/>
+    </row>
+    <row r="511" spans="1:1" ht="13">
+      <c r="A511" s="4"/>
+    </row>
+    <row r="512" spans="1:1" ht="13">
+      <c r="A512" s="4"/>
+    </row>
+    <row r="513" spans="1:1" ht="13">
+      <c r="A513" s="4"/>
+    </row>
+    <row r="514" spans="1:1" ht="13">
+      <c r="A514" s="4"/>
+    </row>
+    <row r="515" spans="1:1" ht="13">
+      <c r="A515" s="4"/>
+    </row>
+    <row r="516" spans="1:1" ht="13">
+      <c r="A516" s="4"/>
+    </row>
+    <row r="517" spans="1:1" ht="13">
+      <c r="A517" s="4"/>
+    </row>
+    <row r="518" spans="1:1" ht="13">
+      <c r="A518" s="4"/>
+    </row>
+    <row r="519" spans="1:1" ht="13">
+      <c r="A519" s="4"/>
+    </row>
+    <row r="520" spans="1:1" ht="13">
+      <c r="A520" s="4"/>
+    </row>
+    <row r="521" spans="1:1" ht="13">
+      <c r="A521" s="4"/>
+    </row>
+    <row r="522" spans="1:1" ht="13">
+      <c r="A522" s="4"/>
+    </row>
+    <row r="523" spans="1:1" ht="13">
+      <c r="A523" s="4"/>
+    </row>
+    <row r="524" spans="1:1" ht="13">
+      <c r="A524" s="4"/>
+    </row>
+    <row r="525" spans="1:1" ht="13">
+      <c r="A525" s="4"/>
+    </row>
+    <row r="526" spans="1:1" ht="13">
+      <c r="A526" s="4"/>
+    </row>
+    <row r="527" spans="1:1" ht="13">
+      <c r="A527" s="4"/>
+    </row>
+    <row r="528" spans="1:1" ht="13">
+      <c r="A528" s="4"/>
+    </row>
+    <row r="529" spans="1:1" ht="13">
+      <c r="A529" s="4"/>
+    </row>
+    <row r="530" spans="1:1" ht="13">
+      <c r="A530" s="4"/>
+    </row>
+    <row r="531" spans="1:1" ht="13">
+      <c r="A531" s="4"/>
+    </row>
+    <row r="532" spans="1:1" ht="13">
+      <c r="A532" s="4"/>
+    </row>
+    <row r="533" spans="1:1" ht="13">
+      <c r="A533" s="4"/>
+    </row>
+    <row r="534" spans="1:1" ht="13">
+      <c r="A534" s="4"/>
+    </row>
+    <row r="535" spans="1:1" ht="13">
+      <c r="A535" s="4"/>
+    </row>
+    <row r="536" spans="1:1" ht="13">
+      <c r="A536" s="4"/>
+    </row>
+    <row r="537" spans="1:1" ht="13">
+      <c r="A537" s="4"/>
+    </row>
+    <row r="538" spans="1:1" ht="13">
+      <c r="A538" s="4"/>
+    </row>
+    <row r="539" spans="1:1" ht="13">
+      <c r="A539" s="4"/>
+    </row>
+    <row r="540" spans="1:1" ht="13">
+      <c r="A540" s="4"/>
+    </row>
+    <row r="541" spans="1:1" ht="13">
+      <c r="A541" s="4"/>
+    </row>
+    <row r="542" spans="1:1" ht="13">
+      <c r="A542" s="4"/>
+    </row>
+    <row r="543" spans="1:1" ht="13">
+      <c r="A543" s="4"/>
+    </row>
+    <row r="544" spans="1:1" ht="13">
+      <c r="A544" s="4"/>
+    </row>
+    <row r="545" spans="1:1" ht="13">
+      <c r="A545" s="4"/>
+    </row>
+    <row r="546" spans="1:1" ht="13">
+      <c r="A546" s="4"/>
+    </row>
+    <row r="547" spans="1:1" ht="13">
+      <c r="A547" s="4"/>
+    </row>
+    <row r="548" spans="1:1" ht="13">
+      <c r="A548" s="4"/>
+    </row>
+    <row r="549" spans="1:1" ht="13">
+      <c r="A549" s="4"/>
+    </row>
+    <row r="550" spans="1:1" ht="13">
+      <c r="A550" s="4"/>
+    </row>
+    <row r="551" spans="1:1" ht="13">
+      <c r="A551" s="4"/>
+    </row>
+    <row r="552" spans="1:1" ht="13">
+      <c r="A552" s="4"/>
+    </row>
+    <row r="553" spans="1:1" ht="13">
+      <c r="A553" s="4"/>
+    </row>
+    <row r="554" spans="1:1" ht="13">
+      <c r="A554" s="4"/>
+    </row>
+    <row r="555" spans="1:1" ht="13">
+      <c r="A555" s="4"/>
+    </row>
+    <row r="556" spans="1:1" ht="13">
+      <c r="A556" s="4"/>
+    </row>
+    <row r="557" spans="1:1" ht="13">
+      <c r="A557" s="4"/>
+    </row>
+    <row r="558" spans="1:1" ht="13">
+      <c r="A558" s="4"/>
+    </row>
+    <row r="559" spans="1:1" ht="13">
+      <c r="A559" s="4"/>
+    </row>
+    <row r="560" spans="1:1" ht="13">
+      <c r="A560" s="4"/>
+    </row>
+    <row r="561" spans="1:1" ht="13">
+      <c r="A561" s="4"/>
+    </row>
+    <row r="562" spans="1:1" ht="13">
+      <c r="A562" s="4"/>
+    </row>
+    <row r="563" spans="1:1" ht="13">
+      <c r="A563" s="4"/>
+    </row>
+    <row r="564" spans="1:1" ht="13">
+      <c r="A564" s="4"/>
+    </row>
+    <row r="565" spans="1:1" ht="13">
+      <c r="A565" s="4"/>
+    </row>
+    <row r="566" spans="1:1" ht="13">
+      <c r="A566" s="4"/>
+    </row>
+    <row r="567" spans="1:1" ht="13">
+      <c r="A567" s="4"/>
+    </row>
+    <row r="568" spans="1:1" ht="13">
+      <c r="A568" s="4"/>
+    </row>
+    <row r="569" spans="1:1" ht="13">
+      <c r="A569" s="4"/>
+    </row>
+    <row r="570" spans="1:1" ht="13">
+      <c r="A570" s="4"/>
+    </row>
+    <row r="571" spans="1:1" ht="13">
+      <c r="A571" s="4"/>
+    </row>
+    <row r="572" spans="1:1" ht="13">
+      <c r="A572" s="4"/>
+    </row>
+    <row r="573" spans="1:1" ht="13">
+      <c r="A573" s="4"/>
+    </row>
+    <row r="574" spans="1:1" ht="13">
+      <c r="A574" s="4"/>
+    </row>
+    <row r="575" spans="1:1" ht="13">
+      <c r="A575" s="4"/>
+    </row>
+    <row r="576" spans="1:1" ht="13">
+      <c r="A576" s="4"/>
+    </row>
+    <row r="577" spans="1:1" ht="13">
+      <c r="A577" s="4"/>
+    </row>
+    <row r="578" spans="1:1" ht="13">
+      <c r="A578" s="4"/>
+    </row>
+    <row r="579" spans="1:1" ht="13">
+      <c r="A579" s="4"/>
+    </row>
+    <row r="580" spans="1:1" ht="13">
+      <c r="A580" s="4"/>
+    </row>
+    <row r="581" spans="1:1" ht="13">
+      <c r="A581" s="4"/>
+    </row>
+    <row r="582" spans="1:1" ht="13">
+      <c r="A582" s="4"/>
+    </row>
+    <row r="583" spans="1:1" ht="13">
+      <c r="A583" s="4"/>
+    </row>
+    <row r="584" spans="1:1" ht="13">
+      <c r="A584" s="4"/>
+    </row>
+    <row r="585" spans="1:1" ht="13">
+      <c r="A585" s="4"/>
+    </row>
+    <row r="586" spans="1:1" ht="13">
+      <c r="A586" s="4"/>
+    </row>
+    <row r="587" spans="1:1" ht="13">
+      <c r="A587" s="4"/>
+    </row>
+    <row r="588" spans="1:1" ht="13">
+      <c r="A588" s="4"/>
+    </row>
+    <row r="589" spans="1:1" ht="13">
+      <c r="A589" s="4"/>
+    </row>
+    <row r="590" spans="1:1" ht="13">
+      <c r="A590" s="4"/>
+    </row>
+    <row r="591" spans="1:1" ht="13">
+      <c r="A591" s="4"/>
+    </row>
+    <row r="592" spans="1:1" ht="13">
+      <c r="A592" s="4"/>
+    </row>
+    <row r="593" spans="1:1" ht="13">
+      <c r="A593" s="4"/>
+    </row>
+    <row r="594" spans="1:1" ht="13">
+      <c r="A594" s="4"/>
+    </row>
+    <row r="595" spans="1:1" ht="13">
+      <c r="A595" s="4"/>
+    </row>
+    <row r="596" spans="1:1" ht="13">
+      <c r="A596" s="4"/>
+    </row>
+    <row r="597" spans="1:1" ht="13">
+      <c r="A597" s="4"/>
+    </row>
+    <row r="598" spans="1:1" ht="13">
+      <c r="A598" s="4"/>
+    </row>
+    <row r="599" spans="1:1" ht="13">
+      <c r="A599" s="4"/>
+    </row>
+    <row r="600" spans="1:1" ht="13">
+      <c r="A600" s="4"/>
+    </row>
+    <row r="601" spans="1:1" ht="13">
+      <c r="A601" s="4"/>
+    </row>
+    <row r="602" spans="1:1" ht="13">
+      <c r="A602" s="4"/>
+    </row>
+    <row r="603" spans="1:1" ht="13">
+      <c r="A603" s="4"/>
+    </row>
+    <row r="604" spans="1:1" ht="13">
+      <c r="A604" s="4"/>
+    </row>
+    <row r="605" spans="1:1" ht="13">
+      <c r="A605" s="4"/>
+    </row>
+    <row r="606" spans="1:1" ht="13">
+      <c r="A606" s="4"/>
+    </row>
+    <row r="607" spans="1:1" ht="13">
+      <c r="A607" s="4"/>
+    </row>
+    <row r="608" spans="1:1" ht="13">
+      <c r="A608" s="4"/>
+    </row>
+    <row r="609" spans="1:1" ht="13">
+      <c r="A609" s="4"/>
+    </row>
+    <row r="610" spans="1:1" ht="13">
+      <c r="A610" s="4"/>
+    </row>
+    <row r="611" spans="1:1" ht="13">
+      <c r="A611" s="4"/>
+    </row>
+    <row r="612" spans="1:1" ht="13">
+      <c r="A612" s="4"/>
+    </row>
+    <row r="613" spans="1:1" ht="13">
+      <c r="A613" s="4"/>
+    </row>
+    <row r="614" spans="1:1" ht="13">
+      <c r="A614" s="4"/>
+    </row>
+    <row r="615" spans="1:1" ht="13">
+      <c r="A615" s="4"/>
+    </row>
+    <row r="616" spans="1:1" ht="13">
+      <c r="A616" s="4"/>
+    </row>
+    <row r="617" spans="1:1" ht="13">
+      <c r="A617" s="4"/>
+    </row>
+    <row r="618" spans="1:1" ht="13">
+      <c r="A618" s="4"/>
+    </row>
+    <row r="619" spans="1:1" ht="13">
+      <c r="A619" s="4"/>
+    </row>
+    <row r="620" spans="1:1" ht="13">
+      <c r="A620" s="4"/>
+    </row>
+    <row r="621" spans="1:1" ht="13">
+      <c r="A621" s="4"/>
+    </row>
+    <row r="622" spans="1:1" ht="13">
+      <c r="A622" s="4"/>
+    </row>
+    <row r="623" spans="1:1" ht="13">
+      <c r="A623" s="4"/>
+    </row>
+    <row r="624" spans="1:1" ht="13">
+      <c r="A624" s="4"/>
+    </row>
+    <row r="625" spans="1:1" ht="13">
+      <c r="A625" s="4"/>
+    </row>
+    <row r="626" spans="1:1" ht="13">
+      <c r="A626" s="4"/>
+    </row>
+    <row r="627" spans="1:1" ht="13">
+      <c r="A627" s="4"/>
+    </row>
+    <row r="628" spans="1:1" ht="13">
+      <c r="A628" s="4"/>
+    </row>
+    <row r="629" spans="1:1" ht="13">
+      <c r="A629" s="4"/>
+    </row>
+    <row r="630" spans="1:1" ht="13">
+      <c r="A630" s="4"/>
+    </row>
+    <row r="631" spans="1:1" ht="13">
+      <c r="A631" s="4"/>
+    </row>
+    <row r="632" spans="1:1" ht="13">
+      <c r="A632" s="4"/>
+    </row>
+    <row r="633" spans="1:1" ht="13">
+      <c r="A633" s="4"/>
+    </row>
+    <row r="634" spans="1:1" ht="13">
+      <c r="A634" s="4"/>
+    </row>
+    <row r="635" spans="1:1" ht="13">
+      <c r="A635" s="4"/>
+    </row>
+    <row r="636" spans="1:1" ht="13">
+      <c r="A636" s="4"/>
+    </row>
+    <row r="637" spans="1:1" ht="13">
+      <c r="A637" s="4"/>
+    </row>
+    <row r="638" spans="1:1" ht="13">
+      <c r="A638" s="4"/>
+    </row>
+    <row r="639" spans="1:1" ht="13">
+      <c r="A639" s="4"/>
+    </row>
+    <row r="640" spans="1:1" ht="13">
+      <c r="A640" s="4"/>
+    </row>
+    <row r="641" spans="1:1" ht="13">
+      <c r="A641" s="4"/>
+    </row>
+    <row r="642" spans="1:1" ht="13">
+      <c r="A642" s="4"/>
+    </row>
+    <row r="643" spans="1:1" ht="13">
+      <c r="A643" s="4"/>
+    </row>
+    <row r="644" spans="1:1" ht="13">
+      <c r="A644" s="4"/>
+    </row>
+    <row r="645" spans="1:1" ht="13">
+      <c r="A645" s="4"/>
+    </row>
+    <row r="646" spans="1:1" ht="13">
+      <c r="A646" s="4"/>
+    </row>
+    <row r="647" spans="1:1" ht="13">
+      <c r="A647" s="4"/>
+    </row>
+    <row r="648" spans="1:1" ht="13">
+      <c r="A648" s="4"/>
+    </row>
+    <row r="649" spans="1:1" ht="13">
+      <c r="A649" s="4"/>
+    </row>
+    <row r="650" spans="1:1" ht="13">
+      <c r="A650" s="4"/>
+    </row>
+    <row r="651" spans="1:1" ht="13">
+      <c r="A651" s="4"/>
+    </row>
+    <row r="652" spans="1:1" ht="13">
+      <c r="A652" s="4"/>
+    </row>
+    <row r="653" spans="1:1" ht="13">
+      <c r="A653" s="4"/>
+    </row>
+    <row r="654" spans="1:1" ht="13">
+      <c r="A654" s="4"/>
+    </row>
+    <row r="655" spans="1:1" ht="13">
+      <c r="A655" s="4"/>
+    </row>
+    <row r="656" spans="1:1" ht="13">
+      <c r="A656" s="4"/>
+    </row>
+    <row r="657" spans="1:1" ht="13">
+      <c r="A657" s="4"/>
+    </row>
+    <row r="658" spans="1:1" ht="13">
+      <c r="A658" s="4"/>
+    </row>
+    <row r="659" spans="1:1" ht="13">
+      <c r="A659" s="4"/>
+    </row>
+    <row r="660" spans="1:1" ht="13">
+      <c r="A660" s="4"/>
+    </row>
+    <row r="661" spans="1:1" ht="13">
+      <c r="A661" s="4"/>
+    </row>
+    <row r="662" spans="1:1" ht="13">
+      <c r="A662" s="4"/>
+    </row>
+    <row r="663" spans="1:1" ht="13">
+      <c r="A663" s="4"/>
+    </row>
+    <row r="664" spans="1:1" ht="13">
+      <c r="A664" s="4"/>
+    </row>
+    <row r="665" spans="1:1" ht="13">
+      <c r="A665" s="4"/>
+    </row>
+    <row r="666" spans="1:1" ht="13">
+      <c r="A666" s="4"/>
+    </row>
+    <row r="667" spans="1:1" ht="13">
+      <c r="A667" s="4"/>
+    </row>
+    <row r="668" spans="1:1" ht="13">
+      <c r="A668" s="4"/>
+    </row>
+    <row r="669" spans="1:1" ht="13">
+      <c r="A669" s="4"/>
+    </row>
+    <row r="670" spans="1:1" ht="13">
+      <c r="A670" s="4"/>
+    </row>
+    <row r="671" spans="1:1" ht="13">
+      <c r="A671" s="4"/>
+    </row>
+    <row r="672" spans="1:1" ht="13">
+      <c r="A672" s="4"/>
+    </row>
+    <row r="673" spans="1:1" ht="13">
+      <c r="A673" s="4"/>
+    </row>
+    <row r="674" spans="1:1" ht="13">
+      <c r="A674" s="4"/>
+    </row>
+    <row r="675" spans="1:1" ht="13">
+      <c r="A675" s="4"/>
+    </row>
+    <row r="676" spans="1:1" ht="13">
+      <c r="A676" s="4"/>
+    </row>
+    <row r="677" spans="1:1" ht="13">
+      <c r="A677" s="4"/>
+    </row>
+    <row r="678" spans="1:1" ht="13">
+      <c r="A678" s="4"/>
+    </row>
+    <row r="679" spans="1:1" ht="13">
+      <c r="A679" s="4"/>
+    </row>
+    <row r="680" spans="1:1" ht="13">
+      <c r="A680" s="4"/>
+    </row>
+    <row r="681" spans="1:1" ht="13">
+      <c r="A681" s="4"/>
+    </row>
+    <row r="682" spans="1:1" ht="13">
+      <c r="A682" s="4"/>
+    </row>
+    <row r="683" spans="1:1" ht="13">
+      <c r="A683" s="4"/>
+    </row>
+    <row r="684" spans="1:1" ht="13">
+      <c r="A684" s="4"/>
+    </row>
+    <row r="685" spans="1:1" ht="13">
+      <c r="A685" s="4"/>
+    </row>
+    <row r="686" spans="1:1" ht="13">
+      <c r="A686" s="4"/>
+    </row>
+    <row r="687" spans="1:1" ht="13">
+      <c r="A687" s="4"/>
+    </row>
+    <row r="688" spans="1:1" ht="13">
+      <c r="A688" s="4"/>
+    </row>
+    <row r="689" spans="1:1" ht="13">
+      <c r="A689" s="4"/>
+    </row>
+    <row r="690" spans="1:1" ht="13">
+      <c r="A690" s="4"/>
+    </row>
+    <row r="691" spans="1:1" ht="13">
+      <c r="A691" s="4"/>
+    </row>
+    <row r="692" spans="1:1" ht="13">
+      <c r="A692" s="4"/>
+    </row>
+    <row r="693" spans="1:1" ht="13">
+      <c r="A693" s="4"/>
+    </row>
+    <row r="694" spans="1:1" ht="13">
+      <c r="A694" s="4"/>
+    </row>
+    <row r="695" spans="1:1" ht="13">
+      <c r="A695" s="4"/>
+    </row>
+    <row r="696" spans="1:1" ht="13">
+      <c r="A696" s="4"/>
+    </row>
+    <row r="697" spans="1:1" ht="13">
+      <c r="A697" s="4"/>
+    </row>
+    <row r="698" spans="1:1" ht="13">
+      <c r="A698" s="4"/>
+    </row>
+    <row r="699" spans="1:1" ht="13">
+      <c r="A699" s="4"/>
+    </row>
+    <row r="700" spans="1:1" ht="13">
+      <c r="A700" s="4"/>
+    </row>
+    <row r="701" spans="1:1" ht="13">
+      <c r="A701" s="4"/>
+    </row>
+    <row r="702" spans="1:1" ht="13">
+      <c r="A702" s="4"/>
+    </row>
+    <row r="703" spans="1:1" ht="13">
+      <c r="A703" s="4"/>
+    </row>
+    <row r="704" spans="1:1" ht="13">
+      <c r="A704" s="4"/>
+    </row>
+    <row r="705" spans="1:1" ht="13">
+      <c r="A705" s="4"/>
+    </row>
+    <row r="706" spans="1:1" ht="13">
+      <c r="A706" s="4"/>
+    </row>
+    <row r="707" spans="1:1" ht="13">
+      <c r="A707" s="4"/>
+    </row>
+    <row r="708" spans="1:1" ht="13">
+      <c r="A708" s="4"/>
+    </row>
+    <row r="709" spans="1:1" ht="13">
+      <c r="A709" s="4"/>
+    </row>
+    <row r="710" spans="1:1" ht="13">
+      <c r="A710" s="4"/>
+    </row>
+    <row r="711" spans="1:1" ht="13">
+      <c r="A711" s="4"/>
+    </row>
+    <row r="712" spans="1:1" ht="13">
+      <c r="A712" s="4"/>
+    </row>
+    <row r="713" spans="1:1" ht="13">
+      <c r="A713" s="4"/>
+    </row>
+    <row r="714" spans="1:1" ht="13">
+      <c r="A714" s="4"/>
+    </row>
+    <row r="715" spans="1:1" ht="13">
+      <c r="A715" s="4"/>
+    </row>
+    <row r="716" spans="1:1" ht="13">
+      <c r="A716" s="4"/>
+    </row>
+    <row r="717" spans="1:1" ht="13">
+      <c r="A717" s="4"/>
+    </row>
+    <row r="718" spans="1:1" ht="13">
+      <c r="A718" s="4"/>
+    </row>
+    <row r="719" spans="1:1" ht="13">
+      <c r="A719" s="4"/>
+    </row>
+    <row r="720" spans="1:1" ht="13">
+      <c r="A720" s="4"/>
+    </row>
+    <row r="721" spans="1:1" ht="13">
+      <c r="A721" s="4"/>
+    </row>
+    <row r="722" spans="1:1" ht="13">
+      <c r="A722" s="4"/>
+    </row>
+    <row r="723" spans="1:1" ht="13">
+      <c r="A723" s="4"/>
+    </row>
+    <row r="724" spans="1:1" ht="13">
+      <c r="A724" s="4"/>
+    </row>
+    <row r="725" spans="1:1" ht="13">
+      <c r="A725" s="4"/>
+    </row>
+    <row r="726" spans="1:1" ht="13">
+      <c r="A726" s="4"/>
+    </row>
+    <row r="727" spans="1:1" ht="13">
+      <c r="A727" s="4"/>
+    </row>
+    <row r="728" spans="1:1" ht="13">
+      <c r="A728" s="4"/>
+    </row>
+    <row r="729" spans="1:1" ht="13">
+      <c r="A729" s="4"/>
+    </row>
+    <row r="730" spans="1:1" ht="13">
+      <c r="A730" s="4"/>
+    </row>
+    <row r="731" spans="1:1" ht="13">
+      <c r="A731" s="4"/>
+    </row>
+    <row r="732" spans="1:1" ht="13">
+      <c r="A732" s="4"/>
+    </row>
+    <row r="733" spans="1:1" ht="13">
+      <c r="A733" s="4"/>
+    </row>
+    <row r="734" spans="1:1" ht="13">
+      <c r="A734" s="4"/>
+    </row>
+    <row r="735" spans="1:1" ht="13">
+      <c r="A735" s="4"/>
+    </row>
+    <row r="736" spans="1:1" ht="13">
+      <c r="A736" s="4"/>
+    </row>
+    <row r="737" spans="1:1" ht="13">
+      <c r="A737" s="4"/>
+    </row>
+    <row r="738" spans="1:1" ht="13">
+      <c r="A738" s="4"/>
+    </row>
+    <row r="739" spans="1:1" ht="13">
+      <c r="A739" s="4"/>
+    </row>
+    <row r="740" spans="1:1" ht="13">
+      <c r="A740" s="4"/>
+    </row>
+    <row r="741" spans="1:1" ht="13">
+      <c r="A741" s="4"/>
+    </row>
+    <row r="742" spans="1:1" ht="13">
+      <c r="A742" s="4"/>
+    </row>
+    <row r="743" spans="1:1" ht="13">
+      <c r="A743" s="4"/>
+    </row>
+    <row r="744" spans="1:1" ht="13">
+      <c r="A744" s="4"/>
+    </row>
+    <row r="745" spans="1:1" ht="13">
+      <c r="A745" s="4"/>
+    </row>
+    <row r="746" spans="1:1" ht="13">
+      <c r="A746" s="4"/>
+    </row>
+    <row r="747" spans="1:1" ht="13">
+      <c r="A747" s="4"/>
+    </row>
+    <row r="748" spans="1:1" ht="13">
+      <c r="A748" s="4"/>
+    </row>
+    <row r="749" spans="1:1" ht="13">
+      <c r="A749" s="4"/>
+    </row>
+    <row r="750" spans="1:1" ht="13">
+      <c r="A750" s="4"/>
+    </row>
+    <row r="751" spans="1:1" ht="13">
+      <c r="A751" s="4"/>
+    </row>
+    <row r="752" spans="1:1" ht="13">
+      <c r="A752" s="4"/>
+    </row>
+    <row r="753" spans="1:1" ht="13">
+      <c r="A753" s="4"/>
+    </row>
+    <row r="754" spans="1:1" ht="13">
+      <c r="A754" s="4"/>
+    </row>
+    <row r="755" spans="1:1" ht="13">
+      <c r="A755" s="4"/>
+    </row>
+    <row r="756" spans="1:1" ht="13">
+      <c r="A756" s="4"/>
+    </row>
+    <row r="757" spans="1:1" ht="13">
+      <c r="A757" s="4"/>
+    </row>
+    <row r="758" spans="1:1" ht="13">
+      <c r="A758" s="4"/>
+    </row>
+    <row r="759" spans="1:1" ht="13">
+      <c r="A759" s="4"/>
+    </row>
+    <row r="760" spans="1:1" ht="13">
+      <c r="A760" s="4"/>
+    </row>
+    <row r="761" spans="1:1" ht="13">
+      <c r="A761" s="4"/>
+    </row>
+    <row r="762" spans="1:1" ht="13">
+      <c r="A762" s="4"/>
+    </row>
+    <row r="763" spans="1:1" ht="13">
+      <c r="A763" s="4"/>
+    </row>
+    <row r="764" spans="1:1" ht="13">
+      <c r="A764" s="4"/>
+    </row>
+    <row r="765" spans="1:1" ht="13">
+      <c r="A765" s="4"/>
+    </row>
+    <row r="766" spans="1:1" ht="13">
+      <c r="A766" s="4"/>
+    </row>
+    <row r="767" spans="1:1" ht="13">
+      <c r="A767" s="4"/>
+    </row>
+    <row r="768" spans="1:1" ht="13">
+      <c r="A768" s="4"/>
+    </row>
+    <row r="769" spans="1:1" ht="13">
+      <c r="A769" s="4"/>
+    </row>
+    <row r="770" spans="1:1" ht="13">
+      <c r="A770" s="4"/>
+    </row>
+    <row r="771" spans="1:1" ht="13">
+      <c r="A771" s="4"/>
+    </row>
+    <row r="772" spans="1:1" ht="13">
+      <c r="A772" s="4"/>
+    </row>
+    <row r="773" spans="1:1" ht="13">
+      <c r="A773" s="4"/>
+    </row>
+    <row r="774" spans="1:1" ht="13">
+      <c r="A774" s="4"/>
+    </row>
+    <row r="775" spans="1:1" ht="13">
+      <c r="A775" s="4"/>
+    </row>
+    <row r="776" spans="1:1" ht="13">
+      <c r="A776" s="4"/>
+    </row>
+    <row r="777" spans="1:1" ht="13">
+      <c r="A777" s="4"/>
+    </row>
+    <row r="778" spans="1:1" ht="13">
+      <c r="A778" s="4"/>
+    </row>
+    <row r="779" spans="1:1" ht="13">
+      <c r="A779" s="4"/>
+    </row>
+    <row r="780" spans="1:1" ht="13">
+      <c r="A780" s="4"/>
+    </row>
+    <row r="781" spans="1:1" ht="13">
+      <c r="A781" s="4"/>
+    </row>
+    <row r="782" spans="1:1" ht="13">
+      <c r="A782" s="4"/>
+    </row>
+    <row r="783" spans="1:1" ht="13">
+      <c r="A783" s="4"/>
+    </row>
+    <row r="784" spans="1:1" ht="13">
+      <c r="A784" s="4"/>
+    </row>
+    <row r="785" spans="1:1" ht="13">
+      <c r="A785" s="4"/>
+    </row>
+    <row r="786" spans="1:1" ht="13">
+      <c r="A786" s="4"/>
+    </row>
+    <row r="787" spans="1:1" ht="13">
+      <c r="A787" s="4"/>
+    </row>
+    <row r="788" spans="1:1" ht="13">
+      <c r="A788" s="4"/>
+    </row>
+    <row r="789" spans="1:1" ht="13">
+      <c r="A789" s="4"/>
+    </row>
+    <row r="790" spans="1:1" ht="13">
+      <c r="A790" s="4"/>
+    </row>
+    <row r="791" spans="1:1" ht="13">
+      <c r="A791" s="4"/>
+    </row>
+    <row r="792" spans="1:1" ht="13">
+      <c r="A792" s="4"/>
+    </row>
+    <row r="793" spans="1:1" ht="13">
+      <c r="A793" s="4"/>
+    </row>
+    <row r="794" spans="1:1" ht="13">
+      <c r="A794" s="4"/>
+    </row>
+    <row r="795" spans="1:1" ht="13">
+      <c r="A795" s="4"/>
+    </row>
+    <row r="796" spans="1:1" ht="13">
+      <c r="A796" s="4"/>
+    </row>
+    <row r="797" spans="1:1" ht="13">
+      <c r="A797" s="4"/>
+    </row>
+    <row r="798" spans="1:1" ht="13">
+      <c r="A798" s="4"/>
+    </row>
+    <row r="799" spans="1:1" ht="13">
+      <c r="A799" s="4"/>
+    </row>
+    <row r="800" spans="1:1" ht="13">
+      <c r="A800" s="4"/>
+    </row>
+    <row r="801" spans="1:1" ht="13">
+      <c r="A801" s="4"/>
+    </row>
+    <row r="802" spans="1:1" ht="13">
+      <c r="A802" s="4"/>
+    </row>
+    <row r="803" spans="1:1" ht="13">
+      <c r="A803" s="4"/>
+    </row>
+    <row r="804" spans="1:1" ht="13">
+      <c r="A804" s="4"/>
+    </row>
+    <row r="805" spans="1:1" ht="13">
+      <c r="A805" s="4"/>
+    </row>
+    <row r="806" spans="1:1" ht="13">
+      <c r="A806" s="4"/>
+    </row>
+    <row r="807" spans="1:1" ht="13">
+      <c r="A807" s="4"/>
+    </row>
+    <row r="808" spans="1:1" ht="13">
+      <c r="A808" s="4"/>
+    </row>
+    <row r="809" spans="1:1" ht="13">
+      <c r="A809" s="4"/>
+    </row>
+    <row r="810" spans="1:1" ht="13">
+      <c r="A810" s="4"/>
+    </row>
+    <row r="811" spans="1:1" ht="13">
+      <c r="A811" s="4"/>
+    </row>
+    <row r="812" spans="1:1" ht="13">
+      <c r="A812" s="4"/>
+    </row>
+    <row r="813" spans="1:1" ht="13">
+      <c r="A813" s="4"/>
+    </row>
+    <row r="814" spans="1:1" ht="13">
+      <c r="A814" s="4"/>
+    </row>
+    <row r="815" spans="1:1" ht="13">
+      <c r="A815" s="4"/>
+    </row>
+    <row r="816" spans="1:1" ht="13">
+      <c r="A816" s="4"/>
+    </row>
+    <row r="817" spans="1:1" ht="13">
+      <c r="A817" s="4"/>
+    </row>
+    <row r="818" spans="1:1" ht="13">
+      <c r="A818" s="4"/>
+    </row>
+    <row r="819" spans="1:1" ht="13">
+      <c r="A819" s="4"/>
+    </row>
+    <row r="820" spans="1:1" ht="13">
+      <c r="A820" s="4"/>
+    </row>
+    <row r="821" spans="1:1" ht="13">
+      <c r="A821" s="4"/>
+    </row>
+    <row r="822" spans="1:1" ht="13">
+      <c r="A822" s="4"/>
+    </row>
+    <row r="823" spans="1:1" ht="13">
+      <c r="A823" s="4"/>
+    </row>
+    <row r="824" spans="1:1" ht="13">
+      <c r="A824" s="4"/>
+    </row>
+    <row r="825" spans="1:1" ht="13">
+      <c r="A825" s="4"/>
+    </row>
+    <row r="826" spans="1:1" ht="13">
+      <c r="A826" s="4"/>
+    </row>
+    <row r="827" spans="1:1" ht="13">
+      <c r="A827" s="4"/>
+    </row>
+    <row r="828" spans="1:1" ht="13">
+      <c r="A828" s="4"/>
+    </row>
+    <row r="829" spans="1:1" ht="13">
+      <c r="A829" s="4"/>
+    </row>
+    <row r="830" spans="1:1" ht="13">
+      <c r="A830" s="4"/>
+    </row>
+    <row r="831" spans="1:1" ht="13">
+      <c r="A831" s="4"/>
+    </row>
+    <row r="832" spans="1:1" ht="13">
+      <c r="A832" s="4"/>
+    </row>
+    <row r="833" spans="1:1" ht="13">
+      <c r="A833" s="4"/>
+    </row>
+    <row r="834" spans="1:1" ht="13">
+      <c r="A834" s="4"/>
+    </row>
+    <row r="835" spans="1:1" ht="13">
+      <c r="A835" s="4"/>
+    </row>
+    <row r="836" spans="1:1" ht="13">
+      <c r="A836" s="4"/>
+    </row>
+    <row r="837" spans="1:1" ht="13">
+      <c r="A837" s="4"/>
+    </row>
+    <row r="838" spans="1:1" ht="13">
+      <c r="A838" s="4"/>
+    </row>
+    <row r="839" spans="1:1" ht="13">
+      <c r="A839" s="4"/>
+    </row>
+    <row r="840" spans="1:1" ht="13">
+      <c r="A840" s="4"/>
+    </row>
+    <row r="841" spans="1:1" ht="13">
+      <c r="A841" s="4"/>
+    </row>
+    <row r="842" spans="1:1" ht="13">
+      <c r="A842" s="4"/>
+    </row>
+    <row r="843" spans="1:1" ht="13">
+      <c r="A843" s="4"/>
+    </row>
+    <row r="844" spans="1:1" ht="13">
+      <c r="A844" s="4"/>
+    </row>
+    <row r="845" spans="1:1" ht="13">
+      <c r="A845" s="4"/>
+    </row>
+    <row r="846" spans="1:1" ht="13">
+      <c r="A846" s="4"/>
+    </row>
+    <row r="847" spans="1:1" ht="13">
+      <c r="A847" s="4"/>
+    </row>
+    <row r="848" spans="1:1" ht="13">
+      <c r="A848" s="4"/>
+    </row>
+    <row r="849" spans="1:1" ht="13">
+      <c r="A849" s="4"/>
+    </row>
+    <row r="850" spans="1:1" ht="13">
+      <c r="A850" s="4"/>
+    </row>
+    <row r="851" spans="1:1" ht="13">
+      <c r="A851" s="4"/>
+    </row>
+    <row r="852" spans="1:1" ht="13">
+      <c r="A852" s="4"/>
+    </row>
+    <row r="853" spans="1:1" ht="13">
+      <c r="A853" s="4"/>
+    </row>
+    <row r="854" spans="1:1" ht="13">
+      <c r="A854" s="4"/>
+    </row>
+    <row r="855" spans="1:1" ht="13">
+      <c r="A855" s="4"/>
+    </row>
+    <row r="856" spans="1:1" ht="13">
+      <c r="A856" s="4"/>
+    </row>
+    <row r="857" spans="1:1" ht="13">
+      <c r="A857" s="4"/>
+    </row>
+    <row r="858" spans="1:1" ht="13">
+      <c r="A858" s="4"/>
+    </row>
+    <row r="859" spans="1:1" ht="13">
+      <c r="A859" s="4"/>
+    </row>
+    <row r="860" spans="1:1" ht="13">
+      <c r="A860" s="4"/>
+    </row>
+    <row r="861" spans="1:1" ht="13">
+      <c r="A861" s="4"/>
+    </row>
+    <row r="862" spans="1:1" ht="13">
+      <c r="A862" s="4"/>
+    </row>
+    <row r="863" spans="1:1" ht="13">
+      <c r="A863" s="4"/>
+    </row>
+    <row r="864" spans="1:1" ht="13">
+      <c r="A864" s="4"/>
+    </row>
+    <row r="865" spans="1:1" ht="13">
+      <c r="A865" s="4"/>
+    </row>
+    <row r="866" spans="1:1" ht="13">
+      <c r="A866" s="4"/>
+    </row>
+    <row r="867" spans="1:1" ht="13">
+      <c r="A867" s="4"/>
+    </row>
+    <row r="868" spans="1:1" ht="13">
+      <c r="A868" s="4"/>
+    </row>
+    <row r="869" spans="1:1" ht="13">
+      <c r="A869" s="4"/>
+    </row>
+    <row r="870" spans="1:1" ht="13">
+      <c r="A870" s="4"/>
+    </row>
+    <row r="871" spans="1:1" ht="13">
+      <c r="A871" s="4"/>
+    </row>
+    <row r="872" spans="1:1" ht="13">
+      <c r="A872" s="4"/>
+    </row>
+    <row r="873" spans="1:1" ht="13">
+      <c r="A873" s="4"/>
+    </row>
+    <row r="874" spans="1:1" ht="13">
+      <c r="A874" s="4"/>
+    </row>
+    <row r="875" spans="1:1" ht="13">
+      <c r="A875" s="4"/>
+    </row>
+    <row r="876" spans="1:1" ht="13">
+      <c r="A876" s="4"/>
+    </row>
+    <row r="877" spans="1:1" ht="13">
+      <c r="A877" s="4"/>
+    </row>
+    <row r="878" spans="1:1" ht="13">
+      <c r="A878" s="4"/>
+    </row>
+    <row r="879" spans="1:1" ht="13">
+      <c r="A879" s="4"/>
+    </row>
+    <row r="880" spans="1:1" ht="13">
+      <c r="A880" s="4"/>
+    </row>
+    <row r="881" spans="1:1" ht="13">
+      <c r="A881" s="4"/>
+    </row>
+    <row r="882" spans="1:1" ht="13">
+      <c r="A882" s="4"/>
+    </row>
+    <row r="883" spans="1:1" ht="13">
+      <c r="A883" s="4"/>
+    </row>
+    <row r="884" spans="1:1" ht="13">
+      <c r="A884" s="4"/>
+    </row>
+    <row r="885" spans="1:1" ht="13">
+      <c r="A885" s="4"/>
+    </row>
+    <row r="886" spans="1:1" ht="13">
+      <c r="A886" s="4"/>
+    </row>
+    <row r="887" spans="1:1" ht="13">
+      <c r="A887" s="4"/>
+    </row>
+    <row r="888" spans="1:1" ht="13">
+      <c r="A888" s="4"/>
+    </row>
+    <row r="889" spans="1:1" ht="13">
+      <c r="A889" s="4"/>
+    </row>
+    <row r="890" spans="1:1" ht="13">
+      <c r="A890" s="4"/>
+    </row>
+    <row r="891" spans="1:1" ht="13">
+      <c r="A891" s="4"/>
+    </row>
+    <row r="892" spans="1:1" ht="13">
+      <c r="A892" s="4"/>
+    </row>
+    <row r="893" spans="1:1" ht="13">
+      <c r="A893" s="4"/>
+    </row>
+    <row r="894" spans="1:1" ht="13">
+      <c r="A894" s="4"/>
+    </row>
+    <row r="895" spans="1:1" ht="13">
+      <c r="A895" s="4"/>
+    </row>
+    <row r="896" spans="1:1" ht="13">
+      <c r="A896" s="4"/>
+    </row>
+    <row r="897" spans="1:1" ht="13">
+      <c r="A897" s="4"/>
+    </row>
+    <row r="898" spans="1:1" ht="13">
+      <c r="A898" s="4"/>
+    </row>
+    <row r="899" spans="1:1" ht="13">
+      <c r="A899" s="4"/>
+    </row>
+    <row r="900" spans="1:1" ht="13">
+      <c r="A900" s="4"/>
+    </row>
+    <row r="901" spans="1:1" ht="13">
+      <c r="A901" s="4"/>
+    </row>
+    <row r="902" spans="1:1" ht="13">
+      <c r="A902" s="4"/>
+    </row>
+    <row r="903" spans="1:1" ht="13">
+      <c r="A903" s="4"/>
+    </row>
+    <row r="904" spans="1:1" ht="13">
+      <c r="A904" s="4"/>
+    </row>
+    <row r="905" spans="1:1" ht="13">
+      <c r="A905" s="4"/>
+    </row>
+    <row r="906" spans="1:1" ht="13">
+      <c r="A906" s="4"/>
+    </row>
+    <row r="907" spans="1:1" ht="13">
+      <c r="A907" s="4"/>
+    </row>
+    <row r="908" spans="1:1" ht="13">
+      <c r="A908" s="4"/>
+    </row>
+    <row r="909" spans="1:1" ht="13">
+      <c r="A909" s="4"/>
+    </row>
+    <row r="910" spans="1:1" ht="13">
+      <c r="A910" s="4"/>
+    </row>
+    <row r="911" spans="1:1" ht="13">
+      <c r="A911" s="4"/>
+    </row>
+    <row r="912" spans="1:1" ht="13">
+      <c r="A912" s="4"/>
+    </row>
+    <row r="913" spans="1:1" ht="13">
+      <c r="A913" s="4"/>
+    </row>
+    <row r="914" spans="1:1" ht="13">
+      <c r="A914" s="4"/>
+    </row>
+    <row r="915" spans="1:1" ht="13">
+      <c r="A915" s="4"/>
+    </row>
+    <row r="916" spans="1:1" ht="13">
+      <c r="A916" s="4"/>
+    </row>
+    <row r="917" spans="1:1" ht="13">
+      <c r="A917" s="4"/>
+    </row>
+    <row r="918" spans="1:1" ht="13">
+      <c r="A918" s="4"/>
+    </row>
+    <row r="919" spans="1:1" ht="13">
+      <c r="A919" s="4"/>
+    </row>
+    <row r="920" spans="1:1" ht="13">
+      <c r="A920" s="4"/>
+    </row>
+    <row r="921" spans="1:1" ht="13">
+      <c r="A921" s="4"/>
+    </row>
+    <row r="922" spans="1:1" ht="13">
+      <c r="A922" s="4"/>
+    </row>
+    <row r="923" spans="1:1" ht="13">
+      <c r="A923" s="4"/>
+    </row>
+    <row r="924" spans="1:1" ht="13">
+      <c r="A924" s="4"/>
+    </row>
+    <row r="925" spans="1:1" ht="13">
+      <c r="A925" s="4"/>
+    </row>
+    <row r="926" spans="1:1" ht="13">
+      <c r="A926" s="4"/>
+    </row>
+    <row r="927" spans="1:1" ht="13">
+      <c r="A927" s="4"/>
+    </row>
+    <row r="928" spans="1:1" ht="13">
+      <c r="A928" s="4"/>
+    </row>
+    <row r="929" spans="1:1" ht="13">
+      <c r="A929" s="4"/>
+    </row>
+    <row r="930" spans="1:1" ht="13">
+      <c r="A930" s="4"/>
+    </row>
+    <row r="931" spans="1:1" ht="13">
+      <c r="A931" s="4"/>
+    </row>
+    <row r="932" spans="1:1" ht="13">
+      <c r="A932" s="4"/>
+    </row>
+    <row r="933" spans="1:1" ht="13">
+      <c r="A933" s="4"/>
+    </row>
+    <row r="934" spans="1:1" ht="13">
+      <c r="A934" s="4"/>
+    </row>
+    <row r="935" spans="1:1" ht="13">
+      <c r="A935" s="4"/>
+    </row>
+    <row r="936" spans="1:1" ht="13">
+      <c r="A936" s="4"/>
+    </row>
+    <row r="937" spans="1:1" ht="13">
+      <c r="A937" s="4"/>
+    </row>
+    <row r="938" spans="1:1" ht="13">
+      <c r="A938" s="4"/>
+    </row>
+    <row r="939" spans="1:1" ht="13">
+      <c r="A939" s="4"/>
+    </row>
+    <row r="940" spans="1:1" ht="13">
+      <c r="A940" s="4"/>
+    </row>
+    <row r="941" spans="1:1" ht="13">
+      <c r="A941" s="4"/>
+    </row>
+    <row r="942" spans="1:1" ht="13">
+      <c r="A942" s="4"/>
+    </row>
+    <row r="943" spans="1:1" ht="13">
+      <c r="A943" s="4"/>
+    </row>
+    <row r="944" spans="1:1" ht="13">
+      <c r="A944" s="4"/>
+    </row>
+    <row r="945" spans="1:1" ht="13">
+      <c r="A945" s="4"/>
+    </row>
+    <row r="946" spans="1:1" ht="13">
+      <c r="A946" s="4"/>
+    </row>
+    <row r="947" spans="1:1" ht="13">
+      <c r="A947" s="4"/>
+    </row>
+    <row r="948" spans="1:1" ht="13">
+      <c r="A948" s="4"/>
+    </row>
+    <row r="949" spans="1:1" ht="13">
+      <c r="A949" s="4"/>
+    </row>
+    <row r="950" spans="1:1" ht="13">
+      <c r="A950" s="4"/>
+    </row>
+    <row r="951" spans="1:1" ht="13">
+      <c r="A951" s="4"/>
+    </row>
+    <row r="952" spans="1:1" ht="13">
+      <c r="A952" s="4"/>
+    </row>
+    <row r="953" spans="1:1" ht="13">
+      <c r="A953" s="4"/>
+    </row>
+    <row r="954" spans="1:1" ht="13">
+      <c r="A954" s="4"/>
+    </row>
+    <row r="955" spans="1:1" ht="13">
+      <c r="A955" s="4"/>
+    </row>
+    <row r="956" spans="1:1" ht="13">
+      <c r="A956" s="4"/>
+    </row>
+    <row r="957" spans="1:1" ht="13">
+      <c r="A957" s="4"/>
+    </row>
+    <row r="958" spans="1:1" ht="13">
+      <c r="A958" s="4"/>
+    </row>
+    <row r="959" spans="1:1" ht="13">
+      <c r="A959" s="4"/>
+    </row>
+    <row r="960" spans="1:1" ht="13">
+      <c r="A960" s="4"/>
+    </row>
+    <row r="961" spans="1:1" ht="13">
+      <c r="A961" s="4"/>
+    </row>
+    <row r="962" spans="1:1" ht="13">
+      <c r="A962" s="4"/>
+    </row>
+    <row r="963" spans="1:1" ht="13">
+      <c r="A963" s="4"/>
+    </row>
+    <row r="964" spans="1:1" ht="13">
+      <c r="A964" s="4"/>
+    </row>
+    <row r="965" spans="1:1" ht="13">
+      <c r="A965" s="4"/>
+    </row>
+    <row r="966" spans="1:1" ht="13">
+      <c r="A966" s="4"/>
+    </row>
+    <row r="967" spans="1:1" ht="13">
+      <c r="A967" s="4"/>
+    </row>
+    <row r="968" spans="1:1" ht="13">
+      <c r="A968" s="4"/>
+    </row>
+    <row r="969" spans="1:1" ht="13">
+      <c r="A969" s="4"/>
+    </row>
+    <row r="970" spans="1:1" ht="13">
+      <c r="A970" s="4"/>
+    </row>
+    <row r="971" spans="1:1" ht="13">
+      <c r="A971" s="4"/>
+    </row>
+    <row r="972" spans="1:1" ht="13">
+      <c r="A972" s="4"/>
+    </row>
+    <row r="973" spans="1:1" ht="13">
+      <c r="A973" s="4"/>
+    </row>
+    <row r="974" spans="1:1" ht="13">
+      <c r="A974" s="4"/>
+    </row>
+    <row r="975" spans="1:1" ht="13">
+      <c r="A975" s="4"/>
+    </row>
+    <row r="976" spans="1:1" ht="13">
+      <c r="A976" s="4"/>
+    </row>
+    <row r="977" spans="1:1" ht="13">
+      <c r="A977" s="4"/>
+    </row>
+    <row r="978" spans="1:1" ht="13">
+      <c r="A978" s="4"/>
+    </row>
+    <row r="979" spans="1:1" ht="13">
+      <c r="A979" s="4"/>
+    </row>
+    <row r="980" spans="1:1" ht="13">
+      <c r="A980" s="4"/>
+    </row>
+    <row r="981" spans="1:1" ht="13">
+      <c r="A981" s="4"/>
+    </row>
+    <row r="982" spans="1:1" ht="13">
+      <c r="A982" s="4"/>
+    </row>
+    <row r="983" spans="1:1" ht="13">
+      <c r="A983" s="4"/>
+    </row>
+    <row r="984" spans="1:1" ht="13">
+      <c r="A984" s="4"/>
+    </row>
+    <row r="985" spans="1:1" ht="13">
+      <c r="A985" s="4"/>
+    </row>
+    <row r="986" spans="1:1" ht="13">
+      <c r="A986" s="4"/>
+    </row>
+    <row r="987" spans="1:1" ht="13">
+      <c r="A987" s="4"/>
+    </row>
+    <row r="988" spans="1:1" ht="13">
+      <c r="A988" s="4"/>
+    </row>
+    <row r="989" spans="1:1" ht="13">
+      <c r="A989" s="4"/>
+    </row>
+    <row r="990" spans="1:1" ht="13">
+      <c r="A990" s="4"/>
+    </row>
+    <row r="991" spans="1:1" ht="13">
+      <c r="A991" s="4"/>
+    </row>
+    <row r="992" spans="1:1" ht="13">
+      <c r="A992" s="4"/>
+    </row>
+    <row r="993" spans="1:1" ht="13">
+      <c r="A993" s="4"/>
+    </row>
+    <row r="994" spans="1:1" ht="13">
+      <c r="A994" s="4"/>
+    </row>
+    <row r="995" spans="1:1" ht="13">
+      <c r="A995" s="4"/>
+    </row>
+    <row r="996" spans="1:1" ht="13">
+      <c r="A996" s="4"/>
+    </row>
+    <row r="997" spans="1:1" ht="13">
+      <c r="A997" s="4"/>
+    </row>
+    <row r="998" spans="1:1" ht="13">
+      <c r="A998" s="4"/>
+    </row>
+    <row r="999" spans="1:1" ht="13">
+      <c r="A999" s="4"/>
+    </row>
+    <row r="1000" spans="1:1" ht="13">
+      <c r="A1000" s="4"/>
+    </row>
+    <row r="1001" spans="1:1" ht="13">
+      <c r="A1001" s="4"/>
+    </row>
+    <row r="1002" spans="1:1" ht="13">
+      <c r="A1002" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BC4ED6-2EE9-C049-B2B4-E4F28749A6CE}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="17.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="24">
+        <v>13</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="24">
+        <v>6</v>
+      </c>
+      <c r="G2" s="25" t="str" cm="1">
+        <f t="array" aca="1" ref="G2" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
+        <v>lysine-[13C6]</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="G3" s="25" t="str" cm="1">
+        <f t="array" aca="1" ref="G3" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="G4" s="25" t="str" cm="1">
+        <f t="array" aca="1" ref="G4" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="G5" s="25" t="str" cm="1">
+        <f t="array" aca="1" ref="G5" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="G6" s="25" t="str" cm="1">
+        <f t="array" aca="1" ref="G6" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="G7" s="25" t="str" cm="1">
+        <f t="array" aca="1" ref="G7" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="G8" s="25" t="str" cm="1">
+        <f t="array" aca="1" ref="G8" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="G9" s="25" t="str" cm="1">
+        <f t="array" aca="1" ref="G9" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="G10" s="25" t="str" cm="1">
+        <f t="array" aca="1" ref="G10" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="G11" s="25" t="str" cm="1">
+        <f t="array" aca="1" ref="G11" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="G12" s="25" t="str" cm="1">
+        <f t="array" aca="1" ref="G12" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="G13" s="25" t="str" cm="1">
+        <f t="array" aca="1" ref="G13" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="G14" s="25" t="str" cm="1">
+        <f t="array" aca="1" ref="G14" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="G15" s="25" t="str" cm="1">
+        <f t="array" aca="1" ref="G15" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="G16" s="25" t="str" cm="1">
+        <f t="array" aca="1" ref="G16" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" s="25" t="str" cm="1">
+        <f t="array" aca="1" ref="G17" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="7:7">
+      <c r="G18" s="25" t="str" cm="1">
+        <f t="array" aca="1" ref="G18" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="7:7">
+      <c r="G19" s="25" t="str" cm="1">
+        <f t="array" aca="1" ref="G19" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="7:7">
+      <c r="G20" s="25" t="str" cm="1">
+        <f t="array" aca="1" ref="G20" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="7:7">
+      <c r="G21" s="25" t="str" cm="1">
+        <f t="array" aca="1" ref="G21" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:E1">
+    <cfRule type="notContainsErrors" dxfId="13" priority="1">
+      <formula>NOT(ISERROR(A1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1">
+    <cfRule type="notContainsErrors" dxfId="12" priority="2">
+      <formula>NOT(ISERROR(F1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="notContainsErrors" dxfId="11" priority="3">
+      <formula>NOT(ISERROR(G1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D20" xr:uid="{7C3C8BA5-FB54-2045-9DA7-B0303289A133}">
+      <formula1>"C,H,N,O,P,S"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DC0EB6-59B2-5046-8120-AACAC1FE103C}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="20">
+        <v>23.2</v>
+      </c>
+      <c r="E2" s="25" t="str" cm="1">
+        <f t="array" aca="1" ref="E2" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
+        <v>lysine-[13C6][23.2]</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="E3" s="25" t="str" cm="1">
+        <f t="array" aca="1" ref="E3" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="E4" s="25" t="str" cm="1">
+        <f t="array" aca="1" ref="E4" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="E5" s="25" t="str" cm="1">
+        <f t="array" aca="1" ref="E5" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="E6" s="25" t="str" cm="1">
+        <f t="array" aca="1" ref="E6" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="E7" s="25" t="str" cm="1">
+        <f t="array" aca="1" ref="E7" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="E8" s="25" t="str" cm="1">
+        <f t="array" aca="1" ref="E8" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="E9" s="25" t="str" cm="1">
+        <f t="array" aca="1" ref="E9" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="E10" s="25" t="str" cm="1">
+        <f t="array" aca="1" ref="E10" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="E11" s="25" t="str" cm="1">
+        <f t="array" aca="1" ref="E11" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="E12" s="25" t="str" cm="1">
+        <f t="array" aca="1" ref="E12" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="E13" s="25" t="str" cm="1">
+        <f t="array" aca="1" ref="E13" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="E14" s="25" t="str" cm="1">
+        <f t="array" aca="1" ref="E14" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="E15" s="25" t="str" cm="1">
+        <f t="array" aca="1" ref="E15" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="E16" s="25" t="str" cm="1">
+        <f t="array" aca="1" ref="E16" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="25" t="str" cm="1">
+        <f t="array" aca="1" ref="E17" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="25" t="str" cm="1">
+        <f t="array" aca="1" ref="E18" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="25" t="str" cm="1">
+        <f t="array" aca="1" ref="E19" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="25" t="str" cm="1">
+        <f t="array" aca="1" ref="E20" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="25" t="str" cm="1">
+        <f t="array" aca="1" ref="E21" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="notContainsErrors" dxfId="10" priority="1">
+      <formula>NOT(ISERROR(A1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="notContainsErrors" dxfId="9" priority="2">
+      <formula>NOT(ISERROR(B1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:D1">
+    <cfRule type="notContainsErrors" dxfId="8" priority="3">
+      <formula>NOT(ISERROR(C1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="notContainsErrors" dxfId="7" priority="4">
+      <formula>NOT(ISERROR(E1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B2:B20" xr:uid="{3E3E4555-F071-944C-99B9-AD77661D29DE}">
+      <formula1>"BCAAs_13C,KLI"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2393,7 +7055,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2410,13 +7072,13 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -2428,10 +7090,10 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
@@ -2445,7 +7107,7 @@
         <v>26.3</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E2">
         <v>0.11</v>
@@ -3383,7 +8045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3416,7 +8078,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>4</v>
@@ -3431,7 +8093,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
@@ -21654,7 +26316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10F537B-37AF-BD4C-9F83-7496A78BD954}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -21673,54 +26335,54 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14">
       <c r="A1" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>130</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
         <v>88</v>
       </c>
       <c r="C2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>133</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="notContainsErrors" dxfId="4" priority="1">
+    <cfRule type="notContainsErrors" dxfId="6" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:E1">
-    <cfRule type="notContainsErrors" dxfId="3" priority="2">
+    <cfRule type="notContainsErrors" dxfId="5" priority="2">
       <formula>NOT(ISERROR(B1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="notContainsErrors" dxfId="2" priority="3">
+    <cfRule type="notContainsErrors" dxfId="4" priority="3">
       <formula>NOT(ISERROR(F1))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21729,7 +26391,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D077B6-035D-754F-89D0-AD0330B7C482}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -21745,24 +26407,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14">
       <c r="A1" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>117</v>
-      </c>
       <c r="C1" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>119</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -21770,12 +26432,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD2DCCD-0178-094D-9522-9414A02DC911}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -21790,22 +26452,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14">
       <c r="A1" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>124</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -21816,10 +26478,10 @@
         <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -21830,10 +26492,10 @@
         <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -21844,10 +26506,10 @@
         <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -21858,10 +26520,10 @@
         <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -21872,10 +26534,10 @@
         <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -21886,10 +26548,10 @@
         <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -21900,10 +26562,10 @@
         <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -21914,10 +26576,10 @@
         <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -21928,10 +26590,10 @@
         <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -21942,10 +26604,10 @@
         <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -21956,10 +26618,10 @@
         <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -21970,10 +26632,10 @@
         <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -21984,10 +26646,10 @@
         <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -21998,10 +26660,10 @@
         <v>101</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -22012,34 +26674,34 @@
         <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>104</v>
       </c>
-      <c r="B17" t="s">
-        <v>104</v>
+      <c r="B17" s="20" t="s">
+        <v>154</v>
       </c>
       <c r="D17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="notContainsErrors" dxfId="1" priority="1">
+    <cfRule type="notContainsErrors" dxfId="3" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:F1">
-    <cfRule type="notContainsErrors" dxfId="0" priority="2">
+    <cfRule type="notContainsErrors" dxfId="2" priority="2">
       <formula>NOT(ISERROR(C1))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22053,16 +26715,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -22108,15 +26770,15 @@
         <v>9</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" t="s">
         <v>83</v>
       </c>
-      <c r="B3" t="s">
-        <v>105</v>
+      <c r="B3" s="20" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -22124,3462 +26786,4 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:Z36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="62.1640625" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-    </row>
-    <row r="2" spans="1:26" ht="15">
-      <c r="A2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="1:26" ht="15">
-      <c r="A3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" spans="1:26" ht="15">
-      <c r="A4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="1:26" ht="15">
-      <c r="A5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="1:26" ht="15">
-      <c r="A6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:26" ht="15">
-      <c r="A7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="1:26" ht="15">
-      <c r="A8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="1:26" ht="15">
-      <c r="A9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:26" ht="15">
-      <c r="A10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:26" ht="15">
-      <c r="A11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="1:26" ht="15">
-      <c r="A12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="1:26" ht="15">
-      <c r="A13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="12"/>
-    </row>
-    <row r="14" spans="1:26" ht="15">
-      <c r="A14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A17" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A20" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A21" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A23" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A25" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A29" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A31" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A32" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A33" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A35" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A36" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:Z1002"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData>
-    <row r="1" spans="1:26" ht="18">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A5" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A6" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A7" s="4"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A10" s="16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A16" s="4"/>
-    </row>
-    <row r="17" spans="1:26" ht="18">
-      <c r="A17" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-    </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A19" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A20" s="17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A21" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A23" s="4"/>
-    </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A25" s="4"/>
-    </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A26" s="4"/>
-    </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A27" s="4"/>
-    </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A28" s="4"/>
-    </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A29" s="4"/>
-    </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A30" s="4"/>
-    </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A31" s="4"/>
-    </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A32" s="4"/>
-    </row>
-    <row r="33" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A33" s="4"/>
-    </row>
-    <row r="34" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A34" s="4"/>
-    </row>
-    <row r="35" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A35" s="4"/>
-    </row>
-    <row r="36" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A36" s="4"/>
-    </row>
-    <row r="37" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A37" s="4"/>
-    </row>
-    <row r="38" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A38" s="4"/>
-    </row>
-    <row r="39" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A39" s="4"/>
-    </row>
-    <row r="40" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A40" s="4"/>
-    </row>
-    <row r="41" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A41" s="4"/>
-    </row>
-    <row r="42" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A42" s="4"/>
-    </row>
-    <row r="43" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A43" s="4"/>
-    </row>
-    <row r="44" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A44" s="4"/>
-    </row>
-    <row r="45" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A45" s="4"/>
-    </row>
-    <row r="46" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A46" s="4"/>
-    </row>
-    <row r="47" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A47" s="4"/>
-    </row>
-    <row r="48" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A48" s="4"/>
-    </row>
-    <row r="49" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A49" s="4"/>
-    </row>
-    <row r="50" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A50" s="4"/>
-    </row>
-    <row r="51" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A51" s="4"/>
-    </row>
-    <row r="52" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A52" s="4"/>
-    </row>
-    <row r="53" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A53" s="4"/>
-    </row>
-    <row r="54" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A54" s="4"/>
-    </row>
-    <row r="55" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A55" s="4"/>
-    </row>
-    <row r="56" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A56" s="4"/>
-    </row>
-    <row r="57" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A57" s="4"/>
-    </row>
-    <row r="58" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A58" s="4"/>
-    </row>
-    <row r="59" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A59" s="4"/>
-    </row>
-    <row r="60" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A60" s="4"/>
-    </row>
-    <row r="61" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A61" s="4"/>
-    </row>
-    <row r="62" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A62" s="4"/>
-    </row>
-    <row r="63" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A63" s="4"/>
-    </row>
-    <row r="64" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A64" s="4"/>
-    </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A65" s="4"/>
-    </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A66" s="4"/>
-    </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A67" s="4"/>
-    </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A68" s="4"/>
-    </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A69" s="4"/>
-    </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A70" s="4"/>
-    </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A71" s="4"/>
-    </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A72" s="4"/>
-    </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A73" s="4"/>
-    </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A74" s="4"/>
-    </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A75" s="4"/>
-    </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A76" s="4"/>
-    </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A77" s="4"/>
-    </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A78" s="4"/>
-    </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A79" s="4"/>
-    </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A80" s="4"/>
-    </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A81" s="4"/>
-    </row>
-    <row r="82" spans="1:1" ht="13">
-      <c r="A82" s="4"/>
-    </row>
-    <row r="83" spans="1:1" ht="13">
-      <c r="A83" s="4"/>
-    </row>
-    <row r="84" spans="1:1" ht="13">
-      <c r="A84" s="4"/>
-    </row>
-    <row r="85" spans="1:1" ht="13">
-      <c r="A85" s="4"/>
-    </row>
-    <row r="86" spans="1:1" ht="13">
-      <c r="A86" s="4"/>
-    </row>
-    <row r="87" spans="1:1" ht="13">
-      <c r="A87" s="4"/>
-    </row>
-    <row r="88" spans="1:1" ht="13">
-      <c r="A88" s="4"/>
-    </row>
-    <row r="89" spans="1:1" ht="13">
-      <c r="A89" s="4"/>
-    </row>
-    <row r="90" spans="1:1" ht="13">
-      <c r="A90" s="4"/>
-    </row>
-    <row r="91" spans="1:1" ht="13">
-      <c r="A91" s="4"/>
-    </row>
-    <row r="92" spans="1:1" ht="13">
-      <c r="A92" s="4"/>
-    </row>
-    <row r="93" spans="1:1" ht="13">
-      <c r="A93" s="4"/>
-    </row>
-    <row r="94" spans="1:1" ht="13">
-      <c r="A94" s="4"/>
-    </row>
-    <row r="95" spans="1:1" ht="13">
-      <c r="A95" s="4"/>
-    </row>
-    <row r="96" spans="1:1" ht="13">
-      <c r="A96" s="4"/>
-    </row>
-    <row r="97" spans="1:1" ht="13">
-      <c r="A97" s="4"/>
-    </row>
-    <row r="98" spans="1:1" ht="13">
-      <c r="A98" s="4"/>
-    </row>
-    <row r="99" spans="1:1" ht="13">
-      <c r="A99" s="4"/>
-    </row>
-    <row r="100" spans="1:1" ht="13">
-      <c r="A100" s="4"/>
-    </row>
-    <row r="101" spans="1:1" ht="13">
-      <c r="A101" s="4"/>
-    </row>
-    <row r="102" spans="1:1" ht="13">
-      <c r="A102" s="4"/>
-    </row>
-    <row r="103" spans="1:1" ht="13">
-      <c r="A103" s="4"/>
-    </row>
-    <row r="104" spans="1:1" ht="13">
-      <c r="A104" s="4"/>
-    </row>
-    <row r="105" spans="1:1" ht="13">
-      <c r="A105" s="4"/>
-    </row>
-    <row r="106" spans="1:1" ht="13">
-      <c r="A106" s="4"/>
-    </row>
-    <row r="107" spans="1:1" ht="13">
-      <c r="A107" s="4"/>
-    </row>
-    <row r="108" spans="1:1" ht="13">
-      <c r="A108" s="4"/>
-    </row>
-    <row r="109" spans="1:1" ht="13">
-      <c r="A109" s="4"/>
-    </row>
-    <row r="110" spans="1:1" ht="13">
-      <c r="A110" s="4"/>
-    </row>
-    <row r="111" spans="1:1" ht="13">
-      <c r="A111" s="4"/>
-    </row>
-    <row r="112" spans="1:1" ht="13">
-      <c r="A112" s="4"/>
-    </row>
-    <row r="113" spans="1:1" ht="13">
-      <c r="A113" s="4"/>
-    </row>
-    <row r="114" spans="1:1" ht="13">
-      <c r="A114" s="4"/>
-    </row>
-    <row r="115" spans="1:1" ht="13">
-      <c r="A115" s="4"/>
-    </row>
-    <row r="116" spans="1:1" ht="13">
-      <c r="A116" s="4"/>
-    </row>
-    <row r="117" spans="1:1" ht="13">
-      <c r="A117" s="4"/>
-    </row>
-    <row r="118" spans="1:1" ht="13">
-      <c r="A118" s="4"/>
-    </row>
-    <row r="119" spans="1:1" ht="13">
-      <c r="A119" s="4"/>
-    </row>
-    <row r="120" spans="1:1" ht="13">
-      <c r="A120" s="4"/>
-    </row>
-    <row r="121" spans="1:1" ht="13">
-      <c r="A121" s="4"/>
-    </row>
-    <row r="122" spans="1:1" ht="13">
-      <c r="A122" s="4"/>
-    </row>
-    <row r="123" spans="1:1" ht="13">
-      <c r="A123" s="4"/>
-    </row>
-    <row r="124" spans="1:1" ht="13">
-      <c r="A124" s="4"/>
-    </row>
-    <row r="125" spans="1:1" ht="13">
-      <c r="A125" s="4"/>
-    </row>
-    <row r="126" spans="1:1" ht="13">
-      <c r="A126" s="4"/>
-    </row>
-    <row r="127" spans="1:1" ht="13">
-      <c r="A127" s="4"/>
-    </row>
-    <row r="128" spans="1:1" ht="13">
-      <c r="A128" s="4"/>
-    </row>
-    <row r="129" spans="1:1" ht="13">
-      <c r="A129" s="4"/>
-    </row>
-    <row r="130" spans="1:1" ht="13">
-      <c r="A130" s="4"/>
-    </row>
-    <row r="131" spans="1:1" ht="13">
-      <c r="A131" s="4"/>
-    </row>
-    <row r="132" spans="1:1" ht="13">
-      <c r="A132" s="4"/>
-    </row>
-    <row r="133" spans="1:1" ht="13">
-      <c r="A133" s="4"/>
-    </row>
-    <row r="134" spans="1:1" ht="13">
-      <c r="A134" s="4"/>
-    </row>
-    <row r="135" spans="1:1" ht="13">
-      <c r="A135" s="4"/>
-    </row>
-    <row r="136" spans="1:1" ht="13">
-      <c r="A136" s="4"/>
-    </row>
-    <row r="137" spans="1:1" ht="13">
-      <c r="A137" s="4"/>
-    </row>
-    <row r="138" spans="1:1" ht="13">
-      <c r="A138" s="4"/>
-    </row>
-    <row r="139" spans="1:1" ht="13">
-      <c r="A139" s="4"/>
-    </row>
-    <row r="140" spans="1:1" ht="13">
-      <c r="A140" s="4"/>
-    </row>
-    <row r="141" spans="1:1" ht="13">
-      <c r="A141" s="4"/>
-    </row>
-    <row r="142" spans="1:1" ht="13">
-      <c r="A142" s="4"/>
-    </row>
-    <row r="143" spans="1:1" ht="13">
-      <c r="A143" s="4"/>
-    </row>
-    <row r="144" spans="1:1" ht="13">
-      <c r="A144" s="4"/>
-    </row>
-    <row r="145" spans="1:1" ht="13">
-      <c r="A145" s="4"/>
-    </row>
-    <row r="146" spans="1:1" ht="13">
-      <c r="A146" s="4"/>
-    </row>
-    <row r="147" spans="1:1" ht="13">
-      <c r="A147" s="4"/>
-    </row>
-    <row r="148" spans="1:1" ht="13">
-      <c r="A148" s="4"/>
-    </row>
-    <row r="149" spans="1:1" ht="13">
-      <c r="A149" s="4"/>
-    </row>
-    <row r="150" spans="1:1" ht="13">
-      <c r="A150" s="4"/>
-    </row>
-    <row r="151" spans="1:1" ht="13">
-      <c r="A151" s="4"/>
-    </row>
-    <row r="152" spans="1:1" ht="13">
-      <c r="A152" s="4"/>
-    </row>
-    <row r="153" spans="1:1" ht="13">
-      <c r="A153" s="4"/>
-    </row>
-    <row r="154" spans="1:1" ht="13">
-      <c r="A154" s="4"/>
-    </row>
-    <row r="155" spans="1:1" ht="13">
-      <c r="A155" s="4"/>
-    </row>
-    <row r="156" spans="1:1" ht="13">
-      <c r="A156" s="4"/>
-    </row>
-    <row r="157" spans="1:1" ht="13">
-      <c r="A157" s="4"/>
-    </row>
-    <row r="158" spans="1:1" ht="13">
-      <c r="A158" s="4"/>
-    </row>
-    <row r="159" spans="1:1" ht="13">
-      <c r="A159" s="4"/>
-    </row>
-    <row r="160" spans="1:1" ht="13">
-      <c r="A160" s="4"/>
-    </row>
-    <row r="161" spans="1:1" ht="13">
-      <c r="A161" s="4"/>
-    </row>
-    <row r="162" spans="1:1" ht="13">
-      <c r="A162" s="4"/>
-    </row>
-    <row r="163" spans="1:1" ht="13">
-      <c r="A163" s="4"/>
-    </row>
-    <row r="164" spans="1:1" ht="13">
-      <c r="A164" s="4"/>
-    </row>
-    <row r="165" spans="1:1" ht="13">
-      <c r="A165" s="4"/>
-    </row>
-    <row r="166" spans="1:1" ht="13">
-      <c r="A166" s="4"/>
-    </row>
-    <row r="167" spans="1:1" ht="13">
-      <c r="A167" s="4"/>
-    </row>
-    <row r="168" spans="1:1" ht="13">
-      <c r="A168" s="4"/>
-    </row>
-    <row r="169" spans="1:1" ht="13">
-      <c r="A169" s="4"/>
-    </row>
-    <row r="170" spans="1:1" ht="13">
-      <c r="A170" s="4"/>
-    </row>
-    <row r="171" spans="1:1" ht="13">
-      <c r="A171" s="4"/>
-    </row>
-    <row r="172" spans="1:1" ht="13">
-      <c r="A172" s="4"/>
-    </row>
-    <row r="173" spans="1:1" ht="13">
-      <c r="A173" s="4"/>
-    </row>
-    <row r="174" spans="1:1" ht="13">
-      <c r="A174" s="4"/>
-    </row>
-    <row r="175" spans="1:1" ht="13">
-      <c r="A175" s="4"/>
-    </row>
-    <row r="176" spans="1:1" ht="13">
-      <c r="A176" s="4"/>
-    </row>
-    <row r="177" spans="1:1" ht="13">
-      <c r="A177" s="4"/>
-    </row>
-    <row r="178" spans="1:1" ht="13">
-      <c r="A178" s="4"/>
-    </row>
-    <row r="179" spans="1:1" ht="13">
-      <c r="A179" s="4"/>
-    </row>
-    <row r="180" spans="1:1" ht="13">
-      <c r="A180" s="4"/>
-    </row>
-    <row r="181" spans="1:1" ht="13">
-      <c r="A181" s="4"/>
-    </row>
-    <row r="182" spans="1:1" ht="13">
-      <c r="A182" s="4"/>
-    </row>
-    <row r="183" spans="1:1" ht="13">
-      <c r="A183" s="4"/>
-    </row>
-    <row r="184" spans="1:1" ht="13">
-      <c r="A184" s="4"/>
-    </row>
-    <row r="185" spans="1:1" ht="13">
-      <c r="A185" s="4"/>
-    </row>
-    <row r="186" spans="1:1" ht="13">
-      <c r="A186" s="4"/>
-    </row>
-    <row r="187" spans="1:1" ht="13">
-      <c r="A187" s="4"/>
-    </row>
-    <row r="188" spans="1:1" ht="13">
-      <c r="A188" s="4"/>
-    </row>
-    <row r="189" spans="1:1" ht="13">
-      <c r="A189" s="4"/>
-    </row>
-    <row r="190" spans="1:1" ht="13">
-      <c r="A190" s="4"/>
-    </row>
-    <row r="191" spans="1:1" ht="13">
-      <c r="A191" s="4"/>
-    </row>
-    <row r="192" spans="1:1" ht="13">
-      <c r="A192" s="4"/>
-    </row>
-    <row r="193" spans="1:1" ht="13">
-      <c r="A193" s="4"/>
-    </row>
-    <row r="194" spans="1:1" ht="13">
-      <c r="A194" s="4"/>
-    </row>
-    <row r="195" spans="1:1" ht="13">
-      <c r="A195" s="4"/>
-    </row>
-    <row r="196" spans="1:1" ht="13">
-      <c r="A196" s="4"/>
-    </row>
-    <row r="197" spans="1:1" ht="13">
-      <c r="A197" s="4"/>
-    </row>
-    <row r="198" spans="1:1" ht="13">
-      <c r="A198" s="4"/>
-    </row>
-    <row r="199" spans="1:1" ht="13">
-      <c r="A199" s="4"/>
-    </row>
-    <row r="200" spans="1:1" ht="13">
-      <c r="A200" s="4"/>
-    </row>
-    <row r="201" spans="1:1" ht="13">
-      <c r="A201" s="4"/>
-    </row>
-    <row r="202" spans="1:1" ht="13">
-      <c r="A202" s="4"/>
-    </row>
-    <row r="203" spans="1:1" ht="13">
-      <c r="A203" s="4"/>
-    </row>
-    <row r="204" spans="1:1" ht="13">
-      <c r="A204" s="4"/>
-    </row>
-    <row r="205" spans="1:1" ht="13">
-      <c r="A205" s="4"/>
-    </row>
-    <row r="206" spans="1:1" ht="13">
-      <c r="A206" s="4"/>
-    </row>
-    <row r="207" spans="1:1" ht="13">
-      <c r="A207" s="4"/>
-    </row>
-    <row r="208" spans="1:1" ht="13">
-      <c r="A208" s="4"/>
-    </row>
-    <row r="209" spans="1:1" ht="13">
-      <c r="A209" s="4"/>
-    </row>
-    <row r="210" spans="1:1" ht="13">
-      <c r="A210" s="4"/>
-    </row>
-    <row r="211" spans="1:1" ht="13">
-      <c r="A211" s="4"/>
-    </row>
-    <row r="212" spans="1:1" ht="13">
-      <c r="A212" s="4"/>
-    </row>
-    <row r="213" spans="1:1" ht="13">
-      <c r="A213" s="4"/>
-    </row>
-    <row r="214" spans="1:1" ht="13">
-      <c r="A214" s="4"/>
-    </row>
-    <row r="215" spans="1:1" ht="13">
-      <c r="A215" s="4"/>
-    </row>
-    <row r="216" spans="1:1" ht="13">
-      <c r="A216" s="4"/>
-    </row>
-    <row r="217" spans="1:1" ht="13">
-      <c r="A217" s="4"/>
-    </row>
-    <row r="218" spans="1:1" ht="13">
-      <c r="A218" s="4"/>
-    </row>
-    <row r="219" spans="1:1" ht="13">
-      <c r="A219" s="4"/>
-    </row>
-    <row r="220" spans="1:1" ht="13">
-      <c r="A220" s="4"/>
-    </row>
-    <row r="221" spans="1:1" ht="13">
-      <c r="A221" s="4"/>
-    </row>
-    <row r="222" spans="1:1" ht="13">
-      <c r="A222" s="4"/>
-    </row>
-    <row r="223" spans="1:1" ht="13">
-      <c r="A223" s="4"/>
-    </row>
-    <row r="224" spans="1:1" ht="13">
-      <c r="A224" s="4"/>
-    </row>
-    <row r="225" spans="1:1" ht="13">
-      <c r="A225" s="4"/>
-    </row>
-    <row r="226" spans="1:1" ht="13">
-      <c r="A226" s="4"/>
-    </row>
-    <row r="227" spans="1:1" ht="13">
-      <c r="A227" s="4"/>
-    </row>
-    <row r="228" spans="1:1" ht="13">
-      <c r="A228" s="4"/>
-    </row>
-    <row r="229" spans="1:1" ht="13">
-      <c r="A229" s="4"/>
-    </row>
-    <row r="230" spans="1:1" ht="13">
-      <c r="A230" s="4"/>
-    </row>
-    <row r="231" spans="1:1" ht="13">
-      <c r="A231" s="4"/>
-    </row>
-    <row r="232" spans="1:1" ht="13">
-      <c r="A232" s="4"/>
-    </row>
-    <row r="233" spans="1:1" ht="13">
-      <c r="A233" s="4"/>
-    </row>
-    <row r="234" spans="1:1" ht="13">
-      <c r="A234" s="4"/>
-    </row>
-    <row r="235" spans="1:1" ht="13">
-      <c r="A235" s="4"/>
-    </row>
-    <row r="236" spans="1:1" ht="13">
-      <c r="A236" s="4"/>
-    </row>
-    <row r="237" spans="1:1" ht="13">
-      <c r="A237" s="4"/>
-    </row>
-    <row r="238" spans="1:1" ht="13">
-      <c r="A238" s="4"/>
-    </row>
-    <row r="239" spans="1:1" ht="13">
-      <c r="A239" s="4"/>
-    </row>
-    <row r="240" spans="1:1" ht="13">
-      <c r="A240" s="4"/>
-    </row>
-    <row r="241" spans="1:1" ht="13">
-      <c r="A241" s="4"/>
-    </row>
-    <row r="242" spans="1:1" ht="13">
-      <c r="A242" s="4"/>
-    </row>
-    <row r="243" spans="1:1" ht="13">
-      <c r="A243" s="4"/>
-    </row>
-    <row r="244" spans="1:1" ht="13">
-      <c r="A244" s="4"/>
-    </row>
-    <row r="245" spans="1:1" ht="13">
-      <c r="A245" s="4"/>
-    </row>
-    <row r="246" spans="1:1" ht="13">
-      <c r="A246" s="4"/>
-    </row>
-    <row r="247" spans="1:1" ht="13">
-      <c r="A247" s="4"/>
-    </row>
-    <row r="248" spans="1:1" ht="13">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="13">
-      <c r="A249" s="4"/>
-    </row>
-    <row r="250" spans="1:1" ht="13">
-      <c r="A250" s="4"/>
-    </row>
-    <row r="251" spans="1:1" ht="13">
-      <c r="A251" s="4"/>
-    </row>
-    <row r="252" spans="1:1" ht="13">
-      <c r="A252" s="4"/>
-    </row>
-    <row r="253" spans="1:1" ht="13">
-      <c r="A253" s="4"/>
-    </row>
-    <row r="254" spans="1:1" ht="13">
-      <c r="A254" s="4"/>
-    </row>
-    <row r="255" spans="1:1" ht="13">
-      <c r="A255" s="4"/>
-    </row>
-    <row r="256" spans="1:1" ht="13">
-      <c r="A256" s="4"/>
-    </row>
-    <row r="257" spans="1:1" ht="13">
-      <c r="A257" s="4"/>
-    </row>
-    <row r="258" spans="1:1" ht="13">
-      <c r="A258" s="4"/>
-    </row>
-    <row r="259" spans="1:1" ht="13">
-      <c r="A259" s="4"/>
-    </row>
-    <row r="260" spans="1:1" ht="13">
-      <c r="A260" s="4"/>
-    </row>
-    <row r="261" spans="1:1" ht="13">
-      <c r="A261" s="4"/>
-    </row>
-    <row r="262" spans="1:1" ht="13">
-      <c r="A262" s="4"/>
-    </row>
-    <row r="263" spans="1:1" ht="13">
-      <c r="A263" s="4"/>
-    </row>
-    <row r="264" spans="1:1" ht="13">
-      <c r="A264" s="4"/>
-    </row>
-    <row r="265" spans="1:1" ht="13">
-      <c r="A265" s="4"/>
-    </row>
-    <row r="266" spans="1:1" ht="13">
-      <c r="A266" s="4"/>
-    </row>
-    <row r="267" spans="1:1" ht="13">
-      <c r="A267" s="4"/>
-    </row>
-    <row r="268" spans="1:1" ht="13">
-      <c r="A268" s="4"/>
-    </row>
-    <row r="269" spans="1:1" ht="13">
-      <c r="A269" s="4"/>
-    </row>
-    <row r="270" spans="1:1" ht="13">
-      <c r="A270" s="4"/>
-    </row>
-    <row r="271" spans="1:1" ht="13">
-      <c r="A271" s="4"/>
-    </row>
-    <row r="272" spans="1:1" ht="13">
-      <c r="A272" s="4"/>
-    </row>
-    <row r="273" spans="1:1" ht="13">
-      <c r="A273" s="4"/>
-    </row>
-    <row r="274" spans="1:1" ht="13">
-      <c r="A274" s="4"/>
-    </row>
-    <row r="275" spans="1:1" ht="13">
-      <c r="A275" s="4"/>
-    </row>
-    <row r="276" spans="1:1" ht="13">
-      <c r="A276" s="4"/>
-    </row>
-    <row r="277" spans="1:1" ht="13">
-      <c r="A277" s="4"/>
-    </row>
-    <row r="278" spans="1:1" ht="13">
-      <c r="A278" s="4"/>
-    </row>
-    <row r="279" spans="1:1" ht="13">
-      <c r="A279" s="4"/>
-    </row>
-    <row r="280" spans="1:1" ht="13">
-      <c r="A280" s="4"/>
-    </row>
-    <row r="281" spans="1:1" ht="13">
-      <c r="A281" s="4"/>
-    </row>
-    <row r="282" spans="1:1" ht="13">
-      <c r="A282" s="4"/>
-    </row>
-    <row r="283" spans="1:1" ht="13">
-      <c r="A283" s="4"/>
-    </row>
-    <row r="284" spans="1:1" ht="13">
-      <c r="A284" s="4"/>
-    </row>
-    <row r="285" spans="1:1" ht="13">
-      <c r="A285" s="4"/>
-    </row>
-    <row r="286" spans="1:1" ht="13">
-      <c r="A286" s="4"/>
-    </row>
-    <row r="287" spans="1:1" ht="13">
-      <c r="A287" s="4"/>
-    </row>
-    <row r="288" spans="1:1" ht="13">
-      <c r="A288" s="4"/>
-    </row>
-    <row r="289" spans="1:1" ht="13">
-      <c r="A289" s="4"/>
-    </row>
-    <row r="290" spans="1:1" ht="13">
-      <c r="A290" s="4"/>
-    </row>
-    <row r="291" spans="1:1" ht="13">
-      <c r="A291" s="4"/>
-    </row>
-    <row r="292" spans="1:1" ht="13">
-      <c r="A292" s="4"/>
-    </row>
-    <row r="293" spans="1:1" ht="13">
-      <c r="A293" s="4"/>
-    </row>
-    <row r="294" spans="1:1" ht="13">
-      <c r="A294" s="4"/>
-    </row>
-    <row r="295" spans="1:1" ht="13">
-      <c r="A295" s="4"/>
-    </row>
-    <row r="296" spans="1:1" ht="13">
-      <c r="A296" s="4"/>
-    </row>
-    <row r="297" spans="1:1" ht="13">
-      <c r="A297" s="4"/>
-    </row>
-    <row r="298" spans="1:1" ht="13">
-      <c r="A298" s="4"/>
-    </row>
-    <row r="299" spans="1:1" ht="13">
-      <c r="A299" s="4"/>
-    </row>
-    <row r="300" spans="1:1" ht="13">
-      <c r="A300" s="4"/>
-    </row>
-    <row r="301" spans="1:1" ht="13">
-      <c r="A301" s="4"/>
-    </row>
-    <row r="302" spans="1:1" ht="13">
-      <c r="A302" s="4"/>
-    </row>
-    <row r="303" spans="1:1" ht="13">
-      <c r="A303" s="4"/>
-    </row>
-    <row r="304" spans="1:1" ht="13">
-      <c r="A304" s="4"/>
-    </row>
-    <row r="305" spans="1:1" ht="13">
-      <c r="A305" s="4"/>
-    </row>
-    <row r="306" spans="1:1" ht="13">
-      <c r="A306" s="4"/>
-    </row>
-    <row r="307" spans="1:1" ht="13">
-      <c r="A307" s="4"/>
-    </row>
-    <row r="308" spans="1:1" ht="13">
-      <c r="A308" s="4"/>
-    </row>
-    <row r="309" spans="1:1" ht="13">
-      <c r="A309" s="4"/>
-    </row>
-    <row r="310" spans="1:1" ht="13">
-      <c r="A310" s="4"/>
-    </row>
-    <row r="311" spans="1:1" ht="13">
-      <c r="A311" s="4"/>
-    </row>
-    <row r="312" spans="1:1" ht="13">
-      <c r="A312" s="4"/>
-    </row>
-    <row r="313" spans="1:1" ht="13">
-      <c r="A313" s="4"/>
-    </row>
-    <row r="314" spans="1:1" ht="13">
-      <c r="A314" s="4"/>
-    </row>
-    <row r="315" spans="1:1" ht="13">
-      <c r="A315" s="4"/>
-    </row>
-    <row r="316" spans="1:1" ht="13">
-      <c r="A316" s="4"/>
-    </row>
-    <row r="317" spans="1:1" ht="13">
-      <c r="A317" s="4"/>
-    </row>
-    <row r="318" spans="1:1" ht="13">
-      <c r="A318" s="4"/>
-    </row>
-    <row r="319" spans="1:1" ht="13">
-      <c r="A319" s="4"/>
-    </row>
-    <row r="320" spans="1:1" ht="13">
-      <c r="A320" s="4"/>
-    </row>
-    <row r="321" spans="1:1" ht="13">
-      <c r="A321" s="4"/>
-    </row>
-    <row r="322" spans="1:1" ht="13">
-      <c r="A322" s="4"/>
-    </row>
-    <row r="323" spans="1:1" ht="13">
-      <c r="A323" s="4"/>
-    </row>
-    <row r="324" spans="1:1" ht="13">
-      <c r="A324" s="4"/>
-    </row>
-    <row r="325" spans="1:1" ht="13">
-      <c r="A325" s="4"/>
-    </row>
-    <row r="326" spans="1:1" ht="13">
-      <c r="A326" s="4"/>
-    </row>
-    <row r="327" spans="1:1" ht="13">
-      <c r="A327" s="4"/>
-    </row>
-    <row r="328" spans="1:1" ht="13">
-      <c r="A328" s="4"/>
-    </row>
-    <row r="329" spans="1:1" ht="13">
-      <c r="A329" s="4"/>
-    </row>
-    <row r="330" spans="1:1" ht="13">
-      <c r="A330" s="4"/>
-    </row>
-    <row r="331" spans="1:1" ht="13">
-      <c r="A331" s="4"/>
-    </row>
-    <row r="332" spans="1:1" ht="13">
-      <c r="A332" s="4"/>
-    </row>
-    <row r="333" spans="1:1" ht="13">
-      <c r="A333" s="4"/>
-    </row>
-    <row r="334" spans="1:1" ht="13">
-      <c r="A334" s="4"/>
-    </row>
-    <row r="335" spans="1:1" ht="13">
-      <c r="A335" s="4"/>
-    </row>
-    <row r="336" spans="1:1" ht="13">
-      <c r="A336" s="4"/>
-    </row>
-    <row r="337" spans="1:1" ht="13">
-      <c r="A337" s="4"/>
-    </row>
-    <row r="338" spans="1:1" ht="13">
-      <c r="A338" s="4"/>
-    </row>
-    <row r="339" spans="1:1" ht="13">
-      <c r="A339" s="4"/>
-    </row>
-    <row r="340" spans="1:1" ht="13">
-      <c r="A340" s="4"/>
-    </row>
-    <row r="341" spans="1:1" ht="13">
-      <c r="A341" s="4"/>
-    </row>
-    <row r="342" spans="1:1" ht="13">
-      <c r="A342" s="4"/>
-    </row>
-    <row r="343" spans="1:1" ht="13">
-      <c r="A343" s="4"/>
-    </row>
-    <row r="344" spans="1:1" ht="13">
-      <c r="A344" s="4"/>
-    </row>
-    <row r="345" spans="1:1" ht="13">
-      <c r="A345" s="4"/>
-    </row>
-    <row r="346" spans="1:1" ht="13">
-      <c r="A346" s="4"/>
-    </row>
-    <row r="347" spans="1:1" ht="13">
-      <c r="A347" s="4"/>
-    </row>
-    <row r="348" spans="1:1" ht="13">
-      <c r="A348" s="4"/>
-    </row>
-    <row r="349" spans="1:1" ht="13">
-      <c r="A349" s="4"/>
-    </row>
-    <row r="350" spans="1:1" ht="13">
-      <c r="A350" s="4"/>
-    </row>
-    <row r="351" spans="1:1" ht="13">
-      <c r="A351" s="4"/>
-    </row>
-    <row r="352" spans="1:1" ht="13">
-      <c r="A352" s="4"/>
-    </row>
-    <row r="353" spans="1:1" ht="13">
-      <c r="A353" s="4"/>
-    </row>
-    <row r="354" spans="1:1" ht="13">
-      <c r="A354" s="4"/>
-    </row>
-    <row r="355" spans="1:1" ht="13">
-      <c r="A355" s="4"/>
-    </row>
-    <row r="356" spans="1:1" ht="13">
-      <c r="A356" s="4"/>
-    </row>
-    <row r="357" spans="1:1" ht="13">
-      <c r="A357" s="4"/>
-    </row>
-    <row r="358" spans="1:1" ht="13">
-      <c r="A358" s="4"/>
-    </row>
-    <row r="359" spans="1:1" ht="13">
-      <c r="A359" s="4"/>
-    </row>
-    <row r="360" spans="1:1" ht="13">
-      <c r="A360" s="4"/>
-    </row>
-    <row r="361" spans="1:1" ht="13">
-      <c r="A361" s="4"/>
-    </row>
-    <row r="362" spans="1:1" ht="13">
-      <c r="A362" s="4"/>
-    </row>
-    <row r="363" spans="1:1" ht="13">
-      <c r="A363" s="4"/>
-    </row>
-    <row r="364" spans="1:1" ht="13">
-      <c r="A364" s="4"/>
-    </row>
-    <row r="365" spans="1:1" ht="13">
-      <c r="A365" s="4"/>
-    </row>
-    <row r="366" spans="1:1" ht="13">
-      <c r="A366" s="4"/>
-    </row>
-    <row r="367" spans="1:1" ht="13">
-      <c r="A367" s="4"/>
-    </row>
-    <row r="368" spans="1:1" ht="13">
-      <c r="A368" s="4"/>
-    </row>
-    <row r="369" spans="1:1" ht="13">
-      <c r="A369" s="4"/>
-    </row>
-    <row r="370" spans="1:1" ht="13">
-      <c r="A370" s="4"/>
-    </row>
-    <row r="371" spans="1:1" ht="13">
-      <c r="A371" s="4"/>
-    </row>
-    <row r="372" spans="1:1" ht="13">
-      <c r="A372" s="4"/>
-    </row>
-    <row r="373" spans="1:1" ht="13">
-      <c r="A373" s="4"/>
-    </row>
-    <row r="374" spans="1:1" ht="13">
-      <c r="A374" s="4"/>
-    </row>
-    <row r="375" spans="1:1" ht="13">
-      <c r="A375" s="4"/>
-    </row>
-    <row r="376" spans="1:1" ht="13">
-      <c r="A376" s="4"/>
-    </row>
-    <row r="377" spans="1:1" ht="13">
-      <c r="A377" s="4"/>
-    </row>
-    <row r="378" spans="1:1" ht="13">
-      <c r="A378" s="4"/>
-    </row>
-    <row r="379" spans="1:1" ht="13">
-      <c r="A379" s="4"/>
-    </row>
-    <row r="380" spans="1:1" ht="13">
-      <c r="A380" s="4"/>
-    </row>
-    <row r="381" spans="1:1" ht="13">
-      <c r="A381" s="4"/>
-    </row>
-    <row r="382" spans="1:1" ht="13">
-      <c r="A382" s="4"/>
-    </row>
-    <row r="383" spans="1:1" ht="13">
-      <c r="A383" s="4"/>
-    </row>
-    <row r="384" spans="1:1" ht="13">
-      <c r="A384" s="4"/>
-    </row>
-    <row r="385" spans="1:1" ht="13">
-      <c r="A385" s="4"/>
-    </row>
-    <row r="386" spans="1:1" ht="13">
-      <c r="A386" s="4"/>
-    </row>
-    <row r="387" spans="1:1" ht="13">
-      <c r="A387" s="4"/>
-    </row>
-    <row r="388" spans="1:1" ht="13">
-      <c r="A388" s="4"/>
-    </row>
-    <row r="389" spans="1:1" ht="13">
-      <c r="A389" s="4"/>
-    </row>
-    <row r="390" spans="1:1" ht="13">
-      <c r="A390" s="4"/>
-    </row>
-    <row r="391" spans="1:1" ht="13">
-      <c r="A391" s="4"/>
-    </row>
-    <row r="392" spans="1:1" ht="13">
-      <c r="A392" s="4"/>
-    </row>
-    <row r="393" spans="1:1" ht="13">
-      <c r="A393" s="4"/>
-    </row>
-    <row r="394" spans="1:1" ht="13">
-      <c r="A394" s="4"/>
-    </row>
-    <row r="395" spans="1:1" ht="13">
-      <c r="A395" s="4"/>
-    </row>
-    <row r="396" spans="1:1" ht="13">
-      <c r="A396" s="4"/>
-    </row>
-    <row r="397" spans="1:1" ht="13">
-      <c r="A397" s="4"/>
-    </row>
-    <row r="398" spans="1:1" ht="13">
-      <c r="A398" s="4"/>
-    </row>
-    <row r="399" spans="1:1" ht="13">
-      <c r="A399" s="4"/>
-    </row>
-    <row r="400" spans="1:1" ht="13">
-      <c r="A400" s="4"/>
-    </row>
-    <row r="401" spans="1:1" ht="13">
-      <c r="A401" s="4"/>
-    </row>
-    <row r="402" spans="1:1" ht="13">
-      <c r="A402" s="4"/>
-    </row>
-    <row r="403" spans="1:1" ht="13">
-      <c r="A403" s="4"/>
-    </row>
-    <row r="404" spans="1:1" ht="13">
-      <c r="A404" s="4"/>
-    </row>
-    <row r="405" spans="1:1" ht="13">
-      <c r="A405" s="4"/>
-    </row>
-    <row r="406" spans="1:1" ht="13">
-      <c r="A406" s="4"/>
-    </row>
-    <row r="407" spans="1:1" ht="13">
-      <c r="A407" s="4"/>
-    </row>
-    <row r="408" spans="1:1" ht="13">
-      <c r="A408" s="4"/>
-    </row>
-    <row r="409" spans="1:1" ht="13">
-      <c r="A409" s="4"/>
-    </row>
-    <row r="410" spans="1:1" ht="13">
-      <c r="A410" s="4"/>
-    </row>
-    <row r="411" spans="1:1" ht="13">
-      <c r="A411" s="4"/>
-    </row>
-    <row r="412" spans="1:1" ht="13">
-      <c r="A412" s="4"/>
-    </row>
-    <row r="413" spans="1:1" ht="13">
-      <c r="A413" s="4"/>
-    </row>
-    <row r="414" spans="1:1" ht="13">
-      <c r="A414" s="4"/>
-    </row>
-    <row r="415" spans="1:1" ht="13">
-      <c r="A415" s="4"/>
-    </row>
-    <row r="416" spans="1:1" ht="13">
-      <c r="A416" s="4"/>
-    </row>
-    <row r="417" spans="1:1" ht="13">
-      <c r="A417" s="4"/>
-    </row>
-    <row r="418" spans="1:1" ht="13">
-      <c r="A418" s="4"/>
-    </row>
-    <row r="419" spans="1:1" ht="13">
-      <c r="A419" s="4"/>
-    </row>
-    <row r="420" spans="1:1" ht="13">
-      <c r="A420" s="4"/>
-    </row>
-    <row r="421" spans="1:1" ht="13">
-      <c r="A421" s="4"/>
-    </row>
-    <row r="422" spans="1:1" ht="13">
-      <c r="A422" s="4"/>
-    </row>
-    <row r="423" spans="1:1" ht="13">
-      <c r="A423" s="4"/>
-    </row>
-    <row r="424" spans="1:1" ht="13">
-      <c r="A424" s="4"/>
-    </row>
-    <row r="425" spans="1:1" ht="13">
-      <c r="A425" s="4"/>
-    </row>
-    <row r="426" spans="1:1" ht="13">
-      <c r="A426" s="4"/>
-    </row>
-    <row r="427" spans="1:1" ht="13">
-      <c r="A427" s="4"/>
-    </row>
-    <row r="428" spans="1:1" ht="13">
-      <c r="A428" s="4"/>
-    </row>
-    <row r="429" spans="1:1" ht="13">
-      <c r="A429" s="4"/>
-    </row>
-    <row r="430" spans="1:1" ht="13">
-      <c r="A430" s="4"/>
-    </row>
-    <row r="431" spans="1:1" ht="13">
-      <c r="A431" s="4"/>
-    </row>
-    <row r="432" spans="1:1" ht="13">
-      <c r="A432" s="4"/>
-    </row>
-    <row r="433" spans="1:1" ht="13">
-      <c r="A433" s="4"/>
-    </row>
-    <row r="434" spans="1:1" ht="13">
-      <c r="A434" s="4"/>
-    </row>
-    <row r="435" spans="1:1" ht="13">
-      <c r="A435" s="4"/>
-    </row>
-    <row r="436" spans="1:1" ht="13">
-      <c r="A436" s="4"/>
-    </row>
-    <row r="437" spans="1:1" ht="13">
-      <c r="A437" s="4"/>
-    </row>
-    <row r="438" spans="1:1" ht="13">
-      <c r="A438" s="4"/>
-    </row>
-    <row r="439" spans="1:1" ht="13">
-      <c r="A439" s="4"/>
-    </row>
-    <row r="440" spans="1:1" ht="13">
-      <c r="A440" s="4"/>
-    </row>
-    <row r="441" spans="1:1" ht="13">
-      <c r="A441" s="4"/>
-    </row>
-    <row r="442" spans="1:1" ht="13">
-      <c r="A442" s="4"/>
-    </row>
-    <row r="443" spans="1:1" ht="13">
-      <c r="A443" s="4"/>
-    </row>
-    <row r="444" spans="1:1" ht="13">
-      <c r="A444" s="4"/>
-    </row>
-    <row r="445" spans="1:1" ht="13">
-      <c r="A445" s="4"/>
-    </row>
-    <row r="446" spans="1:1" ht="13">
-      <c r="A446" s="4"/>
-    </row>
-    <row r="447" spans="1:1" ht="13">
-      <c r="A447" s="4"/>
-    </row>
-    <row r="448" spans="1:1" ht="13">
-      <c r="A448" s="4"/>
-    </row>
-    <row r="449" spans="1:1" ht="13">
-      <c r="A449" s="4"/>
-    </row>
-    <row r="450" spans="1:1" ht="13">
-      <c r="A450" s="4"/>
-    </row>
-    <row r="451" spans="1:1" ht="13">
-      <c r="A451" s="4"/>
-    </row>
-    <row r="452" spans="1:1" ht="13">
-      <c r="A452" s="4"/>
-    </row>
-    <row r="453" spans="1:1" ht="13">
-      <c r="A453" s="4"/>
-    </row>
-    <row r="454" spans="1:1" ht="13">
-      <c r="A454" s="4"/>
-    </row>
-    <row r="455" spans="1:1" ht="13">
-      <c r="A455" s="4"/>
-    </row>
-    <row r="456" spans="1:1" ht="13">
-      <c r="A456" s="4"/>
-    </row>
-    <row r="457" spans="1:1" ht="13">
-      <c r="A457" s="4"/>
-    </row>
-    <row r="458" spans="1:1" ht="13">
-      <c r="A458" s="4"/>
-    </row>
-    <row r="459" spans="1:1" ht="13">
-      <c r="A459" s="4"/>
-    </row>
-    <row r="460" spans="1:1" ht="13">
-      <c r="A460" s="4"/>
-    </row>
-    <row r="461" spans="1:1" ht="13">
-      <c r="A461" s="4"/>
-    </row>
-    <row r="462" spans="1:1" ht="13">
-      <c r="A462" s="4"/>
-    </row>
-    <row r="463" spans="1:1" ht="13">
-      <c r="A463" s="4"/>
-    </row>
-    <row r="464" spans="1:1" ht="13">
-      <c r="A464" s="4"/>
-    </row>
-    <row r="465" spans="1:1" ht="13">
-      <c r="A465" s="4"/>
-    </row>
-    <row r="466" spans="1:1" ht="13">
-      <c r="A466" s="4"/>
-    </row>
-    <row r="467" spans="1:1" ht="13">
-      <c r="A467" s="4"/>
-    </row>
-    <row r="468" spans="1:1" ht="13">
-      <c r="A468" s="4"/>
-    </row>
-    <row r="469" spans="1:1" ht="13">
-      <c r="A469" s="4"/>
-    </row>
-    <row r="470" spans="1:1" ht="13">
-      <c r="A470" s="4"/>
-    </row>
-    <row r="471" spans="1:1" ht="13">
-      <c r="A471" s="4"/>
-    </row>
-    <row r="472" spans="1:1" ht="13">
-      <c r="A472" s="4"/>
-    </row>
-    <row r="473" spans="1:1" ht="13">
-      <c r="A473" s="4"/>
-    </row>
-    <row r="474" spans="1:1" ht="13">
-      <c r="A474" s="4"/>
-    </row>
-    <row r="475" spans="1:1" ht="13">
-      <c r="A475" s="4"/>
-    </row>
-    <row r="476" spans="1:1" ht="13">
-      <c r="A476" s="4"/>
-    </row>
-    <row r="477" spans="1:1" ht="13">
-      <c r="A477" s="4"/>
-    </row>
-    <row r="478" spans="1:1" ht="13">
-      <c r="A478" s="4"/>
-    </row>
-    <row r="479" spans="1:1" ht="13">
-      <c r="A479" s="4"/>
-    </row>
-    <row r="480" spans="1:1" ht="13">
-      <c r="A480" s="4"/>
-    </row>
-    <row r="481" spans="1:1" ht="13">
-      <c r="A481" s="4"/>
-    </row>
-    <row r="482" spans="1:1" ht="13">
-      <c r="A482" s="4"/>
-    </row>
-    <row r="483" spans="1:1" ht="13">
-      <c r="A483" s="4"/>
-    </row>
-    <row r="484" spans="1:1" ht="13">
-      <c r="A484" s="4"/>
-    </row>
-    <row r="485" spans="1:1" ht="13">
-      <c r="A485" s="4"/>
-    </row>
-    <row r="486" spans="1:1" ht="13">
-      <c r="A486" s="4"/>
-    </row>
-    <row r="487" spans="1:1" ht="13">
-      <c r="A487" s="4"/>
-    </row>
-    <row r="488" spans="1:1" ht="13">
-      <c r="A488" s="4"/>
-    </row>
-    <row r="489" spans="1:1" ht="13">
-      <c r="A489" s="4"/>
-    </row>
-    <row r="490" spans="1:1" ht="13">
-      <c r="A490" s="4"/>
-    </row>
-    <row r="491" spans="1:1" ht="13">
-      <c r="A491" s="4"/>
-    </row>
-    <row r="492" spans="1:1" ht="13">
-      <c r="A492" s="4"/>
-    </row>
-    <row r="493" spans="1:1" ht="13">
-      <c r="A493" s="4"/>
-    </row>
-    <row r="494" spans="1:1" ht="13">
-      <c r="A494" s="4"/>
-    </row>
-    <row r="495" spans="1:1" ht="13">
-      <c r="A495" s="4"/>
-    </row>
-    <row r="496" spans="1:1" ht="13">
-      <c r="A496" s="4"/>
-    </row>
-    <row r="497" spans="1:1" ht="13">
-      <c r="A497" s="4"/>
-    </row>
-    <row r="498" spans="1:1" ht="13">
-      <c r="A498" s="4"/>
-    </row>
-    <row r="499" spans="1:1" ht="13">
-      <c r="A499" s="4"/>
-    </row>
-    <row r="500" spans="1:1" ht="13">
-      <c r="A500" s="4"/>
-    </row>
-    <row r="501" spans="1:1" ht="13">
-      <c r="A501" s="4"/>
-    </row>
-    <row r="502" spans="1:1" ht="13">
-      <c r="A502" s="4"/>
-    </row>
-    <row r="503" spans="1:1" ht="13">
-      <c r="A503" s="4"/>
-    </row>
-    <row r="504" spans="1:1" ht="13">
-      <c r="A504" s="4"/>
-    </row>
-    <row r="505" spans="1:1" ht="13">
-      <c r="A505" s="4"/>
-    </row>
-    <row r="506" spans="1:1" ht="13">
-      <c r="A506" s="4"/>
-    </row>
-    <row r="507" spans="1:1" ht="13">
-      <c r="A507" s="4"/>
-    </row>
-    <row r="508" spans="1:1" ht="13">
-      <c r="A508" s="4"/>
-    </row>
-    <row r="509" spans="1:1" ht="13">
-      <c r="A509" s="4"/>
-    </row>
-    <row r="510" spans="1:1" ht="13">
-      <c r="A510" s="4"/>
-    </row>
-    <row r="511" spans="1:1" ht="13">
-      <c r="A511" s="4"/>
-    </row>
-    <row r="512" spans="1:1" ht="13">
-      <c r="A512" s="4"/>
-    </row>
-    <row r="513" spans="1:1" ht="13">
-      <c r="A513" s="4"/>
-    </row>
-    <row r="514" spans="1:1" ht="13">
-      <c r="A514" s="4"/>
-    </row>
-    <row r="515" spans="1:1" ht="13">
-      <c r="A515" s="4"/>
-    </row>
-    <row r="516" spans="1:1" ht="13">
-      <c r="A516" s="4"/>
-    </row>
-    <row r="517" spans="1:1" ht="13">
-      <c r="A517" s="4"/>
-    </row>
-    <row r="518" spans="1:1" ht="13">
-      <c r="A518" s="4"/>
-    </row>
-    <row r="519" spans="1:1" ht="13">
-      <c r="A519" s="4"/>
-    </row>
-    <row r="520" spans="1:1" ht="13">
-      <c r="A520" s="4"/>
-    </row>
-    <row r="521" spans="1:1" ht="13">
-      <c r="A521" s="4"/>
-    </row>
-    <row r="522" spans="1:1" ht="13">
-      <c r="A522" s="4"/>
-    </row>
-    <row r="523" spans="1:1" ht="13">
-      <c r="A523" s="4"/>
-    </row>
-    <row r="524" spans="1:1" ht="13">
-      <c r="A524" s="4"/>
-    </row>
-    <row r="525" spans="1:1" ht="13">
-      <c r="A525" s="4"/>
-    </row>
-    <row r="526" spans="1:1" ht="13">
-      <c r="A526" s="4"/>
-    </row>
-    <row r="527" spans="1:1" ht="13">
-      <c r="A527" s="4"/>
-    </row>
-    <row r="528" spans="1:1" ht="13">
-      <c r="A528" s="4"/>
-    </row>
-    <row r="529" spans="1:1" ht="13">
-      <c r="A529" s="4"/>
-    </row>
-    <row r="530" spans="1:1" ht="13">
-      <c r="A530" s="4"/>
-    </row>
-    <row r="531" spans="1:1" ht="13">
-      <c r="A531" s="4"/>
-    </row>
-    <row r="532" spans="1:1" ht="13">
-      <c r="A532" s="4"/>
-    </row>
-    <row r="533" spans="1:1" ht="13">
-      <c r="A533" s="4"/>
-    </row>
-    <row r="534" spans="1:1" ht="13">
-      <c r="A534" s="4"/>
-    </row>
-    <row r="535" spans="1:1" ht="13">
-      <c r="A535" s="4"/>
-    </row>
-    <row r="536" spans="1:1" ht="13">
-      <c r="A536" s="4"/>
-    </row>
-    <row r="537" spans="1:1" ht="13">
-      <c r="A537" s="4"/>
-    </row>
-    <row r="538" spans="1:1" ht="13">
-      <c r="A538" s="4"/>
-    </row>
-    <row r="539" spans="1:1" ht="13">
-      <c r="A539" s="4"/>
-    </row>
-    <row r="540" spans="1:1" ht="13">
-      <c r="A540" s="4"/>
-    </row>
-    <row r="541" spans="1:1" ht="13">
-      <c r="A541" s="4"/>
-    </row>
-    <row r="542" spans="1:1" ht="13">
-      <c r="A542" s="4"/>
-    </row>
-    <row r="543" spans="1:1" ht="13">
-      <c r="A543" s="4"/>
-    </row>
-    <row r="544" spans="1:1" ht="13">
-      <c r="A544" s="4"/>
-    </row>
-    <row r="545" spans="1:1" ht="13">
-      <c r="A545" s="4"/>
-    </row>
-    <row r="546" spans="1:1" ht="13">
-      <c r="A546" s="4"/>
-    </row>
-    <row r="547" spans="1:1" ht="13">
-      <c r="A547" s="4"/>
-    </row>
-    <row r="548" spans="1:1" ht="13">
-      <c r="A548" s="4"/>
-    </row>
-    <row r="549" spans="1:1" ht="13">
-      <c r="A549" s="4"/>
-    </row>
-    <row r="550" spans="1:1" ht="13">
-      <c r="A550" s="4"/>
-    </row>
-    <row r="551" spans="1:1" ht="13">
-      <c r="A551" s="4"/>
-    </row>
-    <row r="552" spans="1:1" ht="13">
-      <c r="A552" s="4"/>
-    </row>
-    <row r="553" spans="1:1" ht="13">
-      <c r="A553" s="4"/>
-    </row>
-    <row r="554" spans="1:1" ht="13">
-      <c r="A554" s="4"/>
-    </row>
-    <row r="555" spans="1:1" ht="13">
-      <c r="A555" s="4"/>
-    </row>
-    <row r="556" spans="1:1" ht="13">
-      <c r="A556" s="4"/>
-    </row>
-    <row r="557" spans="1:1" ht="13">
-      <c r="A557" s="4"/>
-    </row>
-    <row r="558" spans="1:1" ht="13">
-      <c r="A558" s="4"/>
-    </row>
-    <row r="559" spans="1:1" ht="13">
-      <c r="A559" s="4"/>
-    </row>
-    <row r="560" spans="1:1" ht="13">
-      <c r="A560" s="4"/>
-    </row>
-    <row r="561" spans="1:1" ht="13">
-      <c r="A561" s="4"/>
-    </row>
-    <row r="562" spans="1:1" ht="13">
-      <c r="A562" s="4"/>
-    </row>
-    <row r="563" spans="1:1" ht="13">
-      <c r="A563" s="4"/>
-    </row>
-    <row r="564" spans="1:1" ht="13">
-      <c r="A564" s="4"/>
-    </row>
-    <row r="565" spans="1:1" ht="13">
-      <c r="A565" s="4"/>
-    </row>
-    <row r="566" spans="1:1" ht="13">
-      <c r="A566" s="4"/>
-    </row>
-    <row r="567" spans="1:1" ht="13">
-      <c r="A567" s="4"/>
-    </row>
-    <row r="568" spans="1:1" ht="13">
-      <c r="A568" s="4"/>
-    </row>
-    <row r="569" spans="1:1" ht="13">
-      <c r="A569" s="4"/>
-    </row>
-    <row r="570" spans="1:1" ht="13">
-      <c r="A570" s="4"/>
-    </row>
-    <row r="571" spans="1:1" ht="13">
-      <c r="A571" s="4"/>
-    </row>
-    <row r="572" spans="1:1" ht="13">
-      <c r="A572" s="4"/>
-    </row>
-    <row r="573" spans="1:1" ht="13">
-      <c r="A573" s="4"/>
-    </row>
-    <row r="574" spans="1:1" ht="13">
-      <c r="A574" s="4"/>
-    </row>
-    <row r="575" spans="1:1" ht="13">
-      <c r="A575" s="4"/>
-    </row>
-    <row r="576" spans="1:1" ht="13">
-      <c r="A576" s="4"/>
-    </row>
-    <row r="577" spans="1:1" ht="13">
-      <c r="A577" s="4"/>
-    </row>
-    <row r="578" spans="1:1" ht="13">
-      <c r="A578" s="4"/>
-    </row>
-    <row r="579" spans="1:1" ht="13">
-      <c r="A579" s="4"/>
-    </row>
-    <row r="580" spans="1:1" ht="13">
-      <c r="A580" s="4"/>
-    </row>
-    <row r="581" spans="1:1" ht="13">
-      <c r="A581" s="4"/>
-    </row>
-    <row r="582" spans="1:1" ht="13">
-      <c r="A582" s="4"/>
-    </row>
-    <row r="583" spans="1:1" ht="13">
-      <c r="A583" s="4"/>
-    </row>
-    <row r="584" spans="1:1" ht="13">
-      <c r="A584" s="4"/>
-    </row>
-    <row r="585" spans="1:1" ht="13">
-      <c r="A585" s="4"/>
-    </row>
-    <row r="586" spans="1:1" ht="13">
-      <c r="A586" s="4"/>
-    </row>
-    <row r="587" spans="1:1" ht="13">
-      <c r="A587" s="4"/>
-    </row>
-    <row r="588" spans="1:1" ht="13">
-      <c r="A588" s="4"/>
-    </row>
-    <row r="589" spans="1:1" ht="13">
-      <c r="A589" s="4"/>
-    </row>
-    <row r="590" spans="1:1" ht="13">
-      <c r="A590" s="4"/>
-    </row>
-    <row r="591" spans="1:1" ht="13">
-      <c r="A591" s="4"/>
-    </row>
-    <row r="592" spans="1:1" ht="13">
-      <c r="A592" s="4"/>
-    </row>
-    <row r="593" spans="1:1" ht="13">
-      <c r="A593" s="4"/>
-    </row>
-    <row r="594" spans="1:1" ht="13">
-      <c r="A594" s="4"/>
-    </row>
-    <row r="595" spans="1:1" ht="13">
-      <c r="A595" s="4"/>
-    </row>
-    <row r="596" spans="1:1" ht="13">
-      <c r="A596" s="4"/>
-    </row>
-    <row r="597" spans="1:1" ht="13">
-      <c r="A597" s="4"/>
-    </row>
-    <row r="598" spans="1:1" ht="13">
-      <c r="A598" s="4"/>
-    </row>
-    <row r="599" spans="1:1" ht="13">
-      <c r="A599" s="4"/>
-    </row>
-    <row r="600" spans="1:1" ht="13">
-      <c r="A600" s="4"/>
-    </row>
-    <row r="601" spans="1:1" ht="13">
-      <c r="A601" s="4"/>
-    </row>
-    <row r="602" spans="1:1" ht="13">
-      <c r="A602" s="4"/>
-    </row>
-    <row r="603" spans="1:1" ht="13">
-      <c r="A603" s="4"/>
-    </row>
-    <row r="604" spans="1:1" ht="13">
-      <c r="A604" s="4"/>
-    </row>
-    <row r="605" spans="1:1" ht="13">
-      <c r="A605" s="4"/>
-    </row>
-    <row r="606" spans="1:1" ht="13">
-      <c r="A606" s="4"/>
-    </row>
-    <row r="607" spans="1:1" ht="13">
-      <c r="A607" s="4"/>
-    </row>
-    <row r="608" spans="1:1" ht="13">
-      <c r="A608" s="4"/>
-    </row>
-    <row r="609" spans="1:1" ht="13">
-      <c r="A609" s="4"/>
-    </row>
-    <row r="610" spans="1:1" ht="13">
-      <c r="A610" s="4"/>
-    </row>
-    <row r="611" spans="1:1" ht="13">
-      <c r="A611" s="4"/>
-    </row>
-    <row r="612" spans="1:1" ht="13">
-      <c r="A612" s="4"/>
-    </row>
-    <row r="613" spans="1:1" ht="13">
-      <c r="A613" s="4"/>
-    </row>
-    <row r="614" spans="1:1" ht="13">
-      <c r="A614" s="4"/>
-    </row>
-    <row r="615" spans="1:1" ht="13">
-      <c r="A615" s="4"/>
-    </row>
-    <row r="616" spans="1:1" ht="13">
-      <c r="A616" s="4"/>
-    </row>
-    <row r="617" spans="1:1" ht="13">
-      <c r="A617" s="4"/>
-    </row>
-    <row r="618" spans="1:1" ht="13">
-      <c r="A618" s="4"/>
-    </row>
-    <row r="619" spans="1:1" ht="13">
-      <c r="A619" s="4"/>
-    </row>
-    <row r="620" spans="1:1" ht="13">
-      <c r="A620" s="4"/>
-    </row>
-    <row r="621" spans="1:1" ht="13">
-      <c r="A621" s="4"/>
-    </row>
-    <row r="622" spans="1:1" ht="13">
-      <c r="A622" s="4"/>
-    </row>
-    <row r="623" spans="1:1" ht="13">
-      <c r="A623" s="4"/>
-    </row>
-    <row r="624" spans="1:1" ht="13">
-      <c r="A624" s="4"/>
-    </row>
-    <row r="625" spans="1:1" ht="13">
-      <c r="A625" s="4"/>
-    </row>
-    <row r="626" spans="1:1" ht="13">
-      <c r="A626" s="4"/>
-    </row>
-    <row r="627" spans="1:1" ht="13">
-      <c r="A627" s="4"/>
-    </row>
-    <row r="628" spans="1:1" ht="13">
-      <c r="A628" s="4"/>
-    </row>
-    <row r="629" spans="1:1" ht="13">
-      <c r="A629" s="4"/>
-    </row>
-    <row r="630" spans="1:1" ht="13">
-      <c r="A630" s="4"/>
-    </row>
-    <row r="631" spans="1:1" ht="13">
-      <c r="A631" s="4"/>
-    </row>
-    <row r="632" spans="1:1" ht="13">
-      <c r="A632" s="4"/>
-    </row>
-    <row r="633" spans="1:1" ht="13">
-      <c r="A633" s="4"/>
-    </row>
-    <row r="634" spans="1:1" ht="13">
-      <c r="A634" s="4"/>
-    </row>
-    <row r="635" spans="1:1" ht="13">
-      <c r="A635" s="4"/>
-    </row>
-    <row r="636" spans="1:1" ht="13">
-      <c r="A636" s="4"/>
-    </row>
-    <row r="637" spans="1:1" ht="13">
-      <c r="A637" s="4"/>
-    </row>
-    <row r="638" spans="1:1" ht="13">
-      <c r="A638" s="4"/>
-    </row>
-    <row r="639" spans="1:1" ht="13">
-      <c r="A639" s="4"/>
-    </row>
-    <row r="640" spans="1:1" ht="13">
-      <c r="A640" s="4"/>
-    </row>
-    <row r="641" spans="1:1" ht="13">
-      <c r="A641" s="4"/>
-    </row>
-    <row r="642" spans="1:1" ht="13">
-      <c r="A642" s="4"/>
-    </row>
-    <row r="643" spans="1:1" ht="13">
-      <c r="A643" s="4"/>
-    </row>
-    <row r="644" spans="1:1" ht="13">
-      <c r="A644" s="4"/>
-    </row>
-    <row r="645" spans="1:1" ht="13">
-      <c r="A645" s="4"/>
-    </row>
-    <row r="646" spans="1:1" ht="13">
-      <c r="A646" s="4"/>
-    </row>
-    <row r="647" spans="1:1" ht="13">
-      <c r="A647" s="4"/>
-    </row>
-    <row r="648" spans="1:1" ht="13">
-      <c r="A648" s="4"/>
-    </row>
-    <row r="649" spans="1:1" ht="13">
-      <c r="A649" s="4"/>
-    </row>
-    <row r="650" spans="1:1" ht="13">
-      <c r="A650" s="4"/>
-    </row>
-    <row r="651" spans="1:1" ht="13">
-      <c r="A651" s="4"/>
-    </row>
-    <row r="652" spans="1:1" ht="13">
-      <c r="A652" s="4"/>
-    </row>
-    <row r="653" spans="1:1" ht="13">
-      <c r="A653" s="4"/>
-    </row>
-    <row r="654" spans="1:1" ht="13">
-      <c r="A654" s="4"/>
-    </row>
-    <row r="655" spans="1:1" ht="13">
-      <c r="A655" s="4"/>
-    </row>
-    <row r="656" spans="1:1" ht="13">
-      <c r="A656" s="4"/>
-    </row>
-    <row r="657" spans="1:1" ht="13">
-      <c r="A657" s="4"/>
-    </row>
-    <row r="658" spans="1:1" ht="13">
-      <c r="A658" s="4"/>
-    </row>
-    <row r="659" spans="1:1" ht="13">
-      <c r="A659" s="4"/>
-    </row>
-    <row r="660" spans="1:1" ht="13">
-      <c r="A660" s="4"/>
-    </row>
-    <row r="661" spans="1:1" ht="13">
-      <c r="A661" s="4"/>
-    </row>
-    <row r="662" spans="1:1" ht="13">
-      <c r="A662" s="4"/>
-    </row>
-    <row r="663" spans="1:1" ht="13">
-      <c r="A663" s="4"/>
-    </row>
-    <row r="664" spans="1:1" ht="13">
-      <c r="A664" s="4"/>
-    </row>
-    <row r="665" spans="1:1" ht="13">
-      <c r="A665" s="4"/>
-    </row>
-    <row r="666" spans="1:1" ht="13">
-      <c r="A666" s="4"/>
-    </row>
-    <row r="667" spans="1:1" ht="13">
-      <c r="A667" s="4"/>
-    </row>
-    <row r="668" spans="1:1" ht="13">
-      <c r="A668" s="4"/>
-    </row>
-    <row r="669" spans="1:1" ht="13">
-      <c r="A669" s="4"/>
-    </row>
-    <row r="670" spans="1:1" ht="13">
-      <c r="A670" s="4"/>
-    </row>
-    <row r="671" spans="1:1" ht="13">
-      <c r="A671" s="4"/>
-    </row>
-    <row r="672" spans="1:1" ht="13">
-      <c r="A672" s="4"/>
-    </row>
-    <row r="673" spans="1:1" ht="13">
-      <c r="A673" s="4"/>
-    </row>
-    <row r="674" spans="1:1" ht="13">
-      <c r="A674" s="4"/>
-    </row>
-    <row r="675" spans="1:1" ht="13">
-      <c r="A675" s="4"/>
-    </row>
-    <row r="676" spans="1:1" ht="13">
-      <c r="A676" s="4"/>
-    </row>
-    <row r="677" spans="1:1" ht="13">
-      <c r="A677" s="4"/>
-    </row>
-    <row r="678" spans="1:1" ht="13">
-      <c r="A678" s="4"/>
-    </row>
-    <row r="679" spans="1:1" ht="13">
-      <c r="A679" s="4"/>
-    </row>
-    <row r="680" spans="1:1" ht="13">
-      <c r="A680" s="4"/>
-    </row>
-    <row r="681" spans="1:1" ht="13">
-      <c r="A681" s="4"/>
-    </row>
-    <row r="682" spans="1:1" ht="13">
-      <c r="A682" s="4"/>
-    </row>
-    <row r="683" spans="1:1" ht="13">
-      <c r="A683" s="4"/>
-    </row>
-    <row r="684" spans="1:1" ht="13">
-      <c r="A684" s="4"/>
-    </row>
-    <row r="685" spans="1:1" ht="13">
-      <c r="A685" s="4"/>
-    </row>
-    <row r="686" spans="1:1" ht="13">
-      <c r="A686" s="4"/>
-    </row>
-    <row r="687" spans="1:1" ht="13">
-      <c r="A687" s="4"/>
-    </row>
-    <row r="688" spans="1:1" ht="13">
-      <c r="A688" s="4"/>
-    </row>
-    <row r="689" spans="1:1" ht="13">
-      <c r="A689" s="4"/>
-    </row>
-    <row r="690" spans="1:1" ht="13">
-      <c r="A690" s="4"/>
-    </row>
-    <row r="691" spans="1:1" ht="13">
-      <c r="A691" s="4"/>
-    </row>
-    <row r="692" spans="1:1" ht="13">
-      <c r="A692" s="4"/>
-    </row>
-    <row r="693" spans="1:1" ht="13">
-      <c r="A693" s="4"/>
-    </row>
-    <row r="694" spans="1:1" ht="13">
-      <c r="A694" s="4"/>
-    </row>
-    <row r="695" spans="1:1" ht="13">
-      <c r="A695" s="4"/>
-    </row>
-    <row r="696" spans="1:1" ht="13">
-      <c r="A696" s="4"/>
-    </row>
-    <row r="697" spans="1:1" ht="13">
-      <c r="A697" s="4"/>
-    </row>
-    <row r="698" spans="1:1" ht="13">
-      <c r="A698" s="4"/>
-    </row>
-    <row r="699" spans="1:1" ht="13">
-      <c r="A699" s="4"/>
-    </row>
-    <row r="700" spans="1:1" ht="13">
-      <c r="A700" s="4"/>
-    </row>
-    <row r="701" spans="1:1" ht="13">
-      <c r="A701" s="4"/>
-    </row>
-    <row r="702" spans="1:1" ht="13">
-      <c r="A702" s="4"/>
-    </row>
-    <row r="703" spans="1:1" ht="13">
-      <c r="A703" s="4"/>
-    </row>
-    <row r="704" spans="1:1" ht="13">
-      <c r="A704" s="4"/>
-    </row>
-    <row r="705" spans="1:1" ht="13">
-      <c r="A705" s="4"/>
-    </row>
-    <row r="706" spans="1:1" ht="13">
-      <c r="A706" s="4"/>
-    </row>
-    <row r="707" spans="1:1" ht="13">
-      <c r="A707" s="4"/>
-    </row>
-    <row r="708" spans="1:1" ht="13">
-      <c r="A708" s="4"/>
-    </row>
-    <row r="709" spans="1:1" ht="13">
-      <c r="A709" s="4"/>
-    </row>
-    <row r="710" spans="1:1" ht="13">
-      <c r="A710" s="4"/>
-    </row>
-    <row r="711" spans="1:1" ht="13">
-      <c r="A711" s="4"/>
-    </row>
-    <row r="712" spans="1:1" ht="13">
-      <c r="A712" s="4"/>
-    </row>
-    <row r="713" spans="1:1" ht="13">
-      <c r="A713" s="4"/>
-    </row>
-    <row r="714" spans="1:1" ht="13">
-      <c r="A714" s="4"/>
-    </row>
-    <row r="715" spans="1:1" ht="13">
-      <c r="A715" s="4"/>
-    </row>
-    <row r="716" spans="1:1" ht="13">
-      <c r="A716" s="4"/>
-    </row>
-    <row r="717" spans="1:1" ht="13">
-      <c r="A717" s="4"/>
-    </row>
-    <row r="718" spans="1:1" ht="13">
-      <c r="A718" s="4"/>
-    </row>
-    <row r="719" spans="1:1" ht="13">
-      <c r="A719" s="4"/>
-    </row>
-    <row r="720" spans="1:1" ht="13">
-      <c r="A720" s="4"/>
-    </row>
-    <row r="721" spans="1:1" ht="13">
-      <c r="A721" s="4"/>
-    </row>
-    <row r="722" spans="1:1" ht="13">
-      <c r="A722" s="4"/>
-    </row>
-    <row r="723" spans="1:1" ht="13">
-      <c r="A723" s="4"/>
-    </row>
-    <row r="724" spans="1:1" ht="13">
-      <c r="A724" s="4"/>
-    </row>
-    <row r="725" spans="1:1" ht="13">
-      <c r="A725" s="4"/>
-    </row>
-    <row r="726" spans="1:1" ht="13">
-      <c r="A726" s="4"/>
-    </row>
-    <row r="727" spans="1:1" ht="13">
-      <c r="A727" s="4"/>
-    </row>
-    <row r="728" spans="1:1" ht="13">
-      <c r="A728" s="4"/>
-    </row>
-    <row r="729" spans="1:1" ht="13">
-      <c r="A729" s="4"/>
-    </row>
-    <row r="730" spans="1:1" ht="13">
-      <c r="A730" s="4"/>
-    </row>
-    <row r="731" spans="1:1" ht="13">
-      <c r="A731" s="4"/>
-    </row>
-    <row r="732" spans="1:1" ht="13">
-      <c r="A732" s="4"/>
-    </row>
-    <row r="733" spans="1:1" ht="13">
-      <c r="A733" s="4"/>
-    </row>
-    <row r="734" spans="1:1" ht="13">
-      <c r="A734" s="4"/>
-    </row>
-    <row r="735" spans="1:1" ht="13">
-      <c r="A735" s="4"/>
-    </row>
-    <row r="736" spans="1:1" ht="13">
-      <c r="A736" s="4"/>
-    </row>
-    <row r="737" spans="1:1" ht="13">
-      <c r="A737" s="4"/>
-    </row>
-    <row r="738" spans="1:1" ht="13">
-      <c r="A738" s="4"/>
-    </row>
-    <row r="739" spans="1:1" ht="13">
-      <c r="A739" s="4"/>
-    </row>
-    <row r="740" spans="1:1" ht="13">
-      <c r="A740" s="4"/>
-    </row>
-    <row r="741" spans="1:1" ht="13">
-      <c r="A741" s="4"/>
-    </row>
-    <row r="742" spans="1:1" ht="13">
-      <c r="A742" s="4"/>
-    </row>
-    <row r="743" spans="1:1" ht="13">
-      <c r="A743" s="4"/>
-    </row>
-    <row r="744" spans="1:1" ht="13">
-      <c r="A744" s="4"/>
-    </row>
-    <row r="745" spans="1:1" ht="13">
-      <c r="A745" s="4"/>
-    </row>
-    <row r="746" spans="1:1" ht="13">
-      <c r="A746" s="4"/>
-    </row>
-    <row r="747" spans="1:1" ht="13">
-      <c r="A747" s="4"/>
-    </row>
-    <row r="748" spans="1:1" ht="13">
-      <c r="A748" s="4"/>
-    </row>
-    <row r="749" spans="1:1" ht="13">
-      <c r="A749" s="4"/>
-    </row>
-    <row r="750" spans="1:1" ht="13">
-      <c r="A750" s="4"/>
-    </row>
-    <row r="751" spans="1:1" ht="13">
-      <c r="A751" s="4"/>
-    </row>
-    <row r="752" spans="1:1" ht="13">
-      <c r="A752" s="4"/>
-    </row>
-    <row r="753" spans="1:1" ht="13">
-      <c r="A753" s="4"/>
-    </row>
-    <row r="754" spans="1:1" ht="13">
-      <c r="A754" s="4"/>
-    </row>
-    <row r="755" spans="1:1" ht="13">
-      <c r="A755" s="4"/>
-    </row>
-    <row r="756" spans="1:1" ht="13">
-      <c r="A756" s="4"/>
-    </row>
-    <row r="757" spans="1:1" ht="13">
-      <c r="A757" s="4"/>
-    </row>
-    <row r="758" spans="1:1" ht="13">
-      <c r="A758" s="4"/>
-    </row>
-    <row r="759" spans="1:1" ht="13">
-      <c r="A759" s="4"/>
-    </row>
-    <row r="760" spans="1:1" ht="13">
-      <c r="A760" s="4"/>
-    </row>
-    <row r="761" spans="1:1" ht="13">
-      <c r="A761" s="4"/>
-    </row>
-    <row r="762" spans="1:1" ht="13">
-      <c r="A762" s="4"/>
-    </row>
-    <row r="763" spans="1:1" ht="13">
-      <c r="A763" s="4"/>
-    </row>
-    <row r="764" spans="1:1" ht="13">
-      <c r="A764" s="4"/>
-    </row>
-    <row r="765" spans="1:1" ht="13">
-      <c r="A765" s="4"/>
-    </row>
-    <row r="766" spans="1:1" ht="13">
-      <c r="A766" s="4"/>
-    </row>
-    <row r="767" spans="1:1" ht="13">
-      <c r="A767" s="4"/>
-    </row>
-    <row r="768" spans="1:1" ht="13">
-      <c r="A768" s="4"/>
-    </row>
-    <row r="769" spans="1:1" ht="13">
-      <c r="A769" s="4"/>
-    </row>
-    <row r="770" spans="1:1" ht="13">
-      <c r="A770" s="4"/>
-    </row>
-    <row r="771" spans="1:1" ht="13">
-      <c r="A771" s="4"/>
-    </row>
-    <row r="772" spans="1:1" ht="13">
-      <c r="A772" s="4"/>
-    </row>
-    <row r="773" spans="1:1" ht="13">
-      <c r="A773" s="4"/>
-    </row>
-    <row r="774" spans="1:1" ht="13">
-      <c r="A774" s="4"/>
-    </row>
-    <row r="775" spans="1:1" ht="13">
-      <c r="A775" s="4"/>
-    </row>
-    <row r="776" spans="1:1" ht="13">
-      <c r="A776" s="4"/>
-    </row>
-    <row r="777" spans="1:1" ht="13">
-      <c r="A777" s="4"/>
-    </row>
-    <row r="778" spans="1:1" ht="13">
-      <c r="A778" s="4"/>
-    </row>
-    <row r="779" spans="1:1" ht="13">
-      <c r="A779" s="4"/>
-    </row>
-    <row r="780" spans="1:1" ht="13">
-      <c r="A780" s="4"/>
-    </row>
-    <row r="781" spans="1:1" ht="13">
-      <c r="A781" s="4"/>
-    </row>
-    <row r="782" spans="1:1" ht="13">
-      <c r="A782" s="4"/>
-    </row>
-    <row r="783" spans="1:1" ht="13">
-      <c r="A783" s="4"/>
-    </row>
-    <row r="784" spans="1:1" ht="13">
-      <c r="A784" s="4"/>
-    </row>
-    <row r="785" spans="1:1" ht="13">
-      <c r="A785" s="4"/>
-    </row>
-    <row r="786" spans="1:1" ht="13">
-      <c r="A786" s="4"/>
-    </row>
-    <row r="787" spans="1:1" ht="13">
-      <c r="A787" s="4"/>
-    </row>
-    <row r="788" spans="1:1" ht="13">
-      <c r="A788" s="4"/>
-    </row>
-    <row r="789" spans="1:1" ht="13">
-      <c r="A789" s="4"/>
-    </row>
-    <row r="790" spans="1:1" ht="13">
-      <c r="A790" s="4"/>
-    </row>
-    <row r="791" spans="1:1" ht="13">
-      <c r="A791" s="4"/>
-    </row>
-    <row r="792" spans="1:1" ht="13">
-      <c r="A792" s="4"/>
-    </row>
-    <row r="793" spans="1:1" ht="13">
-      <c r="A793" s="4"/>
-    </row>
-    <row r="794" spans="1:1" ht="13">
-      <c r="A794" s="4"/>
-    </row>
-    <row r="795" spans="1:1" ht="13">
-      <c r="A795" s="4"/>
-    </row>
-    <row r="796" spans="1:1" ht="13">
-      <c r="A796" s="4"/>
-    </row>
-    <row r="797" spans="1:1" ht="13">
-      <c r="A797" s="4"/>
-    </row>
-    <row r="798" spans="1:1" ht="13">
-      <c r="A798" s="4"/>
-    </row>
-    <row r="799" spans="1:1" ht="13">
-      <c r="A799" s="4"/>
-    </row>
-    <row r="800" spans="1:1" ht="13">
-      <c r="A800" s="4"/>
-    </row>
-    <row r="801" spans="1:1" ht="13">
-      <c r="A801" s="4"/>
-    </row>
-    <row r="802" spans="1:1" ht="13">
-      <c r="A802" s="4"/>
-    </row>
-    <row r="803" spans="1:1" ht="13">
-      <c r="A803" s="4"/>
-    </row>
-    <row r="804" spans="1:1" ht="13">
-      <c r="A804" s="4"/>
-    </row>
-    <row r="805" spans="1:1" ht="13">
-      <c r="A805" s="4"/>
-    </row>
-    <row r="806" spans="1:1" ht="13">
-      <c r="A806" s="4"/>
-    </row>
-    <row r="807" spans="1:1" ht="13">
-      <c r="A807" s="4"/>
-    </row>
-    <row r="808" spans="1:1" ht="13">
-      <c r="A808" s="4"/>
-    </row>
-    <row r="809" spans="1:1" ht="13">
-      <c r="A809" s="4"/>
-    </row>
-    <row r="810" spans="1:1" ht="13">
-      <c r="A810" s="4"/>
-    </row>
-    <row r="811" spans="1:1" ht="13">
-      <c r="A811" s="4"/>
-    </row>
-    <row r="812" spans="1:1" ht="13">
-      <c r="A812" s="4"/>
-    </row>
-    <row r="813" spans="1:1" ht="13">
-      <c r="A813" s="4"/>
-    </row>
-    <row r="814" spans="1:1" ht="13">
-      <c r="A814" s="4"/>
-    </row>
-    <row r="815" spans="1:1" ht="13">
-      <c r="A815" s="4"/>
-    </row>
-    <row r="816" spans="1:1" ht="13">
-      <c r="A816" s="4"/>
-    </row>
-    <row r="817" spans="1:1" ht="13">
-      <c r="A817" s="4"/>
-    </row>
-    <row r="818" spans="1:1" ht="13">
-      <c r="A818" s="4"/>
-    </row>
-    <row r="819" spans="1:1" ht="13">
-      <c r="A819" s="4"/>
-    </row>
-    <row r="820" spans="1:1" ht="13">
-      <c r="A820" s="4"/>
-    </row>
-    <row r="821" spans="1:1" ht="13">
-      <c r="A821" s="4"/>
-    </row>
-    <row r="822" spans="1:1" ht="13">
-      <c r="A822" s="4"/>
-    </row>
-    <row r="823" spans="1:1" ht="13">
-      <c r="A823" s="4"/>
-    </row>
-    <row r="824" spans="1:1" ht="13">
-      <c r="A824" s="4"/>
-    </row>
-    <row r="825" spans="1:1" ht="13">
-      <c r="A825" s="4"/>
-    </row>
-    <row r="826" spans="1:1" ht="13">
-      <c r="A826" s="4"/>
-    </row>
-    <row r="827" spans="1:1" ht="13">
-      <c r="A827" s="4"/>
-    </row>
-    <row r="828" spans="1:1" ht="13">
-      <c r="A828" s="4"/>
-    </row>
-    <row r="829" spans="1:1" ht="13">
-      <c r="A829" s="4"/>
-    </row>
-    <row r="830" spans="1:1" ht="13">
-      <c r="A830" s="4"/>
-    </row>
-    <row r="831" spans="1:1" ht="13">
-      <c r="A831" s="4"/>
-    </row>
-    <row r="832" spans="1:1" ht="13">
-      <c r="A832" s="4"/>
-    </row>
-    <row r="833" spans="1:1" ht="13">
-      <c r="A833" s="4"/>
-    </row>
-    <row r="834" spans="1:1" ht="13">
-      <c r="A834" s="4"/>
-    </row>
-    <row r="835" spans="1:1" ht="13">
-      <c r="A835" s="4"/>
-    </row>
-    <row r="836" spans="1:1" ht="13">
-      <c r="A836" s="4"/>
-    </row>
-    <row r="837" spans="1:1" ht="13">
-      <c r="A837" s="4"/>
-    </row>
-    <row r="838" spans="1:1" ht="13">
-      <c r="A838" s="4"/>
-    </row>
-    <row r="839" spans="1:1" ht="13">
-      <c r="A839" s="4"/>
-    </row>
-    <row r="840" spans="1:1" ht="13">
-      <c r="A840" s="4"/>
-    </row>
-    <row r="841" spans="1:1" ht="13">
-      <c r="A841" s="4"/>
-    </row>
-    <row r="842" spans="1:1" ht="13">
-      <c r="A842" s="4"/>
-    </row>
-    <row r="843" spans="1:1" ht="13">
-      <c r="A843" s="4"/>
-    </row>
-    <row r="844" spans="1:1" ht="13">
-      <c r="A844" s="4"/>
-    </row>
-    <row r="845" spans="1:1" ht="13">
-      <c r="A845" s="4"/>
-    </row>
-    <row r="846" spans="1:1" ht="13">
-      <c r="A846" s="4"/>
-    </row>
-    <row r="847" spans="1:1" ht="13">
-      <c r="A847" s="4"/>
-    </row>
-    <row r="848" spans="1:1" ht="13">
-      <c r="A848" s="4"/>
-    </row>
-    <row r="849" spans="1:1" ht="13">
-      <c r="A849" s="4"/>
-    </row>
-    <row r="850" spans="1:1" ht="13">
-      <c r="A850" s="4"/>
-    </row>
-    <row r="851" spans="1:1" ht="13">
-      <c r="A851" s="4"/>
-    </row>
-    <row r="852" spans="1:1" ht="13">
-      <c r="A852" s="4"/>
-    </row>
-    <row r="853" spans="1:1" ht="13">
-      <c r="A853" s="4"/>
-    </row>
-    <row r="854" spans="1:1" ht="13">
-      <c r="A854" s="4"/>
-    </row>
-    <row r="855" spans="1:1" ht="13">
-      <c r="A855" s="4"/>
-    </row>
-    <row r="856" spans="1:1" ht="13">
-      <c r="A856" s="4"/>
-    </row>
-    <row r="857" spans="1:1" ht="13">
-      <c r="A857" s="4"/>
-    </row>
-    <row r="858" spans="1:1" ht="13">
-      <c r="A858" s="4"/>
-    </row>
-    <row r="859" spans="1:1" ht="13">
-      <c r="A859" s="4"/>
-    </row>
-    <row r="860" spans="1:1" ht="13">
-      <c r="A860" s="4"/>
-    </row>
-    <row r="861" spans="1:1" ht="13">
-      <c r="A861" s="4"/>
-    </row>
-    <row r="862" spans="1:1" ht="13">
-      <c r="A862" s="4"/>
-    </row>
-    <row r="863" spans="1:1" ht="13">
-      <c r="A863" s="4"/>
-    </row>
-    <row r="864" spans="1:1" ht="13">
-      <c r="A864" s="4"/>
-    </row>
-    <row r="865" spans="1:1" ht="13">
-      <c r="A865" s="4"/>
-    </row>
-    <row r="866" spans="1:1" ht="13">
-      <c r="A866" s="4"/>
-    </row>
-    <row r="867" spans="1:1" ht="13">
-      <c r="A867" s="4"/>
-    </row>
-    <row r="868" spans="1:1" ht="13">
-      <c r="A868" s="4"/>
-    </row>
-    <row r="869" spans="1:1" ht="13">
-      <c r="A869" s="4"/>
-    </row>
-    <row r="870" spans="1:1" ht="13">
-      <c r="A870" s="4"/>
-    </row>
-    <row r="871" spans="1:1" ht="13">
-      <c r="A871" s="4"/>
-    </row>
-    <row r="872" spans="1:1" ht="13">
-      <c r="A872" s="4"/>
-    </row>
-    <row r="873" spans="1:1" ht="13">
-      <c r="A873" s="4"/>
-    </row>
-    <row r="874" spans="1:1" ht="13">
-      <c r="A874" s="4"/>
-    </row>
-    <row r="875" spans="1:1" ht="13">
-      <c r="A875" s="4"/>
-    </row>
-    <row r="876" spans="1:1" ht="13">
-      <c r="A876" s="4"/>
-    </row>
-    <row r="877" spans="1:1" ht="13">
-      <c r="A877" s="4"/>
-    </row>
-    <row r="878" spans="1:1" ht="13">
-      <c r="A878" s="4"/>
-    </row>
-    <row r="879" spans="1:1" ht="13">
-      <c r="A879" s="4"/>
-    </row>
-    <row r="880" spans="1:1" ht="13">
-      <c r="A880" s="4"/>
-    </row>
-    <row r="881" spans="1:1" ht="13">
-      <c r="A881" s="4"/>
-    </row>
-    <row r="882" spans="1:1" ht="13">
-      <c r="A882" s="4"/>
-    </row>
-    <row r="883" spans="1:1" ht="13">
-      <c r="A883" s="4"/>
-    </row>
-    <row r="884" spans="1:1" ht="13">
-      <c r="A884" s="4"/>
-    </row>
-    <row r="885" spans="1:1" ht="13">
-      <c r="A885" s="4"/>
-    </row>
-    <row r="886" spans="1:1" ht="13">
-      <c r="A886" s="4"/>
-    </row>
-    <row r="887" spans="1:1" ht="13">
-      <c r="A887" s="4"/>
-    </row>
-    <row r="888" spans="1:1" ht="13">
-      <c r="A888" s="4"/>
-    </row>
-    <row r="889" spans="1:1" ht="13">
-      <c r="A889" s="4"/>
-    </row>
-    <row r="890" spans="1:1" ht="13">
-      <c r="A890" s="4"/>
-    </row>
-    <row r="891" spans="1:1" ht="13">
-      <c r="A891" s="4"/>
-    </row>
-    <row r="892" spans="1:1" ht="13">
-      <c r="A892" s="4"/>
-    </row>
-    <row r="893" spans="1:1" ht="13">
-      <c r="A893" s="4"/>
-    </row>
-    <row r="894" spans="1:1" ht="13">
-      <c r="A894" s="4"/>
-    </row>
-    <row r="895" spans="1:1" ht="13">
-      <c r="A895" s="4"/>
-    </row>
-    <row r="896" spans="1:1" ht="13">
-      <c r="A896" s="4"/>
-    </row>
-    <row r="897" spans="1:1" ht="13">
-      <c r="A897" s="4"/>
-    </row>
-    <row r="898" spans="1:1" ht="13">
-      <c r="A898" s="4"/>
-    </row>
-    <row r="899" spans="1:1" ht="13">
-      <c r="A899" s="4"/>
-    </row>
-    <row r="900" spans="1:1" ht="13">
-      <c r="A900" s="4"/>
-    </row>
-    <row r="901" spans="1:1" ht="13">
-      <c r="A901" s="4"/>
-    </row>
-    <row r="902" spans="1:1" ht="13">
-      <c r="A902" s="4"/>
-    </row>
-    <row r="903" spans="1:1" ht="13">
-      <c r="A903" s="4"/>
-    </row>
-    <row r="904" spans="1:1" ht="13">
-      <c r="A904" s="4"/>
-    </row>
-    <row r="905" spans="1:1" ht="13">
-      <c r="A905" s="4"/>
-    </row>
-    <row r="906" spans="1:1" ht="13">
-      <c r="A906" s="4"/>
-    </row>
-    <row r="907" spans="1:1" ht="13">
-      <c r="A907" s="4"/>
-    </row>
-    <row r="908" spans="1:1" ht="13">
-      <c r="A908" s="4"/>
-    </row>
-    <row r="909" spans="1:1" ht="13">
-      <c r="A909" s="4"/>
-    </row>
-    <row r="910" spans="1:1" ht="13">
-      <c r="A910" s="4"/>
-    </row>
-    <row r="911" spans="1:1" ht="13">
-      <c r="A911" s="4"/>
-    </row>
-    <row r="912" spans="1:1" ht="13">
-      <c r="A912" s="4"/>
-    </row>
-    <row r="913" spans="1:1" ht="13">
-      <c r="A913" s="4"/>
-    </row>
-    <row r="914" spans="1:1" ht="13">
-      <c r="A914" s="4"/>
-    </row>
-    <row r="915" spans="1:1" ht="13">
-      <c r="A915" s="4"/>
-    </row>
-    <row r="916" spans="1:1" ht="13">
-      <c r="A916" s="4"/>
-    </row>
-    <row r="917" spans="1:1" ht="13">
-      <c r="A917" s="4"/>
-    </row>
-    <row r="918" spans="1:1" ht="13">
-      <c r="A918" s="4"/>
-    </row>
-    <row r="919" spans="1:1" ht="13">
-      <c r="A919" s="4"/>
-    </row>
-    <row r="920" spans="1:1" ht="13">
-      <c r="A920" s="4"/>
-    </row>
-    <row r="921" spans="1:1" ht="13">
-      <c r="A921" s="4"/>
-    </row>
-    <row r="922" spans="1:1" ht="13">
-      <c r="A922" s="4"/>
-    </row>
-    <row r="923" spans="1:1" ht="13">
-      <c r="A923" s="4"/>
-    </row>
-    <row r="924" spans="1:1" ht="13">
-      <c r="A924" s="4"/>
-    </row>
-    <row r="925" spans="1:1" ht="13">
-      <c r="A925" s="4"/>
-    </row>
-    <row r="926" spans="1:1" ht="13">
-      <c r="A926" s="4"/>
-    </row>
-    <row r="927" spans="1:1" ht="13">
-      <c r="A927" s="4"/>
-    </row>
-    <row r="928" spans="1:1" ht="13">
-      <c r="A928" s="4"/>
-    </row>
-    <row r="929" spans="1:1" ht="13">
-      <c r="A929" s="4"/>
-    </row>
-    <row r="930" spans="1:1" ht="13">
-      <c r="A930" s="4"/>
-    </row>
-    <row r="931" spans="1:1" ht="13">
-      <c r="A931" s="4"/>
-    </row>
-    <row r="932" spans="1:1" ht="13">
-      <c r="A932" s="4"/>
-    </row>
-    <row r="933" spans="1:1" ht="13">
-      <c r="A933" s="4"/>
-    </row>
-    <row r="934" spans="1:1" ht="13">
-      <c r="A934" s="4"/>
-    </row>
-    <row r="935" spans="1:1" ht="13">
-      <c r="A935" s="4"/>
-    </row>
-    <row r="936" spans="1:1" ht="13">
-      <c r="A936" s="4"/>
-    </row>
-    <row r="937" spans="1:1" ht="13">
-      <c r="A937" s="4"/>
-    </row>
-    <row r="938" spans="1:1" ht="13">
-      <c r="A938" s="4"/>
-    </row>
-    <row r="939" spans="1:1" ht="13">
-      <c r="A939" s="4"/>
-    </row>
-    <row r="940" spans="1:1" ht="13">
-      <c r="A940" s="4"/>
-    </row>
-    <row r="941" spans="1:1" ht="13">
-      <c r="A941" s="4"/>
-    </row>
-    <row r="942" spans="1:1" ht="13">
-      <c r="A942" s="4"/>
-    </row>
-    <row r="943" spans="1:1" ht="13">
-      <c r="A943" s="4"/>
-    </row>
-    <row r="944" spans="1:1" ht="13">
-      <c r="A944" s="4"/>
-    </row>
-    <row r="945" spans="1:1" ht="13">
-      <c r="A945" s="4"/>
-    </row>
-    <row r="946" spans="1:1" ht="13">
-      <c r="A946" s="4"/>
-    </row>
-    <row r="947" spans="1:1" ht="13">
-      <c r="A947" s="4"/>
-    </row>
-    <row r="948" spans="1:1" ht="13">
-      <c r="A948" s="4"/>
-    </row>
-    <row r="949" spans="1:1" ht="13">
-      <c r="A949" s="4"/>
-    </row>
-    <row r="950" spans="1:1" ht="13">
-      <c r="A950" s="4"/>
-    </row>
-    <row r="951" spans="1:1" ht="13">
-      <c r="A951" s="4"/>
-    </row>
-    <row r="952" spans="1:1" ht="13">
-      <c r="A952" s="4"/>
-    </row>
-    <row r="953" spans="1:1" ht="13">
-      <c r="A953" s="4"/>
-    </row>
-    <row r="954" spans="1:1" ht="13">
-      <c r="A954" s="4"/>
-    </row>
-    <row r="955" spans="1:1" ht="13">
-      <c r="A955" s="4"/>
-    </row>
-    <row r="956" spans="1:1" ht="13">
-      <c r="A956" s="4"/>
-    </row>
-    <row r="957" spans="1:1" ht="13">
-      <c r="A957" s="4"/>
-    </row>
-    <row r="958" spans="1:1" ht="13">
-      <c r="A958" s="4"/>
-    </row>
-    <row r="959" spans="1:1" ht="13">
-      <c r="A959" s="4"/>
-    </row>
-    <row r="960" spans="1:1" ht="13">
-      <c r="A960" s="4"/>
-    </row>
-    <row r="961" spans="1:1" ht="13">
-      <c r="A961" s="4"/>
-    </row>
-    <row r="962" spans="1:1" ht="13">
-      <c r="A962" s="4"/>
-    </row>
-    <row r="963" spans="1:1" ht="13">
-      <c r="A963" s="4"/>
-    </row>
-    <row r="964" spans="1:1" ht="13">
-      <c r="A964" s="4"/>
-    </row>
-    <row r="965" spans="1:1" ht="13">
-      <c r="A965" s="4"/>
-    </row>
-    <row r="966" spans="1:1" ht="13">
-      <c r="A966" s="4"/>
-    </row>
-    <row r="967" spans="1:1" ht="13">
-      <c r="A967" s="4"/>
-    </row>
-    <row r="968" spans="1:1" ht="13">
-      <c r="A968" s="4"/>
-    </row>
-    <row r="969" spans="1:1" ht="13">
-      <c r="A969" s="4"/>
-    </row>
-    <row r="970" spans="1:1" ht="13">
-      <c r="A970" s="4"/>
-    </row>
-    <row r="971" spans="1:1" ht="13">
-      <c r="A971" s="4"/>
-    </row>
-    <row r="972" spans="1:1" ht="13">
-      <c r="A972" s="4"/>
-    </row>
-    <row r="973" spans="1:1" ht="13">
-      <c r="A973" s="4"/>
-    </row>
-    <row r="974" spans="1:1" ht="13">
-      <c r="A974" s="4"/>
-    </row>
-    <row r="975" spans="1:1" ht="13">
-      <c r="A975" s="4"/>
-    </row>
-    <row r="976" spans="1:1" ht="13">
-      <c r="A976" s="4"/>
-    </row>
-    <row r="977" spans="1:1" ht="13">
-      <c r="A977" s="4"/>
-    </row>
-    <row r="978" spans="1:1" ht="13">
-      <c r="A978" s="4"/>
-    </row>
-    <row r="979" spans="1:1" ht="13">
-      <c r="A979" s="4"/>
-    </row>
-    <row r="980" spans="1:1" ht="13">
-      <c r="A980" s="4"/>
-    </row>
-    <row r="981" spans="1:1" ht="13">
-      <c r="A981" s="4"/>
-    </row>
-    <row r="982" spans="1:1" ht="13">
-      <c r="A982" s="4"/>
-    </row>
-    <row r="983" spans="1:1" ht="13">
-      <c r="A983" s="4"/>
-    </row>
-    <row r="984" spans="1:1" ht="13">
-      <c r="A984" s="4"/>
-    </row>
-    <row r="985" spans="1:1" ht="13">
-      <c r="A985" s="4"/>
-    </row>
-    <row r="986" spans="1:1" ht="13">
-      <c r="A986" s="4"/>
-    </row>
-    <row r="987" spans="1:1" ht="13">
-      <c r="A987" s="4"/>
-    </row>
-    <row r="988" spans="1:1" ht="13">
-      <c r="A988" s="4"/>
-    </row>
-    <row r="989" spans="1:1" ht="13">
-      <c r="A989" s="4"/>
-    </row>
-    <row r="990" spans="1:1" ht="13">
-      <c r="A990" s="4"/>
-    </row>
-    <row r="991" spans="1:1" ht="13">
-      <c r="A991" s="4"/>
-    </row>
-    <row r="992" spans="1:1" ht="13">
-      <c r="A992" s="4"/>
-    </row>
-    <row r="993" spans="1:1" ht="13">
-      <c r="A993" s="4"/>
-    </row>
-    <row r="994" spans="1:1" ht="13">
-      <c r="A994" s="4"/>
-    </row>
-    <row r="995" spans="1:1" ht="13">
-      <c r="A995" s="4"/>
-    </row>
-    <row r="996" spans="1:1" ht="13">
-      <c r="A996" s="4"/>
-    </row>
-    <row r="997" spans="1:1" ht="13">
-      <c r="A997" s="4"/>
-    </row>
-    <row r="998" spans="1:1" ht="13">
-      <c r="A998" s="4"/>
-    </row>
-    <row r="999" spans="1:1" ht="13">
-      <c r="A999" s="4"/>
-    </row>
-    <row r="1000" spans="1:1" ht="13">
-      <c r="A1000" s="4"/>
-    </row>
-    <row r="1001" spans="1:1" ht="13">
-      <c r="A1001" s="4"/>
-    </row>
-    <row r="1002" spans="1:1" ht="13">
-      <c r="A1002" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2156F6-D9D0-9346-B0C0-2D9C81DB6207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FB41AE-F000-CF4C-861D-2854CB51EF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="9" r:id="rId1"/>
@@ -95,20 +95,109 @@
         <r>
           <rPr>
             <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The compound name that is commonly used in the laboratory (e.g. "glucose",
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">"C16:0", etc.).
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The values in this column are referenced by the 'Compound' column in the
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">'Tracers' sheet.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Must be unique.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t>Required.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{681C4EC6-838E-C34D-8851-250B702442C7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Courier"/>
             <family val="2"/>
           </rPr>
-          <t>The compound name that is commonly used in the laboratory (e.g. "glucose",
-"C16:0", etc.).
-The values in this column are referenced by the 'Compound' column in the
-'Tracers' sheet.
-Must be unique.
+          <t>The molecular formula of the compound (e.g. "C6H12O6", "C16H32O2", etc.).
 Required.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{A90C5F97-6AFF-944F-8F25-F5445F813503}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{A90C5F97-6AFF-944F-8F25-F5445F813503}">
       <text>
         <r>
           <rPr>
@@ -120,20 +209,6 @@
           <t>A unique identifier for this compound in the Human Metabolome Database
 (https://hmdb.ca/metabolites).
 Must be unique.
-Required.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{681C4EC6-838E-C34D-8851-250B702442C7}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Courier"/>
-            <family val="2"/>
-          </rPr>
-          <t>The molecular formula of the compound (e.g. "C6H12O6", "C16H32O2", etc.).
 Required.</t>
         </r>
       </text>
@@ -1610,7 +1685,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="350">
   <si>
     <t>Infusate</t>
   </si>
@@ -2117,9 +2192,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>newsample</t>
-  </si>
-  <si>
     <t>HMDB ID</t>
   </si>
   <si>
@@ -2138,9 +2210,6 @@
     <t>C6H12O6</t>
   </si>
   <si>
-    <t>D-Glucose;Glucose;dextrose;glucose</t>
-  </si>
-  <si>
     <t>lactate</t>
   </si>
   <si>
@@ -2150,19 +2219,565 @@
     <t>C3H6O3</t>
   </si>
   <si>
-    <t>2-hydroxypropanoate;2-hydroxypropanoic acid;L-Lactic acid;Lactate;lactate;lactic acid</t>
-  </si>
-  <si>
     <t>C6H14N2O2</t>
   </si>
   <si>
     <t>HMDB0000182</t>
   </si>
   <si>
-    <t>L-Lysine; Lysine; lys; lysine</t>
-  </si>
-  <si>
     <t>ob/ob homozygous mice were fasted</t>
+  </si>
+  <si>
+    <t>methionine</t>
+  </si>
+  <si>
+    <t>C5H11NO2S</t>
+  </si>
+  <si>
+    <t>HMDB0000696</t>
+  </si>
+  <si>
+    <t>met</t>
+  </si>
+  <si>
+    <t>proline</t>
+  </si>
+  <si>
+    <t>C5H9NO2</t>
+  </si>
+  <si>
+    <t>HMDB0000162</t>
+  </si>
+  <si>
+    <t>(2S)-pyrrolidine-2-carboxylic acid</t>
+  </si>
+  <si>
+    <t>serine</t>
+  </si>
+  <si>
+    <t>C3H7NO3</t>
+  </si>
+  <si>
+    <t>HMDB0000187</t>
+  </si>
+  <si>
+    <t>ser</t>
+  </si>
+  <si>
+    <t>2-hydroxyglutarate</t>
+  </si>
+  <si>
+    <t>C5H8O5</t>
+  </si>
+  <si>
+    <t>HMDB0059655</t>
+  </si>
+  <si>
+    <t>3-hydroxybutyrate</t>
+  </si>
+  <si>
+    <t>C4H8O3</t>
+  </si>
+  <si>
+    <t>HMDB0000011</t>
+  </si>
+  <si>
+    <t>3HB;BHB;beta-hydryoxybutyric acid;beta-hydroxybutyrate;3-hydroxybutyric acid;3-HB;B-HB</t>
+  </si>
+  <si>
+    <t>a-ketoglutarate</t>
+  </si>
+  <si>
+    <t>C5H6O5</t>
+  </si>
+  <si>
+    <t>HMDB0000208</t>
+  </si>
+  <si>
+    <t>2-ketoglutarate;2-ketoglutaric acid;alpha-ketoglutaric acid;a-ketoglutaric acid;oxoglutarate;2-oxoglutarate;2-oxoglutaric acid</t>
+  </si>
+  <si>
+    <t>alanine</t>
+  </si>
+  <si>
+    <t>C3H7NO2</t>
+  </si>
+  <si>
+    <t>HMDB0000161</t>
+  </si>
+  <si>
+    <t>ala;L-alanine</t>
+  </si>
+  <si>
+    <t>arginine</t>
+  </si>
+  <si>
+    <t>C6H14N4O2</t>
+  </si>
+  <si>
+    <t>HMDB0000517</t>
+  </si>
+  <si>
+    <t>arg</t>
+  </si>
+  <si>
+    <t>asparagine</t>
+  </si>
+  <si>
+    <t>C4H8N2O3</t>
+  </si>
+  <si>
+    <t>HMDB0000168</t>
+  </si>
+  <si>
+    <t>asn</t>
+  </si>
+  <si>
+    <t>aspartate</t>
+  </si>
+  <si>
+    <t>C4H7NO4</t>
+  </si>
+  <si>
+    <t>HMDB0000191</t>
+  </si>
+  <si>
+    <t>aspartic acid;asp</t>
+  </si>
+  <si>
+    <t>C16:0</t>
+  </si>
+  <si>
+    <t>C16H32O2</t>
+  </si>
+  <si>
+    <t>HMDB0000220</t>
+  </si>
+  <si>
+    <t>palmitate;PA;C16;C16 fatty acid;hexadecanoate;hexadecoic acid; palmitic acid</t>
+  </si>
+  <si>
+    <t>C18:1</t>
+  </si>
+  <si>
+    <t>C18H34O2</t>
+  </si>
+  <si>
+    <t>HMDB0000207</t>
+  </si>
+  <si>
+    <t>cis-oleate;18:1 FA;cis-9-octadecenoic acid; oleic acid</t>
+  </si>
+  <si>
+    <t>C18:2</t>
+  </si>
+  <si>
+    <t>C18H32O2</t>
+  </si>
+  <si>
+    <t>HMDB0000673</t>
+  </si>
+  <si>
+    <t>linoleate;LA;9,12-Octadecadienoic acid; linoleic acid</t>
+  </si>
+  <si>
+    <t>carnosine</t>
+  </si>
+  <si>
+    <t>C9H14N4O3</t>
+  </si>
+  <si>
+    <t>HMDB0000033</t>
+  </si>
+  <si>
+    <t>Carnosine</t>
+  </si>
+  <si>
+    <t>citrate</t>
+  </si>
+  <si>
+    <t>C6H8O7</t>
+  </si>
+  <si>
+    <t>HMDB0000094</t>
+  </si>
+  <si>
+    <t>citric acid</t>
+  </si>
+  <si>
+    <t>citrulline</t>
+  </si>
+  <si>
+    <t>C6H13N3O3</t>
+  </si>
+  <si>
+    <t>HMDB0000904</t>
+  </si>
+  <si>
+    <t>creatine</t>
+  </si>
+  <si>
+    <t>C4H9N3O2</t>
+  </si>
+  <si>
+    <t>HMDB0000064</t>
+  </si>
+  <si>
+    <t>creatinine</t>
+  </si>
+  <si>
+    <t>C4H7N3O</t>
+  </si>
+  <si>
+    <t>HMDB0000562</t>
+  </si>
+  <si>
+    <t>Creatinine</t>
+  </si>
+  <si>
+    <t>dihydroxy-acetone-phosphate</t>
+  </si>
+  <si>
+    <t>C3H7O6P</t>
+  </si>
+  <si>
+    <t>HMDB0001473</t>
+  </si>
+  <si>
+    <t>dihydroxyacetone phosphate;DHAP</t>
+  </si>
+  <si>
+    <t>fructose-1-6-bisphosphate</t>
+  </si>
+  <si>
+    <t>C6H14O12P2</t>
+  </si>
+  <si>
+    <t>HMDB0001058</t>
+  </si>
+  <si>
+    <t>Fructose 1,6-bisphosphate;Fructose-1,6-diphosphate;Fructose 1,6-diphosphate;Diphosphofructose</t>
+  </si>
+  <si>
+    <t>fumarate</t>
+  </si>
+  <si>
+    <t>C4H4O4</t>
+  </si>
+  <si>
+    <t>HMDB0000134</t>
+  </si>
+  <si>
+    <t>fumaric acid</t>
+  </si>
+  <si>
+    <t>dextrose;Glucose;D-Glucose</t>
+  </si>
+  <si>
+    <t>glucose-6-phosphate</t>
+  </si>
+  <si>
+    <t>C6H13O9P</t>
+  </si>
+  <si>
+    <t>HMDB0001401</t>
+  </si>
+  <si>
+    <t>GLC6p;G6P</t>
+  </si>
+  <si>
+    <t>glutamate</t>
+  </si>
+  <si>
+    <t>C5H9NO4</t>
+  </si>
+  <si>
+    <t>HMDB0000148</t>
+  </si>
+  <si>
+    <t>glu;2-aminoglutarate;2-aminoglutaric acid</t>
+  </si>
+  <si>
+    <t>glutamine</t>
+  </si>
+  <si>
+    <t>C5H10N2O3</t>
+  </si>
+  <si>
+    <t>HMDB0000641</t>
+  </si>
+  <si>
+    <t>gln</t>
+  </si>
+  <si>
+    <t>glycerol</t>
+  </si>
+  <si>
+    <t>C3H8O3</t>
+  </si>
+  <si>
+    <t>HMDB0000131</t>
+  </si>
+  <si>
+    <t>glycerol-3-phosphate</t>
+  </si>
+  <si>
+    <t>C3H9O6P</t>
+  </si>
+  <si>
+    <t>HMDB0000126</t>
+  </si>
+  <si>
+    <t>glycerol 3-phosphate;glycerophosphate;G3P</t>
+  </si>
+  <si>
+    <t>glycine</t>
+  </si>
+  <si>
+    <t>C2H5NO2</t>
+  </si>
+  <si>
+    <t>HMDB0000123</t>
+  </si>
+  <si>
+    <t>2-aminoacetate</t>
+  </si>
+  <si>
+    <t>histidine</t>
+  </si>
+  <si>
+    <t>C6H9N3O2</t>
+  </si>
+  <si>
+    <t>HMDB0000177</t>
+  </si>
+  <si>
+    <t>his</t>
+  </si>
+  <si>
+    <t>homocarnosine</t>
+  </si>
+  <si>
+    <t>C10H16N4O3</t>
+  </si>
+  <si>
+    <t>HMDB0000745</t>
+  </si>
+  <si>
+    <t>isocitrate</t>
+  </si>
+  <si>
+    <t>HMDB0000193</t>
+  </si>
+  <si>
+    <t>isoleucine</t>
+  </si>
+  <si>
+    <t>C6H13NO2</t>
+  </si>
+  <si>
+    <t>HMDB0000172</t>
+  </si>
+  <si>
+    <t>ile</t>
+  </si>
+  <si>
+    <t>lactic acid;2-hydroxypropanoate;2-hydroxypropanoic acid</t>
+  </si>
+  <si>
+    <t>leucine</t>
+  </si>
+  <si>
+    <t>HMDB0000687</t>
+  </si>
+  <si>
+    <t>leu</t>
+  </si>
+  <si>
+    <t>lys</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>HMDB0000156</t>
+  </si>
+  <si>
+    <t>malic acid;hydroxysuccinate;hydroxysuccinic acid</t>
+  </si>
+  <si>
+    <t>ornithine</t>
+  </si>
+  <si>
+    <t>C5H12N2O2</t>
+  </si>
+  <si>
+    <t>HMDB0000214</t>
+  </si>
+  <si>
+    <t>phenylalanine</t>
+  </si>
+  <si>
+    <t>C9H11NO2</t>
+  </si>
+  <si>
+    <t>HMDB0000159</t>
+  </si>
+  <si>
+    <t>phe</t>
+  </si>
+  <si>
+    <t>pyruvate</t>
+  </si>
+  <si>
+    <t>C3H4O3</t>
+  </si>
+  <si>
+    <t>HMDB0000243</t>
+  </si>
+  <si>
+    <t>pyruvic acid;2-ketopropionic acid;2-oxopropanoic acid;2-oxopropanoate;2-ketopropionate</t>
+  </si>
+  <si>
+    <t>C18:0</t>
+  </si>
+  <si>
+    <t>C18H36O2</t>
+  </si>
+  <si>
+    <t>HMDB0000827</t>
+  </si>
+  <si>
+    <t>octadecanoic acid;stearate; stearic acid</t>
+  </si>
+  <si>
+    <t>succinate</t>
+  </si>
+  <si>
+    <t>C4H6O4</t>
+  </si>
+  <si>
+    <t>HMDB0000254</t>
+  </si>
+  <si>
+    <t>succinic acid</t>
+  </si>
+  <si>
+    <t>taurine</t>
+  </si>
+  <si>
+    <t>C2H7NO3S</t>
+  </si>
+  <si>
+    <t>HMDB0000251</t>
+  </si>
+  <si>
+    <t>2-Aminoethanesulfonic acid</t>
+  </si>
+  <si>
+    <t>threonine</t>
+  </si>
+  <si>
+    <t>C4H9NO3</t>
+  </si>
+  <si>
+    <t>HMDB0000167</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>tryptophan</t>
+  </si>
+  <si>
+    <t>C11H12N2O2</t>
+  </si>
+  <si>
+    <t>HMDB0000929</t>
+  </si>
+  <si>
+    <t>trp</t>
+  </si>
+  <si>
+    <t>tyrosine</t>
+  </si>
+  <si>
+    <t>C9H11NO3</t>
+  </si>
+  <si>
+    <t>HMDB0000158</t>
+  </si>
+  <si>
+    <t>tyr</t>
+  </si>
+  <si>
+    <t>urea</t>
+  </si>
+  <si>
+    <t>CH4N2O</t>
+  </si>
+  <si>
+    <t>HMDB0000294</t>
+  </si>
+  <si>
+    <t>valine</t>
+  </si>
+  <si>
+    <t>C5H11NO2</t>
+  </si>
+  <si>
+    <t>HMDB0000883</t>
+  </si>
+  <si>
+    <t>val</t>
+  </si>
+  <si>
+    <t>2-keto-isovalerate</t>
+  </si>
+  <si>
+    <t>C5H8O3</t>
+  </si>
+  <si>
+    <t>HMDB0000019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-Ketoisovaleric acid; </t>
+  </si>
+  <si>
+    <t>3-hydroxyisobutyrate</t>
+  </si>
+  <si>
+    <t>HMDB0000023</t>
+  </si>
+  <si>
+    <t>3-HIBA; 3-Hydroxyisobutyric acid</t>
+  </si>
+  <si>
+    <t>sedoheptoluse-7-phosphate</t>
+  </si>
+  <si>
+    <t>C7H15O10P</t>
+  </si>
+  <si>
+    <t>HMDB0001068</t>
+  </si>
+  <si>
+    <t>alpha-D-Sedoheptulose 7-phosphate; Sedoheptulose 7-phosphate; D-Sedoheptulose 7-phosphate</t>
+  </si>
+  <si>
+    <t>3-phosphoglycerate</t>
+  </si>
+  <si>
+    <t>C3H7O7P</t>
+  </si>
+  <si>
+    <t>HMDB0000807</t>
+  </si>
+  <si>
+    <t>3-Phosphoglycerate; Glycerate 3-phosphate; 3-PG</t>
   </si>
 </sst>
 </file>
@@ -3443,17 +4058,17 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2166FC50-E341-DD4B-A3E8-A13696D76D0F}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="68.6640625" style="24" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.83203125" style="24"/>
   </cols>
@@ -3466,61 +4081,709 @@
         <v>155</v>
       </c>
       <c r="C1" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>156</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
       <c r="A2" s="26" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>161</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" s="26" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
       <c r="A4" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15">
+      <c r="A5" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15">
+      <c r="A10" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15">
+      <c r="A11" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15">
+      <c r="A13" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="D14" s="26"/>
+    </row>
+    <row r="15" spans="1:4" ht="15">
+      <c r="A15" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="D15" s="26"/>
+    </row>
+    <row r="16" spans="1:4" ht="15">
+      <c r="A16" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15">
+      <c r="A17" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15">
+      <c r="A18" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15">
+      <c r="A20" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15">
+      <c r="A21" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15">
+      <c r="A22" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15">
+      <c r="A23" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15">
+      <c r="A24" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="D24" s="26"/>
+    </row>
+    <row r="25" spans="1:4" ht="15">
+      <c r="A25" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15">
+      <c r="A26" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15">
+      <c r="A27" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15">
+      <c r="A28" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="D28" s="26"/>
+    </row>
+    <row r="29" spans="1:4" ht="15">
+      <c r="A29" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="D29" s="26"/>
+    </row>
+    <row r="30" spans="1:4" ht="15">
+      <c r="A30" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15">
+      <c r="A31" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15">
+      <c r="A32" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15">
+      <c r="A33" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B33" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15">
+      <c r="A34" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15">
+      <c r="A35" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="D4" s="26" t="s">
+      <c r="C35" s="26" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15">
-      <c r="A5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-    </row>
-    <row r="6" spans="1:4" ht="15">
-      <c r="A6" s="26"/>
+      <c r="D35" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15">
+      <c r="A36" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="D36" s="26"/>
+    </row>
+    <row r="37" spans="1:4" ht="15">
+      <c r="A37" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15">
+      <c r="A38" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15">
+      <c r="A39" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15">
+      <c r="A40" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15">
+      <c r="A41" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15">
+      <c r="A42" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15">
+      <c r="A43" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15">
+      <c r="A44" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15">
+      <c r="A45" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15">
+      <c r="A46" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15">
+      <c r="A47" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="D47" s="26"/>
+    </row>
+    <row r="48" spans="1:4" ht="15">
+      <c r="A48" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15">
+      <c r="A49" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15">
+      <c r="A50" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15">
+      <c r="A51" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15">
+      <c r="A52" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>349</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C1">
@@ -26436,8 +27699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD2DCCD-0178-094D-9522-9414A02DC911}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -26684,8 +27947,8 @@
       <c r="A17" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>154</v>
+      <c r="B17" t="s">
+        <v>104</v>
       </c>
       <c r="D17" t="s">
         <v>125</v>
@@ -26722,7 +27985,7 @@
   </sheetPr>
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
@@ -26778,7 +28041,7 @@
         <v>83</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FB41AE-F000-CF4C-861D-2854CB51EF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F619E11B-1022-5146-B04E-67CE3C3A4729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1685,7 +1685,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="351">
   <si>
     <t>Infusate</t>
   </si>
@@ -2778,6 +2778,9 @@
   </si>
   <si>
     <t>3-Phosphoglycerate; Glycerate 3-phosphate; 3-PG</t>
+  </si>
+  <si>
+    <t>newsample</t>
   </si>
 </sst>
 </file>
@@ -27699,9 +27702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD2DCCD-0178-094D-9522-9414A02DC911}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -27947,8 +27948,8 @@
       <c r="A17" t="s">
         <v>104</v>
       </c>
-      <c r="B17" t="s">
-        <v>104</v>
+      <c r="B17" s="20" t="s">
+        <v>350</v>
       </c>
       <c r="D17" t="s">
         <v>125</v>

--- a/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F619E11B-1022-5146-B04E-67CE3C3A4729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E62946-2DF9-634F-BC35-227409DEF643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <sheet name="Compounds" sheetId="12" r:id="rId11"/>
     <sheet name="Infusions" sheetId="5" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27702,7 +27702,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD2DCCD-0178-094D-9522-9414A02DC911}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>

--- a/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E62946-2DF9-634F-BC35-227409DEF643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B170C642-B36E-654D-8BD2-206F3F5F44E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1685,7 +1685,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="350">
   <si>
     <t>Infusate</t>
   </si>
@@ -2778,9 +2778,6 @@
   </si>
   <si>
     <t>3-Phosphoglycerate; Glycerate 3-phosphate; 3-PG</t>
-  </si>
-  <si>
-    <t>newsample</t>
   </si>
 </sst>
 </file>
@@ -27703,7 +27700,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -27951,7 +27948,7 @@
         <v>104</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>350</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
         <v>125</v>
@@ -27972,7 +27969,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" prompt="Each sample name must be unique" sqref="A2:B17" xr:uid="{F169F778-8480-4947-ABEB-D876FA8E756B}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" prompt="Each sample name must be unique" sqref="A2:A17 B2:B16" xr:uid="{F169F778-8480-4947-ABEB-D876FA8E756B}">
       <formula1>COUNTIF($A:$A,"="&amp;A2)  &lt; 2</formula1>
     </dataValidation>
   </dataValidations>

--- a/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B170C642-B36E-654D-8BD2-206F3F5F44E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF05B11-91C3-0A4C-A366-4230B483E951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1685,7 +1685,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="353">
   <si>
     <t>Infusate</t>
   </si>
@@ -2778,6 +2778,15 @@
   </si>
   <si>
     <t>3-Phosphoglycerate; Glycerate 3-phosphate; 3-PG</t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>skip</t>
+  </si>
+  <si>
+    <t>small_obob_maven_6eaas_inf_blank_sample.xlsx</t>
   </si>
 </sst>
 </file>
@@ -27697,10 +27706,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD2DCCD-0178-094D-9522-9414A02DC911}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -27708,7 +27717,7 @@
     <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.5" customWidth="1"/>
     <col min="5" max="5" width="46.5" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
@@ -27943,7 +27952,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>104</v>
       </c>
@@ -27955,6 +27964,23 @@
       </c>
       <c r="E17" s="20" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -27969,7 +27995,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" prompt="Each sample name must be unique" sqref="A2:A17 B2:B16" xr:uid="{F169F778-8480-4947-ABEB-D876FA8E756B}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" prompt="Each sample name must be unique" sqref="A2:A18 B2:B16" xr:uid="{F169F778-8480-4947-ABEB-D876FA8E756B}">
       <formula1>COUNTIF($A:$A,"="&amp;A2)  &lt; 2</formula1>
     </dataValidation>
   </dataValidations>

--- a/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF05B11-91C3-0A4C-A366-4230B483E951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C85B88D-F81D-FA4E-97E7-070EAA51A65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="9" r:id="rId1"/>
@@ -4069,8 +4069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2166FC50-E341-DD4B-A3E8-A13696D76D0F}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -27593,7 +27593,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -27668,7 +27668,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -27708,7 +27708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD2DCCD-0178-094D-9522-9414A02DC911}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>

--- a/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C85B88D-F81D-FA4E-97E7-070EAA51A65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A887A55D-C81C-F047-A865-285974D1456E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="9" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <sheet name="Treatments" sheetId="3" r:id="rId9"/>
     <sheet name="Tissues" sheetId="4" r:id="rId10"/>
     <sheet name="Compounds" sheetId="12" r:id="rId11"/>
-    <sheet name="Infusions" sheetId="5" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -228,31 +227,6 @@
 Semicolon-delimited list of synonym names.
 Must be unique.
 Required.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Modified to match the description in issue #400 (apart from changing "Tracer column" (which doesn't exist) to "Infusate column"
-	-Robert Leach</t>
         </r>
       </text>
     </comment>
@@ -1685,7 +1659,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="338">
   <si>
     <t>Infusate</t>
   </si>
@@ -1886,94 +1860,6 @@
   </si>
   <si>
     <t>xenograft tumor of HCT116 cells</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Individual tracer compounds will be formatted: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Roboto Mono"/>
-      </rPr>
-      <t>compound_name-[weight element count,weight element count]</t>
-    </r>
-  </si>
-  <si>
-    <t>examples:</t>
-  </si>
-  <si>
-    <t>valine-[13C5,15N1]</t>
-  </si>
-  <si>
-    <t>leucine-[13C6,15N1]</t>
-  </si>
-  <si>
-    <t>isoleucine-[13C6,15N1]</t>
-  </si>
-  <si>
-    <t>If a tracer is not fully labeled for a given element, the positions of the that element must be included: compound_name-[position,position-weight element count]</t>
-  </si>
-  <si>
-    <t>example:</t>
-  </si>
-  <si>
-    <t>L-Leucine-[1,2-13C2]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Mixtures of compounds will be formatted: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Roboto Mono"/>
-      </rPr>
-      <t>tracer_mix_name {tracer; tracer}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>. tracer_mix_name is optional</t>
-    </r>
-  </si>
-  <si>
-    <t>BCAAs {isoleucine-[13C6,15N1];leucine-[13C6,15N1];valine-[13C5,15N1]}</t>
-  </si>
-  <si>
-    <t>isoleucine-[13C6,15N1];leucine-[13C6,15N1];valine-[13C5,15N1]</t>
-  </si>
-  <si>
-    <t>Tracer Concentraions</t>
-  </si>
-  <si>
-    <t>Tracer Concentrations column remains (pluralized), and if it is a complex mixture, it contains a semi-colon delimited list of floats, in the same order and cardinality as the list as semi-colon delimited tracer encodings in the proposed Infusate column.</t>
-  </si>
-  <si>
-    <t>5; 6; 6</t>
-  </si>
-  <si>
-    <t>5; 9; 11; 6; 6; 4</t>
   </si>
   <si>
     <t>WT</t>
@@ -2796,7 +2682,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2850,39 +2736,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Roboto Mono"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="&quot;Roboto Mono&quot;"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2946,27 +2799,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3002,10 +2840,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -3024,22 +2862,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -3677,7 +3510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C61425D-F23C-6F4F-8608-324522C2138E}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -3685,19 +3518,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14">
-      <c r="A1" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>135</v>
+        <v>70</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4048,7 +3881,7 @@
         <v>64</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1">
@@ -4069,729 +3902,729 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2166FC50-E341-DD4B-A3E8-A13696D76D0F}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="24"/>
+    <col min="1" max="1" width="11.1640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
+      <c r="A2" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="1:4" ht="15">
+      <c r="A3" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15">
+      <c r="A4" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15">
+      <c r="A5" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15">
+      <c r="A10" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15">
+      <c r="A11" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15">
+      <c r="A13" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" spans="1:4" ht="15">
+      <c r="A15" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" s="21"/>
+    </row>
+    <row r="16" spans="1:4" ht="15">
+      <c r="A16" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15">
+      <c r="A17" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15">
+      <c r="A18" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15">
+      <c r="A20" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15">
+      <c r="A21" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15">
+      <c r="A22" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15">
+      <c r="A23" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15">
+      <c r="A24" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25" spans="1:4" ht="15">
+      <c r="A25" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15">
+      <c r="A26" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15">
+      <c r="A27" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15">
+      <c r="A28" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="D28" s="21"/>
+    </row>
+    <row r="29" spans="1:4" ht="15">
+      <c r="A29" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="D29" s="21"/>
+    </row>
+    <row r="30" spans="1:4" ht="15">
+      <c r="A30" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15">
+      <c r="A31" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15">
+      <c r="A32" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15">
+      <c r="A33" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15">
+      <c r="A34" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15">
+      <c r="A35" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15">
+      <c r="A36" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="D36" s="21"/>
+    </row>
+    <row r="37" spans="1:4" ht="15">
+      <c r="A37" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15">
+      <c r="A38" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="D1" s="23" t="s">
+      <c r="B38" s="21" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15">
-      <c r="A2" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="26"/>
-    </row>
-    <row r="3" spans="1:4" ht="15">
-      <c r="A3" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15">
-      <c r="A4" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15">
-      <c r="A5" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15">
-      <c r="A6" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15">
-      <c r="A7" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15">
-      <c r="A8" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15">
-      <c r="A9" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15">
-      <c r="A10" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15">
-      <c r="A11" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15">
-      <c r="A12" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15">
-      <c r="A13" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15">
-      <c r="A14" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="D14" s="26"/>
-    </row>
-    <row r="15" spans="1:4" ht="15">
-      <c r="A15" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="D15" s="26"/>
-    </row>
-    <row r="16" spans="1:4" ht="15">
-      <c r="A16" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15">
-      <c r="A17" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15">
-      <c r="A18" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15">
-      <c r="A19" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15">
-      <c r="A20" s="26" t="s">
+      <c r="C38" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="D38" s="21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15">
+      <c r="A39" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15">
+      <c r="A40" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="C20" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15">
-      <c r="A21" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15">
-      <c r="A22" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15">
-      <c r="A23" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15">
-      <c r="A24" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="D24" s="26"/>
-    </row>
-    <row r="25" spans="1:4" ht="15">
-      <c r="A25" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15">
-      <c r="A26" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15">
-      <c r="A27" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15">
-      <c r="A28" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="D28" s="26"/>
-    </row>
-    <row r="29" spans="1:4" ht="15">
-      <c r="A29" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="D29" s="26"/>
-    </row>
-    <row r="30" spans="1:4" ht="15">
-      <c r="A30" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15">
-      <c r="A31" s="26" t="s">
+      <c r="B40" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="C40" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="C31" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15">
-      <c r="A32" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15">
-      <c r="A33" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15">
-      <c r="A34" s="26" t="s">
+    </row>
+    <row r="41" spans="1:4" ht="15">
+      <c r="A41" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B41" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C41" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D41" s="21" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15">
-      <c r="A35" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="B35" s="26" t="s">
+    <row r="42" spans="1:4" ht="15">
+      <c r="A42" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15">
+      <c r="A43" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15">
+      <c r="A44" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15">
+      <c r="A45" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15">
+      <c r="A46" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15">
+      <c r="A47" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="D47" s="21"/>
+    </row>
+    <row r="48" spans="1:4" ht="15">
+      <c r="A48" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15">
+      <c r="A49" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15">
+      <c r="A50" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="B50" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="C35" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15">
-      <c r="A36" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="D36" s="26"/>
-    </row>
-    <row r="37" spans="1:4" ht="15">
-      <c r="A37" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15">
-      <c r="A38" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15">
-      <c r="A39" s="26" t="s">
-        <v>300</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15">
-      <c r="A40" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15">
-      <c r="A41" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15">
-      <c r="A42" s="26" t="s">
-        <v>308</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15">
-      <c r="A43" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15">
-      <c r="A44" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>318</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15">
-      <c r="A45" s="26" t="s">
-        <v>320</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="C45" s="26" t="s">
-        <v>322</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15">
-      <c r="A46" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="B46" s="26" t="s">
+      <c r="C50" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="D50" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="D46" s="26" t="s">
+    </row>
+    <row r="51" spans="1:4" ht="15">
+      <c r="A51" s="21" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="15">
-      <c r="A47" s="26" t="s">
+      <c r="B51" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="C51" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="D51" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="D47" s="26"/>
-    </row>
-    <row r="48" spans="1:4" ht="15">
-      <c r="A48" s="26" t="s">
+    </row>
+    <row r="52" spans="1:4" ht="15">
+      <c r="A52" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B52" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C52" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="D52" s="21" t="s">
         <v>334</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15">
-      <c r="A49" s="26" t="s">
-        <v>335</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>336</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>337</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15">
-      <c r="A50" s="26" t="s">
-        <v>339</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="C50" s="26" t="s">
-        <v>340</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15">
-      <c r="A51" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>343</v>
-      </c>
-      <c r="C51" s="26" t="s">
-        <v>344</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15">
-      <c r="A52" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="B52" s="26" t="s">
-        <v>347</v>
-      </c>
-      <c r="C52" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="D52" s="26" t="s">
-        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -4810,3115 +4643,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:Z1002"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData>
-    <row r="1" spans="1:26" ht="18">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A5" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A6" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A7" s="4"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A10" s="16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A16" s="4"/>
-    </row>
-    <row r="17" spans="1:26" ht="18">
-      <c r="A17" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-    </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A19" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A20" s="17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A21" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A23" s="4"/>
-    </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A25" s="4"/>
-    </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A26" s="4"/>
-    </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A27" s="4"/>
-    </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A28" s="4"/>
-    </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A29" s="4"/>
-    </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A30" s="4"/>
-    </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A31" s="4"/>
-    </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A32" s="4"/>
-    </row>
-    <row r="33" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A33" s="4"/>
-    </row>
-    <row r="34" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A34" s="4"/>
-    </row>
-    <row r="35" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A35" s="4"/>
-    </row>
-    <row r="36" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A36" s="4"/>
-    </row>
-    <row r="37" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A37" s="4"/>
-    </row>
-    <row r="38" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A38" s="4"/>
-    </row>
-    <row r="39" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A39" s="4"/>
-    </row>
-    <row r="40" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A40" s="4"/>
-    </row>
-    <row r="41" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A41" s="4"/>
-    </row>
-    <row r="42" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A42" s="4"/>
-    </row>
-    <row r="43" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A43" s="4"/>
-    </row>
-    <row r="44" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A44" s="4"/>
-    </row>
-    <row r="45" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A45" s="4"/>
-    </row>
-    <row r="46" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A46" s="4"/>
-    </row>
-    <row r="47" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A47" s="4"/>
-    </row>
-    <row r="48" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A48" s="4"/>
-    </row>
-    <row r="49" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A49" s="4"/>
-    </row>
-    <row r="50" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A50" s="4"/>
-    </row>
-    <row r="51" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A51" s="4"/>
-    </row>
-    <row r="52" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A52" s="4"/>
-    </row>
-    <row r="53" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A53" s="4"/>
-    </row>
-    <row r="54" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A54" s="4"/>
-    </row>
-    <row r="55" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A55" s="4"/>
-    </row>
-    <row r="56" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A56" s="4"/>
-    </row>
-    <row r="57" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A57" s="4"/>
-    </row>
-    <row r="58" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A58" s="4"/>
-    </row>
-    <row r="59" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A59" s="4"/>
-    </row>
-    <row r="60" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A60" s="4"/>
-    </row>
-    <row r="61" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A61" s="4"/>
-    </row>
-    <row r="62" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A62" s="4"/>
-    </row>
-    <row r="63" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A63" s="4"/>
-    </row>
-    <row r="64" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A64" s="4"/>
-    </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A65" s="4"/>
-    </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A66" s="4"/>
-    </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A67" s="4"/>
-    </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A68" s="4"/>
-    </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A69" s="4"/>
-    </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A70" s="4"/>
-    </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A71" s="4"/>
-    </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A72" s="4"/>
-    </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A73" s="4"/>
-    </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A74" s="4"/>
-    </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A75" s="4"/>
-    </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A76" s="4"/>
-    </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A77" s="4"/>
-    </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A78" s="4"/>
-    </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A79" s="4"/>
-    </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A80" s="4"/>
-    </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A81" s="4"/>
-    </row>
-    <row r="82" spans="1:1" ht="13">
-      <c r="A82" s="4"/>
-    </row>
-    <row r="83" spans="1:1" ht="13">
-      <c r="A83" s="4"/>
-    </row>
-    <row r="84" spans="1:1" ht="13">
-      <c r="A84" s="4"/>
-    </row>
-    <row r="85" spans="1:1" ht="13">
-      <c r="A85" s="4"/>
-    </row>
-    <row r="86" spans="1:1" ht="13">
-      <c r="A86" s="4"/>
-    </row>
-    <row r="87" spans="1:1" ht="13">
-      <c r="A87" s="4"/>
-    </row>
-    <row r="88" spans="1:1" ht="13">
-      <c r="A88" s="4"/>
-    </row>
-    <row r="89" spans="1:1" ht="13">
-      <c r="A89" s="4"/>
-    </row>
-    <row r="90" spans="1:1" ht="13">
-      <c r="A90" s="4"/>
-    </row>
-    <row r="91" spans="1:1" ht="13">
-      <c r="A91" s="4"/>
-    </row>
-    <row r="92" spans="1:1" ht="13">
-      <c r="A92" s="4"/>
-    </row>
-    <row r="93" spans="1:1" ht="13">
-      <c r="A93" s="4"/>
-    </row>
-    <row r="94" spans="1:1" ht="13">
-      <c r="A94" s="4"/>
-    </row>
-    <row r="95" spans="1:1" ht="13">
-      <c r="A95" s="4"/>
-    </row>
-    <row r="96" spans="1:1" ht="13">
-      <c r="A96" s="4"/>
-    </row>
-    <row r="97" spans="1:1" ht="13">
-      <c r="A97" s="4"/>
-    </row>
-    <row r="98" spans="1:1" ht="13">
-      <c r="A98" s="4"/>
-    </row>
-    <row r="99" spans="1:1" ht="13">
-      <c r="A99" s="4"/>
-    </row>
-    <row r="100" spans="1:1" ht="13">
-      <c r="A100" s="4"/>
-    </row>
-    <row r="101" spans="1:1" ht="13">
-      <c r="A101" s="4"/>
-    </row>
-    <row r="102" spans="1:1" ht="13">
-      <c r="A102" s="4"/>
-    </row>
-    <row r="103" spans="1:1" ht="13">
-      <c r="A103" s="4"/>
-    </row>
-    <row r="104" spans="1:1" ht="13">
-      <c r="A104" s="4"/>
-    </row>
-    <row r="105" spans="1:1" ht="13">
-      <c r="A105" s="4"/>
-    </row>
-    <row r="106" spans="1:1" ht="13">
-      <c r="A106" s="4"/>
-    </row>
-    <row r="107" spans="1:1" ht="13">
-      <c r="A107" s="4"/>
-    </row>
-    <row r="108" spans="1:1" ht="13">
-      <c r="A108" s="4"/>
-    </row>
-    <row r="109" spans="1:1" ht="13">
-      <c r="A109" s="4"/>
-    </row>
-    <row r="110" spans="1:1" ht="13">
-      <c r="A110" s="4"/>
-    </row>
-    <row r="111" spans="1:1" ht="13">
-      <c r="A111" s="4"/>
-    </row>
-    <row r="112" spans="1:1" ht="13">
-      <c r="A112" s="4"/>
-    </row>
-    <row r="113" spans="1:1" ht="13">
-      <c r="A113" s="4"/>
-    </row>
-    <row r="114" spans="1:1" ht="13">
-      <c r="A114" s="4"/>
-    </row>
-    <row r="115" spans="1:1" ht="13">
-      <c r="A115" s="4"/>
-    </row>
-    <row r="116" spans="1:1" ht="13">
-      <c r="A116" s="4"/>
-    </row>
-    <row r="117" spans="1:1" ht="13">
-      <c r="A117" s="4"/>
-    </row>
-    <row r="118" spans="1:1" ht="13">
-      <c r="A118" s="4"/>
-    </row>
-    <row r="119" spans="1:1" ht="13">
-      <c r="A119" s="4"/>
-    </row>
-    <row r="120" spans="1:1" ht="13">
-      <c r="A120" s="4"/>
-    </row>
-    <row r="121" spans="1:1" ht="13">
-      <c r="A121" s="4"/>
-    </row>
-    <row r="122" spans="1:1" ht="13">
-      <c r="A122" s="4"/>
-    </row>
-    <row r="123" spans="1:1" ht="13">
-      <c r="A123" s="4"/>
-    </row>
-    <row r="124" spans="1:1" ht="13">
-      <c r="A124" s="4"/>
-    </row>
-    <row r="125" spans="1:1" ht="13">
-      <c r="A125" s="4"/>
-    </row>
-    <row r="126" spans="1:1" ht="13">
-      <c r="A126" s="4"/>
-    </row>
-    <row r="127" spans="1:1" ht="13">
-      <c r="A127" s="4"/>
-    </row>
-    <row r="128" spans="1:1" ht="13">
-      <c r="A128" s="4"/>
-    </row>
-    <row r="129" spans="1:1" ht="13">
-      <c r="A129" s="4"/>
-    </row>
-    <row r="130" spans="1:1" ht="13">
-      <c r="A130" s="4"/>
-    </row>
-    <row r="131" spans="1:1" ht="13">
-      <c r="A131" s="4"/>
-    </row>
-    <row r="132" spans="1:1" ht="13">
-      <c r="A132" s="4"/>
-    </row>
-    <row r="133" spans="1:1" ht="13">
-      <c r="A133" s="4"/>
-    </row>
-    <row r="134" spans="1:1" ht="13">
-      <c r="A134" s="4"/>
-    </row>
-    <row r="135" spans="1:1" ht="13">
-      <c r="A135" s="4"/>
-    </row>
-    <row r="136" spans="1:1" ht="13">
-      <c r="A136" s="4"/>
-    </row>
-    <row r="137" spans="1:1" ht="13">
-      <c r="A137" s="4"/>
-    </row>
-    <row r="138" spans="1:1" ht="13">
-      <c r="A138" s="4"/>
-    </row>
-    <row r="139" spans="1:1" ht="13">
-      <c r="A139" s="4"/>
-    </row>
-    <row r="140" spans="1:1" ht="13">
-      <c r="A140" s="4"/>
-    </row>
-    <row r="141" spans="1:1" ht="13">
-      <c r="A141" s="4"/>
-    </row>
-    <row r="142" spans="1:1" ht="13">
-      <c r="A142" s="4"/>
-    </row>
-    <row r="143" spans="1:1" ht="13">
-      <c r="A143" s="4"/>
-    </row>
-    <row r="144" spans="1:1" ht="13">
-      <c r="A144" s="4"/>
-    </row>
-    <row r="145" spans="1:1" ht="13">
-      <c r="A145" s="4"/>
-    </row>
-    <row r="146" spans="1:1" ht="13">
-      <c r="A146" s="4"/>
-    </row>
-    <row r="147" spans="1:1" ht="13">
-      <c r="A147" s="4"/>
-    </row>
-    <row r="148" spans="1:1" ht="13">
-      <c r="A148" s="4"/>
-    </row>
-    <row r="149" spans="1:1" ht="13">
-      <c r="A149" s="4"/>
-    </row>
-    <row r="150" spans="1:1" ht="13">
-      <c r="A150" s="4"/>
-    </row>
-    <row r="151" spans="1:1" ht="13">
-      <c r="A151" s="4"/>
-    </row>
-    <row r="152" spans="1:1" ht="13">
-      <c r="A152" s="4"/>
-    </row>
-    <row r="153" spans="1:1" ht="13">
-      <c r="A153" s="4"/>
-    </row>
-    <row r="154" spans="1:1" ht="13">
-      <c r="A154" s="4"/>
-    </row>
-    <row r="155" spans="1:1" ht="13">
-      <c r="A155" s="4"/>
-    </row>
-    <row r="156" spans="1:1" ht="13">
-      <c r="A156" s="4"/>
-    </row>
-    <row r="157" spans="1:1" ht="13">
-      <c r="A157" s="4"/>
-    </row>
-    <row r="158" spans="1:1" ht="13">
-      <c r="A158" s="4"/>
-    </row>
-    <row r="159" spans="1:1" ht="13">
-      <c r="A159" s="4"/>
-    </row>
-    <row r="160" spans="1:1" ht="13">
-      <c r="A160" s="4"/>
-    </row>
-    <row r="161" spans="1:1" ht="13">
-      <c r="A161" s="4"/>
-    </row>
-    <row r="162" spans="1:1" ht="13">
-      <c r="A162" s="4"/>
-    </row>
-    <row r="163" spans="1:1" ht="13">
-      <c r="A163" s="4"/>
-    </row>
-    <row r="164" spans="1:1" ht="13">
-      <c r="A164" s="4"/>
-    </row>
-    <row r="165" spans="1:1" ht="13">
-      <c r="A165" s="4"/>
-    </row>
-    <row r="166" spans="1:1" ht="13">
-      <c r="A166" s="4"/>
-    </row>
-    <row r="167" spans="1:1" ht="13">
-      <c r="A167" s="4"/>
-    </row>
-    <row r="168" spans="1:1" ht="13">
-      <c r="A168" s="4"/>
-    </row>
-    <row r="169" spans="1:1" ht="13">
-      <c r="A169" s="4"/>
-    </row>
-    <row r="170" spans="1:1" ht="13">
-      <c r="A170" s="4"/>
-    </row>
-    <row r="171" spans="1:1" ht="13">
-      <c r="A171" s="4"/>
-    </row>
-    <row r="172" spans="1:1" ht="13">
-      <c r="A172" s="4"/>
-    </row>
-    <row r="173" spans="1:1" ht="13">
-      <c r="A173" s="4"/>
-    </row>
-    <row r="174" spans="1:1" ht="13">
-      <c r="A174" s="4"/>
-    </row>
-    <row r="175" spans="1:1" ht="13">
-      <c r="A175" s="4"/>
-    </row>
-    <row r="176" spans="1:1" ht="13">
-      <c r="A176" s="4"/>
-    </row>
-    <row r="177" spans="1:1" ht="13">
-      <c r="A177" s="4"/>
-    </row>
-    <row r="178" spans="1:1" ht="13">
-      <c r="A178" s="4"/>
-    </row>
-    <row r="179" spans="1:1" ht="13">
-      <c r="A179" s="4"/>
-    </row>
-    <row r="180" spans="1:1" ht="13">
-      <c r="A180" s="4"/>
-    </row>
-    <row r="181" spans="1:1" ht="13">
-      <c r="A181" s="4"/>
-    </row>
-    <row r="182" spans="1:1" ht="13">
-      <c r="A182" s="4"/>
-    </row>
-    <row r="183" spans="1:1" ht="13">
-      <c r="A183" s="4"/>
-    </row>
-    <row r="184" spans="1:1" ht="13">
-      <c r="A184" s="4"/>
-    </row>
-    <row r="185" spans="1:1" ht="13">
-      <c r="A185" s="4"/>
-    </row>
-    <row r="186" spans="1:1" ht="13">
-      <c r="A186" s="4"/>
-    </row>
-    <row r="187" spans="1:1" ht="13">
-      <c r="A187" s="4"/>
-    </row>
-    <row r="188" spans="1:1" ht="13">
-      <c r="A188" s="4"/>
-    </row>
-    <row r="189" spans="1:1" ht="13">
-      <c r="A189" s="4"/>
-    </row>
-    <row r="190" spans="1:1" ht="13">
-      <c r="A190" s="4"/>
-    </row>
-    <row r="191" spans="1:1" ht="13">
-      <c r="A191" s="4"/>
-    </row>
-    <row r="192" spans="1:1" ht="13">
-      <c r="A192" s="4"/>
-    </row>
-    <row r="193" spans="1:1" ht="13">
-      <c r="A193" s="4"/>
-    </row>
-    <row r="194" spans="1:1" ht="13">
-      <c r="A194" s="4"/>
-    </row>
-    <row r="195" spans="1:1" ht="13">
-      <c r="A195" s="4"/>
-    </row>
-    <row r="196" spans="1:1" ht="13">
-      <c r="A196" s="4"/>
-    </row>
-    <row r="197" spans="1:1" ht="13">
-      <c r="A197" s="4"/>
-    </row>
-    <row r="198" spans="1:1" ht="13">
-      <c r="A198" s="4"/>
-    </row>
-    <row r="199" spans="1:1" ht="13">
-      <c r="A199" s="4"/>
-    </row>
-    <row r="200" spans="1:1" ht="13">
-      <c r="A200" s="4"/>
-    </row>
-    <row r="201" spans="1:1" ht="13">
-      <c r="A201" s="4"/>
-    </row>
-    <row r="202" spans="1:1" ht="13">
-      <c r="A202" s="4"/>
-    </row>
-    <row r="203" spans="1:1" ht="13">
-      <c r="A203" s="4"/>
-    </row>
-    <row r="204" spans="1:1" ht="13">
-      <c r="A204" s="4"/>
-    </row>
-    <row r="205" spans="1:1" ht="13">
-      <c r="A205" s="4"/>
-    </row>
-    <row r="206" spans="1:1" ht="13">
-      <c r="A206" s="4"/>
-    </row>
-    <row r="207" spans="1:1" ht="13">
-      <c r="A207" s="4"/>
-    </row>
-    <row r="208" spans="1:1" ht="13">
-      <c r="A208" s="4"/>
-    </row>
-    <row r="209" spans="1:1" ht="13">
-      <c r="A209" s="4"/>
-    </row>
-    <row r="210" spans="1:1" ht="13">
-      <c r="A210" s="4"/>
-    </row>
-    <row r="211" spans="1:1" ht="13">
-      <c r="A211" s="4"/>
-    </row>
-    <row r="212" spans="1:1" ht="13">
-      <c r="A212" s="4"/>
-    </row>
-    <row r="213" spans="1:1" ht="13">
-      <c r="A213" s="4"/>
-    </row>
-    <row r="214" spans="1:1" ht="13">
-      <c r="A214" s="4"/>
-    </row>
-    <row r="215" spans="1:1" ht="13">
-      <c r="A215" s="4"/>
-    </row>
-    <row r="216" spans="1:1" ht="13">
-      <c r="A216" s="4"/>
-    </row>
-    <row r="217" spans="1:1" ht="13">
-      <c r="A217" s="4"/>
-    </row>
-    <row r="218" spans="1:1" ht="13">
-      <c r="A218" s="4"/>
-    </row>
-    <row r="219" spans="1:1" ht="13">
-      <c r="A219" s="4"/>
-    </row>
-    <row r="220" spans="1:1" ht="13">
-      <c r="A220" s="4"/>
-    </row>
-    <row r="221" spans="1:1" ht="13">
-      <c r="A221" s="4"/>
-    </row>
-    <row r="222" spans="1:1" ht="13">
-      <c r="A222" s="4"/>
-    </row>
-    <row r="223" spans="1:1" ht="13">
-      <c r="A223" s="4"/>
-    </row>
-    <row r="224" spans="1:1" ht="13">
-      <c r="A224" s="4"/>
-    </row>
-    <row r="225" spans="1:1" ht="13">
-      <c r="A225" s="4"/>
-    </row>
-    <row r="226" spans="1:1" ht="13">
-      <c r="A226" s="4"/>
-    </row>
-    <row r="227" spans="1:1" ht="13">
-      <c r="A227" s="4"/>
-    </row>
-    <row r="228" spans="1:1" ht="13">
-      <c r="A228" s="4"/>
-    </row>
-    <row r="229" spans="1:1" ht="13">
-      <c r="A229" s="4"/>
-    </row>
-    <row r="230" spans="1:1" ht="13">
-      <c r="A230" s="4"/>
-    </row>
-    <row r="231" spans="1:1" ht="13">
-      <c r="A231" s="4"/>
-    </row>
-    <row r="232" spans="1:1" ht="13">
-      <c r="A232" s="4"/>
-    </row>
-    <row r="233" spans="1:1" ht="13">
-      <c r="A233" s="4"/>
-    </row>
-    <row r="234" spans="1:1" ht="13">
-      <c r="A234" s="4"/>
-    </row>
-    <row r="235" spans="1:1" ht="13">
-      <c r="A235" s="4"/>
-    </row>
-    <row r="236" spans="1:1" ht="13">
-      <c r="A236" s="4"/>
-    </row>
-    <row r="237" spans="1:1" ht="13">
-      <c r="A237" s="4"/>
-    </row>
-    <row r="238" spans="1:1" ht="13">
-      <c r="A238" s="4"/>
-    </row>
-    <row r="239" spans="1:1" ht="13">
-      <c r="A239" s="4"/>
-    </row>
-    <row r="240" spans="1:1" ht="13">
-      <c r="A240" s="4"/>
-    </row>
-    <row r="241" spans="1:1" ht="13">
-      <c r="A241" s="4"/>
-    </row>
-    <row r="242" spans="1:1" ht="13">
-      <c r="A242" s="4"/>
-    </row>
-    <row r="243" spans="1:1" ht="13">
-      <c r="A243" s="4"/>
-    </row>
-    <row r="244" spans="1:1" ht="13">
-      <c r="A244" s="4"/>
-    </row>
-    <row r="245" spans="1:1" ht="13">
-      <c r="A245" s="4"/>
-    </row>
-    <row r="246" spans="1:1" ht="13">
-      <c r="A246" s="4"/>
-    </row>
-    <row r="247" spans="1:1" ht="13">
-      <c r="A247" s="4"/>
-    </row>
-    <row r="248" spans="1:1" ht="13">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="13">
-      <c r="A249" s="4"/>
-    </row>
-    <row r="250" spans="1:1" ht="13">
-      <c r="A250" s="4"/>
-    </row>
-    <row r="251" spans="1:1" ht="13">
-      <c r="A251" s="4"/>
-    </row>
-    <row r="252" spans="1:1" ht="13">
-      <c r="A252" s="4"/>
-    </row>
-    <row r="253" spans="1:1" ht="13">
-      <c r="A253" s="4"/>
-    </row>
-    <row r="254" spans="1:1" ht="13">
-      <c r="A254" s="4"/>
-    </row>
-    <row r="255" spans="1:1" ht="13">
-      <c r="A255" s="4"/>
-    </row>
-    <row r="256" spans="1:1" ht="13">
-      <c r="A256" s="4"/>
-    </row>
-    <row r="257" spans="1:1" ht="13">
-      <c r="A257" s="4"/>
-    </row>
-    <row r="258" spans="1:1" ht="13">
-      <c r="A258" s="4"/>
-    </row>
-    <row r="259" spans="1:1" ht="13">
-      <c r="A259" s="4"/>
-    </row>
-    <row r="260" spans="1:1" ht="13">
-      <c r="A260" s="4"/>
-    </row>
-    <row r="261" spans="1:1" ht="13">
-      <c r="A261" s="4"/>
-    </row>
-    <row r="262" spans="1:1" ht="13">
-      <c r="A262" s="4"/>
-    </row>
-    <row r="263" spans="1:1" ht="13">
-      <c r="A263" s="4"/>
-    </row>
-    <row r="264" spans="1:1" ht="13">
-      <c r="A264" s="4"/>
-    </row>
-    <row r="265" spans="1:1" ht="13">
-      <c r="A265" s="4"/>
-    </row>
-    <row r="266" spans="1:1" ht="13">
-      <c r="A266" s="4"/>
-    </row>
-    <row r="267" spans="1:1" ht="13">
-      <c r="A267" s="4"/>
-    </row>
-    <row r="268" spans="1:1" ht="13">
-      <c r="A268" s="4"/>
-    </row>
-    <row r="269" spans="1:1" ht="13">
-      <c r="A269" s="4"/>
-    </row>
-    <row r="270" spans="1:1" ht="13">
-      <c r="A270" s="4"/>
-    </row>
-    <row r="271" spans="1:1" ht="13">
-      <c r="A271" s="4"/>
-    </row>
-    <row r="272" spans="1:1" ht="13">
-      <c r="A272" s="4"/>
-    </row>
-    <row r="273" spans="1:1" ht="13">
-      <c r="A273" s="4"/>
-    </row>
-    <row r="274" spans="1:1" ht="13">
-      <c r="A274" s="4"/>
-    </row>
-    <row r="275" spans="1:1" ht="13">
-      <c r="A275" s="4"/>
-    </row>
-    <row r="276" spans="1:1" ht="13">
-      <c r="A276" s="4"/>
-    </row>
-    <row r="277" spans="1:1" ht="13">
-      <c r="A277" s="4"/>
-    </row>
-    <row r="278" spans="1:1" ht="13">
-      <c r="A278" s="4"/>
-    </row>
-    <row r="279" spans="1:1" ht="13">
-      <c r="A279" s="4"/>
-    </row>
-    <row r="280" spans="1:1" ht="13">
-      <c r="A280" s="4"/>
-    </row>
-    <row r="281" spans="1:1" ht="13">
-      <c r="A281" s="4"/>
-    </row>
-    <row r="282" spans="1:1" ht="13">
-      <c r="A282" s="4"/>
-    </row>
-    <row r="283" spans="1:1" ht="13">
-      <c r="A283" s="4"/>
-    </row>
-    <row r="284" spans="1:1" ht="13">
-      <c r="A284" s="4"/>
-    </row>
-    <row r="285" spans="1:1" ht="13">
-      <c r="A285" s="4"/>
-    </row>
-    <row r="286" spans="1:1" ht="13">
-      <c r="A286" s="4"/>
-    </row>
-    <row r="287" spans="1:1" ht="13">
-      <c r="A287" s="4"/>
-    </row>
-    <row r="288" spans="1:1" ht="13">
-      <c r="A288" s="4"/>
-    </row>
-    <row r="289" spans="1:1" ht="13">
-      <c r="A289" s="4"/>
-    </row>
-    <row r="290" spans="1:1" ht="13">
-      <c r="A290" s="4"/>
-    </row>
-    <row r="291" spans="1:1" ht="13">
-      <c r="A291" s="4"/>
-    </row>
-    <row r="292" spans="1:1" ht="13">
-      <c r="A292" s="4"/>
-    </row>
-    <row r="293" spans="1:1" ht="13">
-      <c r="A293" s="4"/>
-    </row>
-    <row r="294" spans="1:1" ht="13">
-      <c r="A294" s="4"/>
-    </row>
-    <row r="295" spans="1:1" ht="13">
-      <c r="A295" s="4"/>
-    </row>
-    <row r="296" spans="1:1" ht="13">
-      <c r="A296" s="4"/>
-    </row>
-    <row r="297" spans="1:1" ht="13">
-      <c r="A297" s="4"/>
-    </row>
-    <row r="298" spans="1:1" ht="13">
-      <c r="A298" s="4"/>
-    </row>
-    <row r="299" spans="1:1" ht="13">
-      <c r="A299" s="4"/>
-    </row>
-    <row r="300" spans="1:1" ht="13">
-      <c r="A300" s="4"/>
-    </row>
-    <row r="301" spans="1:1" ht="13">
-      <c r="A301" s="4"/>
-    </row>
-    <row r="302" spans="1:1" ht="13">
-      <c r="A302" s="4"/>
-    </row>
-    <row r="303" spans="1:1" ht="13">
-      <c r="A303" s="4"/>
-    </row>
-    <row r="304" spans="1:1" ht="13">
-      <c r="A304" s="4"/>
-    </row>
-    <row r="305" spans="1:1" ht="13">
-      <c r="A305" s="4"/>
-    </row>
-    <row r="306" spans="1:1" ht="13">
-      <c r="A306" s="4"/>
-    </row>
-    <row r="307" spans="1:1" ht="13">
-      <c r="A307" s="4"/>
-    </row>
-    <row r="308" spans="1:1" ht="13">
-      <c r="A308" s="4"/>
-    </row>
-    <row r="309" spans="1:1" ht="13">
-      <c r="A309" s="4"/>
-    </row>
-    <row r="310" spans="1:1" ht="13">
-      <c r="A310" s="4"/>
-    </row>
-    <row r="311" spans="1:1" ht="13">
-      <c r="A311" s="4"/>
-    </row>
-    <row r="312" spans="1:1" ht="13">
-      <c r="A312" s="4"/>
-    </row>
-    <row r="313" spans="1:1" ht="13">
-      <c r="A313" s="4"/>
-    </row>
-    <row r="314" spans="1:1" ht="13">
-      <c r="A314" s="4"/>
-    </row>
-    <row r="315" spans="1:1" ht="13">
-      <c r="A315" s="4"/>
-    </row>
-    <row r="316" spans="1:1" ht="13">
-      <c r="A316" s="4"/>
-    </row>
-    <row r="317" spans="1:1" ht="13">
-      <c r="A317" s="4"/>
-    </row>
-    <row r="318" spans="1:1" ht="13">
-      <c r="A318" s="4"/>
-    </row>
-    <row r="319" spans="1:1" ht="13">
-      <c r="A319" s="4"/>
-    </row>
-    <row r="320" spans="1:1" ht="13">
-      <c r="A320" s="4"/>
-    </row>
-    <row r="321" spans="1:1" ht="13">
-      <c r="A321" s="4"/>
-    </row>
-    <row r="322" spans="1:1" ht="13">
-      <c r="A322" s="4"/>
-    </row>
-    <row r="323" spans="1:1" ht="13">
-      <c r="A323" s="4"/>
-    </row>
-    <row r="324" spans="1:1" ht="13">
-      <c r="A324" s="4"/>
-    </row>
-    <row r="325" spans="1:1" ht="13">
-      <c r="A325" s="4"/>
-    </row>
-    <row r="326" spans="1:1" ht="13">
-      <c r="A326" s="4"/>
-    </row>
-    <row r="327" spans="1:1" ht="13">
-      <c r="A327" s="4"/>
-    </row>
-    <row r="328" spans="1:1" ht="13">
-      <c r="A328" s="4"/>
-    </row>
-    <row r="329" spans="1:1" ht="13">
-      <c r="A329" s="4"/>
-    </row>
-    <row r="330" spans="1:1" ht="13">
-      <c r="A330" s="4"/>
-    </row>
-    <row r="331" spans="1:1" ht="13">
-      <c r="A331" s="4"/>
-    </row>
-    <row r="332" spans="1:1" ht="13">
-      <c r="A332" s="4"/>
-    </row>
-    <row r="333" spans="1:1" ht="13">
-      <c r="A333" s="4"/>
-    </row>
-    <row r="334" spans="1:1" ht="13">
-      <c r="A334" s="4"/>
-    </row>
-    <row r="335" spans="1:1" ht="13">
-      <c r="A335" s="4"/>
-    </row>
-    <row r="336" spans="1:1" ht="13">
-      <c r="A336" s="4"/>
-    </row>
-    <row r="337" spans="1:1" ht="13">
-      <c r="A337" s="4"/>
-    </row>
-    <row r="338" spans="1:1" ht="13">
-      <c r="A338" s="4"/>
-    </row>
-    <row r="339" spans="1:1" ht="13">
-      <c r="A339" s="4"/>
-    </row>
-    <row r="340" spans="1:1" ht="13">
-      <c r="A340" s="4"/>
-    </row>
-    <row r="341" spans="1:1" ht="13">
-      <c r="A341" s="4"/>
-    </row>
-    <row r="342" spans="1:1" ht="13">
-      <c r="A342" s="4"/>
-    </row>
-    <row r="343" spans="1:1" ht="13">
-      <c r="A343" s="4"/>
-    </row>
-    <row r="344" spans="1:1" ht="13">
-      <c r="A344" s="4"/>
-    </row>
-    <row r="345" spans="1:1" ht="13">
-      <c r="A345" s="4"/>
-    </row>
-    <row r="346" spans="1:1" ht="13">
-      <c r="A346" s="4"/>
-    </row>
-    <row r="347" spans="1:1" ht="13">
-      <c r="A347" s="4"/>
-    </row>
-    <row r="348" spans="1:1" ht="13">
-      <c r="A348" s="4"/>
-    </row>
-    <row r="349" spans="1:1" ht="13">
-      <c r="A349" s="4"/>
-    </row>
-    <row r="350" spans="1:1" ht="13">
-      <c r="A350" s="4"/>
-    </row>
-    <row r="351" spans="1:1" ht="13">
-      <c r="A351" s="4"/>
-    </row>
-    <row r="352" spans="1:1" ht="13">
-      <c r="A352" s="4"/>
-    </row>
-    <row r="353" spans="1:1" ht="13">
-      <c r="A353" s="4"/>
-    </row>
-    <row r="354" spans="1:1" ht="13">
-      <c r="A354" s="4"/>
-    </row>
-    <row r="355" spans="1:1" ht="13">
-      <c r="A355" s="4"/>
-    </row>
-    <row r="356" spans="1:1" ht="13">
-      <c r="A356" s="4"/>
-    </row>
-    <row r="357" spans="1:1" ht="13">
-      <c r="A357" s="4"/>
-    </row>
-    <row r="358" spans="1:1" ht="13">
-      <c r="A358" s="4"/>
-    </row>
-    <row r="359" spans="1:1" ht="13">
-      <c r="A359" s="4"/>
-    </row>
-    <row r="360" spans="1:1" ht="13">
-      <c r="A360" s="4"/>
-    </row>
-    <row r="361" spans="1:1" ht="13">
-      <c r="A361" s="4"/>
-    </row>
-    <row r="362" spans="1:1" ht="13">
-      <c r="A362" s="4"/>
-    </row>
-    <row r="363" spans="1:1" ht="13">
-      <c r="A363" s="4"/>
-    </row>
-    <row r="364" spans="1:1" ht="13">
-      <c r="A364" s="4"/>
-    </row>
-    <row r="365" spans="1:1" ht="13">
-      <c r="A365" s="4"/>
-    </row>
-    <row r="366" spans="1:1" ht="13">
-      <c r="A366" s="4"/>
-    </row>
-    <row r="367" spans="1:1" ht="13">
-      <c r="A367" s="4"/>
-    </row>
-    <row r="368" spans="1:1" ht="13">
-      <c r="A368" s="4"/>
-    </row>
-    <row r="369" spans="1:1" ht="13">
-      <c r="A369" s="4"/>
-    </row>
-    <row r="370" spans="1:1" ht="13">
-      <c r="A370" s="4"/>
-    </row>
-    <row r="371" spans="1:1" ht="13">
-      <c r="A371" s="4"/>
-    </row>
-    <row r="372" spans="1:1" ht="13">
-      <c r="A372" s="4"/>
-    </row>
-    <row r="373" spans="1:1" ht="13">
-      <c r="A373" s="4"/>
-    </row>
-    <row r="374" spans="1:1" ht="13">
-      <c r="A374" s="4"/>
-    </row>
-    <row r="375" spans="1:1" ht="13">
-      <c r="A375" s="4"/>
-    </row>
-    <row r="376" spans="1:1" ht="13">
-      <c r="A376" s="4"/>
-    </row>
-    <row r="377" spans="1:1" ht="13">
-      <c r="A377" s="4"/>
-    </row>
-    <row r="378" spans="1:1" ht="13">
-      <c r="A378" s="4"/>
-    </row>
-    <row r="379" spans="1:1" ht="13">
-      <c r="A379" s="4"/>
-    </row>
-    <row r="380" spans="1:1" ht="13">
-      <c r="A380" s="4"/>
-    </row>
-    <row r="381" spans="1:1" ht="13">
-      <c r="A381" s="4"/>
-    </row>
-    <row r="382" spans="1:1" ht="13">
-      <c r="A382" s="4"/>
-    </row>
-    <row r="383" spans="1:1" ht="13">
-      <c r="A383" s="4"/>
-    </row>
-    <row r="384" spans="1:1" ht="13">
-      <c r="A384" s="4"/>
-    </row>
-    <row r="385" spans="1:1" ht="13">
-      <c r="A385" s="4"/>
-    </row>
-    <row r="386" spans="1:1" ht="13">
-      <c r="A386" s="4"/>
-    </row>
-    <row r="387" spans="1:1" ht="13">
-      <c r="A387" s="4"/>
-    </row>
-    <row r="388" spans="1:1" ht="13">
-      <c r="A388" s="4"/>
-    </row>
-    <row r="389" spans="1:1" ht="13">
-      <c r="A389" s="4"/>
-    </row>
-    <row r="390" spans="1:1" ht="13">
-      <c r="A390" s="4"/>
-    </row>
-    <row r="391" spans="1:1" ht="13">
-      <c r="A391" s="4"/>
-    </row>
-    <row r="392" spans="1:1" ht="13">
-      <c r="A392" s="4"/>
-    </row>
-    <row r="393" spans="1:1" ht="13">
-      <c r="A393" s="4"/>
-    </row>
-    <row r="394" spans="1:1" ht="13">
-      <c r="A394" s="4"/>
-    </row>
-    <row r="395" spans="1:1" ht="13">
-      <c r="A395" s="4"/>
-    </row>
-    <row r="396" spans="1:1" ht="13">
-      <c r="A396" s="4"/>
-    </row>
-    <row r="397" spans="1:1" ht="13">
-      <c r="A397" s="4"/>
-    </row>
-    <row r="398" spans="1:1" ht="13">
-      <c r="A398" s="4"/>
-    </row>
-    <row r="399" spans="1:1" ht="13">
-      <c r="A399" s="4"/>
-    </row>
-    <row r="400" spans="1:1" ht="13">
-      <c r="A400" s="4"/>
-    </row>
-    <row r="401" spans="1:1" ht="13">
-      <c r="A401" s="4"/>
-    </row>
-    <row r="402" spans="1:1" ht="13">
-      <c r="A402" s="4"/>
-    </row>
-    <row r="403" spans="1:1" ht="13">
-      <c r="A403" s="4"/>
-    </row>
-    <row r="404" spans="1:1" ht="13">
-      <c r="A404" s="4"/>
-    </row>
-    <row r="405" spans="1:1" ht="13">
-      <c r="A405" s="4"/>
-    </row>
-    <row r="406" spans="1:1" ht="13">
-      <c r="A406" s="4"/>
-    </row>
-    <row r="407" spans="1:1" ht="13">
-      <c r="A407" s="4"/>
-    </row>
-    <row r="408" spans="1:1" ht="13">
-      <c r="A408" s="4"/>
-    </row>
-    <row r="409" spans="1:1" ht="13">
-      <c r="A409" s="4"/>
-    </row>
-    <row r="410" spans="1:1" ht="13">
-      <c r="A410" s="4"/>
-    </row>
-    <row r="411" spans="1:1" ht="13">
-      <c r="A411" s="4"/>
-    </row>
-    <row r="412" spans="1:1" ht="13">
-      <c r="A412" s="4"/>
-    </row>
-    <row r="413" spans="1:1" ht="13">
-      <c r="A413" s="4"/>
-    </row>
-    <row r="414" spans="1:1" ht="13">
-      <c r="A414" s="4"/>
-    </row>
-    <row r="415" spans="1:1" ht="13">
-      <c r="A415" s="4"/>
-    </row>
-    <row r="416" spans="1:1" ht="13">
-      <c r="A416" s="4"/>
-    </row>
-    <row r="417" spans="1:1" ht="13">
-      <c r="A417" s="4"/>
-    </row>
-    <row r="418" spans="1:1" ht="13">
-      <c r="A418" s="4"/>
-    </row>
-    <row r="419" spans="1:1" ht="13">
-      <c r="A419" s="4"/>
-    </row>
-    <row r="420" spans="1:1" ht="13">
-      <c r="A420" s="4"/>
-    </row>
-    <row r="421" spans="1:1" ht="13">
-      <c r="A421" s="4"/>
-    </row>
-    <row r="422" spans="1:1" ht="13">
-      <c r="A422" s="4"/>
-    </row>
-    <row r="423" spans="1:1" ht="13">
-      <c r="A423" s="4"/>
-    </row>
-    <row r="424" spans="1:1" ht="13">
-      <c r="A424" s="4"/>
-    </row>
-    <row r="425" spans="1:1" ht="13">
-      <c r="A425" s="4"/>
-    </row>
-    <row r="426" spans="1:1" ht="13">
-      <c r="A426" s="4"/>
-    </row>
-    <row r="427" spans="1:1" ht="13">
-      <c r="A427" s="4"/>
-    </row>
-    <row r="428" spans="1:1" ht="13">
-      <c r="A428" s="4"/>
-    </row>
-    <row r="429" spans="1:1" ht="13">
-      <c r="A429" s="4"/>
-    </row>
-    <row r="430" spans="1:1" ht="13">
-      <c r="A430" s="4"/>
-    </row>
-    <row r="431" spans="1:1" ht="13">
-      <c r="A431" s="4"/>
-    </row>
-    <row r="432" spans="1:1" ht="13">
-      <c r="A432" s="4"/>
-    </row>
-    <row r="433" spans="1:1" ht="13">
-      <c r="A433" s="4"/>
-    </row>
-    <row r="434" spans="1:1" ht="13">
-      <c r="A434" s="4"/>
-    </row>
-    <row r="435" spans="1:1" ht="13">
-      <c r="A435" s="4"/>
-    </row>
-    <row r="436" spans="1:1" ht="13">
-      <c r="A436" s="4"/>
-    </row>
-    <row r="437" spans="1:1" ht="13">
-      <c r="A437" s="4"/>
-    </row>
-    <row r="438" spans="1:1" ht="13">
-      <c r="A438" s="4"/>
-    </row>
-    <row r="439" spans="1:1" ht="13">
-      <c r="A439" s="4"/>
-    </row>
-    <row r="440" spans="1:1" ht="13">
-      <c r="A440" s="4"/>
-    </row>
-    <row r="441" spans="1:1" ht="13">
-      <c r="A441" s="4"/>
-    </row>
-    <row r="442" spans="1:1" ht="13">
-      <c r="A442" s="4"/>
-    </row>
-    <row r="443" spans="1:1" ht="13">
-      <c r="A443" s="4"/>
-    </row>
-    <row r="444" spans="1:1" ht="13">
-      <c r="A444" s="4"/>
-    </row>
-    <row r="445" spans="1:1" ht="13">
-      <c r="A445" s="4"/>
-    </row>
-    <row r="446" spans="1:1" ht="13">
-      <c r="A446" s="4"/>
-    </row>
-    <row r="447" spans="1:1" ht="13">
-      <c r="A447" s="4"/>
-    </row>
-    <row r="448" spans="1:1" ht="13">
-      <c r="A448" s="4"/>
-    </row>
-    <row r="449" spans="1:1" ht="13">
-      <c r="A449" s="4"/>
-    </row>
-    <row r="450" spans="1:1" ht="13">
-      <c r="A450" s="4"/>
-    </row>
-    <row r="451" spans="1:1" ht="13">
-      <c r="A451" s="4"/>
-    </row>
-    <row r="452" spans="1:1" ht="13">
-      <c r="A452" s="4"/>
-    </row>
-    <row r="453" spans="1:1" ht="13">
-      <c r="A453" s="4"/>
-    </row>
-    <row r="454" spans="1:1" ht="13">
-      <c r="A454" s="4"/>
-    </row>
-    <row r="455" spans="1:1" ht="13">
-      <c r="A455" s="4"/>
-    </row>
-    <row r="456" spans="1:1" ht="13">
-      <c r="A456" s="4"/>
-    </row>
-    <row r="457" spans="1:1" ht="13">
-      <c r="A457" s="4"/>
-    </row>
-    <row r="458" spans="1:1" ht="13">
-      <c r="A458" s="4"/>
-    </row>
-    <row r="459" spans="1:1" ht="13">
-      <c r="A459" s="4"/>
-    </row>
-    <row r="460" spans="1:1" ht="13">
-      <c r="A460" s="4"/>
-    </row>
-    <row r="461" spans="1:1" ht="13">
-      <c r="A461" s="4"/>
-    </row>
-    <row r="462" spans="1:1" ht="13">
-      <c r="A462" s="4"/>
-    </row>
-    <row r="463" spans="1:1" ht="13">
-      <c r="A463" s="4"/>
-    </row>
-    <row r="464" spans="1:1" ht="13">
-      <c r="A464" s="4"/>
-    </row>
-    <row r="465" spans="1:1" ht="13">
-      <c r="A465" s="4"/>
-    </row>
-    <row r="466" spans="1:1" ht="13">
-      <c r="A466" s="4"/>
-    </row>
-    <row r="467" spans="1:1" ht="13">
-      <c r="A467" s="4"/>
-    </row>
-    <row r="468" spans="1:1" ht="13">
-      <c r="A468" s="4"/>
-    </row>
-    <row r="469" spans="1:1" ht="13">
-      <c r="A469" s="4"/>
-    </row>
-    <row r="470" spans="1:1" ht="13">
-      <c r="A470" s="4"/>
-    </row>
-    <row r="471" spans="1:1" ht="13">
-      <c r="A471" s="4"/>
-    </row>
-    <row r="472" spans="1:1" ht="13">
-      <c r="A472" s="4"/>
-    </row>
-    <row r="473" spans="1:1" ht="13">
-      <c r="A473" s="4"/>
-    </row>
-    <row r="474" spans="1:1" ht="13">
-      <c r="A474" s="4"/>
-    </row>
-    <row r="475" spans="1:1" ht="13">
-      <c r="A475" s="4"/>
-    </row>
-    <row r="476" spans="1:1" ht="13">
-      <c r="A476" s="4"/>
-    </row>
-    <row r="477" spans="1:1" ht="13">
-      <c r="A477" s="4"/>
-    </row>
-    <row r="478" spans="1:1" ht="13">
-      <c r="A478" s="4"/>
-    </row>
-    <row r="479" spans="1:1" ht="13">
-      <c r="A479" s="4"/>
-    </row>
-    <row r="480" spans="1:1" ht="13">
-      <c r="A480" s="4"/>
-    </row>
-    <row r="481" spans="1:1" ht="13">
-      <c r="A481" s="4"/>
-    </row>
-    <row r="482" spans="1:1" ht="13">
-      <c r="A482" s="4"/>
-    </row>
-    <row r="483" spans="1:1" ht="13">
-      <c r="A483" s="4"/>
-    </row>
-    <row r="484" spans="1:1" ht="13">
-      <c r="A484" s="4"/>
-    </row>
-    <row r="485" spans="1:1" ht="13">
-      <c r="A485" s="4"/>
-    </row>
-    <row r="486" spans="1:1" ht="13">
-      <c r="A486" s="4"/>
-    </row>
-    <row r="487" spans="1:1" ht="13">
-      <c r="A487" s="4"/>
-    </row>
-    <row r="488" spans="1:1" ht="13">
-      <c r="A488" s="4"/>
-    </row>
-    <row r="489" spans="1:1" ht="13">
-      <c r="A489" s="4"/>
-    </row>
-    <row r="490" spans="1:1" ht="13">
-      <c r="A490" s="4"/>
-    </row>
-    <row r="491" spans="1:1" ht="13">
-      <c r="A491" s="4"/>
-    </row>
-    <row r="492" spans="1:1" ht="13">
-      <c r="A492" s="4"/>
-    </row>
-    <row r="493" spans="1:1" ht="13">
-      <c r="A493" s="4"/>
-    </row>
-    <row r="494" spans="1:1" ht="13">
-      <c r="A494" s="4"/>
-    </row>
-    <row r="495" spans="1:1" ht="13">
-      <c r="A495" s="4"/>
-    </row>
-    <row r="496" spans="1:1" ht="13">
-      <c r="A496" s="4"/>
-    </row>
-    <row r="497" spans="1:1" ht="13">
-      <c r="A497" s="4"/>
-    </row>
-    <row r="498" spans="1:1" ht="13">
-      <c r="A498" s="4"/>
-    </row>
-    <row r="499" spans="1:1" ht="13">
-      <c r="A499" s="4"/>
-    </row>
-    <row r="500" spans="1:1" ht="13">
-      <c r="A500" s="4"/>
-    </row>
-    <row r="501" spans="1:1" ht="13">
-      <c r="A501" s="4"/>
-    </row>
-    <row r="502" spans="1:1" ht="13">
-      <c r="A502" s="4"/>
-    </row>
-    <row r="503" spans="1:1" ht="13">
-      <c r="A503" s="4"/>
-    </row>
-    <row r="504" spans="1:1" ht="13">
-      <c r="A504" s="4"/>
-    </row>
-    <row r="505" spans="1:1" ht="13">
-      <c r="A505" s="4"/>
-    </row>
-    <row r="506" spans="1:1" ht="13">
-      <c r="A506" s="4"/>
-    </row>
-    <row r="507" spans="1:1" ht="13">
-      <c r="A507" s="4"/>
-    </row>
-    <row r="508" spans="1:1" ht="13">
-      <c r="A508" s="4"/>
-    </row>
-    <row r="509" spans="1:1" ht="13">
-      <c r="A509" s="4"/>
-    </row>
-    <row r="510" spans="1:1" ht="13">
-      <c r="A510" s="4"/>
-    </row>
-    <row r="511" spans="1:1" ht="13">
-      <c r="A511" s="4"/>
-    </row>
-    <row r="512" spans="1:1" ht="13">
-      <c r="A512" s="4"/>
-    </row>
-    <row r="513" spans="1:1" ht="13">
-      <c r="A513" s="4"/>
-    </row>
-    <row r="514" spans="1:1" ht="13">
-      <c r="A514" s="4"/>
-    </row>
-    <row r="515" spans="1:1" ht="13">
-      <c r="A515" s="4"/>
-    </row>
-    <row r="516" spans="1:1" ht="13">
-      <c r="A516" s="4"/>
-    </row>
-    <row r="517" spans="1:1" ht="13">
-      <c r="A517" s="4"/>
-    </row>
-    <row r="518" spans="1:1" ht="13">
-      <c r="A518" s="4"/>
-    </row>
-    <row r="519" spans="1:1" ht="13">
-      <c r="A519" s="4"/>
-    </row>
-    <row r="520" spans="1:1" ht="13">
-      <c r="A520" s="4"/>
-    </row>
-    <row r="521" spans="1:1" ht="13">
-      <c r="A521" s="4"/>
-    </row>
-    <row r="522" spans="1:1" ht="13">
-      <c r="A522" s="4"/>
-    </row>
-    <row r="523" spans="1:1" ht="13">
-      <c r="A523" s="4"/>
-    </row>
-    <row r="524" spans="1:1" ht="13">
-      <c r="A524" s="4"/>
-    </row>
-    <row r="525" spans="1:1" ht="13">
-      <c r="A525" s="4"/>
-    </row>
-    <row r="526" spans="1:1" ht="13">
-      <c r="A526" s="4"/>
-    </row>
-    <row r="527" spans="1:1" ht="13">
-      <c r="A527" s="4"/>
-    </row>
-    <row r="528" spans="1:1" ht="13">
-      <c r="A528" s="4"/>
-    </row>
-    <row r="529" spans="1:1" ht="13">
-      <c r="A529" s="4"/>
-    </row>
-    <row r="530" spans="1:1" ht="13">
-      <c r="A530" s="4"/>
-    </row>
-    <row r="531" spans="1:1" ht="13">
-      <c r="A531" s="4"/>
-    </row>
-    <row r="532" spans="1:1" ht="13">
-      <c r="A532" s="4"/>
-    </row>
-    <row r="533" spans="1:1" ht="13">
-      <c r="A533" s="4"/>
-    </row>
-    <row r="534" spans="1:1" ht="13">
-      <c r="A534" s="4"/>
-    </row>
-    <row r="535" spans="1:1" ht="13">
-      <c r="A535" s="4"/>
-    </row>
-    <row r="536" spans="1:1" ht="13">
-      <c r="A536" s="4"/>
-    </row>
-    <row r="537" spans="1:1" ht="13">
-      <c r="A537" s="4"/>
-    </row>
-    <row r="538" spans="1:1" ht="13">
-      <c r="A538" s="4"/>
-    </row>
-    <row r="539" spans="1:1" ht="13">
-      <c r="A539" s="4"/>
-    </row>
-    <row r="540" spans="1:1" ht="13">
-      <c r="A540" s="4"/>
-    </row>
-    <row r="541" spans="1:1" ht="13">
-      <c r="A541" s="4"/>
-    </row>
-    <row r="542" spans="1:1" ht="13">
-      <c r="A542" s="4"/>
-    </row>
-    <row r="543" spans="1:1" ht="13">
-      <c r="A543" s="4"/>
-    </row>
-    <row r="544" spans="1:1" ht="13">
-      <c r="A544" s="4"/>
-    </row>
-    <row r="545" spans="1:1" ht="13">
-      <c r="A545" s="4"/>
-    </row>
-    <row r="546" spans="1:1" ht="13">
-      <c r="A546" s="4"/>
-    </row>
-    <row r="547" spans="1:1" ht="13">
-      <c r="A547" s="4"/>
-    </row>
-    <row r="548" spans="1:1" ht="13">
-      <c r="A548" s="4"/>
-    </row>
-    <row r="549" spans="1:1" ht="13">
-      <c r="A549" s="4"/>
-    </row>
-    <row r="550" spans="1:1" ht="13">
-      <c r="A550" s="4"/>
-    </row>
-    <row r="551" spans="1:1" ht="13">
-      <c r="A551" s="4"/>
-    </row>
-    <row r="552" spans="1:1" ht="13">
-      <c r="A552" s="4"/>
-    </row>
-    <row r="553" spans="1:1" ht="13">
-      <c r="A553" s="4"/>
-    </row>
-    <row r="554" spans="1:1" ht="13">
-      <c r="A554" s="4"/>
-    </row>
-    <row r="555" spans="1:1" ht="13">
-      <c r="A555" s="4"/>
-    </row>
-    <row r="556" spans="1:1" ht="13">
-      <c r="A556" s="4"/>
-    </row>
-    <row r="557" spans="1:1" ht="13">
-      <c r="A557" s="4"/>
-    </row>
-    <row r="558" spans="1:1" ht="13">
-      <c r="A558" s="4"/>
-    </row>
-    <row r="559" spans="1:1" ht="13">
-      <c r="A559" s="4"/>
-    </row>
-    <row r="560" spans="1:1" ht="13">
-      <c r="A560" s="4"/>
-    </row>
-    <row r="561" spans="1:1" ht="13">
-      <c r="A561" s="4"/>
-    </row>
-    <row r="562" spans="1:1" ht="13">
-      <c r="A562" s="4"/>
-    </row>
-    <row r="563" spans="1:1" ht="13">
-      <c r="A563" s="4"/>
-    </row>
-    <row r="564" spans="1:1" ht="13">
-      <c r="A564" s="4"/>
-    </row>
-    <row r="565" spans="1:1" ht="13">
-      <c r="A565" s="4"/>
-    </row>
-    <row r="566" spans="1:1" ht="13">
-      <c r="A566" s="4"/>
-    </row>
-    <row r="567" spans="1:1" ht="13">
-      <c r="A567" s="4"/>
-    </row>
-    <row r="568" spans="1:1" ht="13">
-      <c r="A568" s="4"/>
-    </row>
-    <row r="569" spans="1:1" ht="13">
-      <c r="A569" s="4"/>
-    </row>
-    <row r="570" spans="1:1" ht="13">
-      <c r="A570" s="4"/>
-    </row>
-    <row r="571" spans="1:1" ht="13">
-      <c r="A571" s="4"/>
-    </row>
-    <row r="572" spans="1:1" ht="13">
-      <c r="A572" s="4"/>
-    </row>
-    <row r="573" spans="1:1" ht="13">
-      <c r="A573" s="4"/>
-    </row>
-    <row r="574" spans="1:1" ht="13">
-      <c r="A574" s="4"/>
-    </row>
-    <row r="575" spans="1:1" ht="13">
-      <c r="A575" s="4"/>
-    </row>
-    <row r="576" spans="1:1" ht="13">
-      <c r="A576" s="4"/>
-    </row>
-    <row r="577" spans="1:1" ht="13">
-      <c r="A577" s="4"/>
-    </row>
-    <row r="578" spans="1:1" ht="13">
-      <c r="A578" s="4"/>
-    </row>
-    <row r="579" spans="1:1" ht="13">
-      <c r="A579" s="4"/>
-    </row>
-    <row r="580" spans="1:1" ht="13">
-      <c r="A580" s="4"/>
-    </row>
-    <row r="581" spans="1:1" ht="13">
-      <c r="A581" s="4"/>
-    </row>
-    <row r="582" spans="1:1" ht="13">
-      <c r="A582" s="4"/>
-    </row>
-    <row r="583" spans="1:1" ht="13">
-      <c r="A583" s="4"/>
-    </row>
-    <row r="584" spans="1:1" ht="13">
-      <c r="A584" s="4"/>
-    </row>
-    <row r="585" spans="1:1" ht="13">
-      <c r="A585" s="4"/>
-    </row>
-    <row r="586" spans="1:1" ht="13">
-      <c r="A586" s="4"/>
-    </row>
-    <row r="587" spans="1:1" ht="13">
-      <c r="A587" s="4"/>
-    </row>
-    <row r="588" spans="1:1" ht="13">
-      <c r="A588" s="4"/>
-    </row>
-    <row r="589" spans="1:1" ht="13">
-      <c r="A589" s="4"/>
-    </row>
-    <row r="590" spans="1:1" ht="13">
-      <c r="A590" s="4"/>
-    </row>
-    <row r="591" spans="1:1" ht="13">
-      <c r="A591" s="4"/>
-    </row>
-    <row r="592" spans="1:1" ht="13">
-      <c r="A592" s="4"/>
-    </row>
-    <row r="593" spans="1:1" ht="13">
-      <c r="A593" s="4"/>
-    </row>
-    <row r="594" spans="1:1" ht="13">
-      <c r="A594" s="4"/>
-    </row>
-    <row r="595" spans="1:1" ht="13">
-      <c r="A595" s="4"/>
-    </row>
-    <row r="596" spans="1:1" ht="13">
-      <c r="A596" s="4"/>
-    </row>
-    <row r="597" spans="1:1" ht="13">
-      <c r="A597" s="4"/>
-    </row>
-    <row r="598" spans="1:1" ht="13">
-      <c r="A598" s="4"/>
-    </row>
-    <row r="599" spans="1:1" ht="13">
-      <c r="A599" s="4"/>
-    </row>
-    <row r="600" spans="1:1" ht="13">
-      <c r="A600" s="4"/>
-    </row>
-    <row r="601" spans="1:1" ht="13">
-      <c r="A601" s="4"/>
-    </row>
-    <row r="602" spans="1:1" ht="13">
-      <c r="A602" s="4"/>
-    </row>
-    <row r="603" spans="1:1" ht="13">
-      <c r="A603" s="4"/>
-    </row>
-    <row r="604" spans="1:1" ht="13">
-      <c r="A604" s="4"/>
-    </row>
-    <row r="605" spans="1:1" ht="13">
-      <c r="A605" s="4"/>
-    </row>
-    <row r="606" spans="1:1" ht="13">
-      <c r="A606" s="4"/>
-    </row>
-    <row r="607" spans="1:1" ht="13">
-      <c r="A607" s="4"/>
-    </row>
-    <row r="608" spans="1:1" ht="13">
-      <c r="A608" s="4"/>
-    </row>
-    <row r="609" spans="1:1" ht="13">
-      <c r="A609" s="4"/>
-    </row>
-    <row r="610" spans="1:1" ht="13">
-      <c r="A610" s="4"/>
-    </row>
-    <row r="611" spans="1:1" ht="13">
-      <c r="A611" s="4"/>
-    </row>
-    <row r="612" spans="1:1" ht="13">
-      <c r="A612" s="4"/>
-    </row>
-    <row r="613" spans="1:1" ht="13">
-      <c r="A613" s="4"/>
-    </row>
-    <row r="614" spans="1:1" ht="13">
-      <c r="A614" s="4"/>
-    </row>
-    <row r="615" spans="1:1" ht="13">
-      <c r="A615" s="4"/>
-    </row>
-    <row r="616" spans="1:1" ht="13">
-      <c r="A616" s="4"/>
-    </row>
-    <row r="617" spans="1:1" ht="13">
-      <c r="A617" s="4"/>
-    </row>
-    <row r="618" spans="1:1" ht="13">
-      <c r="A618" s="4"/>
-    </row>
-    <row r="619" spans="1:1" ht="13">
-      <c r="A619" s="4"/>
-    </row>
-    <row r="620" spans="1:1" ht="13">
-      <c r="A620" s="4"/>
-    </row>
-    <row r="621" spans="1:1" ht="13">
-      <c r="A621" s="4"/>
-    </row>
-    <row r="622" spans="1:1" ht="13">
-      <c r="A622" s="4"/>
-    </row>
-    <row r="623" spans="1:1" ht="13">
-      <c r="A623" s="4"/>
-    </row>
-    <row r="624" spans="1:1" ht="13">
-      <c r="A624" s="4"/>
-    </row>
-    <row r="625" spans="1:1" ht="13">
-      <c r="A625" s="4"/>
-    </row>
-    <row r="626" spans="1:1" ht="13">
-      <c r="A626" s="4"/>
-    </row>
-    <row r="627" spans="1:1" ht="13">
-      <c r="A627" s="4"/>
-    </row>
-    <row r="628" spans="1:1" ht="13">
-      <c r="A628" s="4"/>
-    </row>
-    <row r="629" spans="1:1" ht="13">
-      <c r="A629" s="4"/>
-    </row>
-    <row r="630" spans="1:1" ht="13">
-      <c r="A630" s="4"/>
-    </row>
-    <row r="631" spans="1:1" ht="13">
-      <c r="A631" s="4"/>
-    </row>
-    <row r="632" spans="1:1" ht="13">
-      <c r="A632" s="4"/>
-    </row>
-    <row r="633" spans="1:1" ht="13">
-      <c r="A633" s="4"/>
-    </row>
-    <row r="634" spans="1:1" ht="13">
-      <c r="A634" s="4"/>
-    </row>
-    <row r="635" spans="1:1" ht="13">
-      <c r="A635" s="4"/>
-    </row>
-    <row r="636" spans="1:1" ht="13">
-      <c r="A636" s="4"/>
-    </row>
-    <row r="637" spans="1:1" ht="13">
-      <c r="A637" s="4"/>
-    </row>
-    <row r="638" spans="1:1" ht="13">
-      <c r="A638" s="4"/>
-    </row>
-    <row r="639" spans="1:1" ht="13">
-      <c r="A639" s="4"/>
-    </row>
-    <row r="640" spans="1:1" ht="13">
-      <c r="A640" s="4"/>
-    </row>
-    <row r="641" spans="1:1" ht="13">
-      <c r="A641" s="4"/>
-    </row>
-    <row r="642" spans="1:1" ht="13">
-      <c r="A642" s="4"/>
-    </row>
-    <row r="643" spans="1:1" ht="13">
-      <c r="A643" s="4"/>
-    </row>
-    <row r="644" spans="1:1" ht="13">
-      <c r="A644" s="4"/>
-    </row>
-    <row r="645" spans="1:1" ht="13">
-      <c r="A645" s="4"/>
-    </row>
-    <row r="646" spans="1:1" ht="13">
-      <c r="A646" s="4"/>
-    </row>
-    <row r="647" spans="1:1" ht="13">
-      <c r="A647" s="4"/>
-    </row>
-    <row r="648" spans="1:1" ht="13">
-      <c r="A648" s="4"/>
-    </row>
-    <row r="649" spans="1:1" ht="13">
-      <c r="A649" s="4"/>
-    </row>
-    <row r="650" spans="1:1" ht="13">
-      <c r="A650" s="4"/>
-    </row>
-    <row r="651" spans="1:1" ht="13">
-      <c r="A651" s="4"/>
-    </row>
-    <row r="652" spans="1:1" ht="13">
-      <c r="A652" s="4"/>
-    </row>
-    <row r="653" spans="1:1" ht="13">
-      <c r="A653" s="4"/>
-    </row>
-    <row r="654" spans="1:1" ht="13">
-      <c r="A654" s="4"/>
-    </row>
-    <row r="655" spans="1:1" ht="13">
-      <c r="A655" s="4"/>
-    </row>
-    <row r="656" spans="1:1" ht="13">
-      <c r="A656" s="4"/>
-    </row>
-    <row r="657" spans="1:1" ht="13">
-      <c r="A657" s="4"/>
-    </row>
-    <row r="658" spans="1:1" ht="13">
-      <c r="A658" s="4"/>
-    </row>
-    <row r="659" spans="1:1" ht="13">
-      <c r="A659" s="4"/>
-    </row>
-    <row r="660" spans="1:1" ht="13">
-      <c r="A660" s="4"/>
-    </row>
-    <row r="661" spans="1:1" ht="13">
-      <c r="A661" s="4"/>
-    </row>
-    <row r="662" spans="1:1" ht="13">
-      <c r="A662" s="4"/>
-    </row>
-    <row r="663" spans="1:1" ht="13">
-      <c r="A663" s="4"/>
-    </row>
-    <row r="664" spans="1:1" ht="13">
-      <c r="A664" s="4"/>
-    </row>
-    <row r="665" spans="1:1" ht="13">
-      <c r="A665" s="4"/>
-    </row>
-    <row r="666" spans="1:1" ht="13">
-      <c r="A666" s="4"/>
-    </row>
-    <row r="667" spans="1:1" ht="13">
-      <c r="A667" s="4"/>
-    </row>
-    <row r="668" spans="1:1" ht="13">
-      <c r="A668" s="4"/>
-    </row>
-    <row r="669" spans="1:1" ht="13">
-      <c r="A669" s="4"/>
-    </row>
-    <row r="670" spans="1:1" ht="13">
-      <c r="A670" s="4"/>
-    </row>
-    <row r="671" spans="1:1" ht="13">
-      <c r="A671" s="4"/>
-    </row>
-    <row r="672" spans="1:1" ht="13">
-      <c r="A672" s="4"/>
-    </row>
-    <row r="673" spans="1:1" ht="13">
-      <c r="A673" s="4"/>
-    </row>
-    <row r="674" spans="1:1" ht="13">
-      <c r="A674" s="4"/>
-    </row>
-    <row r="675" spans="1:1" ht="13">
-      <c r="A675" s="4"/>
-    </row>
-    <row r="676" spans="1:1" ht="13">
-      <c r="A676" s="4"/>
-    </row>
-    <row r="677" spans="1:1" ht="13">
-      <c r="A677" s="4"/>
-    </row>
-    <row r="678" spans="1:1" ht="13">
-      <c r="A678" s="4"/>
-    </row>
-    <row r="679" spans="1:1" ht="13">
-      <c r="A679" s="4"/>
-    </row>
-    <row r="680" spans="1:1" ht="13">
-      <c r="A680" s="4"/>
-    </row>
-    <row r="681" spans="1:1" ht="13">
-      <c r="A681" s="4"/>
-    </row>
-    <row r="682" spans="1:1" ht="13">
-      <c r="A682" s="4"/>
-    </row>
-    <row r="683" spans="1:1" ht="13">
-      <c r="A683" s="4"/>
-    </row>
-    <row r="684" spans="1:1" ht="13">
-      <c r="A684" s="4"/>
-    </row>
-    <row r="685" spans="1:1" ht="13">
-      <c r="A685" s="4"/>
-    </row>
-    <row r="686" spans="1:1" ht="13">
-      <c r="A686" s="4"/>
-    </row>
-    <row r="687" spans="1:1" ht="13">
-      <c r="A687" s="4"/>
-    </row>
-    <row r="688" spans="1:1" ht="13">
-      <c r="A688" s="4"/>
-    </row>
-    <row r="689" spans="1:1" ht="13">
-      <c r="A689" s="4"/>
-    </row>
-    <row r="690" spans="1:1" ht="13">
-      <c r="A690" s="4"/>
-    </row>
-    <row r="691" spans="1:1" ht="13">
-      <c r="A691" s="4"/>
-    </row>
-    <row r="692" spans="1:1" ht="13">
-      <c r="A692" s="4"/>
-    </row>
-    <row r="693" spans="1:1" ht="13">
-      <c r="A693" s="4"/>
-    </row>
-    <row r="694" spans="1:1" ht="13">
-      <c r="A694" s="4"/>
-    </row>
-    <row r="695" spans="1:1" ht="13">
-      <c r="A695" s="4"/>
-    </row>
-    <row r="696" spans="1:1" ht="13">
-      <c r="A696" s="4"/>
-    </row>
-    <row r="697" spans="1:1" ht="13">
-      <c r="A697" s="4"/>
-    </row>
-    <row r="698" spans="1:1" ht="13">
-      <c r="A698" s="4"/>
-    </row>
-    <row r="699" spans="1:1" ht="13">
-      <c r="A699" s="4"/>
-    </row>
-    <row r="700" spans="1:1" ht="13">
-      <c r="A700" s="4"/>
-    </row>
-    <row r="701" spans="1:1" ht="13">
-      <c r="A701" s="4"/>
-    </row>
-    <row r="702" spans="1:1" ht="13">
-      <c r="A702" s="4"/>
-    </row>
-    <row r="703" spans="1:1" ht="13">
-      <c r="A703" s="4"/>
-    </row>
-    <row r="704" spans="1:1" ht="13">
-      <c r="A704" s="4"/>
-    </row>
-    <row r="705" spans="1:1" ht="13">
-      <c r="A705" s="4"/>
-    </row>
-    <row r="706" spans="1:1" ht="13">
-      <c r="A706" s="4"/>
-    </row>
-    <row r="707" spans="1:1" ht="13">
-      <c r="A707" s="4"/>
-    </row>
-    <row r="708" spans="1:1" ht="13">
-      <c r="A708" s="4"/>
-    </row>
-    <row r="709" spans="1:1" ht="13">
-      <c r="A709" s="4"/>
-    </row>
-    <row r="710" spans="1:1" ht="13">
-      <c r="A710" s="4"/>
-    </row>
-    <row r="711" spans="1:1" ht="13">
-      <c r="A711" s="4"/>
-    </row>
-    <row r="712" spans="1:1" ht="13">
-      <c r="A712" s="4"/>
-    </row>
-    <row r="713" spans="1:1" ht="13">
-      <c r="A713" s="4"/>
-    </row>
-    <row r="714" spans="1:1" ht="13">
-      <c r="A714" s="4"/>
-    </row>
-    <row r="715" spans="1:1" ht="13">
-      <c r="A715" s="4"/>
-    </row>
-    <row r="716" spans="1:1" ht="13">
-      <c r="A716" s="4"/>
-    </row>
-    <row r="717" spans="1:1" ht="13">
-      <c r="A717" s="4"/>
-    </row>
-    <row r="718" spans="1:1" ht="13">
-      <c r="A718" s="4"/>
-    </row>
-    <row r="719" spans="1:1" ht="13">
-      <c r="A719" s="4"/>
-    </row>
-    <row r="720" spans="1:1" ht="13">
-      <c r="A720" s="4"/>
-    </row>
-    <row r="721" spans="1:1" ht="13">
-      <c r="A721" s="4"/>
-    </row>
-    <row r="722" spans="1:1" ht="13">
-      <c r="A722" s="4"/>
-    </row>
-    <row r="723" spans="1:1" ht="13">
-      <c r="A723" s="4"/>
-    </row>
-    <row r="724" spans="1:1" ht="13">
-      <c r="A724" s="4"/>
-    </row>
-    <row r="725" spans="1:1" ht="13">
-      <c r="A725" s="4"/>
-    </row>
-    <row r="726" spans="1:1" ht="13">
-      <c r="A726" s="4"/>
-    </row>
-    <row r="727" spans="1:1" ht="13">
-      <c r="A727" s="4"/>
-    </row>
-    <row r="728" spans="1:1" ht="13">
-      <c r="A728" s="4"/>
-    </row>
-    <row r="729" spans="1:1" ht="13">
-      <c r="A729" s="4"/>
-    </row>
-    <row r="730" spans="1:1" ht="13">
-      <c r="A730" s="4"/>
-    </row>
-    <row r="731" spans="1:1" ht="13">
-      <c r="A731" s="4"/>
-    </row>
-    <row r="732" spans="1:1" ht="13">
-      <c r="A732" s="4"/>
-    </row>
-    <row r="733" spans="1:1" ht="13">
-      <c r="A733" s="4"/>
-    </row>
-    <row r="734" spans="1:1" ht="13">
-      <c r="A734" s="4"/>
-    </row>
-    <row r="735" spans="1:1" ht="13">
-      <c r="A735" s="4"/>
-    </row>
-    <row r="736" spans="1:1" ht="13">
-      <c r="A736" s="4"/>
-    </row>
-    <row r="737" spans="1:1" ht="13">
-      <c r="A737" s="4"/>
-    </row>
-    <row r="738" spans="1:1" ht="13">
-      <c r="A738" s="4"/>
-    </row>
-    <row r="739" spans="1:1" ht="13">
-      <c r="A739" s="4"/>
-    </row>
-    <row r="740" spans="1:1" ht="13">
-      <c r="A740" s="4"/>
-    </row>
-    <row r="741" spans="1:1" ht="13">
-      <c r="A741" s="4"/>
-    </row>
-    <row r="742" spans="1:1" ht="13">
-      <c r="A742" s="4"/>
-    </row>
-    <row r="743" spans="1:1" ht="13">
-      <c r="A743" s="4"/>
-    </row>
-    <row r="744" spans="1:1" ht="13">
-      <c r="A744" s="4"/>
-    </row>
-    <row r="745" spans="1:1" ht="13">
-      <c r="A745" s="4"/>
-    </row>
-    <row r="746" spans="1:1" ht="13">
-      <c r="A746" s="4"/>
-    </row>
-    <row r="747" spans="1:1" ht="13">
-      <c r="A747" s="4"/>
-    </row>
-    <row r="748" spans="1:1" ht="13">
-      <c r="A748" s="4"/>
-    </row>
-    <row r="749" spans="1:1" ht="13">
-      <c r="A749" s="4"/>
-    </row>
-    <row r="750" spans="1:1" ht="13">
-      <c r="A750" s="4"/>
-    </row>
-    <row r="751" spans="1:1" ht="13">
-      <c r="A751" s="4"/>
-    </row>
-    <row r="752" spans="1:1" ht="13">
-      <c r="A752" s="4"/>
-    </row>
-    <row r="753" spans="1:1" ht="13">
-      <c r="A753" s="4"/>
-    </row>
-    <row r="754" spans="1:1" ht="13">
-      <c r="A754" s="4"/>
-    </row>
-    <row r="755" spans="1:1" ht="13">
-      <c r="A755" s="4"/>
-    </row>
-    <row r="756" spans="1:1" ht="13">
-      <c r="A756" s="4"/>
-    </row>
-    <row r="757" spans="1:1" ht="13">
-      <c r="A757" s="4"/>
-    </row>
-    <row r="758" spans="1:1" ht="13">
-      <c r="A758" s="4"/>
-    </row>
-    <row r="759" spans="1:1" ht="13">
-      <c r="A759" s="4"/>
-    </row>
-    <row r="760" spans="1:1" ht="13">
-      <c r="A760" s="4"/>
-    </row>
-    <row r="761" spans="1:1" ht="13">
-      <c r="A761" s="4"/>
-    </row>
-    <row r="762" spans="1:1" ht="13">
-      <c r="A762" s="4"/>
-    </row>
-    <row r="763" spans="1:1" ht="13">
-      <c r="A763" s="4"/>
-    </row>
-    <row r="764" spans="1:1" ht="13">
-      <c r="A764" s="4"/>
-    </row>
-    <row r="765" spans="1:1" ht="13">
-      <c r="A765" s="4"/>
-    </row>
-    <row r="766" spans="1:1" ht="13">
-      <c r="A766" s="4"/>
-    </row>
-    <row r="767" spans="1:1" ht="13">
-      <c r="A767" s="4"/>
-    </row>
-    <row r="768" spans="1:1" ht="13">
-      <c r="A768" s="4"/>
-    </row>
-    <row r="769" spans="1:1" ht="13">
-      <c r="A769" s="4"/>
-    </row>
-    <row r="770" spans="1:1" ht="13">
-      <c r="A770" s="4"/>
-    </row>
-    <row r="771" spans="1:1" ht="13">
-      <c r="A771" s="4"/>
-    </row>
-    <row r="772" spans="1:1" ht="13">
-      <c r="A772" s="4"/>
-    </row>
-    <row r="773" spans="1:1" ht="13">
-      <c r="A773" s="4"/>
-    </row>
-    <row r="774" spans="1:1" ht="13">
-      <c r="A774" s="4"/>
-    </row>
-    <row r="775" spans="1:1" ht="13">
-      <c r="A775" s="4"/>
-    </row>
-    <row r="776" spans="1:1" ht="13">
-      <c r="A776" s="4"/>
-    </row>
-    <row r="777" spans="1:1" ht="13">
-      <c r="A777" s="4"/>
-    </row>
-    <row r="778" spans="1:1" ht="13">
-      <c r="A778" s="4"/>
-    </row>
-    <row r="779" spans="1:1" ht="13">
-      <c r="A779" s="4"/>
-    </row>
-    <row r="780" spans="1:1" ht="13">
-      <c r="A780" s="4"/>
-    </row>
-    <row r="781" spans="1:1" ht="13">
-      <c r="A781" s="4"/>
-    </row>
-    <row r="782" spans="1:1" ht="13">
-      <c r="A782" s="4"/>
-    </row>
-    <row r="783" spans="1:1" ht="13">
-      <c r="A783" s="4"/>
-    </row>
-    <row r="784" spans="1:1" ht="13">
-      <c r="A784" s="4"/>
-    </row>
-    <row r="785" spans="1:1" ht="13">
-      <c r="A785" s="4"/>
-    </row>
-    <row r="786" spans="1:1" ht="13">
-      <c r="A786" s="4"/>
-    </row>
-    <row r="787" spans="1:1" ht="13">
-      <c r="A787" s="4"/>
-    </row>
-    <row r="788" spans="1:1" ht="13">
-      <c r="A788" s="4"/>
-    </row>
-    <row r="789" spans="1:1" ht="13">
-      <c r="A789" s="4"/>
-    </row>
-    <row r="790" spans="1:1" ht="13">
-      <c r="A790" s="4"/>
-    </row>
-    <row r="791" spans="1:1" ht="13">
-      <c r="A791" s="4"/>
-    </row>
-    <row r="792" spans="1:1" ht="13">
-      <c r="A792" s="4"/>
-    </row>
-    <row r="793" spans="1:1" ht="13">
-      <c r="A793" s="4"/>
-    </row>
-    <row r="794" spans="1:1" ht="13">
-      <c r="A794" s="4"/>
-    </row>
-    <row r="795" spans="1:1" ht="13">
-      <c r="A795" s="4"/>
-    </row>
-    <row r="796" spans="1:1" ht="13">
-      <c r="A796" s="4"/>
-    </row>
-    <row r="797" spans="1:1" ht="13">
-      <c r="A797" s="4"/>
-    </row>
-    <row r="798" spans="1:1" ht="13">
-      <c r="A798" s="4"/>
-    </row>
-    <row r="799" spans="1:1" ht="13">
-      <c r="A799" s="4"/>
-    </row>
-    <row r="800" spans="1:1" ht="13">
-      <c r="A800" s="4"/>
-    </row>
-    <row r="801" spans="1:1" ht="13">
-      <c r="A801" s="4"/>
-    </row>
-    <row r="802" spans="1:1" ht="13">
-      <c r="A802" s="4"/>
-    </row>
-    <row r="803" spans="1:1" ht="13">
-      <c r="A803" s="4"/>
-    </row>
-    <row r="804" spans="1:1" ht="13">
-      <c r="A804" s="4"/>
-    </row>
-    <row r="805" spans="1:1" ht="13">
-      <c r="A805" s="4"/>
-    </row>
-    <row r="806" spans="1:1" ht="13">
-      <c r="A806" s="4"/>
-    </row>
-    <row r="807" spans="1:1" ht="13">
-      <c r="A807" s="4"/>
-    </row>
-    <row r="808" spans="1:1" ht="13">
-      <c r="A808" s="4"/>
-    </row>
-    <row r="809" spans="1:1" ht="13">
-      <c r="A809" s="4"/>
-    </row>
-    <row r="810" spans="1:1" ht="13">
-      <c r="A810" s="4"/>
-    </row>
-    <row r="811" spans="1:1" ht="13">
-      <c r="A811" s="4"/>
-    </row>
-    <row r="812" spans="1:1" ht="13">
-      <c r="A812" s="4"/>
-    </row>
-    <row r="813" spans="1:1" ht="13">
-      <c r="A813" s="4"/>
-    </row>
-    <row r="814" spans="1:1" ht="13">
-      <c r="A814" s="4"/>
-    </row>
-    <row r="815" spans="1:1" ht="13">
-      <c r="A815" s="4"/>
-    </row>
-    <row r="816" spans="1:1" ht="13">
-      <c r="A816" s="4"/>
-    </row>
-    <row r="817" spans="1:1" ht="13">
-      <c r="A817" s="4"/>
-    </row>
-    <row r="818" spans="1:1" ht="13">
-      <c r="A818" s="4"/>
-    </row>
-    <row r="819" spans="1:1" ht="13">
-      <c r="A819" s="4"/>
-    </row>
-    <row r="820" spans="1:1" ht="13">
-      <c r="A820" s="4"/>
-    </row>
-    <row r="821" spans="1:1" ht="13">
-      <c r="A821" s="4"/>
-    </row>
-    <row r="822" spans="1:1" ht="13">
-      <c r="A822" s="4"/>
-    </row>
-    <row r="823" spans="1:1" ht="13">
-      <c r="A823" s="4"/>
-    </row>
-    <row r="824" spans="1:1" ht="13">
-      <c r="A824" s="4"/>
-    </row>
-    <row r="825" spans="1:1" ht="13">
-      <c r="A825" s="4"/>
-    </row>
-    <row r="826" spans="1:1" ht="13">
-      <c r="A826" s="4"/>
-    </row>
-    <row r="827" spans="1:1" ht="13">
-      <c r="A827" s="4"/>
-    </row>
-    <row r="828" spans="1:1" ht="13">
-      <c r="A828" s="4"/>
-    </row>
-    <row r="829" spans="1:1" ht="13">
-      <c r="A829" s="4"/>
-    </row>
-    <row r="830" spans="1:1" ht="13">
-      <c r="A830" s="4"/>
-    </row>
-    <row r="831" spans="1:1" ht="13">
-      <c r="A831" s="4"/>
-    </row>
-    <row r="832" spans="1:1" ht="13">
-      <c r="A832" s="4"/>
-    </row>
-    <row r="833" spans="1:1" ht="13">
-      <c r="A833" s="4"/>
-    </row>
-    <row r="834" spans="1:1" ht="13">
-      <c r="A834" s="4"/>
-    </row>
-    <row r="835" spans="1:1" ht="13">
-      <c r="A835" s="4"/>
-    </row>
-    <row r="836" spans="1:1" ht="13">
-      <c r="A836" s="4"/>
-    </row>
-    <row r="837" spans="1:1" ht="13">
-      <c r="A837" s="4"/>
-    </row>
-    <row r="838" spans="1:1" ht="13">
-      <c r="A838" s="4"/>
-    </row>
-    <row r="839" spans="1:1" ht="13">
-      <c r="A839" s="4"/>
-    </row>
-    <row r="840" spans="1:1" ht="13">
-      <c r="A840" s="4"/>
-    </row>
-    <row r="841" spans="1:1" ht="13">
-      <c r="A841" s="4"/>
-    </row>
-    <row r="842" spans="1:1" ht="13">
-      <c r="A842" s="4"/>
-    </row>
-    <row r="843" spans="1:1" ht="13">
-      <c r="A843" s="4"/>
-    </row>
-    <row r="844" spans="1:1" ht="13">
-      <c r="A844" s="4"/>
-    </row>
-    <row r="845" spans="1:1" ht="13">
-      <c r="A845" s="4"/>
-    </row>
-    <row r="846" spans="1:1" ht="13">
-      <c r="A846" s="4"/>
-    </row>
-    <row r="847" spans="1:1" ht="13">
-      <c r="A847" s="4"/>
-    </row>
-    <row r="848" spans="1:1" ht="13">
-      <c r="A848" s="4"/>
-    </row>
-    <row r="849" spans="1:1" ht="13">
-      <c r="A849" s="4"/>
-    </row>
-    <row r="850" spans="1:1" ht="13">
-      <c r="A850" s="4"/>
-    </row>
-    <row r="851" spans="1:1" ht="13">
-      <c r="A851" s="4"/>
-    </row>
-    <row r="852" spans="1:1" ht="13">
-      <c r="A852" s="4"/>
-    </row>
-    <row r="853" spans="1:1" ht="13">
-      <c r="A853" s="4"/>
-    </row>
-    <row r="854" spans="1:1" ht="13">
-      <c r="A854" s="4"/>
-    </row>
-    <row r="855" spans="1:1" ht="13">
-      <c r="A855" s="4"/>
-    </row>
-    <row r="856" spans="1:1" ht="13">
-      <c r="A856" s="4"/>
-    </row>
-    <row r="857" spans="1:1" ht="13">
-      <c r="A857" s="4"/>
-    </row>
-    <row r="858" spans="1:1" ht="13">
-      <c r="A858" s="4"/>
-    </row>
-    <row r="859" spans="1:1" ht="13">
-      <c r="A859" s="4"/>
-    </row>
-    <row r="860" spans="1:1" ht="13">
-      <c r="A860" s="4"/>
-    </row>
-    <row r="861" spans="1:1" ht="13">
-      <c r="A861" s="4"/>
-    </row>
-    <row r="862" spans="1:1" ht="13">
-      <c r="A862" s="4"/>
-    </row>
-    <row r="863" spans="1:1" ht="13">
-      <c r="A863" s="4"/>
-    </row>
-    <row r="864" spans="1:1" ht="13">
-      <c r="A864" s="4"/>
-    </row>
-    <row r="865" spans="1:1" ht="13">
-      <c r="A865" s="4"/>
-    </row>
-    <row r="866" spans="1:1" ht="13">
-      <c r="A866" s="4"/>
-    </row>
-    <row r="867" spans="1:1" ht="13">
-      <c r="A867" s="4"/>
-    </row>
-    <row r="868" spans="1:1" ht="13">
-      <c r="A868" s="4"/>
-    </row>
-    <row r="869" spans="1:1" ht="13">
-      <c r="A869" s="4"/>
-    </row>
-    <row r="870" spans="1:1" ht="13">
-      <c r="A870" s="4"/>
-    </row>
-    <row r="871" spans="1:1" ht="13">
-      <c r="A871" s="4"/>
-    </row>
-    <row r="872" spans="1:1" ht="13">
-      <c r="A872" s="4"/>
-    </row>
-    <row r="873" spans="1:1" ht="13">
-      <c r="A873" s="4"/>
-    </row>
-    <row r="874" spans="1:1" ht="13">
-      <c r="A874" s="4"/>
-    </row>
-    <row r="875" spans="1:1" ht="13">
-      <c r="A875" s="4"/>
-    </row>
-    <row r="876" spans="1:1" ht="13">
-      <c r="A876" s="4"/>
-    </row>
-    <row r="877" spans="1:1" ht="13">
-      <c r="A877" s="4"/>
-    </row>
-    <row r="878" spans="1:1" ht="13">
-      <c r="A878" s="4"/>
-    </row>
-    <row r="879" spans="1:1" ht="13">
-      <c r="A879" s="4"/>
-    </row>
-    <row r="880" spans="1:1" ht="13">
-      <c r="A880" s="4"/>
-    </row>
-    <row r="881" spans="1:1" ht="13">
-      <c r="A881" s="4"/>
-    </row>
-    <row r="882" spans="1:1" ht="13">
-      <c r="A882" s="4"/>
-    </row>
-    <row r="883" spans="1:1" ht="13">
-      <c r="A883" s="4"/>
-    </row>
-    <row r="884" spans="1:1" ht="13">
-      <c r="A884" s="4"/>
-    </row>
-    <row r="885" spans="1:1" ht="13">
-      <c r="A885" s="4"/>
-    </row>
-    <row r="886" spans="1:1" ht="13">
-      <c r="A886" s="4"/>
-    </row>
-    <row r="887" spans="1:1" ht="13">
-      <c r="A887" s="4"/>
-    </row>
-    <row r="888" spans="1:1" ht="13">
-      <c r="A888" s="4"/>
-    </row>
-    <row r="889" spans="1:1" ht="13">
-      <c r="A889" s="4"/>
-    </row>
-    <row r="890" spans="1:1" ht="13">
-      <c r="A890" s="4"/>
-    </row>
-    <row r="891" spans="1:1" ht="13">
-      <c r="A891" s="4"/>
-    </row>
-    <row r="892" spans="1:1" ht="13">
-      <c r="A892" s="4"/>
-    </row>
-    <row r="893" spans="1:1" ht="13">
-      <c r="A893" s="4"/>
-    </row>
-    <row r="894" spans="1:1" ht="13">
-      <c r="A894" s="4"/>
-    </row>
-    <row r="895" spans="1:1" ht="13">
-      <c r="A895" s="4"/>
-    </row>
-    <row r="896" spans="1:1" ht="13">
-      <c r="A896" s="4"/>
-    </row>
-    <row r="897" spans="1:1" ht="13">
-      <c r="A897" s="4"/>
-    </row>
-    <row r="898" spans="1:1" ht="13">
-      <c r="A898" s="4"/>
-    </row>
-    <row r="899" spans="1:1" ht="13">
-      <c r="A899" s="4"/>
-    </row>
-    <row r="900" spans="1:1" ht="13">
-      <c r="A900" s="4"/>
-    </row>
-    <row r="901" spans="1:1" ht="13">
-      <c r="A901" s="4"/>
-    </row>
-    <row r="902" spans="1:1" ht="13">
-      <c r="A902" s="4"/>
-    </row>
-    <row r="903" spans="1:1" ht="13">
-      <c r="A903" s="4"/>
-    </row>
-    <row r="904" spans="1:1" ht="13">
-      <c r="A904" s="4"/>
-    </row>
-    <row r="905" spans="1:1" ht="13">
-      <c r="A905" s="4"/>
-    </row>
-    <row r="906" spans="1:1" ht="13">
-      <c r="A906" s="4"/>
-    </row>
-    <row r="907" spans="1:1" ht="13">
-      <c r="A907" s="4"/>
-    </row>
-    <row r="908" spans="1:1" ht="13">
-      <c r="A908" s="4"/>
-    </row>
-    <row r="909" spans="1:1" ht="13">
-      <c r="A909" s="4"/>
-    </row>
-    <row r="910" spans="1:1" ht="13">
-      <c r="A910" s="4"/>
-    </row>
-    <row r="911" spans="1:1" ht="13">
-      <c r="A911" s="4"/>
-    </row>
-    <row r="912" spans="1:1" ht="13">
-      <c r="A912" s="4"/>
-    </row>
-    <row r="913" spans="1:1" ht="13">
-      <c r="A913" s="4"/>
-    </row>
-    <row r="914" spans="1:1" ht="13">
-      <c r="A914" s="4"/>
-    </row>
-    <row r="915" spans="1:1" ht="13">
-      <c r="A915" s="4"/>
-    </row>
-    <row r="916" spans="1:1" ht="13">
-      <c r="A916" s="4"/>
-    </row>
-    <row r="917" spans="1:1" ht="13">
-      <c r="A917" s="4"/>
-    </row>
-    <row r="918" spans="1:1" ht="13">
-      <c r="A918" s="4"/>
-    </row>
-    <row r="919" spans="1:1" ht="13">
-      <c r="A919" s="4"/>
-    </row>
-    <row r="920" spans="1:1" ht="13">
-      <c r="A920" s="4"/>
-    </row>
-    <row r="921" spans="1:1" ht="13">
-      <c r="A921" s="4"/>
-    </row>
-    <row r="922" spans="1:1" ht="13">
-      <c r="A922" s="4"/>
-    </row>
-    <row r="923" spans="1:1" ht="13">
-      <c r="A923" s="4"/>
-    </row>
-    <row r="924" spans="1:1" ht="13">
-      <c r="A924" s="4"/>
-    </row>
-    <row r="925" spans="1:1" ht="13">
-      <c r="A925" s="4"/>
-    </row>
-    <row r="926" spans="1:1" ht="13">
-      <c r="A926" s="4"/>
-    </row>
-    <row r="927" spans="1:1" ht="13">
-      <c r="A927" s="4"/>
-    </row>
-    <row r="928" spans="1:1" ht="13">
-      <c r="A928" s="4"/>
-    </row>
-    <row r="929" spans="1:1" ht="13">
-      <c r="A929" s="4"/>
-    </row>
-    <row r="930" spans="1:1" ht="13">
-      <c r="A930" s="4"/>
-    </row>
-    <row r="931" spans="1:1" ht="13">
-      <c r="A931" s="4"/>
-    </row>
-    <row r="932" spans="1:1" ht="13">
-      <c r="A932" s="4"/>
-    </row>
-    <row r="933" spans="1:1" ht="13">
-      <c r="A933" s="4"/>
-    </row>
-    <row r="934" spans="1:1" ht="13">
-      <c r="A934" s="4"/>
-    </row>
-    <row r="935" spans="1:1" ht="13">
-      <c r="A935" s="4"/>
-    </row>
-    <row r="936" spans="1:1" ht="13">
-      <c r="A936" s="4"/>
-    </row>
-    <row r="937" spans="1:1" ht="13">
-      <c r="A937" s="4"/>
-    </row>
-    <row r="938" spans="1:1" ht="13">
-      <c r="A938" s="4"/>
-    </row>
-    <row r="939" spans="1:1" ht="13">
-      <c r="A939" s="4"/>
-    </row>
-    <row r="940" spans="1:1" ht="13">
-      <c r="A940" s="4"/>
-    </row>
-    <row r="941" spans="1:1" ht="13">
-      <c r="A941" s="4"/>
-    </row>
-    <row r="942" spans="1:1" ht="13">
-      <c r="A942" s="4"/>
-    </row>
-    <row r="943" spans="1:1" ht="13">
-      <c r="A943" s="4"/>
-    </row>
-    <row r="944" spans="1:1" ht="13">
-      <c r="A944" s="4"/>
-    </row>
-    <row r="945" spans="1:1" ht="13">
-      <c r="A945" s="4"/>
-    </row>
-    <row r="946" spans="1:1" ht="13">
-      <c r="A946" s="4"/>
-    </row>
-    <row r="947" spans="1:1" ht="13">
-      <c r="A947" s="4"/>
-    </row>
-    <row r="948" spans="1:1" ht="13">
-      <c r="A948" s="4"/>
-    </row>
-    <row r="949" spans="1:1" ht="13">
-      <c r="A949" s="4"/>
-    </row>
-    <row r="950" spans="1:1" ht="13">
-      <c r="A950" s="4"/>
-    </row>
-    <row r="951" spans="1:1" ht="13">
-      <c r="A951" s="4"/>
-    </row>
-    <row r="952" spans="1:1" ht="13">
-      <c r="A952" s="4"/>
-    </row>
-    <row r="953" spans="1:1" ht="13">
-      <c r="A953" s="4"/>
-    </row>
-    <row r="954" spans="1:1" ht="13">
-      <c r="A954" s="4"/>
-    </row>
-    <row r="955" spans="1:1" ht="13">
-      <c r="A955" s="4"/>
-    </row>
-    <row r="956" spans="1:1" ht="13">
-      <c r="A956" s="4"/>
-    </row>
-    <row r="957" spans="1:1" ht="13">
-      <c r="A957" s="4"/>
-    </row>
-    <row r="958" spans="1:1" ht="13">
-      <c r="A958" s="4"/>
-    </row>
-    <row r="959" spans="1:1" ht="13">
-      <c r="A959" s="4"/>
-    </row>
-    <row r="960" spans="1:1" ht="13">
-      <c r="A960" s="4"/>
-    </row>
-    <row r="961" spans="1:1" ht="13">
-      <c r="A961" s="4"/>
-    </row>
-    <row r="962" spans="1:1" ht="13">
-      <c r="A962" s="4"/>
-    </row>
-    <row r="963" spans="1:1" ht="13">
-      <c r="A963" s="4"/>
-    </row>
-    <row r="964" spans="1:1" ht="13">
-      <c r="A964" s="4"/>
-    </row>
-    <row r="965" spans="1:1" ht="13">
-      <c r="A965" s="4"/>
-    </row>
-    <row r="966" spans="1:1" ht="13">
-      <c r="A966" s="4"/>
-    </row>
-    <row r="967" spans="1:1" ht="13">
-      <c r="A967" s="4"/>
-    </row>
-    <row r="968" spans="1:1" ht="13">
-      <c r="A968" s="4"/>
-    </row>
-    <row r="969" spans="1:1" ht="13">
-      <c r="A969" s="4"/>
-    </row>
-    <row r="970" spans="1:1" ht="13">
-      <c r="A970" s="4"/>
-    </row>
-    <row r="971" spans="1:1" ht="13">
-      <c r="A971" s="4"/>
-    </row>
-    <row r="972" spans="1:1" ht="13">
-      <c r="A972" s="4"/>
-    </row>
-    <row r="973" spans="1:1" ht="13">
-      <c r="A973" s="4"/>
-    </row>
-    <row r="974" spans="1:1" ht="13">
-      <c r="A974" s="4"/>
-    </row>
-    <row r="975" spans="1:1" ht="13">
-      <c r="A975" s="4"/>
-    </row>
-    <row r="976" spans="1:1" ht="13">
-      <c r="A976" s="4"/>
-    </row>
-    <row r="977" spans="1:1" ht="13">
-      <c r="A977" s="4"/>
-    </row>
-    <row r="978" spans="1:1" ht="13">
-      <c r="A978" s="4"/>
-    </row>
-    <row r="979" spans="1:1" ht="13">
-      <c r="A979" s="4"/>
-    </row>
-    <row r="980" spans="1:1" ht="13">
-      <c r="A980" s="4"/>
-    </row>
-    <row r="981" spans="1:1" ht="13">
-      <c r="A981" s="4"/>
-    </row>
-    <row r="982" spans="1:1" ht="13">
-      <c r="A982" s="4"/>
-    </row>
-    <row r="983" spans="1:1" ht="13">
-      <c r="A983" s="4"/>
-    </row>
-    <row r="984" spans="1:1" ht="13">
-      <c r="A984" s="4"/>
-    </row>
-    <row r="985" spans="1:1" ht="13">
-      <c r="A985" s="4"/>
-    </row>
-    <row r="986" spans="1:1" ht="13">
-      <c r="A986" s="4"/>
-    </row>
-    <row r="987" spans="1:1" ht="13">
-      <c r="A987" s="4"/>
-    </row>
-    <row r="988" spans="1:1" ht="13">
-      <c r="A988" s="4"/>
-    </row>
-    <row r="989" spans="1:1" ht="13">
-      <c r="A989" s="4"/>
-    </row>
-    <row r="990" spans="1:1" ht="13">
-      <c r="A990" s="4"/>
-    </row>
-    <row r="991" spans="1:1" ht="13">
-      <c r="A991" s="4"/>
-    </row>
-    <row r="992" spans="1:1" ht="13">
-      <c r="A992" s="4"/>
-    </row>
-    <row r="993" spans="1:1" ht="13">
-      <c r="A993" s="4"/>
-    </row>
-    <row r="994" spans="1:1" ht="13">
-      <c r="A994" s="4"/>
-    </row>
-    <row r="995" spans="1:1" ht="13">
-      <c r="A995" s="4"/>
-    </row>
-    <row r="996" spans="1:1" ht="13">
-      <c r="A996" s="4"/>
-    </row>
-    <row r="997" spans="1:1" ht="13">
-      <c r="A997" s="4"/>
-    </row>
-    <row r="998" spans="1:1" ht="13">
-      <c r="A998" s="4"/>
-    </row>
-    <row r="999" spans="1:1" ht="13">
-      <c r="A999" s="4"/>
-    </row>
-    <row r="1000" spans="1:1" ht="13">
-      <c r="A1000" s="4"/>
-    </row>
-    <row r="1001" spans="1:1" ht="13">
-      <c r="A1001" s="4"/>
-    </row>
-    <row r="1002" spans="1:1" ht="13">
-      <c r="A1002" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BC4ED6-2EE9-C049-B2B4-E4F28749A6CE}">
   <dimension ref="A1:G21"/>
@@ -7929,170 +4653,170 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="24"/>
+    <col min="1" max="1" width="17.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>145</v>
+      <c r="A1" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="24">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="24">
+      <c r="B2" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="19">
         <v>13</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="24">
+      <c r="D2" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="19">
         <v>6</v>
       </c>
-      <c r="G2" s="25" t="str" cm="1">
+      <c r="G2" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v>lysine-[13C6]</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="G3" s="25" t="str" cm="1">
+      <c r="G3" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="G4" s="25" t="str" cm="1">
+      <c r="G4" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="G5" s="25" t="str" cm="1">
+      <c r="G5" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="G6" s="25" t="str" cm="1">
+      <c r="G6" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="G7" s="25" t="str" cm="1">
+      <c r="G7" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="G8" s="25" t="str" cm="1">
+      <c r="G8" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="G9" s="25" t="str" cm="1">
+      <c r="G9" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="G10" s="25" t="str" cm="1">
+      <c r="G10" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="G11" s="25" t="str" cm="1">
+      <c r="G11" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="G12" s="25" t="str" cm="1">
+      <c r="G12" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="G12" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="G13" s="25" t="str" cm="1">
+      <c r="G13" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="G13" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="G14" s="25" t="str" cm="1">
+      <c r="G14" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="G14" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="G15" s="25" t="str" cm="1">
+      <c r="G15" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="G15" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="G16" s="25" t="str" cm="1">
+      <c r="G16" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="G16" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="7:7">
-      <c r="G17" s="25" t="str" cm="1">
+      <c r="G17" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="G17" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="7:7">
-      <c r="G18" s="25" t="str" cm="1">
+      <c r="G18" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="G18" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="7:7">
-      <c r="G19" s="25" t="str" cm="1">
+      <c r="G19" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="7:7">
-      <c r="G20" s="25" t="str" cm="1">
+      <c r="G20" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="G20" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="7:7">
-      <c r="G21" s="25" t="str" cm="1">
+      <c r="G21" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="G21" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
@@ -8133,156 +4857,156 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="24"/>
+    <col min="1" max="1" width="19.1640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>150</v>
+      <c r="A1" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="24">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="20">
+      <c r="C2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="15">
         <v>23.2</v>
       </c>
-      <c r="E2" s="25" t="str" cm="1">
+      <c r="E2" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v>lysine-[13C6][23.2]</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="E3" s="25" t="str" cm="1">
+      <c r="E3" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="E4" s="25" t="str" cm="1">
+      <c r="E4" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="E5" s="25" t="str" cm="1">
+      <c r="E5" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="E6" s="25" t="str" cm="1">
+      <c r="E6" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="E7" s="25" t="str" cm="1">
+      <c r="E7" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="E8" s="25" t="str" cm="1">
+      <c r="E8" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="E9" s="25" t="str" cm="1">
+      <c r="E9" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="E10" s="25" t="str" cm="1">
+      <c r="E10" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="E10" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="E11" s="25" t="str" cm="1">
+      <c r="E11" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="E12" s="25" t="str" cm="1">
+      <c r="E12" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="E13" s="25" t="str" cm="1">
+      <c r="E13" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="E13" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="E14" s="25" t="str" cm="1">
+      <c r="E14" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="E14" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="E15" s="25" t="str" cm="1">
+      <c r="E15" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="E15" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="E16" s="25" t="str" cm="1">
+      <c r="E16" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="E16" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="5:5">
-      <c r="E17" s="25" t="str" cm="1">
+      <c r="E17" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="E17" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="5:5">
-      <c r="E18" s="25" t="str" cm="1">
+      <c r="E18" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="5:5">
-      <c r="E19" s="25" t="str" cm="1">
+      <c r="E19" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="E19" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="5:5">
-      <c r="E20" s="25" t="str" cm="1">
+      <c r="E20" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="E20" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="5:5">
-      <c r="E21" s="25" t="str" cm="1">
+      <c r="E21" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="E21" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
@@ -8344,13 +5068,13 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -8362,10 +5086,10 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
@@ -8373,25 +5097,25 @@
         <v>971</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C2">
         <v>26.3</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>113</v>
+      <c r="D2" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="E2">
         <v>0.11</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" ht="13"/>
@@ -9350,7 +6074,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>4</v>
@@ -9365,7 +6089,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
@@ -9384,13 +6108,13 @@
     </row>
     <row r="2" spans="1:30" ht="15.75" customHeight="1">
       <c r="A2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>87</v>
+        <v>71</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -9414,13 +6138,13 @@
     </row>
     <row r="3" spans="1:30" ht="15.75" customHeight="1">
       <c r="A3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>87</v>
+        <v>74</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -9444,13 +6168,13 @@
     </row>
     <row r="4" spans="1:30" ht="15.75" customHeight="1">
       <c r="A4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>87</v>
+        <v>75</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -9474,13 +6198,13 @@
     </row>
     <row r="5" spans="1:30" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>87</v>
+        <v>76</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -9504,13 +6228,13 @@
     </row>
     <row r="6" spans="1:30" ht="15.75" customHeight="1">
       <c r="A6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>87</v>
+        <v>77</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -9534,13 +6258,13 @@
     </row>
     <row r="7" spans="1:30" ht="15.75" customHeight="1">
       <c r="A7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>87</v>
+        <v>78</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -9564,13 +6288,13 @@
     </row>
     <row r="8" spans="1:30" ht="15.75" customHeight="1">
       <c r="A8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>87</v>
+        <v>79</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -9594,13 +6318,13 @@
     </row>
     <row r="9" spans="1:30" ht="15.75" customHeight="1">
       <c r="A9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>87</v>
+        <v>80</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -9624,13 +6348,13 @@
     </row>
     <row r="10" spans="1:30" ht="15.75" customHeight="1">
       <c r="A10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>87</v>
+        <v>81</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -9654,13 +6378,13 @@
     </row>
     <row r="11" spans="1:30" ht="15.75" customHeight="1">
       <c r="A11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>87</v>
+        <v>82</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -9684,13 +6408,13 @@
     </row>
     <row r="12" spans="1:30" ht="15.75" customHeight="1">
       <c r="A12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -9714,13 +6438,13 @@
     </row>
     <row r="13" spans="1:30" ht="15.75" customHeight="1">
       <c r="A13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
         <v>29</v>
@@ -9744,13 +6468,13 @@
     </row>
     <row r="14" spans="1:30" ht="15.75" customHeight="1">
       <c r="A14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
         <v>31</v>
@@ -9774,13 +6498,13 @@
     </row>
     <row r="15" spans="1:30" ht="15.75" customHeight="1">
       <c r="A15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
         <v>39</v>
@@ -9804,13 +6528,13 @@
     </row>
     <row r="16" spans="1:30" ht="15.75" customHeight="1">
       <c r="A16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>103</v>
+        <v>87</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
         <v>46</v>
@@ -9834,13 +6558,13 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1">
       <c r="A17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
@@ -27601,45 +24325,45 @@
     <col min="1" max="1" width="47" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14">
-      <c r="A1" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>130</v>
+      <c r="A1" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="20" t="s">
-        <v>119</v>
+      <c r="A2" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>133</v>
+        <v>116</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -27678,25 +24402,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14">
-      <c r="A1" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>136</v>
+      <c r="A1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>119</v>
+      <c r="A2" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -27723,264 +24447,264 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14">
-      <c r="A1" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="A1" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>124</v>
+      <c r="F1" s="17" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>119</v>
+        <v>110</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>119</v>
+        <v>110</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>119</v>
+        <v>110</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>119</v>
+        <v>110</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>119</v>
+        <v>110</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>119</v>
+        <v>110</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>119</v>
+        <v>110</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>119</v>
+        <v>110</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>119</v>
+        <v>110</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>119</v>
+        <v>110</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>119</v>
+        <v>110</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>119</v>
+        <v>110</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>125</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>119</v>
+        <v>110</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>119</v>
+        <v>110</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>119</v>
+        <v>110</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="20" t="s">
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D17" t="s">
-        <v>125</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>351</v>
+      <c r="F18" s="15" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -28059,15 +24783,15 @@
         <v>9</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>165</v>
+        <v>68</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
